--- a/Tabulados/Patrones.xlsx
+++ b/Tabulados/Patrones.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20372"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arturo.carrillo\Documents\GitHub\SIE\Tabulados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\UEF\Actualizaciones pagina\Tabulados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F04A912D-D25C-4F42-8EE2-364C35E330FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" tabRatio="848" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6345" tabRatio="848"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen Gral 08-21" sheetId="1" r:id="rId1"/>
@@ -33,7 +32,7 @@
     <definedName name="rowNest1" localSheetId="9">'2016'!$Q$13</definedName>
     <definedName name="sortIcon" localSheetId="9">'2016'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -207,22 +206,22 @@
     <t>2008-2021</t>
   </si>
   <si>
-    <t>Var Feb 2021 respecto a Ene 2021</t>
+    <t>Var Mar 2021 respecto a Feb 2021</t>
   </si>
   <si>
-    <t>Var Feb 2021 respecto a Dic 2020</t>
+    <t>Var Mar 2021 respecto a Dic 2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="45" x14ac:knownFonts="1">
+  <fonts count="46" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -514,6 +513,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="39">
@@ -1126,7 +1131,7 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1356,6 +1361,15 @@
     <xf numFmtId="2" fontId="16" fillId="34" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="13" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -1389,182 +1403,185 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="1" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="2" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="36" borderId="1" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="3" fontId="45" fillId="35" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="45" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="237">
     <cellStyle name="20% - Énfasis1" xfId="1" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis1 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="20% - Énfasis1 2 2" xfId="166" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="20% - Énfasis1 3" xfId="70" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="20% - Énfasis1 3 2" xfId="181" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="20% - Énfasis1 4" xfId="85" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="20% - Énfasis1 4 2" xfId="196" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="20% - Énfasis1 5" xfId="99" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="20% - Énfasis1 5 2" xfId="210" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="20% - Énfasis1 6" xfId="113" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="20% - Énfasis1 6 2" xfId="224" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="20% - Énfasis1 7" xfId="130" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="20% - Énfasis1 2" xfId="55"/>
+    <cellStyle name="20% - Énfasis1 2 2" xfId="166"/>
+    <cellStyle name="20% - Énfasis1 3" xfId="70"/>
+    <cellStyle name="20% - Énfasis1 3 2" xfId="181"/>
+    <cellStyle name="20% - Énfasis1 4" xfId="85"/>
+    <cellStyle name="20% - Énfasis1 4 2" xfId="196"/>
+    <cellStyle name="20% - Énfasis1 5" xfId="99"/>
+    <cellStyle name="20% - Énfasis1 5 2" xfId="210"/>
+    <cellStyle name="20% - Énfasis1 6" xfId="113"/>
+    <cellStyle name="20% - Énfasis1 6 2" xfId="224"/>
+    <cellStyle name="20% - Énfasis1 7" xfId="130"/>
     <cellStyle name="20% - Énfasis2" xfId="2" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2 2" xfId="57" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="20% - Énfasis2 2 2" xfId="168" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="20% - Énfasis2 3" xfId="72" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="20% - Énfasis2 3 2" xfId="183" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="20% - Énfasis2 4" xfId="87" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="20% - Énfasis2 4 2" xfId="198" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="20% - Énfasis2 5" xfId="101" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="20% - Énfasis2 5 2" xfId="212" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="20% - Énfasis2 6" xfId="115" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="20% - Énfasis2 6 2" xfId="226" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="20% - Énfasis2 7" xfId="133" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="20% - Énfasis2 2" xfId="57"/>
+    <cellStyle name="20% - Énfasis2 2 2" xfId="168"/>
+    <cellStyle name="20% - Énfasis2 3" xfId="72"/>
+    <cellStyle name="20% - Énfasis2 3 2" xfId="183"/>
+    <cellStyle name="20% - Énfasis2 4" xfId="87"/>
+    <cellStyle name="20% - Énfasis2 4 2" xfId="198"/>
+    <cellStyle name="20% - Énfasis2 5" xfId="101"/>
+    <cellStyle name="20% - Énfasis2 5 2" xfId="212"/>
+    <cellStyle name="20% - Énfasis2 6" xfId="115"/>
+    <cellStyle name="20% - Énfasis2 6 2" xfId="226"/>
+    <cellStyle name="20% - Énfasis2 7" xfId="133"/>
     <cellStyle name="20% - Énfasis3" xfId="3" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3 2" xfId="59" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="20% - Énfasis3 2 2" xfId="170" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="20% - Énfasis3 3" xfId="74" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="20% - Énfasis3 3 2" xfId="185" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="20% - Énfasis3 4" xfId="89" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="20% - Énfasis3 4 2" xfId="200" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="20% - Énfasis3 5" xfId="103" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="20% - Énfasis3 5 2" xfId="214" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="20% - Énfasis3 6" xfId="117" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="20% - Énfasis3 6 2" xfId="228" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="20% - Énfasis3 7" xfId="136" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="20% - Énfasis3 2" xfId="59"/>
+    <cellStyle name="20% - Énfasis3 2 2" xfId="170"/>
+    <cellStyle name="20% - Énfasis3 3" xfId="74"/>
+    <cellStyle name="20% - Énfasis3 3 2" xfId="185"/>
+    <cellStyle name="20% - Énfasis3 4" xfId="89"/>
+    <cellStyle name="20% - Énfasis3 4 2" xfId="200"/>
+    <cellStyle name="20% - Énfasis3 5" xfId="103"/>
+    <cellStyle name="20% - Énfasis3 5 2" xfId="214"/>
+    <cellStyle name="20% - Énfasis3 6" xfId="117"/>
+    <cellStyle name="20% - Énfasis3 6 2" xfId="228"/>
+    <cellStyle name="20% - Énfasis3 7" xfId="136"/>
     <cellStyle name="20% - Énfasis4" xfId="4" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4 2" xfId="61" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="20% - Énfasis4 2 2" xfId="172" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="20% - Énfasis4 3" xfId="76" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="20% - Énfasis4 3 2" xfId="187" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="20% - Énfasis4 4" xfId="91" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="20% - Énfasis4 4 2" xfId="202" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="20% - Énfasis4 5" xfId="105" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="20% - Énfasis4 5 2" xfId="216" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
-    <cellStyle name="20% - Énfasis4 6" xfId="119" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
-    <cellStyle name="20% - Énfasis4 6 2" xfId="230" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
-    <cellStyle name="20% - Énfasis4 7" xfId="139" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="20% - Énfasis4 2" xfId="61"/>
+    <cellStyle name="20% - Énfasis4 2 2" xfId="172"/>
+    <cellStyle name="20% - Énfasis4 3" xfId="76"/>
+    <cellStyle name="20% - Énfasis4 3 2" xfId="187"/>
+    <cellStyle name="20% - Énfasis4 4" xfId="91"/>
+    <cellStyle name="20% - Énfasis4 4 2" xfId="202"/>
+    <cellStyle name="20% - Énfasis4 5" xfId="105"/>
+    <cellStyle name="20% - Énfasis4 5 2" xfId="216"/>
+    <cellStyle name="20% - Énfasis4 6" xfId="119"/>
+    <cellStyle name="20% - Énfasis4 6 2" xfId="230"/>
+    <cellStyle name="20% - Énfasis4 7" xfId="139"/>
     <cellStyle name="20% - Énfasis5" xfId="5" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5 2" xfId="63" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="20% - Énfasis5 2 2" xfId="174" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="20% - Énfasis5 3" xfId="78" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="20% - Énfasis5 3 2" xfId="189" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="20% - Énfasis5 4" xfId="93" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="20% - Énfasis5 4 2" xfId="204" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
-    <cellStyle name="20% - Énfasis5 5" xfId="107" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="20% - Énfasis5 5 2" xfId="218" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="20% - Énfasis5 6" xfId="121" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="20% - Énfasis5 6 2" xfId="232" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="20% - Énfasis5 7" xfId="142" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="20% - Énfasis5 2" xfId="63"/>
+    <cellStyle name="20% - Énfasis5 2 2" xfId="174"/>
+    <cellStyle name="20% - Énfasis5 3" xfId="78"/>
+    <cellStyle name="20% - Énfasis5 3 2" xfId="189"/>
+    <cellStyle name="20% - Énfasis5 4" xfId="93"/>
+    <cellStyle name="20% - Énfasis5 4 2" xfId="204"/>
+    <cellStyle name="20% - Énfasis5 5" xfId="107"/>
+    <cellStyle name="20% - Énfasis5 5 2" xfId="218"/>
+    <cellStyle name="20% - Énfasis5 6" xfId="121"/>
+    <cellStyle name="20% - Énfasis5 6 2" xfId="232"/>
+    <cellStyle name="20% - Énfasis5 7" xfId="142"/>
     <cellStyle name="20% - Énfasis6" xfId="6" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6 2" xfId="65" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
-    <cellStyle name="20% - Énfasis6 2 2" xfId="176" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="20% - Énfasis6 3" xfId="80" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="20% - Énfasis6 3 2" xfId="191" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="20% - Énfasis6 4" xfId="95" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="20% - Énfasis6 4 2" xfId="206" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
-    <cellStyle name="20% - Énfasis6 5" xfId="109" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
-    <cellStyle name="20% - Énfasis6 5 2" xfId="220" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
-    <cellStyle name="20% - Énfasis6 6" xfId="123" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
-    <cellStyle name="20% - Énfasis6 6 2" xfId="234" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
-    <cellStyle name="20% - Énfasis6 7" xfId="145" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="20% - Énfasis6 2" xfId="65"/>
+    <cellStyle name="20% - Énfasis6 2 2" xfId="176"/>
+    <cellStyle name="20% - Énfasis6 3" xfId="80"/>
+    <cellStyle name="20% - Énfasis6 3 2" xfId="191"/>
+    <cellStyle name="20% - Énfasis6 4" xfId="95"/>
+    <cellStyle name="20% - Énfasis6 4 2" xfId="206"/>
+    <cellStyle name="20% - Énfasis6 5" xfId="109"/>
+    <cellStyle name="20% - Énfasis6 5 2" xfId="220"/>
+    <cellStyle name="20% - Énfasis6 6" xfId="123"/>
+    <cellStyle name="20% - Énfasis6 6 2" xfId="234"/>
+    <cellStyle name="20% - Énfasis6 7" xfId="145"/>
     <cellStyle name="40% - Énfasis1" xfId="7" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
-    <cellStyle name="40% - Énfasis1 2 2" xfId="167" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
-    <cellStyle name="40% - Énfasis1 3" xfId="71" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
-    <cellStyle name="40% - Énfasis1 3 2" xfId="182" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
-    <cellStyle name="40% - Énfasis1 4" xfId="86" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
-    <cellStyle name="40% - Énfasis1 4 2" xfId="197" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="40% - Énfasis1 5" xfId="100" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="40% - Énfasis1 5 2" xfId="211" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="40% - Énfasis1 6" xfId="114" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
-    <cellStyle name="40% - Énfasis1 6 2" xfId="225" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
-    <cellStyle name="40% - Énfasis1 7" xfId="131" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="40% - Énfasis1 2" xfId="56"/>
+    <cellStyle name="40% - Énfasis1 2 2" xfId="167"/>
+    <cellStyle name="40% - Énfasis1 3" xfId="71"/>
+    <cellStyle name="40% - Énfasis1 3 2" xfId="182"/>
+    <cellStyle name="40% - Énfasis1 4" xfId="86"/>
+    <cellStyle name="40% - Énfasis1 4 2" xfId="197"/>
+    <cellStyle name="40% - Énfasis1 5" xfId="100"/>
+    <cellStyle name="40% - Énfasis1 5 2" xfId="211"/>
+    <cellStyle name="40% - Énfasis1 6" xfId="114"/>
+    <cellStyle name="40% - Énfasis1 6 2" xfId="225"/>
+    <cellStyle name="40% - Énfasis1 7" xfId="131"/>
     <cellStyle name="40% - Énfasis2" xfId="8" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
-    <cellStyle name="40% - Énfasis2 2 2" xfId="169" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
-    <cellStyle name="40% - Énfasis2 3" xfId="73" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="40% - Énfasis2 3 2" xfId="184" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
-    <cellStyle name="40% - Énfasis2 4" xfId="88" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
-    <cellStyle name="40% - Énfasis2 4 2" xfId="199" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
-    <cellStyle name="40% - Énfasis2 5" xfId="102" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
-    <cellStyle name="40% - Énfasis2 5 2" xfId="213" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
-    <cellStyle name="40% - Énfasis2 6" xfId="116" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
-    <cellStyle name="40% - Énfasis2 6 2" xfId="227" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
-    <cellStyle name="40% - Énfasis2 7" xfId="134" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="40% - Énfasis2 2" xfId="58"/>
+    <cellStyle name="40% - Énfasis2 2 2" xfId="169"/>
+    <cellStyle name="40% - Énfasis2 3" xfId="73"/>
+    <cellStyle name="40% - Énfasis2 3 2" xfId="184"/>
+    <cellStyle name="40% - Énfasis2 4" xfId="88"/>
+    <cellStyle name="40% - Énfasis2 4 2" xfId="199"/>
+    <cellStyle name="40% - Énfasis2 5" xfId="102"/>
+    <cellStyle name="40% - Énfasis2 5 2" xfId="213"/>
+    <cellStyle name="40% - Énfasis2 6" xfId="116"/>
+    <cellStyle name="40% - Énfasis2 6 2" xfId="227"/>
+    <cellStyle name="40% - Énfasis2 7" xfId="134"/>
     <cellStyle name="40% - Énfasis3" xfId="9" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3 2" xfId="60" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
-    <cellStyle name="40% - Énfasis3 2 2" xfId="171" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
-    <cellStyle name="40% - Énfasis3 3" xfId="75" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
-    <cellStyle name="40% - Énfasis3 3 2" xfId="186" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
-    <cellStyle name="40% - Énfasis3 4" xfId="90" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
-    <cellStyle name="40% - Énfasis3 4 2" xfId="201" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
-    <cellStyle name="40% - Énfasis3 5" xfId="104" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
-    <cellStyle name="40% - Énfasis3 5 2" xfId="215" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
-    <cellStyle name="40% - Énfasis3 6" xfId="118" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
-    <cellStyle name="40% - Énfasis3 6 2" xfId="229" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
-    <cellStyle name="40% - Énfasis3 7" xfId="137" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="40% - Énfasis3 2" xfId="60"/>
+    <cellStyle name="40% - Énfasis3 2 2" xfId="171"/>
+    <cellStyle name="40% - Énfasis3 3" xfId="75"/>
+    <cellStyle name="40% - Énfasis3 3 2" xfId="186"/>
+    <cellStyle name="40% - Énfasis3 4" xfId="90"/>
+    <cellStyle name="40% - Énfasis3 4 2" xfId="201"/>
+    <cellStyle name="40% - Énfasis3 5" xfId="104"/>
+    <cellStyle name="40% - Énfasis3 5 2" xfId="215"/>
+    <cellStyle name="40% - Énfasis3 6" xfId="118"/>
+    <cellStyle name="40% - Énfasis3 6 2" xfId="229"/>
+    <cellStyle name="40% - Énfasis3 7" xfId="137"/>
     <cellStyle name="40% - Énfasis4" xfId="10" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4 2" xfId="62" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
-    <cellStyle name="40% - Énfasis4 2 2" xfId="173" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
-    <cellStyle name="40% - Énfasis4 3" xfId="77" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
-    <cellStyle name="40% - Énfasis4 3 2" xfId="188" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
-    <cellStyle name="40% - Énfasis4 4" xfId="92" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
-    <cellStyle name="40% - Énfasis4 4 2" xfId="203" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
-    <cellStyle name="40% - Énfasis4 5" xfId="106" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
-    <cellStyle name="40% - Énfasis4 5 2" xfId="217" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
-    <cellStyle name="40% - Énfasis4 6" xfId="120" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
-    <cellStyle name="40% - Énfasis4 6 2" xfId="231" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
-    <cellStyle name="40% - Énfasis4 7" xfId="140" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="40% - Énfasis4 2" xfId="62"/>
+    <cellStyle name="40% - Énfasis4 2 2" xfId="173"/>
+    <cellStyle name="40% - Énfasis4 3" xfId="77"/>
+    <cellStyle name="40% - Énfasis4 3 2" xfId="188"/>
+    <cellStyle name="40% - Énfasis4 4" xfId="92"/>
+    <cellStyle name="40% - Énfasis4 4 2" xfId="203"/>
+    <cellStyle name="40% - Énfasis4 5" xfId="106"/>
+    <cellStyle name="40% - Énfasis4 5 2" xfId="217"/>
+    <cellStyle name="40% - Énfasis4 6" xfId="120"/>
+    <cellStyle name="40% - Énfasis4 6 2" xfId="231"/>
+    <cellStyle name="40% - Énfasis4 7" xfId="140"/>
     <cellStyle name="40% - Énfasis5" xfId="11" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5 2" xfId="64" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
-    <cellStyle name="40% - Énfasis5 2 2" xfId="175" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
-    <cellStyle name="40% - Énfasis5 3" xfId="79" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
-    <cellStyle name="40% - Énfasis5 3 2" xfId="190" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
-    <cellStyle name="40% - Énfasis5 4" xfId="94" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
-    <cellStyle name="40% - Énfasis5 4 2" xfId="205" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
-    <cellStyle name="40% - Énfasis5 5" xfId="108" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
-    <cellStyle name="40% - Énfasis5 5 2" xfId="219" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
-    <cellStyle name="40% - Énfasis5 6" xfId="122" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
-    <cellStyle name="40% - Énfasis5 6 2" xfId="233" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
-    <cellStyle name="40% - Énfasis5 7" xfId="143" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="40% - Énfasis5 2" xfId="64"/>
+    <cellStyle name="40% - Énfasis5 2 2" xfId="175"/>
+    <cellStyle name="40% - Énfasis5 3" xfId="79"/>
+    <cellStyle name="40% - Énfasis5 3 2" xfId="190"/>
+    <cellStyle name="40% - Énfasis5 4" xfId="94"/>
+    <cellStyle name="40% - Énfasis5 4 2" xfId="205"/>
+    <cellStyle name="40% - Énfasis5 5" xfId="108"/>
+    <cellStyle name="40% - Énfasis5 5 2" xfId="219"/>
+    <cellStyle name="40% - Énfasis5 6" xfId="122"/>
+    <cellStyle name="40% - Énfasis5 6 2" xfId="233"/>
+    <cellStyle name="40% - Énfasis5 7" xfId="143"/>
     <cellStyle name="40% - Énfasis6" xfId="12" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6 2" xfId="66" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
-    <cellStyle name="40% - Énfasis6 2 2" xfId="177" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
-    <cellStyle name="40% - Énfasis6 3" xfId="81" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
-    <cellStyle name="40% - Énfasis6 3 2" xfId="192" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
-    <cellStyle name="40% - Énfasis6 4" xfId="96" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
-    <cellStyle name="40% - Énfasis6 4 2" xfId="207" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
-    <cellStyle name="40% - Énfasis6 5" xfId="110" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
-    <cellStyle name="40% - Énfasis6 5 2" xfId="221" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
-    <cellStyle name="40% - Énfasis6 6" xfId="124" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
-    <cellStyle name="40% - Énfasis6 6 2" xfId="235" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
-    <cellStyle name="40% - Énfasis6 7" xfId="146" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="40% - Énfasis6 2" xfId="66"/>
+    <cellStyle name="40% - Énfasis6 2 2" xfId="177"/>
+    <cellStyle name="40% - Énfasis6 3" xfId="81"/>
+    <cellStyle name="40% - Énfasis6 3 2" xfId="192"/>
+    <cellStyle name="40% - Énfasis6 4" xfId="96"/>
+    <cellStyle name="40% - Énfasis6 4 2" xfId="207"/>
+    <cellStyle name="40% - Énfasis6 5" xfId="110"/>
+    <cellStyle name="40% - Énfasis6 5 2" xfId="221"/>
+    <cellStyle name="40% - Énfasis6 6" xfId="124"/>
+    <cellStyle name="40% - Énfasis6 6 2" xfId="235"/>
+    <cellStyle name="40% - Énfasis6 7" xfId="146"/>
     <cellStyle name="60% - Énfasis1" xfId="13" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1 2" xfId="150" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
-    <cellStyle name="60% - Énfasis1 3" xfId="132" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="60% - Énfasis1 2" xfId="150"/>
+    <cellStyle name="60% - Énfasis1 3" xfId="132"/>
     <cellStyle name="60% - Énfasis2" xfId="14" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2 2" xfId="153" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
-    <cellStyle name="60% - Énfasis2 3" xfId="135" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="60% - Énfasis2 2" xfId="153"/>
+    <cellStyle name="60% - Énfasis2 3" xfId="135"/>
     <cellStyle name="60% - Énfasis3" xfId="15" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3 2" xfId="159" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
-    <cellStyle name="60% - Énfasis3 3" xfId="138" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="60% - Énfasis3 2" xfId="159"/>
+    <cellStyle name="60% - Énfasis3 3" xfId="138"/>
     <cellStyle name="60% - Énfasis4" xfId="16" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4 2" xfId="160" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
-    <cellStyle name="60% - Énfasis4 3" xfId="141" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="60% - Énfasis4 2" xfId="160"/>
+    <cellStyle name="60% - Énfasis4 3" xfId="141"/>
     <cellStyle name="60% - Énfasis5" xfId="17" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5 2" xfId="154" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
-    <cellStyle name="60% - Énfasis5 3" xfId="144" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
+    <cellStyle name="60% - Énfasis5 2" xfId="154"/>
+    <cellStyle name="60% - Énfasis5 3" xfId="144"/>
     <cellStyle name="60% - Énfasis6" xfId="18" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6 2" xfId="157" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
-    <cellStyle name="60% - Énfasis6 3" xfId="147" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
+    <cellStyle name="60% - Énfasis6 2" xfId="157"/>
+    <cellStyle name="60% - Énfasis6 3" xfId="147"/>
     <cellStyle name="Bueno" xfId="19" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="20" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Celda de comprobación" xfId="21" builtinId="23" customBuiltin="1"/>
@@ -1580,65 +1597,65 @@
     <cellStyle name="Entrada" xfId="30" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Incorrecto" xfId="31" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Millares" xfId="32" builtinId="3"/>
-    <cellStyle name="Millares 2" xfId="33" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
-    <cellStyle name="Millares 2 2" xfId="34" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
-    <cellStyle name="Millares 2 2 2" xfId="149" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
-    <cellStyle name="Millares 2 3" xfId="155" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
-    <cellStyle name="Millares 3" xfId="35" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
-    <cellStyle name="Millares 3 2" xfId="158" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
-    <cellStyle name="Millares 4" xfId="156" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
+    <cellStyle name="Millares 2" xfId="33"/>
+    <cellStyle name="Millares 2 2" xfId="34"/>
+    <cellStyle name="Millares 2 2 2" xfId="149"/>
+    <cellStyle name="Millares 2 3" xfId="155"/>
+    <cellStyle name="Millares 3" xfId="35"/>
+    <cellStyle name="Millares 3 2" xfId="158"/>
+    <cellStyle name="Millares 4" xfId="156"/>
     <cellStyle name="Neutral" xfId="36" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Neutral 2" xfId="148" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
-    <cellStyle name="Neutral 3" xfId="128" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
+    <cellStyle name="Neutral 2" xfId="148"/>
+    <cellStyle name="Neutral 3" xfId="128"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="126" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
-    <cellStyle name="Normal 2" xfId="37" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
-    <cellStyle name="Normal 2 2" xfId="67" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
-    <cellStyle name="Normal 2 2 2" xfId="178" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
-    <cellStyle name="Normal 2 3" xfId="82" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
-    <cellStyle name="Normal 2 3 2" xfId="193" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
-    <cellStyle name="Normal 2 4" xfId="151" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
-    <cellStyle name="Normal 3" xfId="38" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
-    <cellStyle name="Normal 4" xfId="53" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
-    <cellStyle name="Normal 4 2" xfId="164" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
-    <cellStyle name="Normal 5" xfId="68" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
-    <cellStyle name="Normal 5 2" xfId="179" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
-    <cellStyle name="Normal 6" xfId="83" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
-    <cellStyle name="Normal 6 2" xfId="194" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
-    <cellStyle name="Normal 7" xfId="97" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
-    <cellStyle name="Normal 7 2" xfId="208" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
-    <cellStyle name="Normal 8" xfId="111" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
-    <cellStyle name="Normal 8 2" xfId="222" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
-    <cellStyle name="Normal 9" xfId="152" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
-    <cellStyle name="Normal_INDIC3" xfId="39" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
-    <cellStyle name="Normal_INDICA18" xfId="40" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
-    <cellStyle name="Normal_INDICA8" xfId="41" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
-    <cellStyle name="Normal_Trab_Comer_Jal" xfId="42" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
-    <cellStyle name="Notas 2" xfId="43" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
-    <cellStyle name="Notas 2 2" xfId="161" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
-    <cellStyle name="Notas 3" xfId="54" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
-    <cellStyle name="Notas 3 2" xfId="165" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
-    <cellStyle name="Notas 4" xfId="69" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
-    <cellStyle name="Notas 4 2" xfId="180" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
-    <cellStyle name="Notas 5" xfId="84" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
-    <cellStyle name="Notas 5 2" xfId="195" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
-    <cellStyle name="Notas 6" xfId="98" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
-    <cellStyle name="Notas 6 2" xfId="209" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
-    <cellStyle name="Notas 7" xfId="112" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
-    <cellStyle name="Notas 7 2" xfId="223" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
-    <cellStyle name="Notas 8" xfId="129" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
+    <cellStyle name="Normal 10" xfId="126"/>
+    <cellStyle name="Normal 2" xfId="37"/>
+    <cellStyle name="Normal 2 2" xfId="67"/>
+    <cellStyle name="Normal 2 2 2" xfId="178"/>
+    <cellStyle name="Normal 2 3" xfId="82"/>
+    <cellStyle name="Normal 2 3 2" xfId="193"/>
+    <cellStyle name="Normal 2 4" xfId="151"/>
+    <cellStyle name="Normal 3" xfId="38"/>
+    <cellStyle name="Normal 4" xfId="53"/>
+    <cellStyle name="Normal 4 2" xfId="164"/>
+    <cellStyle name="Normal 5" xfId="68"/>
+    <cellStyle name="Normal 5 2" xfId="179"/>
+    <cellStyle name="Normal 6" xfId="83"/>
+    <cellStyle name="Normal 6 2" xfId="194"/>
+    <cellStyle name="Normal 7" xfId="97"/>
+    <cellStyle name="Normal 7 2" xfId="208"/>
+    <cellStyle name="Normal 8" xfId="111"/>
+    <cellStyle name="Normal 8 2" xfId="222"/>
+    <cellStyle name="Normal 9" xfId="152"/>
+    <cellStyle name="Normal_INDIC3" xfId="39"/>
+    <cellStyle name="Normal_INDICA18" xfId="40"/>
+    <cellStyle name="Normal_INDICA8" xfId="41"/>
+    <cellStyle name="Normal_Trab_Comer_Jal" xfId="42"/>
+    <cellStyle name="Notas 2" xfId="43"/>
+    <cellStyle name="Notas 2 2" xfId="161"/>
+    <cellStyle name="Notas 3" xfId="54"/>
+    <cellStyle name="Notas 3 2" xfId="165"/>
+    <cellStyle name="Notas 4" xfId="69"/>
+    <cellStyle name="Notas 4 2" xfId="180"/>
+    <cellStyle name="Notas 5" xfId="84"/>
+    <cellStyle name="Notas 5 2" xfId="195"/>
+    <cellStyle name="Notas 6" xfId="98"/>
+    <cellStyle name="Notas 6 2" xfId="209"/>
+    <cellStyle name="Notas 7" xfId="112"/>
+    <cellStyle name="Notas 7 2" xfId="223"/>
+    <cellStyle name="Notas 8" xfId="129"/>
     <cellStyle name="Porcentaje" xfId="44" builtinId="5"/>
-    <cellStyle name="Porcentaje 2" xfId="125" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
-    <cellStyle name="Porcentaje 2 2" xfId="236" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
-    <cellStyle name="Porcentaje 3" xfId="162" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
+    <cellStyle name="Porcentaje 2" xfId="125"/>
+    <cellStyle name="Porcentaje 2 2" xfId="236"/>
+    <cellStyle name="Porcentaje 3" xfId="162"/>
     <cellStyle name="Salida" xfId="45" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texto de advertencia" xfId="46" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto explicativo" xfId="47" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Título" xfId="48" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Título 2" xfId="50" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Título 3" xfId="51" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Título 4" xfId="163" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
-    <cellStyle name="Título 5" xfId="127" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
+    <cellStyle name="Título 4" xfId="163"/>
+    <cellStyle name="Título 5" xfId="127"/>
     <cellStyle name="Total" xfId="52" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2648,23 +2665,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2700,23 +2700,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2892,46 +2875,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.54296875" style="32" customWidth="1"/>
-    <col min="2" max="6" width="6.54296875" style="32" customWidth="1"/>
-    <col min="7" max="8" width="6.54296875" style="36" customWidth="1"/>
-    <col min="9" max="16" width="6.54296875" style="32" customWidth="1"/>
-    <col min="17" max="17" width="8.08984375" style="32" customWidth="1"/>
-    <col min="18" max="18" width="10.36328125" style="32" customWidth="1"/>
-    <col min="19" max="24" width="11.453125" style="32" customWidth="1"/>
-    <col min="25" max="16384" width="9.81640625" style="32"/>
+    <col min="1" max="1" width="27.5703125" style="32" customWidth="1"/>
+    <col min="2" max="6" width="6.5703125" style="32" customWidth="1"/>
+    <col min="7" max="8" width="6.5703125" style="36" customWidth="1"/>
+    <col min="9" max="16" width="6.5703125" style="32" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" style="32" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" style="32" customWidth="1"/>
+    <col min="19" max="24" width="11.42578125" style="32" customWidth="1"/>
+    <col min="25" max="16384" width="9.85546875" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+    <row r="1" spans="1:24" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
       <c r="S1" s="26"/>
       <c r="T1" s="26"/>
       <c r="U1" s="26"/>
@@ -2939,27 +2922,27 @@
       <c r="W1" s="26"/>
       <c r="X1" s="26"/>
     </row>
-    <row r="2" spans="1:24" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+    <row r="2" spans="1:24" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="91"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="94"/>
       <c r="S2" s="28"/>
       <c r="T2" s="28"/>
       <c r="U2" s="28"/>
@@ -2967,27 +2950,27 @@
       <c r="W2" s="28"/>
       <c r="X2" s="28"/>
     </row>
-    <row r="3" spans="1:24" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="91" t="s">
+    <row r="3" spans="1:24" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="91"/>
-      <c r="R3" s="91"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
+      <c r="R3" s="94"/>
       <c r="S3" s="28"/>
       <c r="T3" s="28"/>
       <c r="U3" s="28"/>
@@ -2995,7 +2978,7 @@
       <c r="W3" s="28"/>
       <c r="X3" s="28"/>
     </row>
-    <row r="4" spans="1:24" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="30"/>
       <c r="B4" s="30"/>
       <c r="C4" s="30"/>
@@ -3021,7 +3004,7 @@
       <c r="W4" s="8"/>
       <c r="X4" s="8"/>
     </row>
-    <row r="5" spans="1:24" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="30"/>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -3047,27 +3030,27 @@
       <c r="W5" s="8"/>
       <c r="X5" s="8"/>
     </row>
-    <row r="6" spans="1:24" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="94" t="s">
+    <row r="6" spans="1:24" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94"/>
-      <c r="O6" s="94"/>
-      <c r="P6" s="94"/>
-      <c r="Q6" s="94"/>
-      <c r="R6" s="94"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="97"/>
+      <c r="N6" s="97"/>
+      <c r="O6" s="97"/>
+      <c r="P6" s="97"/>
+      <c r="Q6" s="97"/>
+      <c r="R6" s="97"/>
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
       <c r="U6" s="8"/>
@@ -3075,27 +3058,27 @@
       <c r="W6" s="8"/>
       <c r="X6" s="8"/>
     </row>
-    <row r="7" spans="1:24" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="95" t="s">
+    <row r="7" spans="1:24" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="95"/>
-      <c r="N7" s="95"/>
-      <c r="O7" s="95"/>
-      <c r="P7" s="95"/>
-      <c r="Q7" s="95"/>
-      <c r="R7" s="95"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
+      <c r="N7" s="104"/>
+      <c r="O7" s="104"/>
+      <c r="P7" s="104"/>
+      <c r="Q7" s="104"/>
+      <c r="R7" s="104"/>
       <c r="S7" s="8"/>
       <c r="T7" s="8"/>
       <c r="U7" s="8"/>
@@ -3103,8 +3086,8 @@
       <c r="W7" s="8"/>
       <c r="X7" s="8"/>
     </row>
-    <row r="8" spans="1:24" s="7" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="92" t="s">
+    <row r="8" spans="1:24" s="7" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="95" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="86">
@@ -3146,20 +3129,20 @@
       <c r="N8" s="86">
         <v>2020</v>
       </c>
-      <c r="O8" s="101">
+      <c r="O8" s="103">
         <v>2021</v>
       </c>
-      <c r="P8" s="101"/>
-      <c r="Q8" s="96" t="s">
+      <c r="P8" s="103"/>
+      <c r="Q8" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="R8" s="96" t="s">
+      <c r="R8" s="99" t="s">
         <v>34</v>
       </c>
       <c r="S8" s="8"/>
     </row>
-    <row r="9" spans="1:24" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="93"/>
+    <row r="9" spans="1:24" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="96"/>
       <c r="B9" s="48" t="s">
         <v>13</v>
       </c>
@@ -3199,17 +3182,17 @@
       <c r="N9" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="102" t="s">
-        <v>14</v>
-      </c>
-      <c r="P9" s="102" t="s">
+      <c r="O9" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="Q9" s="97"/>
-      <c r="R9" s="97"/>
+      <c r="P9" s="90" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q9" s="100"/>
+      <c r="R9" s="100"/>
       <c r="S9" s="8"/>
     </row>
-    <row r="10" spans="1:24" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="66" t="s">
         <v>0</v>
       </c>
@@ -3252,23 +3235,23 @@
       <c r="N10" s="40">
         <v>3432</v>
       </c>
-      <c r="O10" s="40">
-        <v>3450</v>
-      </c>
-      <c r="P10" s="71">
+      <c r="O10" s="71">
         <v>3451</v>
+      </c>
+      <c r="P10" s="105">
+        <v>3462</v>
       </c>
       <c r="Q10" s="71">
         <f>P10-O10</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="R10" s="44">
         <f>P10-N10</f>
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="S10" s="59"/>
     </row>
-    <row r="11" spans="1:24" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="69" t="s">
         <v>1</v>
       </c>
@@ -3311,23 +3294,23 @@
       <c r="N11" s="65">
         <v>127</v>
       </c>
-      <c r="O11" s="65">
-        <v>129</v>
-      </c>
-      <c r="P11" s="40">
+      <c r="O11" s="40">
         <v>127</v>
       </c>
-      <c r="Q11" s="103">
+      <c r="P11" s="106">
+        <v>125</v>
+      </c>
+      <c r="Q11" s="91">
         <f t="shared" ref="Q11:Q17" si="0">P11-O11</f>
         <v>-2</v>
       </c>
       <c r="R11" s="44">
         <f t="shared" ref="R11:R17" si="1">P11-N11</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S11" s="8"/>
     </row>
-    <row r="12" spans="1:24" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="66" t="s">
         <v>2</v>
       </c>
@@ -3370,23 +3353,23 @@
       <c r="N12" s="40">
         <v>15414</v>
       </c>
-      <c r="O12" s="40">
-        <v>15429</v>
-      </c>
-      <c r="P12" s="71">
+      <c r="O12" s="71">
         <v>15446</v>
       </c>
-      <c r="Q12" s="103">
+      <c r="P12" s="105">
+        <v>15462</v>
+      </c>
+      <c r="Q12" s="91">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R12" s="44">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="S12" s="59"/>
     </row>
-    <row r="13" spans="1:24" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="66" t="s">
         <v>3</v>
       </c>
@@ -3430,22 +3413,22 @@
         <v>11694</v>
       </c>
       <c r="O13" s="40">
-        <v>11784</v>
-      </c>
-      <c r="P13" s="40">
         <v>11832</v>
+      </c>
+      <c r="P13" s="107">
+        <v>11885</v>
       </c>
       <c r="Q13" s="40">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="R13" s="44">
         <f t="shared" si="1"/>
-        <v>138</v>
+        <v>191</v>
       </c>
       <c r="S13" s="8"/>
     </row>
-    <row r="14" spans="1:24" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="66" t="s">
         <v>4</v>
       </c>
@@ -3488,23 +3471,23 @@
       <c r="N14" s="64">
         <v>161</v>
       </c>
-      <c r="O14" s="64">
+      <c r="O14" s="89">
         <v>166</v>
       </c>
-      <c r="P14" s="100">
-        <v>166</v>
-      </c>
-      <c r="Q14" s="103">
+      <c r="P14" s="105">
+        <v>165</v>
+      </c>
+      <c r="Q14" s="91">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R14" s="44">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S14" s="8"/>
     </row>
-    <row r="15" spans="1:24" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="66" t="s">
         <v>5</v>
       </c>
@@ -3548,22 +3531,22 @@
         <v>30178</v>
       </c>
       <c r="O15" s="40">
-        <v>30190</v>
-      </c>
-      <c r="P15" s="40">
         <v>30295</v>
+      </c>
+      <c r="P15" s="107">
+        <v>30354</v>
       </c>
       <c r="Q15" s="40">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="R15" s="44">
         <f t="shared" si="1"/>
-        <v>117</v>
+        <v>176</v>
       </c>
       <c r="S15" s="59"/>
     </row>
-    <row r="16" spans="1:24" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="66" t="s">
         <v>6</v>
       </c>
@@ -3606,23 +3589,23 @@
       <c r="N16" s="40">
         <v>6033</v>
       </c>
-      <c r="O16" s="40">
-        <v>6028</v>
-      </c>
-      <c r="P16" s="71">
+      <c r="O16" s="71">
         <v>6039</v>
       </c>
-      <c r="Q16" s="103">
+      <c r="P16" s="105">
+        <v>6002</v>
+      </c>
+      <c r="Q16" s="91">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>-37</v>
       </c>
       <c r="R16" s="44">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>-31</v>
       </c>
       <c r="S16" s="59"/>
     </row>
-    <row r="17" spans="1:63" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:63" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="72" t="s">
         <v>7</v>
       </c>
@@ -3665,23 +3648,23 @@
       <c r="N17" s="71">
         <v>31028</v>
       </c>
-      <c r="O17" s="71">
-        <v>31037</v>
-      </c>
-      <c r="P17" s="40">
+      <c r="O17" s="40">
         <v>31118</v>
+      </c>
+      <c r="P17" s="106">
+        <v>31245</v>
       </c>
       <c r="Q17" s="40">
         <f t="shared" si="0"/>
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="R17" s="44">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>217</v>
       </c>
       <c r="S17" s="59"/>
     </row>
-    <row r="18" spans="1:63" s="7" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="42" t="s">
         <v>11</v>
       </c>
@@ -3737,23 +3720,24 @@
         <v>98067</v>
       </c>
       <c r="O18" s="20">
-        <v>98213</v>
+        <f>SUM(O10:O17)</f>
+        <v>98474</v>
       </c>
       <c r="P18" s="20">
         <f>SUM(P10:P17)</f>
-        <v>98474</v>
+        <v>98700</v>
       </c>
       <c r="Q18" s="20">
         <f>SUM(Q10:Q17)</f>
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="R18" s="74">
         <f>SUM(R10:R17)</f>
-        <v>407</v>
+        <v>633</v>
       </c>
       <c r="S18" s="59"/>
     </row>
-    <row r="19" spans="1:63" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:63" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="33"/>
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
@@ -3773,29 +3757,29 @@
       <c r="R19" s="33"/>
       <c r="S19" s="62"/>
     </row>
-    <row r="20" spans="1:63" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="89" t="s">
+    <row r="20" spans="1:63" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="89"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="89"/>
-      <c r="I20" s="89"/>
-      <c r="J20" s="89"/>
-      <c r="K20" s="89"/>
-      <c r="L20" s="89"/>
-      <c r="M20" s="89"/>
-      <c r="N20" s="89"/>
-      <c r="O20" s="89"/>
-      <c r="P20" s="89"/>
-      <c r="Q20" s="89"/>
-      <c r="R20" s="89"/>
-    </row>
-    <row r="21" spans="1:63" s="35" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="92"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="92"/>
+      <c r="J20" s="92"/>
+      <c r="K20" s="92"/>
+      <c r="L20" s="92"/>
+      <c r="M20" s="92"/>
+      <c r="N20" s="92"/>
+      <c r="O20" s="92"/>
+      <c r="P20" s="92"/>
+      <c r="Q20" s="92"/>
+      <c r="R20" s="92"/>
+    </row>
+    <row r="21" spans="1:63" s="35" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="18"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
@@ -3815,7 +3799,7 @@
       <c r="Q21" s="18"/>
       <c r="R21" s="19"/>
     </row>
-    <row r="22" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>28</v>
       </c>
@@ -3825,7 +3809,7 @@
       <c r="Q22" s="33"/>
       <c r="R22" s="33"/>
     </row>
-    <row r="23" spans="1:63" s="37" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:63" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
       <c r="D23" s="38"/>
@@ -3889,7 +3873,7 @@
       <c r="BJ23" s="38"/>
       <c r="BK23" s="38"/>
     </row>
-    <row r="24" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:63" x14ac:dyDescent="0.2">
       <c r="B24" s="78"/>
       <c r="C24" s="78"/>
       <c r="D24" s="78"/>
@@ -3932,71 +3916,71 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.54296875" customWidth="1"/>
-    <col min="2" max="13" width="9.26953125" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" customWidth="1"/>
+    <col min="2" max="13" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="91">
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="94">
         <v>2016</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="45"/>
       <c r="B4" s="45"/>
       <c r="C4" s="45"/>
@@ -4011,7 +3995,7 @@
       <c r="L4" s="45"/>
       <c r="M4" s="45"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="45"/>
       <c r="B5" s="45"/>
       <c r="C5" s="45"/>
@@ -4026,61 +4010,61 @@
       <c r="L5" s="45"/>
       <c r="M5" s="45"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="94" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="95" t="s">
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="97"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="95"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="98" t="s">
+      <c r="B7" s="98"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="98"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="98">
+      <c r="B8" s="101">
         <v>2016</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="98"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="101"/>
       <c r="B9" s="60" t="s">
         <v>14</v>
       </c>
@@ -4118,7 +4102,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="41" t="s">
         <v>0</v>
       </c>
@@ -4159,7 +4143,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="41" t="s">
         <v>1</v>
       </c>
@@ -4200,7 +4184,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="41" t="s">
         <v>2</v>
       </c>
@@ -4241,7 +4225,7 @@
         <v>14113</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="41" t="s">
         <v>3</v>
       </c>
@@ -4282,7 +4266,7 @@
         <v>9597</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="41" t="s">
         <v>4</v>
       </c>
@@ -4323,7 +4307,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="41" t="s">
         <v>5</v>
       </c>
@@ -4364,7 +4348,7 @@
         <v>26469</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="41" t="s">
         <v>6</v>
       </c>
@@ -4405,7 +4389,7 @@
         <v>6134</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="41" t="s">
         <v>7</v>
       </c>
@@ -4446,7 +4430,7 @@
         <v>26954</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="42" t="s">
         <v>11</v>
       </c>
@@ -4499,7 +4483,7 @@
         <v>86097</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="43" t="s">
         <v>25</v>
       </c>
@@ -4552,7 +4536,7 @@
         <v>2.2073003554915309E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
@@ -4564,24 +4548,24 @@
       <c r="L20" s="22"/>
       <c r="M20" s="22"/>
     </row>
-    <row r="21" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="89" t="s">
+    <row r="21" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="89"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="89"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="92"/>
+      <c r="M21" s="92"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -4596,7 +4580,7 @@
       <c r="L22" s="23"/>
       <c r="M22" s="23"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>28</v>
       </c>
@@ -4630,71 +4614,71 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.54296875" customWidth="1"/>
-    <col min="2" max="13" width="9.26953125" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" customWidth="1"/>
+    <col min="2" max="13" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="91">
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="94">
         <v>2017</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="45"/>
       <c r="B4" s="45"/>
       <c r="C4" s="45"/>
@@ -4709,7 +4693,7 @@
       <c r="L4" s="45"/>
       <c r="M4" s="45"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="45"/>
       <c r="B5" s="45"/>
       <c r="C5" s="45"/>
@@ -4724,61 +4708,61 @@
       <c r="L5" s="45"/>
       <c r="M5" s="45"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="94" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="95" t="s">
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="97"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="95"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="98" t="s">
+      <c r="B7" s="98"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="98"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="98">
+      <c r="B8" s="101">
         <v>2017</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="98"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="101"/>
       <c r="B9" s="61" t="s">
         <v>14</v>
       </c>
@@ -4816,7 +4800,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="41" t="s">
         <v>0</v>
       </c>
@@ -4857,7 +4841,7 @@
         <v>2804</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="41" t="s">
         <v>1</v>
       </c>
@@ -4898,7 +4882,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="41" t="s">
         <v>2</v>
       </c>
@@ -4939,7 +4923,7 @@
         <v>14699</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="41" t="s">
         <v>3</v>
       </c>
@@ -4980,7 +4964,7 @@
         <v>10318</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="41" t="s">
         <v>4</v>
       </c>
@@ -5021,7 +5005,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="41" t="s">
         <v>5</v>
       </c>
@@ -5062,7 +5046,7 @@
         <v>27734</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="41" t="s">
         <v>6</v>
       </c>
@@ -5103,7 +5087,7 @@
         <v>6176</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="41" t="s">
         <v>7</v>
       </c>
@@ -5144,7 +5128,7 @@
         <v>28175</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="42" t="s">
         <v>11</v>
       </c>
@@ -5197,7 +5181,7 @@
         <v>90125</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="43" t="s">
         <v>25</v>
       </c>
@@ -5250,7 +5234,7 @@
         <v>-3.2167180602080882E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
@@ -5262,24 +5246,24 @@
       <c r="L20" s="22"/>
       <c r="M20" s="22"/>
     </row>
-    <row r="21" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="89" t="s">
+    <row r="21" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="89"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="89"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="92"/>
+      <c r="M21" s="92"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -5294,7 +5278,7 @@
       <c r="L22" s="23"/>
       <c r="M22" s="23"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>28</v>
       </c>
@@ -5328,71 +5312,71 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.54296875" customWidth="1"/>
-    <col min="2" max="13" width="9.26953125" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" customWidth="1"/>
+    <col min="2" max="13" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="91">
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="94">
         <v>2018</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="45"/>
       <c r="B4" s="45"/>
       <c r="C4" s="45"/>
@@ -5407,7 +5391,7 @@
       <c r="L4" s="45"/>
       <c r="M4" s="45"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="45"/>
       <c r="B5" s="45"/>
       <c r="C5" s="45"/>
@@ -5422,61 +5406,61 @@
       <c r="L5" s="45"/>
       <c r="M5" s="45"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="94" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="95" t="s">
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="97"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="95"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="98" t="s">
+      <c r="B7" s="98"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="98"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="98">
+      <c r="B8" s="101">
         <v>2018</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="98"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="101"/>
       <c r="B9" s="63" t="s">
         <v>14</v>
       </c>
@@ -5514,7 +5498,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="41" t="s">
         <v>0</v>
       </c>
@@ -5555,7 +5539,7 @@
         <v>3008</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="41" t="s">
         <v>1</v>
       </c>
@@ -5596,7 +5580,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="41" t="s">
         <v>2</v>
       </c>
@@ -5637,7 +5621,7 @@
         <v>15012</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="41" t="s">
         <v>3</v>
       </c>
@@ -5678,7 +5662,7 @@
         <v>10911</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="41" t="s">
         <v>4</v>
       </c>
@@ -5719,7 +5703,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="41" t="s">
         <v>5</v>
       </c>
@@ -5760,7 +5744,7 @@
         <v>28474</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="41" t="s">
         <v>6</v>
       </c>
@@ -5801,7 +5785,7 @@
         <v>6241</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="41" t="s">
         <v>7</v>
       </c>
@@ -5842,7 +5826,7 @@
         <v>29472</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="42" t="s">
         <v>11</v>
       </c>
@@ -5895,7 +5879,7 @@
         <v>93370</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="43" t="s">
         <v>25</v>
       </c>
@@ -5948,7 +5932,7 @@
         <v>-0.23506784912918047</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
@@ -5960,24 +5944,24 @@
       <c r="L20" s="22"/>
       <c r="M20" s="22"/>
     </row>
-    <row r="21" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="89" t="s">
+    <row r="21" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="89"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="89"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="92"/>
+      <c r="M21" s="92"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -5992,7 +5976,7 @@
       <c r="L22" s="23"/>
       <c r="M22" s="23"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>28</v>
       </c>
@@ -6026,71 +6010,71 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.54296875" customWidth="1"/>
-    <col min="2" max="13" width="9.26953125" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" customWidth="1"/>
+    <col min="2" max="13" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="91">
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="94">
         <v>2019</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="45"/>
       <c r="B4" s="45"/>
       <c r="C4" s="45"/>
@@ -6105,7 +6089,7 @@
       <c r="L4" s="45"/>
       <c r="M4" s="45"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="45"/>
       <c r="B5" s="45"/>
       <c r="C5" s="45"/>
@@ -6120,61 +6104,61 @@
       <c r="L5" s="45"/>
       <c r="M5" s="45"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="94" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="95" t="s">
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="97"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="95"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="98" t="s">
+      <c r="B7" s="98"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="98"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="98">
+      <c r="B8" s="101">
         <v>2019</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="98"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="101"/>
       <c r="B9" s="75" t="s">
         <v>14</v>
       </c>
@@ -6212,7 +6196,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="41" t="s">
         <v>0</v>
       </c>
@@ -6253,7 +6237,7 @@
         <v>3255</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="41" t="s">
         <v>1</v>
       </c>
@@ -6294,7 +6278,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="41" t="s">
         <v>2</v>
       </c>
@@ -6335,7 +6319,7 @@
         <v>15390</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="41" t="s">
         <v>3</v>
       </c>
@@ -6376,7 +6360,7 @@
         <v>11746</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="41" t="s">
         <v>4</v>
       </c>
@@ -6417,7 +6401,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="41" t="s">
         <v>5</v>
       </c>
@@ -6458,7 +6442,7 @@
         <v>29511</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="41" t="s">
         <v>6</v>
       </c>
@@ -6499,7 +6483,7 @@
         <v>6303</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="41" t="s">
         <v>7</v>
       </c>
@@ -6540,7 +6524,7 @@
         <v>30907</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="42" t="s">
         <v>11</v>
       </c>
@@ -6593,7 +6577,7 @@
         <v>97390</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="43" t="s">
         <v>25</v>
       </c>
@@ -6646,7 +6630,7 @@
         <v>-2.0531772918591519E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
@@ -6658,24 +6642,24 @@
       <c r="L20" s="22"/>
       <c r="M20" s="22"/>
     </row>
-    <row r="21" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="89" t="s">
+    <row r="21" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="89"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="89"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="92"/>
+      <c r="M21" s="92"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -6690,7 +6674,7 @@
       <c r="L22" s="23"/>
       <c r="M22" s="23"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>28</v>
       </c>
@@ -6707,7 +6691,7 @@
       <c r="L23" s="80"/>
       <c r="M23" s="24"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C25" s="76"/>
     </row>
   </sheetData>
@@ -6727,71 +6711,71 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.54296875" customWidth="1"/>
-    <col min="2" max="13" width="9.26953125" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" customWidth="1"/>
+    <col min="2" max="13" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="91">
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="94">
         <v>2020</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="81"/>
       <c r="B4" s="81"/>
       <c r="C4" s="81"/>
@@ -6806,7 +6790,7 @@
       <c r="L4" s="81"/>
       <c r="M4" s="81"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="81"/>
       <c r="B5" s="81"/>
       <c r="C5" s="81"/>
@@ -6821,61 +6805,61 @@
       <c r="L5" s="81"/>
       <c r="M5" s="81"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="94" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="95" t="s">
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="97"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="95"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="98" t="s">
+      <c r="B7" s="98"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="98"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="98">
+      <c r="B8" s="101">
         <v>2020</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="98"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="101"/>
       <c r="B9" s="82" t="s">
         <v>14</v>
       </c>
@@ -6913,7 +6897,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="41" t="s">
         <v>0</v>
       </c>
@@ -6954,7 +6938,7 @@
         <v>3432</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="41" t="s">
         <v>1</v>
       </c>
@@ -6995,7 +6979,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="41" t="s">
         <v>2</v>
       </c>
@@ -7036,7 +7020,7 @@
         <v>15414</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="41" t="s">
         <v>3</v>
       </c>
@@ -7077,7 +7061,7 @@
         <v>11694</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="41" t="s">
         <v>4</v>
       </c>
@@ -7118,7 +7102,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="41" t="s">
         <v>5</v>
       </c>
@@ -7159,7 +7143,7 @@
         <v>30178</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="41" t="s">
         <v>6</v>
       </c>
@@ -7200,7 +7184,7 @@
         <v>6033</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="41" t="s">
         <v>7</v>
       </c>
@@ -7241,7 +7225,7 @@
         <v>31028</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="42" t="s">
         <v>11</v>
       </c>
@@ -7293,7 +7277,7 @@
         <v>98067</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="43" t="s">
         <v>25</v>
       </c>
@@ -7346,7 +7330,7 @@
         <v>-0.25326498230197059</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
@@ -7358,24 +7342,24 @@
       <c r="L20" s="22"/>
       <c r="M20" s="22"/>
     </row>
-    <row r="21" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="89" t="s">
+    <row r="21" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="89"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="89"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="92"/>
+      <c r="M21" s="92"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -7390,7 +7374,7 @@
       <c r="L22" s="23"/>
       <c r="M22" s="23"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>28</v>
       </c>
@@ -7407,7 +7391,7 @@
       <c r="L23" s="80"/>
       <c r="M23" s="24"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C25" s="76"/>
     </row>
   </sheetData>
@@ -7427,71 +7411,71 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.54296875" customWidth="1"/>
-    <col min="2" max="13" width="9.26953125" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" customWidth="1"/>
+    <col min="2" max="13" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="91">
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="94">
         <v>2021</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="84"/>
       <c r="B4" s="84"/>
       <c r="C4" s="84"/>
@@ -7506,7 +7490,7 @@
       <c r="L4" s="84"/>
       <c r="M4" s="84"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="84"/>
       <c r="B5" s="84"/>
       <c r="C5" s="84"/>
@@ -7521,61 +7505,61 @@
       <c r="L5" s="84"/>
       <c r="M5" s="84"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="94" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="95" t="s">
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="97"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="95"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="98" t="s">
+      <c r="B7" s="98"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="98"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="98">
+      <c r="B8" s="101">
         <v>2021</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="98"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="101"/>
       <c r="B9" s="87" t="s">
         <v>14</v>
       </c>
@@ -7613,7 +7597,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="41" t="s">
         <v>0</v>
       </c>
@@ -7623,7 +7607,9 @@
       <c r="C10" s="71">
         <v>3451</v>
       </c>
-      <c r="D10" s="40"/>
+      <c r="D10" s="40">
+        <v>3462</v>
+      </c>
       <c r="E10" s="40"/>
       <c r="F10" s="40"/>
       <c r="G10" s="40"/>
@@ -7634,7 +7620,7 @@
       <c r="L10" s="40"/>
       <c r="M10" s="40"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="41" t="s">
         <v>1</v>
       </c>
@@ -7644,7 +7630,9 @@
       <c r="C11" s="40">
         <v>127</v>
       </c>
-      <c r="D11" s="40"/>
+      <c r="D11" s="40">
+        <v>125</v>
+      </c>
       <c r="E11" s="40"/>
       <c r="F11" s="40"/>
       <c r="G11" s="40"/>
@@ -7655,7 +7643,7 @@
       <c r="L11" s="40"/>
       <c r="M11" s="40"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="41" t="s">
         <v>2</v>
       </c>
@@ -7665,7 +7653,9 @@
       <c r="C12" s="71">
         <v>15446</v>
       </c>
-      <c r="D12" s="40"/>
+      <c r="D12" s="40">
+        <v>15462</v>
+      </c>
       <c r="E12" s="40"/>
       <c r="F12" s="40"/>
       <c r="G12" s="40"/>
@@ -7676,7 +7666,7 @@
       <c r="L12" s="40"/>
       <c r="M12" s="40"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="41" t="s">
         <v>3</v>
       </c>
@@ -7686,7 +7676,9 @@
       <c r="C13" s="40">
         <v>11832</v>
       </c>
-      <c r="D13" s="40"/>
+      <c r="D13" s="40">
+        <v>11885</v>
+      </c>
       <c r="E13" s="40"/>
       <c r="F13" s="40"/>
       <c r="G13" s="40"/>
@@ -7697,17 +7689,19 @@
       <c r="L13" s="40"/>
       <c r="M13" s="40"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="41" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="40">
         <v>166</v>
       </c>
-      <c r="C14" s="100">
+      <c r="C14" s="89">
         <v>166</v>
       </c>
-      <c r="D14" s="40"/>
+      <c r="D14" s="40">
+        <v>165</v>
+      </c>
       <c r="E14" s="40"/>
       <c r="F14" s="40"/>
       <c r="G14" s="40"/>
@@ -7718,7 +7712,7 @@
       <c r="L14" s="40"/>
       <c r="M14" s="40"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="41" t="s">
         <v>5</v>
       </c>
@@ -7728,7 +7722,9 @@
       <c r="C15" s="40">
         <v>30295</v>
       </c>
-      <c r="D15" s="40"/>
+      <c r="D15" s="40">
+        <v>30354</v>
+      </c>
       <c r="E15" s="40"/>
       <c r="F15" s="40"/>
       <c r="G15" s="40"/>
@@ -7739,7 +7735,7 @@
       <c r="L15" s="40"/>
       <c r="M15" s="40"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="41" t="s">
         <v>6</v>
       </c>
@@ -7749,7 +7745,9 @@
       <c r="C16" s="71">
         <v>6039</v>
       </c>
-      <c r="D16" s="40"/>
+      <c r="D16" s="40">
+        <v>6002</v>
+      </c>
       <c r="E16" s="40"/>
       <c r="F16" s="40"/>
       <c r="G16" s="40"/>
@@ -7760,7 +7758,7 @@
       <c r="L16" s="40"/>
       <c r="M16" s="40"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="41" t="s">
         <v>7</v>
       </c>
@@ -7770,7 +7768,9 @@
       <c r="C17" s="40">
         <v>31118</v>
       </c>
-      <c r="D17" s="40"/>
+      <c r="D17" s="40">
+        <v>31245</v>
+      </c>
       <c r="E17" s="40"/>
       <c r="F17" s="40"/>
       <c r="G17" s="40"/>
@@ -7781,7 +7781,7 @@
       <c r="L17" s="40"/>
       <c r="M17" s="40"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="42" t="s">
         <v>11</v>
       </c>
@@ -7795,7 +7795,7 @@
       </c>
       <c r="D18" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>98700</v>
       </c>
       <c r="E18" s="20">
         <f t="shared" si="0"/>
@@ -7833,7 +7833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="43" t="s">
         <v>25</v>
       </c>
@@ -7846,12 +7846,12 @@
         <v>0.26574893344057937</v>
       </c>
       <c r="D19" s="88">
-        <f t="shared" ref="C19:H19" si="1">(D18/C18-1)*100</f>
+        <f t="shared" ref="D19:H19" si="1">(D18/C18-1)*100</f>
+        <v>0.22950220362736307</v>
+      </c>
+      <c r="E19" s="88">
+        <f t="shared" si="1"/>
         <v>-100</v>
-      </c>
-      <c r="E19" s="88" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="F19" s="88" t="e">
         <f t="shared" si="1"/>
@@ -7886,7 +7886,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
@@ -7898,24 +7898,24 @@
       <c r="L20" s="22"/>
       <c r="M20" s="22"/>
     </row>
-    <row r="21" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="89" t="s">
+    <row r="21" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="89"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="89"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="92"/>
+      <c r="M21" s="92"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -7930,7 +7930,7 @@
       <c r="L22" s="23"/>
       <c r="M22" s="23"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>28</v>
       </c>
@@ -7947,7 +7947,7 @@
       <c r="L23" s="80"/>
       <c r="M23" s="24"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C25" s="76"/>
     </row>
   </sheetData>
@@ -7967,36 +7967,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DB42"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.54296875" customWidth="1"/>
-    <col min="2" max="13" width="9.26953125" customWidth="1"/>
-    <col min="14" max="23" width="11.453125" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" customWidth="1"/>
+    <col min="2" max="13" width="9.28515625" customWidth="1"/>
+    <col min="14" max="23" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" ht="17.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+    <row r="1" spans="1:23" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -8008,22 +8008,22 @@
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
     </row>
-    <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+    <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
@@ -8035,22 +8035,22 @@
       <c r="V2" s="6"/>
       <c r="W2" s="6"/>
     </row>
-    <row r="3" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="91">
+    <row r="3" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="94">
         <v>2008</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
@@ -8062,7 +8062,7 @@
       <c r="V3" s="6"/>
       <c r="W3" s="6"/>
     </row>
-    <row r="4" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="45"/>
       <c r="B4" s="45"/>
       <c r="C4" s="45"/>
@@ -8087,7 +8087,7 @@
       <c r="V4" s="6"/>
       <c r="W4" s="6"/>
     </row>
-    <row r="5" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="45"/>
       <c r="B5" s="45"/>
       <c r="C5" s="45"/>
@@ -8112,22 +8112,22 @@
       <c r="V5" s="6"/>
       <c r="W5" s="6"/>
     </row>
-    <row r="6" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="94" t="s">
+    <row r="6" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="97"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -8139,22 +8139,22 @@
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>
     </row>
-    <row r="7" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="95" t="s">
+    <row r="7" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="95"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="98"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -8166,27 +8166,27 @@
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
     </row>
-    <row r="8" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="98" t="s">
+    <row r="8" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="98">
+      <c r="B8" s="101">
         <v>2008</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="98"/>
-    </row>
-    <row r="9" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="98"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
+    </row>
+    <row r="9" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="101"/>
       <c r="B9" s="46" t="s">
         <v>14</v>
       </c>
@@ -8224,7 +8224,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="s">
         <v>0</v>
       </c>
@@ -8265,7 +8265,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="41" t="s">
         <v>1</v>
       </c>
@@ -8306,7 +8306,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="41" t="s">
         <v>2</v>
       </c>
@@ -8347,7 +8347,7 @@
         <v>13491</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="41" t="s">
         <v>3</v>
       </c>
@@ -8388,7 +8388,7 @@
         <v>7964</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="41" t="s">
         <v>4</v>
       </c>
@@ -8429,7 +8429,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="41" t="s">
         <v>5</v>
       </c>
@@ -8470,7 +8470,7 @@
         <v>22804</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="41" t="s">
         <v>6</v>
       </c>
@@ -8511,7 +8511,7 @@
         <v>5603</v>
       </c>
     </row>
-    <row r="17" spans="1:106" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:106" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="41" t="s">
         <v>7</v>
       </c>
@@ -8552,7 +8552,7 @@
         <v>22287</v>
       </c>
     </row>
-    <row r="18" spans="1:106" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:106" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="42" t="s">
         <v>11</v>
       </c>
@@ -8605,7 +8605,7 @@
         <v>74287</v>
       </c>
     </row>
-    <row r="19" spans="1:106" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:106" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="43" t="s">
         <v>25</v>
       </c>
@@ -8750,25 +8750,25 @@
       <c r="DA19" s="13"/>
       <c r="DB19" s="13"/>
     </row>
-    <row r="20" spans="1:106" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:106" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="89" t="s">
+    <row r="20" spans="1:106" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:106" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="89"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="89"/>
-    </row>
-    <row r="22" spans="1:106" x14ac:dyDescent="0.25">
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="92"/>
+      <c r="M21" s="92"/>
+    </row>
+    <row r="22" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -8783,7 +8783,7 @@
       <c r="L22" s="12"/>
       <c r="M22" s="15"/>
     </row>
-    <row r="23" spans="1:106" s="16" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:106" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>28</v>
       </c>
@@ -8800,10 +8800,10 @@
       <c r="L23" s="18"/>
       <c r="M23" s="18"/>
     </row>
-    <row r="24" spans="1:106" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:106" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
     </row>
-    <row r="28" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -8817,20 +8817,20 @@
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
     </row>
-    <row r="29" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -8854,36 +8854,36 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DB42"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A10" sqref="A10:M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.54296875" customWidth="1"/>
-    <col min="2" max="13" width="9.26953125" customWidth="1"/>
-    <col min="14" max="23" width="11.453125" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" customWidth="1"/>
+    <col min="2" max="13" width="9.28515625" customWidth="1"/>
+    <col min="14" max="23" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" ht="17.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+    <row r="1" spans="1:23" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -8895,22 +8895,22 @@
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
     </row>
-    <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+    <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -8922,22 +8922,22 @@
       <c r="V2" s="5"/>
       <c r="W2" s="5"/>
     </row>
-    <row r="3" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="91">
+    <row r="3" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="94">
         <v>2009</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -8949,7 +8949,7 @@
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
     </row>
-    <row r="4" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="45"/>
       <c r="B4" s="45"/>
       <c r="C4" s="45"/>
@@ -8974,7 +8974,7 @@
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
     </row>
-    <row r="5" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="45"/>
       <c r="B5" s="45"/>
       <c r="C5" s="45"/>
@@ -8999,22 +8999,22 @@
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
     </row>
-    <row r="6" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="94" t="s">
+    <row r="6" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="97"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
@@ -9026,22 +9026,22 @@
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
     </row>
-    <row r="7" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="95" t="s">
+    <row r="7" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="95"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="98"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
@@ -9053,27 +9053,27 @@
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
     </row>
-    <row r="8" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="98" t="s">
+    <row r="8" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="98">
+      <c r="B8" s="101">
         <v>2009</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="98"/>
-    </row>
-    <row r="9" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="98"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
+    </row>
+    <row r="9" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="101"/>
       <c r="B9" s="46" t="s">
         <v>14</v>
       </c>
@@ -9111,7 +9111,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="17" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="s">
         <v>0</v>
       </c>
@@ -9152,7 +9152,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="41" t="s">
         <v>1</v>
       </c>
@@ -9193,7 +9193,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="41" t="s">
         <v>2</v>
       </c>
@@ -9234,7 +9234,7 @@
         <v>13095</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="41" t="s">
         <v>3</v>
       </c>
@@ -9275,7 +9275,7 @@
         <v>7671</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="41" t="s">
         <v>4</v>
       </c>
@@ -9316,7 +9316,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="41" t="s">
         <v>5</v>
       </c>
@@ -9357,7 +9357,7 @@
         <v>22958</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="41" t="s">
         <v>6</v>
       </c>
@@ -9398,7 +9398,7 @@
         <v>5344</v>
       </c>
     </row>
-    <row r="17" spans="1:106" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:106" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="41" t="s">
         <v>7</v>
       </c>
@@ -9439,7 +9439,7 @@
         <v>22575</v>
       </c>
     </row>
-    <row r="18" spans="1:106" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:106" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="42" t="s">
         <v>11</v>
       </c>
@@ -9492,7 +9492,7 @@
         <v>73791</v>
       </c>
     </row>
-    <row r="19" spans="1:106" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:106" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="43" t="s">
         <v>25</v>
       </c>
@@ -9638,25 +9638,25 @@
       <c r="DA19" s="13"/>
       <c r="DB19" s="13"/>
     </row>
-    <row r="20" spans="1:106" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:106" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="89" t="s">
+    <row r="20" spans="1:106" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:106" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="89"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="89"/>
-    </row>
-    <row r="22" spans="1:106" x14ac:dyDescent="0.25">
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="92"/>
+      <c r="M21" s="92"/>
+    </row>
+    <row r="22" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -9671,7 +9671,7 @@
       <c r="L22" s="12"/>
       <c r="M22" s="15"/>
     </row>
-    <row r="23" spans="1:106" s="16" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:106" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>28</v>
       </c>
@@ -9688,10 +9688,10 @@
       <c r="L23" s="19"/>
       <c r="M23" s="19"/>
     </row>
-    <row r="24" spans="1:106" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:106" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
     </row>
-    <row r="28" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -9705,20 +9705,20 @@
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
     </row>
-    <row r="29" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -9742,36 +9742,36 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DB42"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.54296875" customWidth="1"/>
-    <col min="2" max="13" width="9.26953125" customWidth="1"/>
-    <col min="14" max="23" width="11.453125" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" customWidth="1"/>
+    <col min="2" max="13" width="9.28515625" customWidth="1"/>
+    <col min="14" max="23" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" ht="17.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+    <row r="1" spans="1:23" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -9783,22 +9783,22 @@
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
     </row>
-    <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+    <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -9810,22 +9810,22 @@
       <c r="V2" s="5"/>
       <c r="W2" s="5"/>
     </row>
-    <row r="3" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="91">
+    <row r="3" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="94">
         <v>2010</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -9837,7 +9837,7 @@
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
     </row>
-    <row r="4" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="45"/>
       <c r="B4" s="45"/>
       <c r="C4" s="45"/>
@@ -9862,7 +9862,7 @@
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
     </row>
-    <row r="5" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="45"/>
       <c r="B5" s="45"/>
       <c r="C5" s="45"/>
@@ -9887,22 +9887,22 @@
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
     </row>
-    <row r="6" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="94" t="s">
+    <row r="6" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="97"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
@@ -9914,22 +9914,22 @@
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
     </row>
-    <row r="7" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="95" t="s">
+    <row r="7" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="95"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="98"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
@@ -9941,27 +9941,27 @@
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
     </row>
-    <row r="8" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="98" t="s">
+    <row r="8" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="98">
+      <c r="B8" s="101">
         <v>2010</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="98"/>
-    </row>
-    <row r="9" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="98"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
+    </row>
+    <row r="9" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="101"/>
       <c r="B9" s="46" t="s">
         <v>14</v>
       </c>
@@ -9999,7 +9999,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="17" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="s">
         <v>0</v>
       </c>
@@ -10040,7 +10040,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="41" t="s">
         <v>1</v>
       </c>
@@ -10081,7 +10081,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="41" t="s">
         <v>2</v>
       </c>
@@ -10122,7 +10122,7 @@
         <v>13168</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="41" t="s">
         <v>3</v>
       </c>
@@ -10163,7 +10163,7 @@
         <v>7663</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="41" t="s">
         <v>4</v>
       </c>
@@ -10204,7 +10204,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="41" t="s">
         <v>5</v>
       </c>
@@ -10245,7 +10245,7 @@
         <v>23341</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="41" t="s">
         <v>6</v>
       </c>
@@ -10286,7 +10286,7 @@
         <v>5328</v>
       </c>
     </row>
-    <row r="17" spans="1:106" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:106" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="41" t="s">
         <v>7</v>
       </c>
@@ -10327,7 +10327,7 @@
         <v>23027</v>
       </c>
     </row>
-    <row r="18" spans="1:106" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:106" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="42" t="s">
         <v>11</v>
       </c>
@@ -10380,7 +10380,7 @@
         <v>74713</v>
       </c>
     </row>
-    <row r="19" spans="1:106" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:106" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="43" t="s">
         <v>25</v>
       </c>
@@ -10526,25 +10526,25 @@
       <c r="DA19" s="13"/>
       <c r="DB19" s="13"/>
     </row>
-    <row r="20" spans="1:106" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:106" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="89" t="s">
+    <row r="20" spans="1:106" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:106" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="89"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="89"/>
-    </row>
-    <row r="22" spans="1:106" x14ac:dyDescent="0.25">
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="92"/>
+      <c r="M21" s="92"/>
+    </row>
+    <row r="22" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -10559,7 +10559,7 @@
       <c r="L22" s="15"/>
       <c r="M22" s="15"/>
     </row>
-    <row r="23" spans="1:106" s="5" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:106" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>28</v>
       </c>
@@ -10576,10 +10576,10 @@
       <c r="L23" s="18"/>
       <c r="M23" s="18"/>
     </row>
-    <row r="24" spans="1:106" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:106" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
     </row>
-    <row r="25" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:106" x14ac:dyDescent="0.2">
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -10593,7 +10593,7 @@
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
     </row>
-    <row r="28" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -10607,20 +10607,20 @@
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
     </row>
-    <row r="29" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -10643,36 +10643,36 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DB42"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.54296875" customWidth="1"/>
-    <col min="2" max="13" width="9.26953125" customWidth="1"/>
-    <col min="14" max="23" width="11.453125" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" customWidth="1"/>
+    <col min="2" max="13" width="9.28515625" customWidth="1"/>
+    <col min="14" max="23" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" ht="17.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+    <row r="1" spans="1:23" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -10684,22 +10684,22 @@
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
     </row>
-    <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+    <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -10711,22 +10711,22 @@
       <c r="V2" s="5"/>
       <c r="W2" s="5"/>
     </row>
-    <row r="3" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="91">
+    <row r="3" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="94">
         <v>2011</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -10738,7 +10738,7 @@
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
     </row>
-    <row r="4" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="45"/>
       <c r="B4" s="45"/>
       <c r="C4" s="45"/>
@@ -10763,7 +10763,7 @@
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
     </row>
-    <row r="5" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="45"/>
       <c r="B5" s="45"/>
       <c r="C5" s="45"/>
@@ -10788,22 +10788,22 @@
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
     </row>
-    <row r="6" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="94" t="s">
+    <row r="6" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="97"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
@@ -10815,22 +10815,22 @@
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
     </row>
-    <row r="7" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="95" t="s">
+    <row r="7" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="95"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="98"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
@@ -10842,27 +10842,27 @@
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
     </row>
-    <row r="8" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="98" t="s">
+    <row r="8" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="98">
+      <c r="B8" s="101">
         <v>2011</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="98"/>
-    </row>
-    <row r="9" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="98"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
+    </row>
+    <row r="9" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="101"/>
       <c r="B9" s="46" t="s">
         <v>14</v>
       </c>
@@ -10900,7 +10900,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="17" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="s">
         <v>0</v>
       </c>
@@ -10941,7 +10941,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="41" t="s">
         <v>1</v>
       </c>
@@ -10982,7 +10982,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="41" t="s">
         <v>2</v>
       </c>
@@ -11023,7 +11023,7 @@
         <v>13135</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="41" t="s">
         <v>3</v>
       </c>
@@ -11064,7 +11064,7 @@
         <v>7755</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="41" t="s">
         <v>4</v>
       </c>
@@ -11105,7 +11105,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="41" t="s">
         <v>5</v>
       </c>
@@ -11146,7 +11146,7 @@
         <v>23679</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="41" t="s">
         <v>6</v>
       </c>
@@ -11187,7 +11187,7 @@
         <v>5324</v>
       </c>
     </row>
-    <row r="17" spans="1:106" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:106" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="41" t="s">
         <v>7</v>
       </c>
@@ -11228,7 +11228,7 @@
         <v>23456</v>
       </c>
     </row>
-    <row r="18" spans="1:106" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:106" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="42" t="s">
         <v>11</v>
       </c>
@@ -11281,7 +11281,7 @@
         <v>75571</v>
       </c>
     </row>
-    <row r="19" spans="1:106" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:106" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="43" t="s">
         <v>25</v>
       </c>
@@ -11427,25 +11427,25 @@
       <c r="DA19" s="13"/>
       <c r="DB19" s="13"/>
     </row>
-    <row r="20" spans="1:106" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:106" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="89" t="s">
+    <row r="20" spans="1:106" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:106" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="89"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="89"/>
-    </row>
-    <row r="22" spans="1:106" x14ac:dyDescent="0.25">
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="92"/>
+      <c r="M21" s="92"/>
+    </row>
+    <row r="22" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -11460,7 +11460,7 @@
       <c r="L22" s="12"/>
       <c r="M22" s="15"/>
     </row>
-    <row r="23" spans="1:106" s="5" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:106" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>28</v>
       </c>
@@ -11477,10 +11477,10 @@
       <c r="L23" s="18"/>
       <c r="M23" s="18"/>
     </row>
-    <row r="24" spans="1:106" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:106" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
     </row>
-    <row r="28" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -11494,9 +11494,9 @@
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
     </row>
-    <row r="29" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -11510,17 +11510,17 @@
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
     </row>
-    <row r="32" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -11543,38 +11543,38 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DB42"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.54296875" customWidth="1"/>
-    <col min="2" max="3" width="9.26953125" customWidth="1"/>
-    <col min="4" max="12" width="9.26953125" style="22" customWidth="1"/>
-    <col min="13" max="13" width="9.26953125" customWidth="1"/>
-    <col min="14" max="23" width="11.453125" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" customWidth="1"/>
+    <col min="2" max="3" width="9.28515625" customWidth="1"/>
+    <col min="4" max="12" width="9.28515625" style="22" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" customWidth="1"/>
+    <col min="14" max="23" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" ht="17.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+    <row r="1" spans="1:23" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -11586,22 +11586,22 @@
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
     </row>
-    <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+    <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -11613,22 +11613,22 @@
       <c r="V2" s="5"/>
       <c r="W2" s="5"/>
     </row>
-    <row r="3" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="91">
+    <row r="3" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="94">
         <v>2012</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -11640,7 +11640,7 @@
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
     </row>
-    <row r="4" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="45"/>
       <c r="B4" s="45"/>
       <c r="C4" s="45"/>
@@ -11665,7 +11665,7 @@
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
     </row>
-    <row r="5" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="45"/>
       <c r="B5" s="45"/>
       <c r="C5" s="45"/>
@@ -11690,22 +11690,22 @@
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
     </row>
-    <row r="6" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="94" t="s">
+    <row r="6" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="97"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
@@ -11717,22 +11717,22 @@
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
     </row>
-    <row r="7" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="95" t="s">
+    <row r="7" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="95"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="98"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
@@ -11744,27 +11744,27 @@
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
     </row>
-    <row r="8" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="98" t="s">
+    <row r="8" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="98">
+      <c r="B8" s="101">
         <v>2012</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-    </row>
-    <row r="9" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="98"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
+    </row>
+    <row r="9" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="101"/>
       <c r="B9" s="46" t="s">
         <v>14</v>
       </c>
@@ -11802,7 +11802,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="17" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="s">
         <v>0</v>
       </c>
@@ -11843,7 +11843,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="41" t="s">
         <v>1</v>
       </c>
@@ -11884,7 +11884,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="41" t="s">
         <v>2</v>
       </c>
@@ -11925,7 +11925,7 @@
         <v>13165</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="41" t="s">
         <v>3</v>
       </c>
@@ -11966,7 +11966,7 @@
         <v>8044</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="41" t="s">
         <v>4</v>
       </c>
@@ -12007,7 +12007,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="41" t="s">
         <v>5</v>
       </c>
@@ -12048,7 +12048,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="41" t="s">
         <v>6</v>
       </c>
@@ -12089,7 +12089,7 @@
         <v>5452</v>
       </c>
     </row>
-    <row r="17" spans="1:106" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:106" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="41" t="s">
         <v>7</v>
       </c>
@@ -12130,7 +12130,7 @@
         <v>24330</v>
       </c>
     </row>
-    <row r="18" spans="1:106" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:106" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="42" t="s">
         <v>11</v>
       </c>
@@ -12183,7 +12183,7 @@
         <v>77290</v>
       </c>
     </row>
-    <row r="19" spans="1:106" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:106" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="43" t="s">
         <v>25</v>
       </c>
@@ -12329,25 +12329,25 @@
       <c r="DA19" s="13"/>
       <c r="DB19" s="13"/>
     </row>
-    <row r="20" spans="1:106" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:106" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="89" t="s">
+    <row r="20" spans="1:106" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:106" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="89"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="89"/>
-    </row>
-    <row r="22" spans="1:106" x14ac:dyDescent="0.25">
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="92"/>
+      <c r="M21" s="92"/>
+    </row>
+    <row r="22" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -12362,7 +12362,7 @@
       <c r="L22" s="23"/>
       <c r="M22" s="15"/>
     </row>
-    <row r="23" spans="1:106" s="5" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:106" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>28</v>
       </c>
@@ -12379,10 +12379,10 @@
       <c r="L23" s="24"/>
       <c r="M23" s="18"/>
     </row>
-    <row r="24" spans="1:106" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:106" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
     </row>
-    <row r="28" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -12396,9 +12396,9 @@
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
     </row>
-    <row r="29" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="25"/>
@@ -12412,17 +12412,17 @@
       <c r="L31" s="25"/>
       <c r="M31" s="9"/>
     </row>
-    <row r="32" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -12445,37 +12445,37 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DB42"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.54296875" customWidth="1"/>
-    <col min="2" max="3" width="9.26953125" customWidth="1"/>
-    <col min="4" max="13" width="9.26953125" style="22" customWidth="1"/>
-    <col min="14" max="23" width="11.453125" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" customWidth="1"/>
+    <col min="2" max="3" width="9.28515625" customWidth="1"/>
+    <col min="4" max="13" width="9.28515625" style="22" customWidth="1"/>
+    <col min="14" max="23" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+    <row r="1" spans="1:23" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -12487,22 +12487,22 @@
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
     </row>
-    <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+    <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -12514,22 +12514,22 @@
       <c r="V2" s="5"/>
       <c r="W2" s="5"/>
     </row>
-    <row r="3" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="91">
+    <row r="3" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="94">
         <v>2013</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -12541,7 +12541,7 @@
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
     </row>
-    <row r="4" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="45"/>
       <c r="B4" s="45"/>
       <c r="C4" s="45"/>
@@ -12566,7 +12566,7 @@
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
     </row>
-    <row r="5" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="45"/>
       <c r="B5" s="45"/>
       <c r="C5" s="45"/>
@@ -12591,22 +12591,22 @@
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
     </row>
-    <row r="6" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="94" t="s">
+    <row r="6" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="97"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
@@ -12618,22 +12618,22 @@
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
     </row>
-    <row r="7" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="95" t="s">
+    <row r="7" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="95"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="98"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
@@ -12645,27 +12645,27 @@
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
     </row>
-    <row r="8" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="98" t="s">
+    <row r="8" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="98">
+      <c r="B8" s="101">
         <v>2013</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-    </row>
-    <row r="9" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="98"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
+    </row>
+    <row r="9" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="101"/>
       <c r="B9" s="46" t="s">
         <v>14</v>
       </c>
@@ -12703,7 +12703,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="17" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="s">
         <v>0</v>
       </c>
@@ -12744,7 +12744,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="41" t="s">
         <v>1</v>
       </c>
@@ -12785,7 +12785,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="41" t="s">
         <v>2</v>
       </c>
@@ -12826,7 +12826,7 @@
         <v>13135</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="41" t="s">
         <v>3</v>
       </c>
@@ -12867,7 +12867,7 @@
         <v>8121</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="41" t="s">
         <v>4</v>
       </c>
@@ -12908,7 +12908,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="41" t="s">
         <v>5</v>
       </c>
@@ -12949,7 +12949,7 @@
         <v>24338</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="41" t="s">
         <v>6</v>
       </c>
@@ -12990,7 +12990,7 @@
         <v>5519</v>
       </c>
     </row>
-    <row r="17" spans="1:106" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:106" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="41" t="s">
         <v>7</v>
       </c>
@@ -13031,7 +13031,7 @@
         <v>24632</v>
       </c>
     </row>
-    <row r="18" spans="1:106" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:106" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="42" t="s">
         <v>11</v>
       </c>
@@ -13084,7 +13084,7 @@
         <v>78051</v>
       </c>
     </row>
-    <row r="19" spans="1:106" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:106" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="43" t="s">
         <v>25</v>
       </c>
@@ -13230,25 +13230,25 @@
       <c r="DA19" s="13"/>
       <c r="DB19" s="13"/>
     </row>
-    <row r="20" spans="1:106" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:106" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="89" t="s">
+    <row r="20" spans="1:106" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:106" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="89"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="89"/>
-    </row>
-    <row r="22" spans="1:106" x14ac:dyDescent="0.25">
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="92"/>
+      <c r="M21" s="92"/>
+    </row>
+    <row r="22" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -13263,7 +13263,7 @@
       <c r="L22" s="23"/>
       <c r="M22" s="23"/>
     </row>
-    <row r="23" spans="1:106" s="5" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:106" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>28</v>
       </c>
@@ -13280,10 +13280,10 @@
       <c r="L23" s="24"/>
       <c r="M23" s="24"/>
     </row>
-    <row r="24" spans="1:106" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:106" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
     </row>
-    <row r="28" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -13297,9 +13297,9 @@
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
     </row>
-    <row r="29" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="25"/>
@@ -13313,17 +13313,17 @@
       <c r="L31" s="25"/>
       <c r="M31" s="25"/>
     </row>
-    <row r="32" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -13346,37 +13346,37 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DA42"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.26953125" customWidth="1"/>
-    <col min="2" max="3" width="9.26953125" customWidth="1"/>
-    <col min="4" max="13" width="9.26953125" style="22" customWidth="1"/>
-    <col min="14" max="22" width="11.453125" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" customWidth="1"/>
+    <col min="2" max="3" width="9.28515625" customWidth="1"/>
+    <col min="4" max="13" width="9.28515625" style="22" customWidth="1"/>
+    <col min="14" max="22" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+    <row r="1" spans="1:22" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -13387,22 +13387,22 @@
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
     </row>
-    <row r="2" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+    <row r="2" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -13413,22 +13413,22 @@
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
     </row>
-    <row r="3" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="91">
+    <row r="3" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="94">
         <v>2014</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -13439,7 +13439,7 @@
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
     </row>
-    <row r="4" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="45"/>
       <c r="B4" s="45"/>
       <c r="C4" s="45"/>
@@ -13463,7 +13463,7 @@
       <c r="U4" s="5"/>
       <c r="V4" s="5"/>
     </row>
-    <row r="5" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="45"/>
       <c r="B5" s="45"/>
       <c r="C5" s="45"/>
@@ -13487,22 +13487,22 @@
       <c r="U5" s="5"/>
       <c r="V5" s="5"/>
     </row>
-    <row r="6" spans="1:22" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="94" t="s">
+    <row r="6" spans="1:22" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="97"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
@@ -13513,22 +13513,22 @@
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
     </row>
-    <row r="7" spans="1:22" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="95" t="s">
+    <row r="7" spans="1:22" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="95"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="98"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
@@ -13539,27 +13539,27 @@
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
     </row>
-    <row r="8" spans="1:22" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="98" t="s">
+    <row r="8" spans="1:22" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="98">
+      <c r="B8" s="101">
         <v>2014</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-    </row>
-    <row r="9" spans="1:22" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="98"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
+    </row>
+    <row r="9" spans="1:22" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="101"/>
       <c r="B9" s="46" t="s">
         <v>14</v>
       </c>
@@ -13597,7 +13597,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="17" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="s">
         <v>0</v>
       </c>
@@ -13638,7 +13638,7 @@
         <v>2249</v>
       </c>
     </row>
-    <row r="11" spans="1:22" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="41" t="s">
         <v>1</v>
       </c>
@@ -13679,7 +13679,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:22" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="41" t="s">
         <v>2</v>
       </c>
@@ -13720,7 +13720,7 @@
         <v>13305</v>
       </c>
     </row>
-    <row r="13" spans="1:22" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="41" t="s">
         <v>3</v>
       </c>
@@ -13761,7 +13761,7 @@
         <v>8541</v>
       </c>
     </row>
-    <row r="14" spans="1:22" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="41" t="s">
         <v>4</v>
       </c>
@@ -13802,7 +13802,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:22" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="41" t="s">
         <v>5</v>
       </c>
@@ -13843,7 +13843,7 @@
         <v>24640</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="41" t="s">
         <v>6</v>
       </c>
@@ -13884,7 +13884,7 @@
         <v>5798</v>
       </c>
     </row>
-    <row r="17" spans="1:105" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:105" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="41" t="s">
         <v>7</v>
       </c>
@@ -13925,7 +13925,7 @@
         <v>25234</v>
       </c>
     </row>
-    <row r="18" spans="1:105" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:105" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="42" t="s">
         <v>11</v>
       </c>
@@ -13978,7 +13978,7 @@
         <v>79961</v>
       </c>
     </row>
-    <row r="19" spans="1:105" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:105" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="43" t="s">
         <v>25</v>
       </c>
@@ -14123,25 +14123,25 @@
       <c r="CZ19" s="13"/>
       <c r="DA19" s="13"/>
     </row>
-    <row r="20" spans="1:105" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:105" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="89" t="s">
+    <row r="20" spans="1:105" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:105" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="89"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="89"/>
-    </row>
-    <row r="22" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="92"/>
+      <c r="M21" s="92"/>
+    </row>
+    <row r="22" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -14156,7 +14156,7 @@
       <c r="L22" s="23"/>
       <c r="M22" s="23"/>
     </row>
-    <row r="23" spans="1:105" s="5" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:105" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>28</v>
       </c>
@@ -14173,16 +14173,16 @@
       <c r="L23" s="24"/>
       <c r="M23" s="24"/>
     </row>
-    <row r="24" spans="1:105" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:105" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
     </row>
-    <row r="26" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:105" x14ac:dyDescent="0.2">
       <c r="M26" s="58"/>
     </row>
-    <row r="27" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:105" x14ac:dyDescent="0.2">
       <c r="M27" s="58"/>
     </row>
-    <row r="28" spans="1:105" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:105" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -14196,9 +14196,9 @@
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
     </row>
-    <row r="29" spans="1:105" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:105" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:105" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:105" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:105" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:105" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="25"/>
@@ -14212,17 +14212,17 @@
       <c r="L31" s="25"/>
       <c r="M31" s="25"/>
     </row>
-    <row r="32" spans="1:105" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:105" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -14245,37 +14245,37 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CZ42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.26953125" customWidth="1"/>
-    <col min="2" max="3" width="9.26953125" customWidth="1"/>
-    <col min="4" max="13" width="9.26953125" style="22" customWidth="1"/>
-    <col min="14" max="21" width="11.453125" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" customWidth="1"/>
+    <col min="2" max="3" width="9.28515625" customWidth="1"/>
+    <col min="4" max="13" width="9.28515625" style="22" customWidth="1"/>
+    <col min="14" max="21" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -14285,22 +14285,22 @@
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
     </row>
-    <row r="2" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+    <row r="2" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -14310,22 +14310,22 @@
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
     </row>
-    <row r="3" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="91">
+    <row r="3" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="94">
         <v>2015</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -14335,7 +14335,7 @@
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
     </row>
-    <row r="4" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="45"/>
       <c r="B4" s="45"/>
       <c r="C4" s="45"/>
@@ -14358,7 +14358,7 @@
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
     </row>
-    <row r="5" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="45"/>
       <c r="B5" s="45"/>
       <c r="C5" s="45"/>
@@ -14381,63 +14381,63 @@
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
     </row>
-    <row r="6" spans="1:21" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="94" t="s">
+    <row r="6" spans="1:21" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="97"/>
       <c r="U6" s="5"/>
     </row>
-    <row r="7" spans="1:21" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="95" t="s">
+    <row r="7" spans="1:21" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="95"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="98"/>
       <c r="U7" s="5"/>
     </row>
-    <row r="8" spans="1:21" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="98" t="s">
+    <row r="8" spans="1:21" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="98">
+      <c r="B8" s="101">
         <v>2015</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-    </row>
-    <row r="9" spans="1:21" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="98"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
+    </row>
+    <row r="9" spans="1:21" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="101"/>
       <c r="B9" s="57" t="s">
         <v>14</v>
       </c>
@@ -14482,7 +14482,7 @@
       <c r="S9"/>
       <c r="T9"/>
     </row>
-    <row r="10" spans="1:21" s="17" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="s">
         <v>0</v>
       </c>
@@ -14530,7 +14530,7 @@
       <c r="S10"/>
       <c r="T10"/>
     </row>
-    <row r="11" spans="1:21" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="41" t="s">
         <v>1</v>
       </c>
@@ -14578,7 +14578,7 @@
       <c r="S11"/>
       <c r="T11"/>
     </row>
-    <row r="12" spans="1:21" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="41" t="s">
         <v>2</v>
       </c>
@@ -14626,7 +14626,7 @@
       <c r="S12"/>
       <c r="T12"/>
     </row>
-    <row r="13" spans="1:21" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="41" t="s">
         <v>3</v>
       </c>
@@ -14674,7 +14674,7 @@
       <c r="S13"/>
       <c r="T13"/>
     </row>
-    <row r="14" spans="1:21" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="41" t="s">
         <v>4</v>
       </c>
@@ -14722,7 +14722,7 @@
       <c r="S14"/>
       <c r="T14"/>
     </row>
-    <row r="15" spans="1:21" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="41" t="s">
         <v>5</v>
       </c>
@@ -14770,7 +14770,7 @@
       <c r="S15"/>
       <c r="T15"/>
     </row>
-    <row r="16" spans="1:21" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="41" t="s">
         <v>6</v>
       </c>
@@ -14818,7 +14818,7 @@
       <c r="S16"/>
       <c r="T16"/>
     </row>
-    <row r="17" spans="1:104" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:104" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="41" t="s">
         <v>7</v>
       </c>
@@ -14866,7 +14866,7 @@
       <c r="S17"/>
       <c r="T17"/>
     </row>
-    <row r="18" spans="1:104" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:104" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="42" t="s">
         <v>11</v>
       </c>
@@ -14933,7 +14933,7 @@
       <c r="Z18" s="13"/>
       <c r="AA18" s="13"/>
     </row>
-    <row r="19" spans="1:104" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:104" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="43" t="s">
         <v>25</v>
       </c>
@@ -15077,25 +15077,25 @@
       <c r="CY19" s="13"/>
       <c r="CZ19" s="13"/>
     </row>
-    <row r="20" spans="1:104" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:104" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="89" t="s">
+    <row r="20" spans="1:104" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:104" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="89"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="89"/>
-    </row>
-    <row r="22" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="92"/>
+      <c r="M21" s="92"/>
+    </row>
+    <row r="22" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -15124,7 +15124,7 @@
       <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
     </row>
-    <row r="23" spans="1:104" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:104" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>28</v>
       </c>
@@ -15155,16 +15155,16 @@
       <c r="Z23"/>
       <c r="AA23"/>
     </row>
-    <row r="24" spans="1:104" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:104" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
     </row>
-    <row r="26" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:104" x14ac:dyDescent="0.2">
       <c r="M26" s="58"/>
     </row>
-    <row r="27" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:104" x14ac:dyDescent="0.2">
       <c r="M27" s="58"/>
     </row>
-    <row r="28" spans="1:104" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:104" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -15178,9 +15178,9 @@
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
     </row>
-    <row r="29" spans="1:104" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:104" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:104" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:104" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:104" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:104" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="25"/>
@@ -15194,17 +15194,17 @@
       <c r="L31" s="25"/>
       <c r="M31" s="25"/>
     </row>
-    <row r="32" spans="1:104" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:104" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>

--- a/Tabulados/Patrones.xlsx
+++ b/Tabulados/Patrones.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\UEF\Actualizaciones pagina\Tabulados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susana.galindo\Documents\GitHub\SIE\Tabulados\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1131,7 +1131,7 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1370,6 +1370,15 @@
     <xf numFmtId="3" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="45" fillId="35" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="45" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -1388,7 +1397,7 @@
     <xf numFmtId="0" fontId="13" fillId="37" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="36" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="36" borderId="1" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="38" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1397,26 +1406,20 @@
     <xf numFmtId="0" fontId="21" fillId="38" borderId="2" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="2" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="36" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="2" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="36" borderId="1" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="45" fillId="35" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="45" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="237">
@@ -2879,7 +2882,7 @@
   <dimension ref="A1:BK24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2895,26 +2898,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
       <c r="S1" s="26"/>
       <c r="T1" s="26"/>
       <c r="U1" s="26"/>
@@ -2923,26 +2926,26 @@
       <c r="X1" s="26"/>
     </row>
     <row r="2" spans="1:24" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="94"/>
-      <c r="R2" s="94"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="97"/>
+      <c r="R2" s="97"/>
       <c r="S2" s="28"/>
       <c r="T2" s="28"/>
       <c r="U2" s="28"/>
@@ -2951,29 +2954,29 @@
       <c r="X2" s="28"/>
     </row>
     <row r="3" spans="1:24" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="97"/>
       <c r="S3" s="28"/>
       <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
+      <c r="U3" s="108"/>
       <c r="V3" s="28"/>
       <c r="W3" s="28"/>
       <c r="X3" s="28"/>
@@ -3031,26 +3034,26 @@
       <c r="X5" s="8"/>
     </row>
     <row r="6" spans="1:24" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="97" t="s">
+      <c r="A6" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="97"/>
-      <c r="M6" s="97"/>
-      <c r="N6" s="97"/>
-      <c r="O6" s="97"/>
-      <c r="P6" s="97"/>
-      <c r="Q6" s="97"/>
-      <c r="R6" s="97"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
+      <c r="N6" s="100"/>
+      <c r="O6" s="100"/>
+      <c r="P6" s="100"/>
+      <c r="Q6" s="100"/>
+      <c r="R6" s="100"/>
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
       <c r="U6" s="8"/>
@@ -3059,26 +3062,26 @@
       <c r="X6" s="8"/>
     </row>
     <row r="7" spans="1:24" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="101" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
-      <c r="N7" s="104"/>
-      <c r="O7" s="104"/>
-      <c r="P7" s="104"/>
-      <c r="Q7" s="104"/>
-      <c r="R7" s="104"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
+      <c r="N7" s="101"/>
+      <c r="O7" s="101"/>
+      <c r="P7" s="101"/>
+      <c r="Q7" s="101"/>
+      <c r="R7" s="101"/>
       <c r="S7" s="8"/>
       <c r="T7" s="8"/>
       <c r="U7" s="8"/>
@@ -3087,7 +3090,7 @@
       <c r="X7" s="8"/>
     </row>
     <row r="8" spans="1:24" s="7" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="98" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="86">
@@ -3129,20 +3132,20 @@
       <c r="N8" s="86">
         <v>2020</v>
       </c>
-      <c r="O8" s="103">
+      <c r="O8" s="104">
         <v>2021</v>
       </c>
-      <c r="P8" s="103"/>
-      <c r="Q8" s="99" t="s">
+      <c r="P8" s="104"/>
+      <c r="Q8" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="R8" s="99" t="s">
+      <c r="R8" s="102" t="s">
         <v>34</v>
       </c>
       <c r="S8" s="8"/>
     </row>
     <row r="9" spans="1:24" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="96"/>
+      <c r="A9" s="99"/>
       <c r="B9" s="48" t="s">
         <v>13</v>
       </c>
@@ -3188,8 +3191,8 @@
       <c r="P9" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="100"/>
-      <c r="R9" s="100"/>
+      <c r="Q9" s="103"/>
+      <c r="R9" s="103"/>
       <c r="S9" s="8"/>
     </row>
     <row r="10" spans="1:24" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3238,7 +3241,7 @@
       <c r="O10" s="71">
         <v>3451</v>
       </c>
-      <c r="P10" s="105">
+      <c r="P10" s="92">
         <v>3462</v>
       </c>
       <c r="Q10" s="71">
@@ -3297,7 +3300,7 @@
       <c r="O11" s="40">
         <v>127</v>
       </c>
-      <c r="P11" s="106">
+      <c r="P11" s="93">
         <v>125</v>
       </c>
       <c r="Q11" s="91">
@@ -3356,7 +3359,7 @@
       <c r="O12" s="71">
         <v>15446</v>
       </c>
-      <c r="P12" s="105">
+      <c r="P12" s="92">
         <v>15462</v>
       </c>
       <c r="Q12" s="91">
@@ -3415,7 +3418,7 @@
       <c r="O13" s="40">
         <v>11832</v>
       </c>
-      <c r="P13" s="107">
+      <c r="P13" s="94">
         <v>11885</v>
       </c>
       <c r="Q13" s="40">
@@ -3474,7 +3477,7 @@
       <c r="O14" s="89">
         <v>166</v>
       </c>
-      <c r="P14" s="105">
+      <c r="P14" s="92">
         <v>165</v>
       </c>
       <c r="Q14" s="91">
@@ -3533,7 +3536,7 @@
       <c r="O15" s="40">
         <v>30295</v>
       </c>
-      <c r="P15" s="107">
+      <c r="P15" s="94">
         <v>30354</v>
       </c>
       <c r="Q15" s="40">
@@ -3592,7 +3595,7 @@
       <c r="O16" s="71">
         <v>6039</v>
       </c>
-      <c r="P16" s="105">
+      <c r="P16" s="92">
         <v>6002</v>
       </c>
       <c r="Q16" s="91">
@@ -3651,7 +3654,7 @@
       <c r="O17" s="40">
         <v>31118</v>
       </c>
-      <c r="P17" s="106">
+      <c r="P17" s="93">
         <v>31245</v>
       </c>
       <c r="Q17" s="40">
@@ -3758,26 +3761,26 @@
       <c r="S19" s="62"/>
     </row>
     <row r="20" spans="1:63" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="92" t="s">
+      <c r="A20" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="92"/>
-      <c r="C20" s="92"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="92"/>
-      <c r="H20" s="92"/>
-      <c r="I20" s="92"/>
-      <c r="J20" s="92"/>
-      <c r="K20" s="92"/>
-      <c r="L20" s="92"/>
-      <c r="M20" s="92"/>
-      <c r="N20" s="92"/>
-      <c r="O20" s="92"/>
-      <c r="P20" s="92"/>
-      <c r="Q20" s="92"/>
-      <c r="R20" s="92"/>
+      <c r="B20" s="95"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="95"/>
+      <c r="I20" s="95"/>
+      <c r="J20" s="95"/>
+      <c r="K20" s="95"/>
+      <c r="L20" s="95"/>
+      <c r="M20" s="95"/>
+      <c r="N20" s="95"/>
+      <c r="O20" s="95"/>
+      <c r="P20" s="95"/>
+      <c r="Q20" s="95"/>
+      <c r="R20" s="95"/>
     </row>
     <row r="21" spans="1:63" s="35" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="18"/>
@@ -3930,55 +3933,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="94">
+      <c r="A3" s="97">
         <v>2016</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="45"/>
@@ -4011,60 +4014,60 @@
       <c r="M5" s="45"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="97" t="s">
+      <c r="A6" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="97"/>
-      <c r="M6" s="97"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="98" t="s">
+      <c r="A7" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="98"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="98"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="106"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="105">
         <v>2016</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="107"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="101"/>
+      <c r="A9" s="105"/>
       <c r="B9" s="60" t="s">
         <v>14</v>
       </c>
@@ -4549,21 +4552,21 @@
       <c r="M20" s="22"/>
     </row>
     <row r="21" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -4628,55 +4631,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="94">
+      <c r="A3" s="97">
         <v>2017</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="45"/>
@@ -4709,60 +4712,60 @@
       <c r="M5" s="45"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="97" t="s">
+      <c r="A6" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="97"/>
-      <c r="M6" s="97"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="98" t="s">
+      <c r="A7" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="98"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="98"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="106"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="105">
         <v>2017</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="107"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="101"/>
+      <c r="A9" s="105"/>
       <c r="B9" s="61" t="s">
         <v>14</v>
       </c>
@@ -5247,21 +5250,21 @@
       <c r="M20" s="22"/>
     </row>
     <row r="21" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -5326,55 +5329,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="94">
+      <c r="A3" s="97">
         <v>2018</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="45"/>
@@ -5407,60 +5410,60 @@
       <c r="M5" s="45"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="97" t="s">
+      <c r="A6" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="97"/>
-      <c r="M6" s="97"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="98" t="s">
+      <c r="A7" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="98"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="98"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="106"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="105">
         <v>2018</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="107"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="101"/>
+      <c r="A9" s="105"/>
       <c r="B9" s="63" t="s">
         <v>14</v>
       </c>
@@ -5945,21 +5948,21 @@
       <c r="M20" s="22"/>
     </row>
     <row r="21" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -6024,55 +6027,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="94">
+      <c r="A3" s="97">
         <v>2019</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="45"/>
@@ -6105,60 +6108,60 @@
       <c r="M5" s="45"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="97" t="s">
+      <c r="A6" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="97"/>
-      <c r="M6" s="97"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="98" t="s">
+      <c r="A7" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="98"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="98"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="106"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="105">
         <v>2019</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="107"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="101"/>
+      <c r="A9" s="105"/>
       <c r="B9" s="75" t="s">
         <v>14</v>
       </c>
@@ -6643,21 +6646,21 @@
       <c r="M20" s="22"/>
     </row>
     <row r="21" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -6725,55 +6728,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="94">
+      <c r="A3" s="97">
         <v>2020</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="81"/>
@@ -6806,60 +6809,60 @@
       <c r="M5" s="81"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="97" t="s">
+      <c r="A6" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="97"/>
-      <c r="M6" s="97"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="98" t="s">
+      <c r="A7" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="98"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="98"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="106"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="105">
         <v>2020</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="107"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="101"/>
+      <c r="A9" s="105"/>
       <c r="B9" s="82" t="s">
         <v>14</v>
       </c>
@@ -7343,21 +7346,21 @@
       <c r="M20" s="22"/>
     </row>
     <row r="21" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -7425,55 +7428,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="94">
+      <c r="A3" s="97">
         <v>2021</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="84"/>
@@ -7506,60 +7509,60 @@
       <c r="M5" s="84"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="97" t="s">
+      <c r="A6" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="97"/>
-      <c r="M6" s="97"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="98" t="s">
+      <c r="A7" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="98"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="98"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="106"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="105">
         <v>2021</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="107"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="101"/>
+      <c r="A9" s="105"/>
       <c r="B9" s="87" t="s">
         <v>14</v>
       </c>
@@ -7899,21 +7902,21 @@
       <c r="M20" s="22"/>
     </row>
     <row r="21" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -7982,21 +7985,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -8009,21 +8012,21 @@
       <c r="W1" s="3"/>
     </row>
     <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
@@ -8036,21 +8039,21 @@
       <c r="W2" s="6"/>
     </row>
     <row r="3" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="94">
+      <c r="A3" s="97">
         <v>2008</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
@@ -8113,21 +8116,21 @@
       <c r="W5" s="6"/>
     </row>
     <row r="6" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="97" t="s">
+      <c r="A6" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="97"/>
-      <c r="M6" s="97"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -8140,21 +8143,21 @@
       <c r="W6" s="6"/>
     </row>
     <row r="7" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="98" t="s">
+      <c r="A7" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="98"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="98"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="106"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -8167,26 +8170,26 @@
       <c r="W7" s="6"/>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="105">
         <v>2008</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="101"/>
+      <c r="A9" s="105"/>
       <c r="B9" s="46" t="s">
         <v>14</v>
       </c>
@@ -8752,21 +8755,21 @@
     </row>
     <row r="20" spans="1:106" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:106" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
     </row>
     <row r="22" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -8869,21 +8872,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -8896,21 +8899,21 @@
       <c r="W1" s="3"/>
     </row>
     <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -8923,21 +8926,21 @@
       <c r="W2" s="5"/>
     </row>
     <row r="3" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="94">
+      <c r="A3" s="97">
         <v>2009</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -9000,21 +9003,21 @@
       <c r="W5" s="5"/>
     </row>
     <row r="6" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="97" t="s">
+      <c r="A6" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="97"/>
-      <c r="M6" s="97"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
@@ -9027,21 +9030,21 @@
       <c r="W6" s="5"/>
     </row>
     <row r="7" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="98" t="s">
+      <c r="A7" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="98"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="98"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="106"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
@@ -9054,26 +9057,26 @@
       <c r="W7" s="5"/>
     </row>
     <row r="8" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="105">
         <v>2009</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
     </row>
     <row r="9" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="101"/>
+      <c r="A9" s="105"/>
       <c r="B9" s="46" t="s">
         <v>14</v>
       </c>
@@ -9640,21 +9643,21 @@
     </row>
     <row r="20" spans="1:106" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:106" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
     </row>
     <row r="22" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -9757,21 +9760,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -9784,21 +9787,21 @@
       <c r="W1" s="3"/>
     </row>
     <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -9811,21 +9814,21 @@
       <c r="W2" s="5"/>
     </row>
     <row r="3" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="94">
+      <c r="A3" s="97">
         <v>2010</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -9888,21 +9891,21 @@
       <c r="W5" s="5"/>
     </row>
     <row r="6" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="97" t="s">
+      <c r="A6" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="97"/>
-      <c r="M6" s="97"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
@@ -9915,21 +9918,21 @@
       <c r="W6" s="5"/>
     </row>
     <row r="7" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="98" t="s">
+      <c r="A7" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="98"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="98"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="106"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
@@ -9942,26 +9945,26 @@
       <c r="W7" s="5"/>
     </row>
     <row r="8" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="105">
         <v>2010</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
     </row>
     <row r="9" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="101"/>
+      <c r="A9" s="105"/>
       <c r="B9" s="46" t="s">
         <v>14</v>
       </c>
@@ -10528,21 +10531,21 @@
     </row>
     <row r="20" spans="1:106" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:106" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
     </row>
     <row r="22" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -10658,21 +10661,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -10685,21 +10688,21 @@
       <c r="W1" s="3"/>
     </row>
     <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -10712,21 +10715,21 @@
       <c r="W2" s="5"/>
     </row>
     <row r="3" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="94">
+      <c r="A3" s="97">
         <v>2011</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -10789,21 +10792,21 @@
       <c r="W5" s="5"/>
     </row>
     <row r="6" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="97" t="s">
+      <c r="A6" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="97"/>
-      <c r="M6" s="97"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
@@ -10816,21 +10819,21 @@
       <c r="W6" s="5"/>
     </row>
     <row r="7" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="98" t="s">
+      <c r="A7" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="98"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="98"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="106"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
@@ -10843,26 +10846,26 @@
       <c r="W7" s="5"/>
     </row>
     <row r="8" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="105">
         <v>2011</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
     </row>
     <row r="9" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="101"/>
+      <c r="A9" s="105"/>
       <c r="B9" s="46" t="s">
         <v>14</v>
       </c>
@@ -11429,21 +11432,21 @@
     </row>
     <row r="20" spans="1:106" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:106" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
     </row>
     <row r="22" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -11560,21 +11563,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -11587,21 +11590,21 @@
       <c r="W1" s="3"/>
     </row>
     <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -11614,21 +11617,21 @@
       <c r="W2" s="5"/>
     </row>
     <row r="3" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="94">
+      <c r="A3" s="97">
         <v>2012</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -11691,21 +11694,21 @@
       <c r="W5" s="5"/>
     </row>
     <row r="6" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="97" t="s">
+      <c r="A6" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="97"/>
-      <c r="M6" s="97"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
@@ -11718,21 +11721,21 @@
       <c r="W6" s="5"/>
     </row>
     <row r="7" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="98" t="s">
+      <c r="A7" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="98"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="98"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="106"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
@@ -11745,26 +11748,26 @@
       <c r="W7" s="5"/>
     </row>
     <row r="8" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="105">
         <v>2012</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="107"/>
     </row>
     <row r="9" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="101"/>
+      <c r="A9" s="105"/>
       <c r="B9" s="46" t="s">
         <v>14</v>
       </c>
@@ -12331,21 +12334,21 @@
     </row>
     <row r="20" spans="1:106" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:106" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
     </row>
     <row r="22" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -12461,21 +12464,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -12488,21 +12491,21 @@
       <c r="W1" s="3"/>
     </row>
     <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -12515,21 +12518,21 @@
       <c r="W2" s="5"/>
     </row>
     <row r="3" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="94">
+      <c r="A3" s="97">
         <v>2013</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -12592,21 +12595,21 @@
       <c r="W5" s="5"/>
     </row>
     <row r="6" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="97" t="s">
+      <c r="A6" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="97"/>
-      <c r="M6" s="97"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
@@ -12619,21 +12622,21 @@
       <c r="W6" s="5"/>
     </row>
     <row r="7" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="98" t="s">
+      <c r="A7" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="98"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="98"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="106"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
@@ -12646,26 +12649,26 @@
       <c r="W7" s="5"/>
     </row>
     <row r="8" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="105">
         <v>2013</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="107"/>
     </row>
     <row r="9" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="101"/>
+      <c r="A9" s="105"/>
       <c r="B9" s="46" t="s">
         <v>14</v>
       </c>
@@ -13232,21 +13235,21 @@
     </row>
     <row r="20" spans="1:106" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:106" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
     </row>
     <row r="22" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -13362,21 +13365,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -13388,21 +13391,21 @@
       <c r="V1" s="3"/>
     </row>
     <row r="2" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -13414,21 +13417,21 @@
       <c r="V2" s="5"/>
     </row>
     <row r="3" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="94">
+      <c r="A3" s="97">
         <v>2014</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -13488,21 +13491,21 @@
       <c r="V5" s="5"/>
     </row>
     <row r="6" spans="1:22" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="97" t="s">
+      <c r="A6" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="97"/>
-      <c r="M6" s="97"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
@@ -13514,21 +13517,21 @@
       <c r="V6" s="5"/>
     </row>
     <row r="7" spans="1:22" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="98" t="s">
+      <c r="A7" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="98"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="98"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="106"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
@@ -13540,26 +13543,26 @@
       <c r="V7" s="5"/>
     </row>
     <row r="8" spans="1:22" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="105">
         <v>2014</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="107"/>
     </row>
     <row r="9" spans="1:22" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="101"/>
+      <c r="A9" s="105"/>
       <c r="B9" s="46" t="s">
         <v>14</v>
       </c>
@@ -14125,21 +14128,21 @@
     </row>
     <row r="20" spans="1:105" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:105" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
     </row>
     <row r="22" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -14261,21 +14264,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -14286,21 +14289,21 @@
       <c r="U1" s="3"/>
     </row>
     <row r="2" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -14311,21 +14314,21 @@
       <c r="U2" s="5"/>
     </row>
     <row r="3" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="94">
+      <c r="A3" s="97">
         <v>2015</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -14382,62 +14385,62 @@
       <c r="U5" s="5"/>
     </row>
     <row r="6" spans="1:21" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="97" t="s">
+      <c r="A6" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="97"/>
-      <c r="M6" s="97"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
       <c r="U6" s="5"/>
     </row>
     <row r="7" spans="1:21" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="98" t="s">
+      <c r="A7" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="98"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="98"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="106"/>
       <c r="U7" s="5"/>
     </row>
     <row r="8" spans="1:21" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="105">
         <v>2015</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="107"/>
     </row>
     <row r="9" spans="1:21" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="101"/>
+      <c r="A9" s="105"/>
       <c r="B9" s="57" t="s">
         <v>14</v>
       </c>
@@ -15079,21 +15082,21 @@
     </row>
     <row r="20" spans="1:104" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:104" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
     </row>
     <row r="22" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>

--- a/Tabulados/Patrones.xlsx
+++ b/Tabulados/Patrones.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susana.galindo\Documents\GitHub\SIE\Tabulados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\UEF\Actualizaciones pagina\Tabulados\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -206,10 +206,10 @@
     <t>2008-2021</t>
   </si>
   <si>
-    <t>Var Mar 2021 respecto a Feb 2021</t>
+    <t>Var Abr 2021 respecto a Mar 2021</t>
   </si>
   <si>
-    <t>Var Mar 2021 respecto a Dic 2020</t>
+    <t>Var Abr 2021 respecto a Dic 2020</t>
   </si>
 </sst>
 </file>
@@ -1131,7 +1131,7 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1417,9 +1417,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="237">
@@ -2882,7 +2879,7 @@
   <dimension ref="A1:BK24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+      <selection activeCell="W3" sqref="W3:X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2976,7 +2973,7 @@
       <c r="R3" s="97"/>
       <c r="S3" s="28"/>
       <c r="T3" s="28"/>
-      <c r="U3" s="108"/>
+      <c r="U3" s="28"/>
       <c r="V3" s="28"/>
       <c r="W3" s="28"/>
       <c r="X3" s="28"/>
@@ -3186,10 +3183,10 @@
         <v>13</v>
       </c>
       <c r="O9" s="90" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P9" s="90" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q9" s="103"/>
       <c r="R9" s="103"/>
@@ -3239,18 +3236,18 @@
         <v>3432</v>
       </c>
       <c r="O10" s="71">
-        <v>3451</v>
+        <v>3462</v>
       </c>
       <c r="P10" s="92">
-        <v>3462</v>
+        <v>3460</v>
       </c>
       <c r="Q10" s="71">
         <f>P10-O10</f>
-        <v>11</v>
+        <v>-2</v>
       </c>
       <c r="R10" s="44">
         <f>P10-N10</f>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="S10" s="59"/>
     </row>
@@ -3298,18 +3295,18 @@
         <v>127</v>
       </c>
       <c r="O11" s="40">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P11" s="93">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q11" s="91">
         <f t="shared" ref="Q11:Q17" si="0">P11-O11</f>
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R11" s="44">
         <f t="shared" ref="R11:R17" si="1">P11-N11</f>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="S11" s="8"/>
     </row>
@@ -3357,18 +3354,18 @@
         <v>15414</v>
       </c>
       <c r="O12" s="71">
-        <v>15446</v>
+        <v>15462</v>
       </c>
       <c r="P12" s="92">
-        <v>15462</v>
+        <v>15466</v>
       </c>
       <c r="Q12" s="91">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="R12" s="44">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="S12" s="59"/>
     </row>
@@ -3416,18 +3413,18 @@
         <v>11694</v>
       </c>
       <c r="O13" s="40">
-        <v>11832</v>
+        <v>11885</v>
       </c>
       <c r="P13" s="94">
-        <v>11885</v>
+        <v>11946</v>
       </c>
       <c r="Q13" s="40">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="R13" s="44">
         <f t="shared" si="1"/>
-        <v>191</v>
+        <v>252</v>
       </c>
       <c r="S13" s="8"/>
     </row>
@@ -3475,10 +3472,10 @@
         <v>161</v>
       </c>
       <c r="O14" s="89">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P14" s="92">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q14" s="91">
         <f t="shared" si="0"/>
@@ -3486,7 +3483,7 @@
       </c>
       <c r="R14" s="44">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S14" s="8"/>
     </row>
@@ -3534,18 +3531,18 @@
         <v>30178</v>
       </c>
       <c r="O15" s="40">
-        <v>30295</v>
+        <v>30354</v>
       </c>
       <c r="P15" s="94">
-        <v>30354</v>
+        <v>30391</v>
       </c>
       <c r="Q15" s="40">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="R15" s="44">
         <f t="shared" si="1"/>
-        <v>176</v>
+        <v>213</v>
       </c>
       <c r="S15" s="59"/>
     </row>
@@ -3593,18 +3590,18 @@
         <v>6033</v>
       </c>
       <c r="O16" s="71">
-        <v>6039</v>
+        <v>6002</v>
       </c>
       <c r="P16" s="92">
-        <v>6002</v>
+        <v>6024</v>
       </c>
       <c r="Q16" s="91">
         <f t="shared" si="0"/>
-        <v>-37</v>
+        <v>22</v>
       </c>
       <c r="R16" s="44">
         <f t="shared" si="1"/>
-        <v>-31</v>
+        <v>-9</v>
       </c>
       <c r="S16" s="59"/>
     </row>
@@ -3652,18 +3649,18 @@
         <v>31028</v>
       </c>
       <c r="O17" s="40">
-        <v>31118</v>
+        <v>31245</v>
       </c>
       <c r="P17" s="93">
-        <v>31245</v>
+        <v>31302</v>
       </c>
       <c r="Q17" s="40">
         <f t="shared" si="0"/>
-        <v>127</v>
+        <v>57</v>
       </c>
       <c r="R17" s="44">
         <f t="shared" si="1"/>
-        <v>217</v>
+        <v>274</v>
       </c>
       <c r="S17" s="59"/>
     </row>
@@ -3724,19 +3721,19 @@
       </c>
       <c r="O18" s="20">
         <f>SUM(O10:O17)</f>
-        <v>98474</v>
+        <v>98700</v>
       </c>
       <c r="P18" s="20">
         <f>SUM(P10:P17)</f>
-        <v>98700</v>
+        <v>98877</v>
       </c>
       <c r="Q18" s="20">
         <f>SUM(Q10:Q17)</f>
-        <v>226</v>
+        <v>177</v>
       </c>
       <c r="R18" s="74">
         <f>SUM(R10:R17)</f>
-        <v>633</v>
+        <v>810</v>
       </c>
       <c r="S18" s="59"/>
     </row>
@@ -7613,7 +7610,9 @@
       <c r="D10" s="40">
         <v>3462</v>
       </c>
-      <c r="E10" s="40"/>
+      <c r="E10" s="40">
+        <v>3460</v>
+      </c>
       <c r="F10" s="40"/>
       <c r="G10" s="40"/>
       <c r="H10" s="40"/>
@@ -7636,7 +7635,9 @@
       <c r="D11" s="40">
         <v>125</v>
       </c>
-      <c r="E11" s="40"/>
+      <c r="E11" s="40">
+        <v>124</v>
+      </c>
       <c r="F11" s="40"/>
       <c r="G11" s="40"/>
       <c r="H11" s="40"/>
@@ -7659,7 +7660,9 @@
       <c r="D12" s="40">
         <v>15462</v>
       </c>
-      <c r="E12" s="40"/>
+      <c r="E12" s="40">
+        <v>15466</v>
+      </c>
       <c r="F12" s="40"/>
       <c r="G12" s="40"/>
       <c r="H12" s="40"/>
@@ -7682,7 +7685,9 @@
       <c r="D13" s="40">
         <v>11885</v>
       </c>
-      <c r="E13" s="40"/>
+      <c r="E13" s="40">
+        <v>11946</v>
+      </c>
       <c r="F13" s="40"/>
       <c r="G13" s="40"/>
       <c r="H13" s="40"/>
@@ -7705,7 +7710,9 @@
       <c r="D14" s="40">
         <v>165</v>
       </c>
-      <c r="E14" s="40"/>
+      <c r="E14" s="40">
+        <v>164</v>
+      </c>
       <c r="F14" s="40"/>
       <c r="G14" s="40"/>
       <c r="H14" s="40"/>
@@ -7728,7 +7735,9 @@
       <c r="D15" s="40">
         <v>30354</v>
       </c>
-      <c r="E15" s="40"/>
+      <c r="E15" s="40">
+        <v>30391</v>
+      </c>
       <c r="F15" s="40"/>
       <c r="G15" s="40"/>
       <c r="H15" s="40"/>
@@ -7751,7 +7760,9 @@
       <c r="D16" s="40">
         <v>6002</v>
       </c>
-      <c r="E16" s="40"/>
+      <c r="E16" s="40">
+        <v>6024</v>
+      </c>
       <c r="F16" s="40"/>
       <c r="G16" s="40"/>
       <c r="H16" s="40"/>
@@ -7774,7 +7785,9 @@
       <c r="D17" s="40">
         <v>31245</v>
       </c>
-      <c r="E17" s="40"/>
+      <c r="E17" s="40">
+        <v>31302</v>
+      </c>
       <c r="F17" s="40"/>
       <c r="G17" s="40"/>
       <c r="H17" s="40"/>
@@ -7802,7 +7815,7 @@
       </c>
       <c r="E18" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>98877</v>
       </c>
       <c r="F18" s="20">
         <f t="shared" si="0"/>
@@ -7854,11 +7867,11 @@
       </c>
       <c r="E19" s="88">
         <f t="shared" si="1"/>
+        <v>0.17933130699088196</v>
+      </c>
+      <c r="F19" s="88">
+        <f t="shared" si="1"/>
         <v>-100</v>
-      </c>
-      <c r="F19" s="88" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="G19" s="88" t="e">
         <f t="shared" si="1"/>

--- a/Tabulados/Patrones.xlsx
+++ b/Tabulados/Patrones.xlsx
@@ -206,10 +206,10 @@
     <t>2008-2021</t>
   </si>
   <si>
-    <t>Var Abr 2021 respecto a Mar 2021</t>
+    <t>Var May 2021 respecto a Abr 2021</t>
   </si>
   <si>
-    <t>Var Abr 2021 respecto a Dic 2020</t>
+    <t>Var May 2021 respecto a Dic 2020</t>
   </si>
 </sst>
 </file>
@@ -2879,7 +2879,7 @@
   <dimension ref="A1:BK24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3:X3"/>
+      <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3183,10 +3183,10 @@
         <v>13</v>
       </c>
       <c r="O9" s="90" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P9" s="90" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q9" s="103"/>
       <c r="R9" s="103"/>
@@ -3236,18 +3236,18 @@
         <v>3432</v>
       </c>
       <c r="O10" s="71">
-        <v>3462</v>
+        <v>3460</v>
       </c>
       <c r="P10" s="92">
-        <v>3460</v>
+        <v>3480</v>
       </c>
       <c r="Q10" s="71">
         <f>P10-O10</f>
-        <v>-2</v>
+        <v>20</v>
       </c>
       <c r="R10" s="44">
         <f>P10-N10</f>
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="S10" s="59"/>
     </row>
@@ -3295,18 +3295,18 @@
         <v>127</v>
       </c>
       <c r="O11" s="40">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P11" s="93">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q11" s="91">
         <f t="shared" ref="Q11:Q17" si="0">P11-O11</f>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="R11" s="44">
         <f t="shared" ref="R11:R17" si="1">P11-N11</f>
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="S11" s="8"/>
     </row>
@@ -3354,18 +3354,18 @@
         <v>15414</v>
       </c>
       <c r="O12" s="71">
-        <v>15462</v>
+        <v>15466</v>
       </c>
       <c r="P12" s="92">
-        <v>15466</v>
+        <v>15499</v>
       </c>
       <c r="Q12" s="91">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="R12" s="44">
         <f t="shared" si="1"/>
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="S12" s="59"/>
     </row>
@@ -3413,18 +3413,18 @@
         <v>11694</v>
       </c>
       <c r="O13" s="40">
-        <v>11885</v>
+        <v>11946</v>
       </c>
       <c r="P13" s="94">
-        <v>11946</v>
+        <v>12104</v>
       </c>
       <c r="Q13" s="40">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>158</v>
       </c>
       <c r="R13" s="44">
         <f t="shared" si="1"/>
-        <v>252</v>
+        <v>410</v>
       </c>
       <c r="S13" s="8"/>
     </row>
@@ -3472,18 +3472,18 @@
         <v>161</v>
       </c>
       <c r="O14" s="89">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P14" s="92">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q14" s="91">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="R14" s="44">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S14" s="8"/>
     </row>
@@ -3531,18 +3531,18 @@
         <v>30178</v>
       </c>
       <c r="O15" s="40">
-        <v>30354</v>
+        <v>30391</v>
       </c>
       <c r="P15" s="94">
-        <v>30391</v>
+        <v>30429</v>
       </c>
       <c r="Q15" s="40">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R15" s="44">
         <f t="shared" si="1"/>
-        <v>213</v>
+        <v>251</v>
       </c>
       <c r="S15" s="59"/>
     </row>
@@ -3590,18 +3590,18 @@
         <v>6033</v>
       </c>
       <c r="O16" s="71">
-        <v>6002</v>
+        <v>6024</v>
       </c>
       <c r="P16" s="92">
-        <v>6024</v>
+        <v>6027</v>
       </c>
       <c r="Q16" s="91">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="R16" s="44">
         <f t="shared" si="1"/>
-        <v>-9</v>
+        <v>-6</v>
       </c>
       <c r="S16" s="59"/>
     </row>
@@ -3649,18 +3649,18 @@
         <v>31028</v>
       </c>
       <c r="O17" s="40">
-        <v>31245</v>
+        <v>31302</v>
       </c>
       <c r="P17" s="93">
-        <v>31302</v>
+        <v>31414</v>
       </c>
       <c r="Q17" s="40">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="R17" s="44">
         <f t="shared" si="1"/>
-        <v>274</v>
+        <v>386</v>
       </c>
       <c r="S17" s="59"/>
     </row>
@@ -3721,19 +3721,19 @@
       </c>
       <c r="O18" s="20">
         <f>SUM(O10:O17)</f>
-        <v>98700</v>
+        <v>98877</v>
       </c>
       <c r="P18" s="20">
         <f>SUM(P10:P17)</f>
-        <v>98877</v>
+        <v>99245</v>
       </c>
       <c r="Q18" s="20">
         <f>SUM(Q10:Q17)</f>
-        <v>177</v>
+        <v>368</v>
       </c>
       <c r="R18" s="74">
         <f>SUM(R10:R17)</f>
-        <v>810</v>
+        <v>1178</v>
       </c>
       <c r="S18" s="59"/>
     </row>
@@ -7415,7 +7415,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7613,7 +7613,9 @@
       <c r="E10" s="40">
         <v>3460</v>
       </c>
-      <c r="F10" s="40"/>
+      <c r="F10" s="40">
+        <v>3480</v>
+      </c>
       <c r="G10" s="40"/>
       <c r="H10" s="40"/>
       <c r="I10" s="40"/>
@@ -7638,7 +7640,9 @@
       <c r="E11" s="40">
         <v>124</v>
       </c>
-      <c r="F11" s="40"/>
+      <c r="F11" s="40">
+        <v>126</v>
+      </c>
       <c r="G11" s="40"/>
       <c r="H11" s="40"/>
       <c r="I11" s="40"/>
@@ -7663,7 +7667,9 @@
       <c r="E12" s="40">
         <v>15466</v>
       </c>
-      <c r="F12" s="40"/>
+      <c r="F12" s="40">
+        <v>15499</v>
+      </c>
       <c r="G12" s="40"/>
       <c r="H12" s="40"/>
       <c r="I12" s="40"/>
@@ -7688,7 +7694,9 @@
       <c r="E13" s="40">
         <v>11946</v>
       </c>
-      <c r="F13" s="40"/>
+      <c r="F13" s="40">
+        <v>12104</v>
+      </c>
       <c r="G13" s="40"/>
       <c r="H13" s="40"/>
       <c r="I13" s="40"/>
@@ -7713,7 +7721,9 @@
       <c r="E14" s="40">
         <v>164</v>
       </c>
-      <c r="F14" s="40"/>
+      <c r="F14" s="40">
+        <v>166</v>
+      </c>
       <c r="G14" s="40"/>
       <c r="H14" s="40"/>
       <c r="I14" s="40"/>
@@ -7738,7 +7748,9 @@
       <c r="E15" s="40">
         <v>30391</v>
       </c>
-      <c r="F15" s="40"/>
+      <c r="F15" s="40">
+        <v>30429</v>
+      </c>
       <c r="G15" s="40"/>
       <c r="H15" s="40"/>
       <c r="I15" s="40"/>
@@ -7763,7 +7775,9 @@
       <c r="E16" s="40">
         <v>6024</v>
       </c>
-      <c r="F16" s="40"/>
+      <c r="F16" s="40">
+        <v>6027</v>
+      </c>
       <c r="G16" s="40"/>
       <c r="H16" s="40"/>
       <c r="I16" s="40"/>
@@ -7788,7 +7802,9 @@
       <c r="E17" s="40">
         <v>31302</v>
       </c>
-      <c r="F17" s="40"/>
+      <c r="F17" s="40">
+        <v>31414</v>
+      </c>
       <c r="G17" s="40"/>
       <c r="H17" s="40"/>
       <c r="I17" s="40"/>
@@ -7819,7 +7835,7 @@
       </c>
       <c r="F18" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>99245</v>
       </c>
       <c r="G18" s="20">
         <f t="shared" si="0"/>
@@ -7871,11 +7887,11 @@
       </c>
       <c r="F19" s="88">
         <f t="shared" si="1"/>
+        <v>0.37217957664572587</v>
+      </c>
+      <c r="G19" s="88">
+        <f t="shared" si="1"/>
         <v>-100</v>
-      </c>
-      <c r="G19" s="88" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="H19" s="88" t="e">
         <f t="shared" si="1"/>

--- a/Tabulados/Patrones.xlsx
+++ b/Tabulados/Patrones.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\UEF\Actualizaciones pagina\Tabulados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susana.galindo\Documents\GitHub\SIE\Tabulados\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -206,10 +206,10 @@
     <t>2008-2021</t>
   </si>
   <si>
-    <t>Var May 2021 respecto a Abr 2021</t>
+    <t>Var Jul 2021 respecto a Jun 2021</t>
   </si>
   <si>
-    <t>Var May 2021 respecto a Dic 2020</t>
+    <t>Var Jul 2021 respecto a Dic 2020</t>
   </si>
 </sst>
 </file>
@@ -2879,7 +2879,7 @@
   <dimension ref="A1:BK24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V17" sqref="V17"/>
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3183,10 +3183,10 @@
         <v>13</v>
       </c>
       <c r="O9" s="90" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P9" s="90" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Q9" s="103"/>
       <c r="R9" s="103"/>
@@ -3236,18 +3236,18 @@
         <v>3432</v>
       </c>
       <c r="O10" s="71">
-        <v>3460</v>
+        <v>3506</v>
       </c>
       <c r="P10" s="92">
-        <v>3480</v>
+        <v>3619</v>
       </c>
       <c r="Q10" s="71">
         <f>P10-O10</f>
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="R10" s="44">
         <f>P10-N10</f>
-        <v>48</v>
+        <v>187</v>
       </c>
       <c r="S10" s="59"/>
     </row>
@@ -3295,18 +3295,18 @@
         <v>127</v>
       </c>
       <c r="O11" s="40">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="P11" s="93">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q11" s="91">
         <f t="shared" ref="Q11:Q17" si="0">P11-O11</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R11" s="44">
         <f t="shared" ref="R11:R17" si="1">P11-N11</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S11" s="8"/>
     </row>
@@ -3354,18 +3354,18 @@
         <v>15414</v>
       </c>
       <c r="O12" s="71">
-        <v>15466</v>
+        <v>15529</v>
       </c>
       <c r="P12" s="92">
-        <v>15499</v>
+        <v>15657</v>
       </c>
       <c r="Q12" s="91">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>128</v>
       </c>
       <c r="R12" s="44">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>243</v>
       </c>
       <c r="S12" s="59"/>
     </row>
@@ -3413,18 +3413,18 @@
         <v>11694</v>
       </c>
       <c r="O13" s="40">
-        <v>11946</v>
+        <v>12178</v>
       </c>
       <c r="P13" s="94">
-        <v>12104</v>
+        <v>12280</v>
       </c>
       <c r="Q13" s="40">
         <f t="shared" si="0"/>
-        <v>158</v>
+        <v>102</v>
       </c>
       <c r="R13" s="44">
         <f t="shared" si="1"/>
-        <v>410</v>
+        <v>586</v>
       </c>
       <c r="S13" s="8"/>
     </row>
@@ -3472,18 +3472,18 @@
         <v>161</v>
       </c>
       <c r="O14" s="89">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="P14" s="92">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="Q14" s="91">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="R14" s="44">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="S14" s="8"/>
     </row>
@@ -3531,18 +3531,18 @@
         <v>30178</v>
       </c>
       <c r="O15" s="40">
-        <v>30391</v>
+        <v>30512</v>
       </c>
       <c r="P15" s="94">
-        <v>30429</v>
+        <v>31022</v>
       </c>
       <c r="Q15" s="40">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>510</v>
       </c>
       <c r="R15" s="44">
         <f t="shared" si="1"/>
-        <v>251</v>
+        <v>844</v>
       </c>
       <c r="S15" s="59"/>
     </row>
@@ -3590,18 +3590,18 @@
         <v>6033</v>
       </c>
       <c r="O16" s="71">
-        <v>6024</v>
+        <v>6029</v>
       </c>
       <c r="P16" s="92">
-        <v>6027</v>
+        <v>6116</v>
       </c>
       <c r="Q16" s="91">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="R16" s="44">
         <f t="shared" si="1"/>
-        <v>-6</v>
+        <v>83</v>
       </c>
       <c r="S16" s="59"/>
     </row>
@@ -3649,18 +3649,18 @@
         <v>31028</v>
       </c>
       <c r="O17" s="40">
-        <v>31302</v>
+        <v>31630</v>
       </c>
       <c r="P17" s="93">
-        <v>31414</v>
+        <v>31964</v>
       </c>
       <c r="Q17" s="40">
         <f t="shared" si="0"/>
-        <v>112</v>
+        <v>334</v>
       </c>
       <c r="R17" s="44">
         <f t="shared" si="1"/>
-        <v>386</v>
+        <v>936</v>
       </c>
       <c r="S17" s="59"/>
     </row>
@@ -3721,19 +3721,19 @@
       </c>
       <c r="O18" s="20">
         <f>SUM(O10:O17)</f>
-        <v>98877</v>
+        <v>99679</v>
       </c>
       <c r="P18" s="20">
         <f>SUM(P10:P17)</f>
-        <v>99245</v>
+        <v>100963</v>
       </c>
       <c r="Q18" s="20">
         <f>SUM(Q10:Q17)</f>
-        <v>368</v>
+        <v>1284</v>
       </c>
       <c r="R18" s="74">
         <f>SUM(R10:R17)</f>
-        <v>1178</v>
+        <v>2896</v>
       </c>
       <c r="S18" s="59"/>
     </row>
@@ -7415,7 +7415,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7616,8 +7616,12 @@
       <c r="F10" s="40">
         <v>3480</v>
       </c>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
+      <c r="G10" s="40">
+        <v>3506</v>
+      </c>
+      <c r="H10" s="40">
+        <v>3619</v>
+      </c>
       <c r="I10" s="40"/>
       <c r="J10" s="40"/>
       <c r="K10" s="40"/>
@@ -7643,8 +7647,12 @@
       <c r="F11" s="40">
         <v>126</v>
       </c>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
+      <c r="G11" s="40">
+        <v>127</v>
+      </c>
+      <c r="H11" s="40">
+        <v>128</v>
+      </c>
       <c r="I11" s="40"/>
       <c r="J11" s="40"/>
       <c r="K11" s="40"/>
@@ -7670,8 +7678,12 @@
       <c r="F12" s="40">
         <v>15499</v>
       </c>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
+      <c r="G12" s="40">
+        <v>15529</v>
+      </c>
+      <c r="H12" s="40">
+        <v>15657</v>
+      </c>
       <c r="I12" s="40"/>
       <c r="J12" s="40"/>
       <c r="K12" s="40"/>
@@ -7697,8 +7709,12 @@
       <c r="F13" s="40">
         <v>12104</v>
       </c>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
+      <c r="G13" s="40">
+        <v>12178</v>
+      </c>
+      <c r="H13" s="40">
+        <v>12280</v>
+      </c>
       <c r="I13" s="40"/>
       <c r="J13" s="40"/>
       <c r="K13" s="40"/>
@@ -7724,8 +7740,12 @@
       <c r="F14" s="40">
         <v>166</v>
       </c>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
+      <c r="G14" s="40">
+        <v>168</v>
+      </c>
+      <c r="H14" s="40">
+        <v>177</v>
+      </c>
       <c r="I14" s="40"/>
       <c r="J14" s="40"/>
       <c r="K14" s="40"/>
@@ -7751,8 +7771,12 @@
       <c r="F15" s="40">
         <v>30429</v>
       </c>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
+      <c r="G15" s="40">
+        <v>30512</v>
+      </c>
+      <c r="H15" s="40">
+        <v>31022</v>
+      </c>
       <c r="I15" s="40"/>
       <c r="J15" s="40"/>
       <c r="K15" s="40"/>
@@ -7778,8 +7802,12 @@
       <c r="F16" s="40">
         <v>6027</v>
       </c>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
+      <c r="G16" s="40">
+        <v>6029</v>
+      </c>
+      <c r="H16" s="40">
+        <v>6116</v>
+      </c>
       <c r="I16" s="40"/>
       <c r="J16" s="40"/>
       <c r="K16" s="40"/>
@@ -7805,8 +7833,12 @@
       <c r="F17" s="40">
         <v>31414</v>
       </c>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
+      <c r="G17" s="40">
+        <v>31630</v>
+      </c>
+      <c r="H17" s="40">
+        <v>31964</v>
+      </c>
       <c r="I17" s="40"/>
       <c r="J17" s="40"/>
       <c r="K17" s="40"/>
@@ -7839,11 +7871,11 @@
       </c>
       <c r="G18" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>99679</v>
       </c>
       <c r="H18" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100963</v>
       </c>
       <c r="I18" s="20">
         <f t="shared" si="0"/>
@@ -7891,15 +7923,15 @@
       </c>
       <c r="G19" s="88">
         <f t="shared" si="1"/>
+        <v>0.43730162728601307</v>
+      </c>
+      <c r="H19" s="88">
+        <f t="shared" si="1"/>
+        <v>1.2881349130709596</v>
+      </c>
+      <c r="I19" s="88">
+        <f>(I18/H18-1)*100</f>
         <v>-100</v>
-      </c>
-      <c r="H19" s="88" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I19" s="88" t="e">
-        <f>(I18/H18-1)*100</f>
-        <v>#DIV/0!</v>
       </c>
       <c r="J19" s="88" t="e">
         <f>(J18/I18-1)*100</f>

--- a/Tabulados/Patrones.xlsx
+++ b/Tabulados/Patrones.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susana.galindo\Documents\GitHub\SIE\Tabulados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\UEF\Actualizaciones pagina\Tabulados\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -206,10 +206,10 @@
     <t>2008-2021</t>
   </si>
   <si>
-    <t>Var Jul 2021 respecto a Jun 2021</t>
+    <t>Var Ago 2021 respecto a Jul 2021</t>
   </si>
   <si>
-    <t>Var Jul 2021 respecto a Dic 2020</t>
+    <t>Var Ago 2021 respecto a Dic 2020</t>
   </si>
 </sst>
 </file>
@@ -2879,7 +2879,7 @@
   <dimension ref="A1:BK24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3183,10 +3183,10 @@
         <v>13</v>
       </c>
       <c r="O9" s="90" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P9" s="90" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="103"/>
       <c r="R9" s="103"/>
@@ -3235,19 +3235,19 @@
       <c r="N10" s="40">
         <v>3432</v>
       </c>
-      <c r="O10" s="71">
-        <v>3506</v>
+      <c r="O10" s="92">
+        <v>3619</v>
       </c>
       <c r="P10" s="92">
-        <v>3619</v>
+        <v>3685</v>
       </c>
       <c r="Q10" s="71">
         <f>P10-O10</f>
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="R10" s="44">
         <f>P10-N10</f>
-        <v>187</v>
+        <v>253</v>
       </c>
       <c r="S10" s="59"/>
     </row>
@@ -3294,19 +3294,19 @@
       <c r="N11" s="65">
         <v>127</v>
       </c>
-      <c r="O11" s="40">
-        <v>127</v>
+      <c r="O11" s="93">
+        <v>128</v>
       </c>
       <c r="P11" s="93">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="Q11" s="91">
         <f t="shared" ref="Q11:Q17" si="0">P11-O11</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R11" s="44">
         <f t="shared" ref="R11:R17" si="1">P11-N11</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S11" s="8"/>
     </row>
@@ -3353,19 +3353,19 @@
       <c r="N12" s="40">
         <v>15414</v>
       </c>
-      <c r="O12" s="71">
-        <v>15529</v>
+      <c r="O12" s="92">
+        <v>15657</v>
       </c>
       <c r="P12" s="92">
-        <v>15657</v>
+        <v>15717</v>
       </c>
       <c r="Q12" s="91">
         <f t="shared" si="0"/>
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="R12" s="44">
         <f t="shared" si="1"/>
-        <v>243</v>
+        <v>303</v>
       </c>
       <c r="S12" s="59"/>
     </row>
@@ -3412,19 +3412,19 @@
       <c r="N13" s="40">
         <v>11694</v>
       </c>
-      <c r="O13" s="40">
-        <v>12178</v>
+      <c r="O13" s="94">
+        <v>12280</v>
       </c>
       <c r="P13" s="94">
-        <v>12280</v>
+        <v>12454</v>
       </c>
       <c r="Q13" s="40">
         <f t="shared" si="0"/>
-        <v>102</v>
+        <v>174</v>
       </c>
       <c r="R13" s="44">
         <f t="shared" si="1"/>
-        <v>586</v>
+        <v>760</v>
       </c>
       <c r="S13" s="8"/>
     </row>
@@ -3471,19 +3471,19 @@
       <c r="N14" s="64">
         <v>161</v>
       </c>
-      <c r="O14" s="89">
-        <v>168</v>
+      <c r="O14" s="92">
+        <v>177</v>
       </c>
       <c r="P14" s="92">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q14" s="91">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="R14" s="44">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="S14" s="8"/>
     </row>
@@ -3530,19 +3530,19 @@
       <c r="N15" s="40">
         <v>30178</v>
       </c>
-      <c r="O15" s="40">
-        <v>30512</v>
+      <c r="O15" s="94">
+        <v>31022</v>
       </c>
       <c r="P15" s="94">
-        <v>31022</v>
+        <v>31253</v>
       </c>
       <c r="Q15" s="40">
         <f t="shared" si="0"/>
-        <v>510</v>
+        <v>231</v>
       </c>
       <c r="R15" s="44">
         <f t="shared" si="1"/>
-        <v>844</v>
+        <v>1075</v>
       </c>
       <c r="S15" s="59"/>
     </row>
@@ -3589,19 +3589,19 @@
       <c r="N16" s="40">
         <v>6033</v>
       </c>
-      <c r="O16" s="71">
-        <v>6029</v>
+      <c r="O16" s="92">
+        <v>6116</v>
       </c>
       <c r="P16" s="92">
-        <v>6116</v>
+        <v>6169</v>
       </c>
       <c r="Q16" s="91">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="R16" s="44">
         <f t="shared" si="1"/>
-        <v>83</v>
+        <v>136</v>
       </c>
       <c r="S16" s="59"/>
     </row>
@@ -3648,19 +3648,19 @@
       <c r="N17" s="71">
         <v>31028</v>
       </c>
-      <c r="O17" s="40">
-        <v>31630</v>
+      <c r="O17" s="93">
+        <v>31964</v>
       </c>
       <c r="P17" s="93">
-        <v>31964</v>
+        <v>32206</v>
       </c>
       <c r="Q17" s="40">
         <f t="shared" si="0"/>
-        <v>334</v>
+        <v>242</v>
       </c>
       <c r="R17" s="44">
         <f t="shared" si="1"/>
-        <v>936</v>
+        <v>1178</v>
       </c>
       <c r="S17" s="59"/>
     </row>
@@ -3721,19 +3721,19 @@
       </c>
       <c r="O18" s="20">
         <f>SUM(O10:O17)</f>
-        <v>99679</v>
+        <v>100963</v>
       </c>
       <c r="P18" s="20">
         <f>SUM(P10:P17)</f>
-        <v>100963</v>
+        <v>101796</v>
       </c>
       <c r="Q18" s="20">
         <f>SUM(Q10:Q17)</f>
-        <v>1284</v>
+        <v>833</v>
       </c>
       <c r="R18" s="74">
         <f>SUM(R10:R17)</f>
-        <v>2896</v>
+        <v>3729</v>
       </c>
       <c r="S18" s="59"/>
     </row>
@@ -7415,7 +7415,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7622,7 +7622,9 @@
       <c r="H10" s="40">
         <v>3619</v>
       </c>
-      <c r="I10" s="40"/>
+      <c r="I10" s="40">
+        <v>3685</v>
+      </c>
       <c r="J10" s="40"/>
       <c r="K10" s="40"/>
       <c r="L10" s="40"/>
@@ -7653,7 +7655,9 @@
       <c r="H11" s="40">
         <v>128</v>
       </c>
-      <c r="I11" s="40"/>
+      <c r="I11" s="40">
+        <v>133</v>
+      </c>
       <c r="J11" s="40"/>
       <c r="K11" s="40"/>
       <c r="L11" s="40"/>
@@ -7684,7 +7688,9 @@
       <c r="H12" s="40">
         <v>15657</v>
       </c>
-      <c r="I12" s="40"/>
+      <c r="I12" s="40">
+        <v>15717</v>
+      </c>
       <c r="J12" s="40"/>
       <c r="K12" s="40"/>
       <c r="L12" s="40"/>
@@ -7715,7 +7721,9 @@
       <c r="H13" s="40">
         <v>12280</v>
       </c>
-      <c r="I13" s="40"/>
+      <c r="I13" s="40">
+        <v>12454</v>
+      </c>
       <c r="J13" s="40"/>
       <c r="K13" s="40"/>
       <c r="L13" s="40"/>
@@ -7746,7 +7754,9 @@
       <c r="H14" s="40">
         <v>177</v>
       </c>
-      <c r="I14" s="40"/>
+      <c r="I14" s="40">
+        <v>179</v>
+      </c>
       <c r="J14" s="40"/>
       <c r="K14" s="40"/>
       <c r="L14" s="40"/>
@@ -7777,7 +7787,9 @@
       <c r="H15" s="40">
         <v>31022</v>
       </c>
-      <c r="I15" s="40"/>
+      <c r="I15" s="40">
+        <v>31253</v>
+      </c>
       <c r="J15" s="40"/>
       <c r="K15" s="40"/>
       <c r="L15" s="40"/>
@@ -7808,7 +7820,9 @@
       <c r="H16" s="40">
         <v>6116</v>
       </c>
-      <c r="I16" s="40"/>
+      <c r="I16" s="40">
+        <v>6169</v>
+      </c>
       <c r="J16" s="40"/>
       <c r="K16" s="40"/>
       <c r="L16" s="40"/>
@@ -7839,7 +7853,9 @@
       <c r="H17" s="40">
         <v>31964</v>
       </c>
-      <c r="I17" s="40"/>
+      <c r="I17" s="40">
+        <v>32206</v>
+      </c>
       <c r="J17" s="40"/>
       <c r="K17" s="40"/>
       <c r="L17" s="40"/>
@@ -7879,7 +7895,7 @@
       </c>
       <c r="I18" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>101796</v>
       </c>
       <c r="J18" s="20">
         <f t="shared" si="0"/>
@@ -7931,11 +7947,11 @@
       </c>
       <c r="I19" s="88">
         <f>(I18/H18-1)*100</f>
+        <v>0.82505472301734883</v>
+      </c>
+      <c r="J19" s="88">
+        <f>(J18/I18-1)*100</f>
         <v>-100</v>
-      </c>
-      <c r="J19" s="88" t="e">
-        <f>(J18/I18-1)*100</f>
-        <v>#DIV/0!</v>
       </c>
       <c r="K19" s="88" t="e">
         <f>(K18/J18-1)*100</f>

--- a/Tabulados/Patrones.xlsx
+++ b/Tabulados/Patrones.xlsx
@@ -206,10 +206,10 @@
     <t>2008-2021</t>
   </si>
   <si>
-    <t>Var Ago 2021 respecto a Jul 2021</t>
+    <t>Var Sep 2021 respecto a Ago 2021</t>
   </si>
   <si>
-    <t>Var Ago 2021 respecto a Dic 2020</t>
+    <t>Var Sep 2021 respecto a Dic 2020</t>
   </si>
 </sst>
 </file>
@@ -515,7 +515,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1131,7 +1131,7 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1367,18 +1367,6 @@
     <xf numFmtId="0" fontId="16" fillId="38" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="45" fillId="35" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="45" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -1417,6 +1405,15 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="45" fillId="35" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="45" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="237">
@@ -2879,7 +2876,7 @@
   <dimension ref="A1:BK24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2895,26 +2892,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
       <c r="S1" s="26"/>
       <c r="T1" s="26"/>
       <c r="U1" s="26"/>
@@ -2923,26 +2920,26 @@
       <c r="X1" s="26"/>
     </row>
     <row r="2" spans="1:24" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="97"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="93"/>
       <c r="S2" s="28"/>
       <c r="T2" s="28"/>
       <c r="U2" s="28"/>
@@ -2951,26 +2948,26 @@
       <c r="X2" s="28"/>
     </row>
     <row r="3" spans="1:24" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="97"/>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="97"/>
-      <c r="R3" s="97"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="93"/>
+      <c r="P3" s="93"/>
+      <c r="Q3" s="93"/>
+      <c r="R3" s="93"/>
       <c r="S3" s="28"/>
       <c r="T3" s="28"/>
       <c r="U3" s="28"/>
@@ -3031,26 +3028,26 @@
       <c r="X5" s="8"/>
     </row>
     <row r="6" spans="1:24" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
-      <c r="N6" s="100"/>
-      <c r="O6" s="100"/>
-      <c r="P6" s="100"/>
-      <c r="Q6" s="100"/>
-      <c r="R6" s="100"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="96"/>
+      <c r="N6" s="96"/>
+      <c r="O6" s="96"/>
+      <c r="P6" s="96"/>
+      <c r="Q6" s="96"/>
+      <c r="R6" s="96"/>
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
       <c r="U6" s="8"/>
@@ -3059,26 +3056,26 @@
       <c r="X6" s="8"/>
     </row>
     <row r="7" spans="1:24" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
-      <c r="N7" s="101"/>
-      <c r="O7" s="101"/>
-      <c r="P7" s="101"/>
-      <c r="Q7" s="101"/>
-      <c r="R7" s="101"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="97"/>
+      <c r="M7" s="97"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="97"/>
+      <c r="P7" s="97"/>
+      <c r="Q7" s="97"/>
+      <c r="R7" s="97"/>
       <c r="S7" s="8"/>
       <c r="T7" s="8"/>
       <c r="U7" s="8"/>
@@ -3087,7 +3084,7 @@
       <c r="X7" s="8"/>
     </row>
     <row r="8" spans="1:24" s="7" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="98" t="s">
+      <c r="A8" s="94" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="86">
@@ -3129,20 +3126,20 @@
       <c r="N8" s="86">
         <v>2020</v>
       </c>
-      <c r="O8" s="104">
+      <c r="O8" s="100">
         <v>2021</v>
       </c>
-      <c r="P8" s="104"/>
-      <c r="Q8" s="102" t="s">
+      <c r="P8" s="100"/>
+      <c r="Q8" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="R8" s="102" t="s">
+      <c r="R8" s="98" t="s">
         <v>34</v>
       </c>
       <c r="S8" s="8"/>
     </row>
     <row r="9" spans="1:24" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="99"/>
+      <c r="A9" s="95"/>
       <c r="B9" s="48" t="s">
         <v>13</v>
       </c>
@@ -3183,13 +3180,13 @@
         <v>13</v>
       </c>
       <c r="O9" s="90" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P9" s="90" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q9" s="103"/>
-      <c r="R9" s="103"/>
+        <v>22</v>
+      </c>
+      <c r="Q9" s="99"/>
+      <c r="R9" s="99"/>
       <c r="S9" s="8"/>
     </row>
     <row r="10" spans="1:24" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3235,19 +3232,19 @@
       <c r="N10" s="40">
         <v>3432</v>
       </c>
-      <c r="O10" s="92">
-        <v>3619</v>
-      </c>
-      <c r="P10" s="92">
+      <c r="O10" s="104">
         <v>3685</v>
       </c>
-      <c r="Q10" s="71">
+      <c r="P10" s="104">
+        <v>3714</v>
+      </c>
+      <c r="Q10" s="40">
         <f>P10-O10</f>
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="R10" s="44">
         <f>P10-N10</f>
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="S10" s="59"/>
     </row>
@@ -3294,15 +3291,15 @@
       <c r="N11" s="65">
         <v>127</v>
       </c>
-      <c r="O11" s="93">
-        <v>128</v>
-      </c>
-      <c r="P11" s="93">
+      <c r="O11" s="105">
         <v>133</v>
       </c>
-      <c r="Q11" s="91">
+      <c r="P11" s="105">
+        <v>133</v>
+      </c>
+      <c r="Q11" s="40">
         <f t="shared" ref="Q11:Q17" si="0">P11-O11</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R11" s="44">
         <f t="shared" ref="R11:R17" si="1">P11-N11</f>
@@ -3353,19 +3350,19 @@
       <c r="N12" s="40">
         <v>15414</v>
       </c>
-      <c r="O12" s="92">
-        <v>15657</v>
-      </c>
-      <c r="P12" s="92">
+      <c r="O12" s="104">
         <v>15717</v>
       </c>
-      <c r="Q12" s="91">
+      <c r="P12" s="104">
+        <v>15763</v>
+      </c>
+      <c r="Q12" s="65">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="R12" s="44">
         <f t="shared" si="1"/>
-        <v>303</v>
+        <v>349</v>
       </c>
       <c r="S12" s="59"/>
     </row>
@@ -3412,19 +3409,19 @@
       <c r="N13" s="40">
         <v>11694</v>
       </c>
-      <c r="O13" s="94">
-        <v>12280</v>
-      </c>
-      <c r="P13" s="94">
+      <c r="O13" s="106">
         <v>12454</v>
+      </c>
+      <c r="P13" s="106">
+        <v>12568</v>
       </c>
       <c r="Q13" s="40">
         <f t="shared" si="0"/>
-        <v>174</v>
+        <v>114</v>
       </c>
       <c r="R13" s="44">
         <f t="shared" si="1"/>
-        <v>760</v>
+        <v>874</v>
       </c>
       <c r="S13" s="8"/>
     </row>
@@ -3471,19 +3468,19 @@
       <c r="N14" s="64">
         <v>161</v>
       </c>
-      <c r="O14" s="92">
-        <v>177</v>
-      </c>
-      <c r="P14" s="92">
+      <c r="O14" s="104">
         <v>179</v>
       </c>
-      <c r="Q14" s="91">
+      <c r="P14" s="104">
+        <v>181</v>
+      </c>
+      <c r="Q14" s="40">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="R14" s="44">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="S14" s="8"/>
     </row>
@@ -3530,19 +3527,19 @@
       <c r="N15" s="40">
         <v>30178</v>
       </c>
-      <c r="O15" s="94">
-        <v>31022</v>
-      </c>
-      <c r="P15" s="94">
+      <c r="O15" s="106">
         <v>31253</v>
+      </c>
+      <c r="P15" s="106">
+        <v>31418</v>
       </c>
       <c r="Q15" s="40">
         <f t="shared" si="0"/>
-        <v>231</v>
+        <v>165</v>
       </c>
       <c r="R15" s="44">
         <f t="shared" si="1"/>
-        <v>1075</v>
+        <v>1240</v>
       </c>
       <c r="S15" s="59"/>
     </row>
@@ -3589,19 +3586,19 @@
       <c r="N16" s="40">
         <v>6033</v>
       </c>
-      <c r="O16" s="92">
-        <v>6116</v>
-      </c>
-      <c r="P16" s="92">
+      <c r="O16" s="104">
         <v>6169</v>
       </c>
-      <c r="Q16" s="91">
+      <c r="P16" s="104">
+        <v>6163</v>
+      </c>
+      <c r="Q16" s="40">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>-6</v>
       </c>
       <c r="R16" s="44">
         <f t="shared" si="1"/>
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="S16" s="59"/>
     </row>
@@ -3648,19 +3645,19 @@
       <c r="N17" s="71">
         <v>31028</v>
       </c>
-      <c r="O17" s="93">
-        <v>31964</v>
-      </c>
-      <c r="P17" s="93">
+      <c r="O17" s="105">
         <v>32206</v>
       </c>
-      <c r="Q17" s="40">
+      <c r="P17" s="105">
+        <v>32535</v>
+      </c>
+      <c r="Q17" s="71">
         <f t="shared" si="0"/>
-        <v>242</v>
+        <v>329</v>
       </c>
       <c r="R17" s="44">
         <f t="shared" si="1"/>
-        <v>1178</v>
+        <v>1507</v>
       </c>
       <c r="S17" s="59"/>
     </row>
@@ -3721,19 +3718,19 @@
       </c>
       <c r="O18" s="20">
         <f>SUM(O10:O17)</f>
-        <v>100963</v>
+        <v>101796</v>
       </c>
       <c r="P18" s="20">
         <f>SUM(P10:P17)</f>
-        <v>101796</v>
+        <v>102475</v>
       </c>
       <c r="Q18" s="20">
         <f>SUM(Q10:Q17)</f>
-        <v>833</v>
+        <v>679</v>
       </c>
       <c r="R18" s="74">
         <f>SUM(R10:R17)</f>
-        <v>3729</v>
+        <v>4408</v>
       </c>
       <c r="S18" s="59"/>
     </row>
@@ -3758,26 +3755,26 @@
       <c r="S19" s="62"/>
     </row>
     <row r="20" spans="1:63" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="95" t="s">
+      <c r="A20" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="95"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="95"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="95"/>
-      <c r="G20" s="95"/>
-      <c r="H20" s="95"/>
-      <c r="I20" s="95"/>
-      <c r="J20" s="95"/>
-      <c r="K20" s="95"/>
-      <c r="L20" s="95"/>
-      <c r="M20" s="95"/>
-      <c r="N20" s="95"/>
-      <c r="O20" s="95"/>
-      <c r="P20" s="95"/>
-      <c r="Q20" s="95"/>
-      <c r="R20" s="95"/>
+      <c r="B20" s="91"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="91"/>
+      <c r="J20" s="91"/>
+      <c r="K20" s="91"/>
+      <c r="L20" s="91"/>
+      <c r="M20" s="91"/>
+      <c r="N20" s="91"/>
+      <c r="O20" s="91"/>
+      <c r="P20" s="91"/>
+      <c r="Q20" s="91"/>
+      <c r="R20" s="91"/>
     </row>
     <row r="21" spans="1:63" s="35" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="18"/>
@@ -3930,55 +3927,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="97">
+      <c r="A3" s="93">
         <v>2016</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="45"/>
@@ -4011,60 +4008,60 @@
       <c r="M5" s="45"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="96"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="106" t="s">
+      <c r="A7" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="106"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="106"/>
-      <c r="K7" s="106"/>
-      <c r="L7" s="106"/>
-      <c r="M7" s="106"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="105" t="s">
+      <c r="A8" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="105">
+      <c r="B8" s="101">
         <v>2016</v>
       </c>
-      <c r="C8" s="105"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="107"/>
-      <c r="L8" s="107"/>
-      <c r="M8" s="107"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="105"/>
+      <c r="A9" s="101"/>
       <c r="B9" s="60" t="s">
         <v>14</v>
       </c>
@@ -4549,21 +4546,21 @@
       <c r="M20" s="22"/>
     </row>
     <row r="21" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="91"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -4628,55 +4625,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="97">
+      <c r="A3" s="93">
         <v>2017</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="45"/>
@@ -4709,60 +4706,60 @@
       <c r="M5" s="45"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="96"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="106" t="s">
+      <c r="A7" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="106"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="106"/>
-      <c r="K7" s="106"/>
-      <c r="L7" s="106"/>
-      <c r="M7" s="106"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="105" t="s">
+      <c r="A8" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="105">
+      <c r="B8" s="101">
         <v>2017</v>
       </c>
-      <c r="C8" s="105"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="107"/>
-      <c r="L8" s="107"/>
-      <c r="M8" s="107"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="105"/>
+      <c r="A9" s="101"/>
       <c r="B9" s="61" t="s">
         <v>14</v>
       </c>
@@ -5247,21 +5244,21 @@
       <c r="M20" s="22"/>
     </row>
     <row r="21" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="91"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -5326,55 +5323,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="97">
+      <c r="A3" s="93">
         <v>2018</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="45"/>
@@ -5407,60 +5404,60 @@
       <c r="M5" s="45"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="96"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="106" t="s">
+      <c r="A7" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="106"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="106"/>
-      <c r="K7" s="106"/>
-      <c r="L7" s="106"/>
-      <c r="M7" s="106"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="105" t="s">
+      <c r="A8" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="105">
+      <c r="B8" s="101">
         <v>2018</v>
       </c>
-      <c r="C8" s="105"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="107"/>
-      <c r="L8" s="107"/>
-      <c r="M8" s="107"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="105"/>
+      <c r="A9" s="101"/>
       <c r="B9" s="63" t="s">
         <v>14</v>
       </c>
@@ -5945,21 +5942,21 @@
       <c r="M20" s="22"/>
     </row>
     <row r="21" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="91"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -6024,55 +6021,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="97">
+      <c r="A3" s="93">
         <v>2019</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="45"/>
@@ -6105,60 +6102,60 @@
       <c r="M5" s="45"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="96"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="106" t="s">
+      <c r="A7" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="106"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="106"/>
-      <c r="K7" s="106"/>
-      <c r="L7" s="106"/>
-      <c r="M7" s="106"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="105" t="s">
+      <c r="A8" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="105">
+      <c r="B8" s="101">
         <v>2019</v>
       </c>
-      <c r="C8" s="105"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="107"/>
-      <c r="L8" s="107"/>
-      <c r="M8" s="107"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="105"/>
+      <c r="A9" s="101"/>
       <c r="B9" s="75" t="s">
         <v>14</v>
       </c>
@@ -6643,21 +6640,21 @@
       <c r="M20" s="22"/>
     </row>
     <row r="21" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="91"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -6725,55 +6722,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="97">
+      <c r="A3" s="93">
         <v>2020</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="81"/>
@@ -6806,60 +6803,60 @@
       <c r="M5" s="81"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="96"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="106" t="s">
+      <c r="A7" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="106"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="106"/>
-      <c r="K7" s="106"/>
-      <c r="L7" s="106"/>
-      <c r="M7" s="106"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="105" t="s">
+      <c r="A8" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="105">
+      <c r="B8" s="101">
         <v>2020</v>
       </c>
-      <c r="C8" s="105"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="107"/>
-      <c r="L8" s="107"/>
-      <c r="M8" s="107"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="105"/>
+      <c r="A9" s="101"/>
       <c r="B9" s="82" t="s">
         <v>14</v>
       </c>
@@ -7343,21 +7340,21 @@
       <c r="M20" s="22"/>
     </row>
     <row r="21" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="91"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -7415,7 +7412,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7425,55 +7422,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="97">
+      <c r="A3" s="93">
         <v>2021</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="84"/>
@@ -7506,60 +7503,60 @@
       <c r="M5" s="84"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="96"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="106" t="s">
+      <c r="A7" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="106"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="106"/>
-      <c r="K7" s="106"/>
-      <c r="L7" s="106"/>
-      <c r="M7" s="106"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="105" t="s">
+      <c r="A8" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="105">
+      <c r="B8" s="101">
         <v>2021</v>
       </c>
-      <c r="C8" s="105"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="107"/>
-      <c r="L8" s="107"/>
-      <c r="M8" s="107"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="105"/>
+      <c r="A9" s="101"/>
       <c r="B9" s="87" t="s">
         <v>14</v>
       </c>
@@ -7625,7 +7622,9 @@
       <c r="I10" s="40">
         <v>3685</v>
       </c>
-      <c r="J10" s="40"/>
+      <c r="J10" s="40">
+        <v>3714</v>
+      </c>
       <c r="K10" s="40"/>
       <c r="L10" s="40"/>
       <c r="M10" s="40"/>
@@ -7658,7 +7657,9 @@
       <c r="I11" s="40">
         <v>133</v>
       </c>
-      <c r="J11" s="40"/>
+      <c r="J11" s="40">
+        <v>133</v>
+      </c>
       <c r="K11" s="40"/>
       <c r="L11" s="40"/>
       <c r="M11" s="40"/>
@@ -7691,7 +7692,9 @@
       <c r="I12" s="40">
         <v>15717</v>
       </c>
-      <c r="J12" s="40"/>
+      <c r="J12" s="40">
+        <v>15763</v>
+      </c>
       <c r="K12" s="40"/>
       <c r="L12" s="40"/>
       <c r="M12" s="40"/>
@@ -7724,7 +7727,9 @@
       <c r="I13" s="40">
         <v>12454</v>
       </c>
-      <c r="J13" s="40"/>
+      <c r="J13" s="40">
+        <v>12568</v>
+      </c>
       <c r="K13" s="40"/>
       <c r="L13" s="40"/>
       <c r="M13" s="40"/>
@@ -7757,7 +7762,9 @@
       <c r="I14" s="40">
         <v>179</v>
       </c>
-      <c r="J14" s="40"/>
+      <c r="J14" s="40">
+        <v>181</v>
+      </c>
       <c r="K14" s="40"/>
       <c r="L14" s="40"/>
       <c r="M14" s="40"/>
@@ -7790,7 +7797,9 @@
       <c r="I15" s="40">
         <v>31253</v>
       </c>
-      <c r="J15" s="40"/>
+      <c r="J15" s="40">
+        <v>31418</v>
+      </c>
       <c r="K15" s="40"/>
       <c r="L15" s="40"/>
       <c r="M15" s="40"/>
@@ -7823,7 +7832,9 @@
       <c r="I16" s="40">
         <v>6169</v>
       </c>
-      <c r="J16" s="40"/>
+      <c r="J16" s="40">
+        <v>6163</v>
+      </c>
       <c r="K16" s="40"/>
       <c r="L16" s="40"/>
       <c r="M16" s="40"/>
@@ -7856,7 +7867,9 @@
       <c r="I17" s="40">
         <v>32206</v>
       </c>
-      <c r="J17" s="40"/>
+      <c r="J17" s="40">
+        <v>32535</v>
+      </c>
       <c r="K17" s="40"/>
       <c r="L17" s="40"/>
       <c r="M17" s="40"/>
@@ -7899,7 +7912,7 @@
       </c>
       <c r="J18" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>102475</v>
       </c>
       <c r="K18" s="20">
         <f t="shared" si="0"/>
@@ -7951,11 +7964,11 @@
       </c>
       <c r="J19" s="88">
         <f>(J18/I18-1)*100</f>
+        <v>0.66702031514007665</v>
+      </c>
+      <c r="K19" s="88">
+        <f>(K18/J18-1)*100</f>
         <v>-100</v>
-      </c>
-      <c r="K19" s="88" t="e">
-        <f>(K18/J18-1)*100</f>
-        <v>#DIV/0!</v>
       </c>
       <c r="L19" s="88" t="e">
         <f>(L18/K18-1)*100</f>
@@ -7979,21 +7992,21 @@
       <c r="M20" s="22"/>
     </row>
     <row r="21" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="91"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -8062,21 +8075,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -8089,21 +8102,21 @@
       <c r="W1" s="3"/>
     </row>
     <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
@@ -8116,21 +8129,21 @@
       <c r="W2" s="6"/>
     </row>
     <row r="3" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="97">
+      <c r="A3" s="93">
         <v>2008</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
@@ -8193,21 +8206,21 @@
       <c r="W5" s="6"/>
     </row>
     <row r="6" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="96"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -8220,21 +8233,21 @@
       <c r="W6" s="6"/>
     </row>
     <row r="7" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="106" t="s">
+      <c r="A7" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="106"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="106"/>
-      <c r="K7" s="106"/>
-      <c r="L7" s="106"/>
-      <c r="M7" s="106"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -8247,26 +8260,26 @@
       <c r="W7" s="6"/>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="105" t="s">
+      <c r="A8" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="105">
+      <c r="B8" s="101">
         <v>2008</v>
       </c>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="105"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="105"/>
+      <c r="A9" s="101"/>
       <c r="B9" s="46" t="s">
         <v>14</v>
       </c>
@@ -8832,21 +8845,21 @@
     </row>
     <row r="20" spans="1:106" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:106" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="91"/>
     </row>
     <row r="22" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -8949,21 +8962,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -8976,21 +8989,21 @@
       <c r="W1" s="3"/>
     </row>
     <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -9003,21 +9016,21 @@
       <c r="W2" s="5"/>
     </row>
     <row r="3" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="97">
+      <c r="A3" s="93">
         <v>2009</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -9080,21 +9093,21 @@
       <c r="W5" s="5"/>
     </row>
     <row r="6" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="96"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
@@ -9107,21 +9120,21 @@
       <c r="W6" s="5"/>
     </row>
     <row r="7" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="106" t="s">
+      <c r="A7" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="106"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="106"/>
-      <c r="K7" s="106"/>
-      <c r="L7" s="106"/>
-      <c r="M7" s="106"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
@@ -9134,26 +9147,26 @@
       <c r="W7" s="5"/>
     </row>
     <row r="8" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="105" t="s">
+      <c r="A8" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="105">
+      <c r="B8" s="101">
         <v>2009</v>
       </c>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="105"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
     </row>
     <row r="9" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="105"/>
+      <c r="A9" s="101"/>
       <c r="B9" s="46" t="s">
         <v>14</v>
       </c>
@@ -9720,21 +9733,21 @@
     </row>
     <row r="20" spans="1:106" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:106" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="91"/>
     </row>
     <row r="22" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -9837,21 +9850,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -9864,21 +9877,21 @@
       <c r="W1" s="3"/>
     </row>
     <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -9891,21 +9904,21 @@
       <c r="W2" s="5"/>
     </row>
     <row r="3" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="97">
+      <c r="A3" s="93">
         <v>2010</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -9968,21 +9981,21 @@
       <c r="W5" s="5"/>
     </row>
     <row r="6" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="96"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
@@ -9995,21 +10008,21 @@
       <c r="W6" s="5"/>
     </row>
     <row r="7" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="106" t="s">
+      <c r="A7" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="106"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="106"/>
-      <c r="K7" s="106"/>
-      <c r="L7" s="106"/>
-      <c r="M7" s="106"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
@@ -10022,26 +10035,26 @@
       <c r="W7" s="5"/>
     </row>
     <row r="8" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="105" t="s">
+      <c r="A8" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="105">
+      <c r="B8" s="101">
         <v>2010</v>
       </c>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="105"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
     </row>
     <row r="9" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="105"/>
+      <c r="A9" s="101"/>
       <c r="B9" s="46" t="s">
         <v>14</v>
       </c>
@@ -10608,21 +10621,21 @@
     </row>
     <row r="20" spans="1:106" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:106" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="91"/>
     </row>
     <row r="22" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -10738,21 +10751,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -10765,21 +10778,21 @@
       <c r="W1" s="3"/>
     </row>
     <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -10792,21 +10805,21 @@
       <c r="W2" s="5"/>
     </row>
     <row r="3" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="97">
+      <c r="A3" s="93">
         <v>2011</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -10869,21 +10882,21 @@
       <c r="W5" s="5"/>
     </row>
     <row r="6" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="96"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
@@ -10896,21 +10909,21 @@
       <c r="W6" s="5"/>
     </row>
     <row r="7" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="106" t="s">
+      <c r="A7" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="106"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="106"/>
-      <c r="K7" s="106"/>
-      <c r="L7" s="106"/>
-      <c r="M7" s="106"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
@@ -10923,26 +10936,26 @@
       <c r="W7" s="5"/>
     </row>
     <row r="8" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="105" t="s">
+      <c r="A8" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="105">
+      <c r="B8" s="101">
         <v>2011</v>
       </c>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="105"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
     </row>
     <row r="9" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="105"/>
+      <c r="A9" s="101"/>
       <c r="B9" s="46" t="s">
         <v>14</v>
       </c>
@@ -11509,21 +11522,21 @@
     </row>
     <row r="20" spans="1:106" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:106" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="91"/>
     </row>
     <row r="22" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -11640,21 +11653,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -11667,21 +11680,21 @@
       <c r="W1" s="3"/>
     </row>
     <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -11694,21 +11707,21 @@
       <c r="W2" s="5"/>
     </row>
     <row r="3" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="97">
+      <c r="A3" s="93">
         <v>2012</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -11771,21 +11784,21 @@
       <c r="W5" s="5"/>
     </row>
     <row r="6" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="96"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
@@ -11798,21 +11811,21 @@
       <c r="W6" s="5"/>
     </row>
     <row r="7" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="106" t="s">
+      <c r="A7" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="106"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="106"/>
-      <c r="K7" s="106"/>
-      <c r="L7" s="106"/>
-      <c r="M7" s="106"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
@@ -11825,26 +11838,26 @@
       <c r="W7" s="5"/>
     </row>
     <row r="8" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="105" t="s">
+      <c r="A8" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="105">
+      <c r="B8" s="101">
         <v>2012</v>
       </c>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="107"/>
-      <c r="L8" s="107"/>
-      <c r="M8" s="107"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
     </row>
     <row r="9" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="105"/>
+      <c r="A9" s="101"/>
       <c r="B9" s="46" t="s">
         <v>14</v>
       </c>
@@ -12411,21 +12424,21 @@
     </row>
     <row r="20" spans="1:106" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:106" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="91"/>
     </row>
     <row r="22" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -12541,21 +12554,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -12568,21 +12581,21 @@
       <c r="W1" s="3"/>
     </row>
     <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -12595,21 +12608,21 @@
       <c r="W2" s="5"/>
     </row>
     <row r="3" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="97">
+      <c r="A3" s="93">
         <v>2013</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -12672,21 +12685,21 @@
       <c r="W5" s="5"/>
     </row>
     <row r="6" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="96"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
@@ -12699,21 +12712,21 @@
       <c r="W6" s="5"/>
     </row>
     <row r="7" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="106" t="s">
+      <c r="A7" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="106"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="106"/>
-      <c r="K7" s="106"/>
-      <c r="L7" s="106"/>
-      <c r="M7" s="106"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
@@ -12726,26 +12739,26 @@
       <c r="W7" s="5"/>
     </row>
     <row r="8" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="105" t="s">
+      <c r="A8" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="105">
+      <c r="B8" s="101">
         <v>2013</v>
       </c>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="107"/>
-      <c r="L8" s="107"/>
-      <c r="M8" s="107"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
     </row>
     <row r="9" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="105"/>
+      <c r="A9" s="101"/>
       <c r="B9" s="46" t="s">
         <v>14</v>
       </c>
@@ -13312,21 +13325,21 @@
     </row>
     <row r="20" spans="1:106" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:106" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="91"/>
     </row>
     <row r="22" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -13442,21 +13455,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -13468,21 +13481,21 @@
       <c r="V1" s="3"/>
     </row>
     <row r="2" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -13494,21 +13507,21 @@
       <c r="V2" s="5"/>
     </row>
     <row r="3" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="97">
+      <c r="A3" s="93">
         <v>2014</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -13568,21 +13581,21 @@
       <c r="V5" s="5"/>
     </row>
     <row r="6" spans="1:22" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="96"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
@@ -13594,21 +13607,21 @@
       <c r="V6" s="5"/>
     </row>
     <row r="7" spans="1:22" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="106" t="s">
+      <c r="A7" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="106"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="106"/>
-      <c r="K7" s="106"/>
-      <c r="L7" s="106"/>
-      <c r="M7" s="106"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
@@ -13620,26 +13633,26 @@
       <c r="V7" s="5"/>
     </row>
     <row r="8" spans="1:22" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="105" t="s">
+      <c r="A8" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="105">
+      <c r="B8" s="101">
         <v>2014</v>
       </c>
-      <c r="C8" s="105"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="107"/>
-      <c r="L8" s="107"/>
-      <c r="M8" s="107"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
     </row>
     <row r="9" spans="1:22" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="105"/>
+      <c r="A9" s="101"/>
       <c r="B9" s="46" t="s">
         <v>14</v>
       </c>
@@ -14205,21 +14218,21 @@
     </row>
     <row r="20" spans="1:105" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:105" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="91"/>
     </row>
     <row r="22" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -14341,21 +14354,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -14366,21 +14379,21 @@
       <c r="U1" s="3"/>
     </row>
     <row r="2" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -14391,21 +14404,21 @@
       <c r="U2" s="5"/>
     </row>
     <row r="3" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="97">
+      <c r="A3" s="93">
         <v>2015</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -14462,62 +14475,62 @@
       <c r="U5" s="5"/>
     </row>
     <row r="6" spans="1:21" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="96"/>
       <c r="U6" s="5"/>
     </row>
     <row r="7" spans="1:21" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="106" t="s">
+      <c r="A7" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="106"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="106"/>
-      <c r="K7" s="106"/>
-      <c r="L7" s="106"/>
-      <c r="M7" s="106"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
       <c r="U7" s="5"/>
     </row>
     <row r="8" spans="1:21" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="105" t="s">
+      <c r="A8" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="105">
+      <c r="B8" s="101">
         <v>2015</v>
       </c>
-      <c r="C8" s="105"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="107"/>
-      <c r="L8" s="107"/>
-      <c r="M8" s="107"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
     </row>
     <row r="9" spans="1:21" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="105"/>
+      <c r="A9" s="101"/>
       <c r="B9" s="57" t="s">
         <v>14</v>
       </c>
@@ -15159,21 +15172,21 @@
     </row>
     <row r="20" spans="1:104" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:104" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="91"/>
     </row>
     <row r="22" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>

--- a/Tabulados/Patrones.xlsx
+++ b/Tabulados/Patrones.xlsx
@@ -206,10 +206,10 @@
     <t>2008-2021</t>
   </si>
   <si>
-    <t>Var Sep 2021 respecto a Ago 2021</t>
+    <t>Var Oct 2021 respecto a Sep 2021</t>
   </si>
   <si>
-    <t>Var Sep 2021 respecto a Dic 2020</t>
+    <t>Var Oct 2021 respecto a Dic 2020</t>
   </si>
 </sst>
 </file>
@@ -1131,7 +1131,7 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1367,6 +1367,12 @@
     <xf numFmtId="0" fontId="16" fillId="38" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="45" fillId="35" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="45" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -1405,15 +1411,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="45" fillId="35" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="45" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="237">
@@ -2876,7 +2873,7 @@
   <dimension ref="A1:BK24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U21" sqref="U21"/>
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2892,26 +2889,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
-      <c r="R1" s="92"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
       <c r="S1" s="26"/>
       <c r="T1" s="26"/>
       <c r="U1" s="26"/>
@@ -2920,26 +2917,26 @@
       <c r="X1" s="26"/>
     </row>
     <row r="2" spans="1:24" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="93"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="95"/>
+      <c r="Q2" s="95"/>
+      <c r="R2" s="95"/>
       <c r="S2" s="28"/>
       <c r="T2" s="28"/>
       <c r="U2" s="28"/>
@@ -2948,26 +2945,26 @@
       <c r="X2" s="28"/>
     </row>
     <row r="3" spans="1:24" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="93"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="93"/>
-      <c r="R3" s="93"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="95"/>
+      <c r="Q3" s="95"/>
+      <c r="R3" s="95"/>
       <c r="S3" s="28"/>
       <c r="T3" s="28"/>
       <c r="U3" s="28"/>
@@ -3028,26 +3025,26 @@
       <c r="X5" s="8"/>
     </row>
     <row r="6" spans="1:24" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="96"/>
-      <c r="N6" s="96"/>
-      <c r="O6" s="96"/>
-      <c r="P6" s="96"/>
-      <c r="Q6" s="96"/>
-      <c r="R6" s="96"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
+      <c r="N6" s="98"/>
+      <c r="O6" s="98"/>
+      <c r="P6" s="98"/>
+      <c r="Q6" s="98"/>
+      <c r="R6" s="98"/>
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
       <c r="U6" s="8"/>
@@ -3056,26 +3053,26 @@
       <c r="X6" s="8"/>
     </row>
     <row r="7" spans="1:24" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="97" t="s">
+      <c r="A7" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="97"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="97"/>
-      <c r="L7" s="97"/>
-      <c r="M7" s="97"/>
-      <c r="N7" s="97"/>
-      <c r="O7" s="97"/>
-      <c r="P7" s="97"/>
-      <c r="Q7" s="97"/>
-      <c r="R7" s="97"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="99"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="99"/>
+      <c r="P7" s="99"/>
+      <c r="Q7" s="99"/>
+      <c r="R7" s="99"/>
       <c r="S7" s="8"/>
       <c r="T7" s="8"/>
       <c r="U7" s="8"/>
@@ -3084,7 +3081,7 @@
       <c r="X7" s="8"/>
     </row>
     <row r="8" spans="1:24" s="7" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="96" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="86">
@@ -3126,20 +3123,20 @@
       <c r="N8" s="86">
         <v>2020</v>
       </c>
-      <c r="O8" s="100">
+      <c r="O8" s="102">
         <v>2021</v>
       </c>
-      <c r="P8" s="100"/>
-      <c r="Q8" s="98" t="s">
+      <c r="P8" s="102"/>
+      <c r="Q8" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="R8" s="98" t="s">
+      <c r="R8" s="100" t="s">
         <v>34</v>
       </c>
       <c r="S8" s="8"/>
     </row>
     <row r="9" spans="1:24" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="95"/>
+      <c r="A9" s="97"/>
       <c r="B9" s="48" t="s">
         <v>13</v>
       </c>
@@ -3180,13 +3177,13 @@
         <v>13</v>
       </c>
       <c r="O9" s="90" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P9" s="90" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q9" s="99"/>
-      <c r="R9" s="99"/>
+        <v>23</v>
+      </c>
+      <c r="Q9" s="101"/>
+      <c r="R9" s="101"/>
       <c r="S9" s="8"/>
     </row>
     <row r="10" spans="1:24" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3232,19 +3229,19 @@
       <c r="N10" s="40">
         <v>3432</v>
       </c>
-      <c r="O10" s="104">
-        <v>3685</v>
-      </c>
-      <c r="P10" s="104">
+      <c r="O10" s="91">
         <v>3714</v>
+      </c>
+      <c r="P10" s="91">
+        <v>3736</v>
       </c>
       <c r="Q10" s="40">
         <f>P10-O10</f>
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="R10" s="44">
         <f>P10-N10</f>
-        <v>282</v>
+        <v>304</v>
       </c>
       <c r="S10" s="59"/>
     </row>
@@ -3291,19 +3288,19 @@
       <c r="N11" s="65">
         <v>127</v>
       </c>
-      <c r="O11" s="105">
+      <c r="O11" s="92">
         <v>133</v>
       </c>
-      <c r="P11" s="105">
-        <v>133</v>
+      <c r="P11" s="92">
+        <v>134</v>
       </c>
       <c r="Q11" s="40">
-        <f t="shared" ref="Q11:Q17" si="0">P11-O11</f>
-        <v>0</v>
+        <f>P11-O11</f>
+        <v>1</v>
       </c>
       <c r="R11" s="44">
-        <f t="shared" ref="R11:R17" si="1">P11-N11</f>
-        <v>6</v>
+        <f>P11-N11</f>
+        <v>7</v>
       </c>
       <c r="S11" s="8"/>
     </row>
@@ -3350,19 +3347,19 @@
       <c r="N12" s="40">
         <v>15414</v>
       </c>
-      <c r="O12" s="104">
-        <v>15717</v>
-      </c>
-      <c r="P12" s="104">
+      <c r="O12" s="91">
         <v>15763</v>
       </c>
+      <c r="P12" s="91">
+        <v>15767</v>
+      </c>
       <c r="Q12" s="65">
-        <f t="shared" si="0"/>
-        <v>46</v>
+        <f>P12-O12</f>
+        <v>4</v>
       </c>
       <c r="R12" s="44">
-        <f t="shared" si="1"/>
-        <v>349</v>
+        <f>P12-N12</f>
+        <v>353</v>
       </c>
       <c r="S12" s="59"/>
     </row>
@@ -3409,19 +3406,19 @@
       <c r="N13" s="40">
         <v>11694</v>
       </c>
-      <c r="O13" s="106">
-        <v>12454</v>
-      </c>
-      <c r="P13" s="106">
+      <c r="O13" s="92">
         <v>12568</v>
       </c>
+      <c r="P13" s="92">
+        <v>12644</v>
+      </c>
       <c r="Q13" s="40">
-        <f t="shared" si="0"/>
-        <v>114</v>
+        <f>P13-O13</f>
+        <v>76</v>
       </c>
       <c r="R13" s="44">
-        <f t="shared" si="1"/>
-        <v>874</v>
+        <f>P13-N13</f>
+        <v>950</v>
       </c>
       <c r="S13" s="8"/>
     </row>
@@ -3468,19 +3465,19 @@
       <c r="N14" s="64">
         <v>161</v>
       </c>
-      <c r="O14" s="104">
-        <v>179</v>
-      </c>
-      <c r="P14" s="104">
+      <c r="O14" s="91">
         <v>181</v>
       </c>
+      <c r="P14" s="91">
+        <v>180</v>
+      </c>
       <c r="Q14" s="40">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>P14-O14</f>
+        <v>-1</v>
       </c>
       <c r="R14" s="44">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <f>P14-N14</f>
+        <v>19</v>
       </c>
       <c r="S14" s="8"/>
     </row>
@@ -3527,19 +3524,19 @@
       <c r="N15" s="40">
         <v>30178</v>
       </c>
-      <c r="O15" s="106">
-        <v>31253</v>
-      </c>
-      <c r="P15" s="106">
+      <c r="O15" s="92">
         <v>31418</v>
       </c>
+      <c r="P15" s="92">
+        <v>31474</v>
+      </c>
       <c r="Q15" s="40">
-        <f t="shared" si="0"/>
-        <v>165</v>
+        <f>P15-O15</f>
+        <v>56</v>
       </c>
       <c r="R15" s="44">
-        <f t="shared" si="1"/>
-        <v>1240</v>
+        <f>P15-N15</f>
+        <v>1296</v>
       </c>
       <c r="S15" s="59"/>
     </row>
@@ -3586,19 +3583,19 @@
       <c r="N16" s="40">
         <v>6033</v>
       </c>
-      <c r="O16" s="104">
-        <v>6169</v>
-      </c>
-      <c r="P16" s="104">
+      <c r="O16" s="91">
         <v>6163</v>
       </c>
+      <c r="P16" s="91">
+        <v>6162</v>
+      </c>
       <c r="Q16" s="40">
-        <f t="shared" si="0"/>
-        <v>-6</v>
+        <f>P16-O16</f>
+        <v>-1</v>
       </c>
       <c r="R16" s="44">
-        <f t="shared" si="1"/>
-        <v>130</v>
+        <f>P16-N16</f>
+        <v>129</v>
       </c>
       <c r="S16" s="59"/>
     </row>
@@ -3645,19 +3642,19 @@
       <c r="N17" s="71">
         <v>31028</v>
       </c>
-      <c r="O17" s="105">
-        <v>32206</v>
-      </c>
-      <c r="P17" s="105">
+      <c r="O17" s="92">
         <v>32535</v>
       </c>
+      <c r="P17" s="92">
+        <v>32769</v>
+      </c>
       <c r="Q17" s="71">
-        <f t="shared" si="0"/>
-        <v>329</v>
+        <f>P17-O17</f>
+        <v>234</v>
       </c>
       <c r="R17" s="44">
-        <f t="shared" si="1"/>
-        <v>1507</v>
+        <f>P17-N17</f>
+        <v>1741</v>
       </c>
       <c r="S17" s="59"/>
     </row>
@@ -3666,27 +3663,27 @@
         <v>11</v>
       </c>
       <c r="B18" s="20">
-        <f t="shared" ref="B18:L18" si="2">SUM(B10:B17)</f>
+        <f t="shared" ref="B18:L18" si="0">SUM(B10:B17)</f>
         <v>74287</v>
       </c>
       <c r="C18" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>73791</v>
       </c>
       <c r="D18" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>74713</v>
       </c>
       <c r="E18" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>75571</v>
       </c>
       <c r="F18" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>77290</v>
       </c>
       <c r="G18" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>78051</v>
       </c>
       <c r="H18" s="20">
@@ -3706,7 +3703,7 @@
         <v>90125</v>
       </c>
       <c r="L18" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>93370</v>
       </c>
       <c r="M18" s="20">
@@ -3718,19 +3715,19 @@
       </c>
       <c r="O18" s="20">
         <f>SUM(O10:O17)</f>
-        <v>101796</v>
+        <v>102475</v>
       </c>
       <c r="P18" s="20">
         <f>SUM(P10:P17)</f>
-        <v>102475</v>
+        <v>102866</v>
       </c>
       <c r="Q18" s="20">
         <f>SUM(Q10:Q17)</f>
-        <v>679</v>
+        <v>391</v>
       </c>
       <c r="R18" s="74">
         <f>SUM(R10:R17)</f>
-        <v>4408</v>
+        <v>4799</v>
       </c>
       <c r="S18" s="59"/>
     </row>
@@ -3755,26 +3752,26 @@
       <c r="S19" s="62"/>
     </row>
     <row r="20" spans="1:63" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="91" t="s">
+      <c r="A20" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="91"/>
-      <c r="C20" s="91"/>
-      <c r="D20" s="91"/>
-      <c r="E20" s="91"/>
-      <c r="F20" s="91"/>
-      <c r="G20" s="91"/>
-      <c r="H20" s="91"/>
-      <c r="I20" s="91"/>
-      <c r="J20" s="91"/>
-      <c r="K20" s="91"/>
-      <c r="L20" s="91"/>
-      <c r="M20" s="91"/>
-      <c r="N20" s="91"/>
-      <c r="O20" s="91"/>
-      <c r="P20" s="91"/>
-      <c r="Q20" s="91"/>
-      <c r="R20" s="91"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="93"/>
+      <c r="I20" s="93"/>
+      <c r="J20" s="93"/>
+      <c r="K20" s="93"/>
+      <c r="L20" s="93"/>
+      <c r="M20" s="93"/>
+      <c r="N20" s="93"/>
+      <c r="O20" s="93"/>
+      <c r="P20" s="93"/>
+      <c r="Q20" s="93"/>
+      <c r="R20" s="93"/>
     </row>
     <row r="21" spans="1:63" s="35" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="18"/>
@@ -3927,55 +3924,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="93">
+      <c r="A3" s="95">
         <v>2016</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="45"/>
@@ -4008,60 +4005,60 @@
       <c r="M5" s="45"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="96"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="103">
         <v>2016</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="101"/>
+      <c r="A9" s="103"/>
       <c r="B9" s="60" t="s">
         <v>14</v>
       </c>
@@ -4546,21 +4543,21 @@
       <c r="M20" s="22"/>
     </row>
     <row r="21" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="91" t="s">
+      <c r="A21" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="91"/>
-      <c r="L21" s="91"/>
-      <c r="M21" s="91"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -4625,55 +4622,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="93">
+      <c r="A3" s="95">
         <v>2017</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="45"/>
@@ -4706,60 +4703,60 @@
       <c r="M5" s="45"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="96"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="103">
         <v>2017</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="101"/>
+      <c r="A9" s="103"/>
       <c r="B9" s="61" t="s">
         <v>14</v>
       </c>
@@ -5244,21 +5241,21 @@
       <c r="M20" s="22"/>
     </row>
     <row r="21" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="91" t="s">
+      <c r="A21" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="91"/>
-      <c r="L21" s="91"/>
-      <c r="M21" s="91"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -5323,55 +5320,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="93">
+      <c r="A3" s="95">
         <v>2018</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="45"/>
@@ -5404,60 +5401,60 @@
       <c r="M5" s="45"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="96"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="103">
         <v>2018</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="101"/>
+      <c r="A9" s="103"/>
       <c r="B9" s="63" t="s">
         <v>14</v>
       </c>
@@ -5942,21 +5939,21 @@
       <c r="M20" s="22"/>
     </row>
     <row r="21" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="91" t="s">
+      <c r="A21" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="91"/>
-      <c r="L21" s="91"/>
-      <c r="M21" s="91"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -6021,55 +6018,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="93">
+      <c r="A3" s="95">
         <v>2019</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="45"/>
@@ -6102,60 +6099,60 @@
       <c r="M5" s="45"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="96"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="103">
         <v>2019</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="101"/>
+      <c r="A9" s="103"/>
       <c r="B9" s="75" t="s">
         <v>14</v>
       </c>
@@ -6640,21 +6637,21 @@
       <c r="M20" s="22"/>
     </row>
     <row r="21" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="91" t="s">
+      <c r="A21" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="91"/>
-      <c r="L21" s="91"/>
-      <c r="M21" s="91"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -6722,55 +6719,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="93">
+      <c r="A3" s="95">
         <v>2020</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="81"/>
@@ -6803,60 +6800,60 @@
       <c r="M5" s="81"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="96"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="103">
         <v>2020</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="101"/>
+      <c r="A9" s="103"/>
       <c r="B9" s="82" t="s">
         <v>14</v>
       </c>
@@ -7340,21 +7337,21 @@
       <c r="M20" s="22"/>
     </row>
     <row r="21" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="91" t="s">
+      <c r="A21" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="91"/>
-      <c r="L21" s="91"/>
-      <c r="M21" s="91"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -7412,7 +7409,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7422,55 +7419,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="93">
+      <c r="A3" s="95">
         <v>2021</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="84"/>
@@ -7503,60 +7500,60 @@
       <c r="M5" s="84"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="96"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="103">
         <v>2021</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="101"/>
+      <c r="A9" s="103"/>
       <c r="B9" s="87" t="s">
         <v>14</v>
       </c>
@@ -7625,7 +7622,9 @@
       <c r="J10" s="40">
         <v>3714</v>
       </c>
-      <c r="K10" s="40"/>
+      <c r="K10" s="40">
+        <v>3736</v>
+      </c>
       <c r="L10" s="40"/>
       <c r="M10" s="40"/>
     </row>
@@ -7660,7 +7659,9 @@
       <c r="J11" s="40">
         <v>133</v>
       </c>
-      <c r="K11" s="40"/>
+      <c r="K11" s="40">
+        <v>134</v>
+      </c>
       <c r="L11" s="40"/>
       <c r="M11" s="40"/>
     </row>
@@ -7695,7 +7696,9 @@
       <c r="J12" s="40">
         <v>15763</v>
       </c>
-      <c r="K12" s="40"/>
+      <c r="K12" s="40">
+        <v>15767</v>
+      </c>
       <c r="L12" s="40"/>
       <c r="M12" s="40"/>
     </row>
@@ -7730,7 +7733,9 @@
       <c r="J13" s="40">
         <v>12568</v>
       </c>
-      <c r="K13" s="40"/>
+      <c r="K13" s="40">
+        <v>12644</v>
+      </c>
       <c r="L13" s="40"/>
       <c r="M13" s="40"/>
     </row>
@@ -7765,7 +7770,9 @@
       <c r="J14" s="40">
         <v>181</v>
       </c>
-      <c r="K14" s="40"/>
+      <c r="K14" s="40">
+        <v>180</v>
+      </c>
       <c r="L14" s="40"/>
       <c r="M14" s="40"/>
     </row>
@@ -7800,7 +7807,9 @@
       <c r="J15" s="40">
         <v>31418</v>
       </c>
-      <c r="K15" s="40"/>
+      <c r="K15" s="40">
+        <v>31474</v>
+      </c>
       <c r="L15" s="40"/>
       <c r="M15" s="40"/>
     </row>
@@ -7835,7 +7844,9 @@
       <c r="J16" s="40">
         <v>6163</v>
       </c>
-      <c r="K16" s="40"/>
+      <c r="K16" s="40">
+        <v>6162</v>
+      </c>
       <c r="L16" s="40"/>
       <c r="M16" s="40"/>
     </row>
@@ -7870,7 +7881,9 @@
       <c r="J17" s="40">
         <v>32535</v>
       </c>
-      <c r="K17" s="40"/>
+      <c r="K17" s="40">
+        <v>32769</v>
+      </c>
       <c r="L17" s="40"/>
       <c r="M17" s="40"/>
     </row>
@@ -7916,7 +7929,7 @@
       </c>
       <c r="K18" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>102866</v>
       </c>
       <c r="L18" s="20">
         <v>98316</v>
@@ -7968,11 +7981,11 @@
       </c>
       <c r="K19" s="88">
         <f>(K18/J18-1)*100</f>
-        <v>-100</v>
-      </c>
-      <c r="L19" s="88" t="e">
+        <v>0.38155647718955965</v>
+      </c>
+      <c r="L19" s="88">
         <f>(L18/K18-1)*100</f>
-        <v>#DIV/0!</v>
+        <v>-4.4232302218420116</v>
       </c>
       <c r="M19" s="88">
         <f>(M18/L18-1)*100</f>
@@ -7992,21 +8005,21 @@
       <c r="M20" s="22"/>
     </row>
     <row r="21" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="91" t="s">
+      <c r="A21" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="91"/>
-      <c r="L21" s="91"/>
-      <c r="M21" s="91"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -8075,21 +8088,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -8102,21 +8115,21 @@
       <c r="W1" s="3"/>
     </row>
     <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
@@ -8129,21 +8142,21 @@
       <c r="W2" s="6"/>
     </row>
     <row r="3" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="93">
+      <c r="A3" s="95">
         <v>2008</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
@@ -8206,21 +8219,21 @@
       <c r="W5" s="6"/>
     </row>
     <row r="6" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="96"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -8233,21 +8246,21 @@
       <c r="W6" s="6"/>
     </row>
     <row r="7" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -8260,26 +8273,26 @@
       <c r="W7" s="6"/>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="103">
         <v>2008</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="101"/>
+      <c r="A9" s="103"/>
       <c r="B9" s="46" t="s">
         <v>14</v>
       </c>
@@ -8845,21 +8858,21 @@
     </row>
     <row r="20" spans="1:106" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:106" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="91" t="s">
+      <c r="A21" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="91"/>
-      <c r="L21" s="91"/>
-      <c r="M21" s="91"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -8962,21 +8975,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -8989,21 +9002,21 @@
       <c r="W1" s="3"/>
     </row>
     <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -9016,21 +9029,21 @@
       <c r="W2" s="5"/>
     </row>
     <row r="3" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="93">
+      <c r="A3" s="95">
         <v>2009</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -9093,21 +9106,21 @@
       <c r="W5" s="5"/>
     </row>
     <row r="6" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="96"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
@@ -9120,21 +9133,21 @@
       <c r="W6" s="5"/>
     </row>
     <row r="7" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
@@ -9147,26 +9160,26 @@
       <c r="W7" s="5"/>
     </row>
     <row r="8" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="103">
         <v>2009</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
     </row>
     <row r="9" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="101"/>
+      <c r="A9" s="103"/>
       <c r="B9" s="46" t="s">
         <v>14</v>
       </c>
@@ -9733,21 +9746,21 @@
     </row>
     <row r="20" spans="1:106" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:106" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="91" t="s">
+      <c r="A21" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="91"/>
-      <c r="L21" s="91"/>
-      <c r="M21" s="91"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -9850,21 +9863,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -9877,21 +9890,21 @@
       <c r="W1" s="3"/>
     </row>
     <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -9904,21 +9917,21 @@
       <c r="W2" s="5"/>
     </row>
     <row r="3" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="93">
+      <c r="A3" s="95">
         <v>2010</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -9981,21 +9994,21 @@
       <c r="W5" s="5"/>
     </row>
     <row r="6" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="96"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
@@ -10008,21 +10021,21 @@
       <c r="W6" s="5"/>
     </row>
     <row r="7" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
@@ -10035,26 +10048,26 @@
       <c r="W7" s="5"/>
     </row>
     <row r="8" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="103">
         <v>2010</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
     </row>
     <row r="9" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="101"/>
+      <c r="A9" s="103"/>
       <c r="B9" s="46" t="s">
         <v>14</v>
       </c>
@@ -10621,21 +10634,21 @@
     </row>
     <row r="20" spans="1:106" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:106" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="91" t="s">
+      <c r="A21" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="91"/>
-      <c r="L21" s="91"/>
-      <c r="M21" s="91"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -10751,21 +10764,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -10778,21 +10791,21 @@
       <c r="W1" s="3"/>
     </row>
     <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -10805,21 +10818,21 @@
       <c r="W2" s="5"/>
     </row>
     <row r="3" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="93">
+      <c r="A3" s="95">
         <v>2011</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -10882,21 +10895,21 @@
       <c r="W5" s="5"/>
     </row>
     <row r="6" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="96"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
@@ -10909,21 +10922,21 @@
       <c r="W6" s="5"/>
     </row>
     <row r="7" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
@@ -10936,26 +10949,26 @@
       <c r="W7" s="5"/>
     </row>
     <row r="8" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="103">
         <v>2011</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
     </row>
     <row r="9" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="101"/>
+      <c r="A9" s="103"/>
       <c r="B9" s="46" t="s">
         <v>14</v>
       </c>
@@ -11522,21 +11535,21 @@
     </row>
     <row r="20" spans="1:106" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:106" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="91" t="s">
+      <c r="A21" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="91"/>
-      <c r="L21" s="91"/>
-      <c r="M21" s="91"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -11653,21 +11666,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -11680,21 +11693,21 @@
       <c r="W1" s="3"/>
     </row>
     <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -11707,21 +11720,21 @@
       <c r="W2" s="5"/>
     </row>
     <row r="3" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="93">
+      <c r="A3" s="95">
         <v>2012</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -11784,21 +11797,21 @@
       <c r="W5" s="5"/>
     </row>
     <row r="6" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="96"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
@@ -11811,21 +11824,21 @@
       <c r="W6" s="5"/>
     </row>
     <row r="7" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
@@ -11838,26 +11851,26 @@
       <c r="W7" s="5"/>
     </row>
     <row r="8" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="103">
         <v>2012</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
     </row>
     <row r="9" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="101"/>
+      <c r="A9" s="103"/>
       <c r="B9" s="46" t="s">
         <v>14</v>
       </c>
@@ -12424,21 +12437,21 @@
     </row>
     <row r="20" spans="1:106" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:106" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="91" t="s">
+      <c r="A21" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="91"/>
-      <c r="L21" s="91"/>
-      <c r="M21" s="91"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -12554,21 +12567,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -12581,21 +12594,21 @@
       <c r="W1" s="3"/>
     </row>
     <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -12608,21 +12621,21 @@
       <c r="W2" s="5"/>
     </row>
     <row r="3" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="93">
+      <c r="A3" s="95">
         <v>2013</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -12685,21 +12698,21 @@
       <c r="W5" s="5"/>
     </row>
     <row r="6" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="96"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
@@ -12712,21 +12725,21 @@
       <c r="W6" s="5"/>
     </row>
     <row r="7" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
@@ -12739,26 +12752,26 @@
       <c r="W7" s="5"/>
     </row>
     <row r="8" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="103">
         <v>2013</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
     </row>
     <row r="9" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="101"/>
+      <c r="A9" s="103"/>
       <c r="B9" s="46" t="s">
         <v>14</v>
       </c>
@@ -13325,21 +13338,21 @@
     </row>
     <row r="20" spans="1:106" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:106" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="91" t="s">
+      <c r="A21" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="91"/>
-      <c r="L21" s="91"/>
-      <c r="M21" s="91"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -13455,21 +13468,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -13481,21 +13494,21 @@
       <c r="V1" s="3"/>
     </row>
     <row r="2" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -13507,21 +13520,21 @@
       <c r="V2" s="5"/>
     </row>
     <row r="3" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="93">
+      <c r="A3" s="95">
         <v>2014</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -13581,21 +13594,21 @@
       <c r="V5" s="5"/>
     </row>
     <row r="6" spans="1:22" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="96"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
@@ -13607,21 +13620,21 @@
       <c r="V6" s="5"/>
     </row>
     <row r="7" spans="1:22" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
@@ -13633,26 +13646,26 @@
       <c r="V7" s="5"/>
     </row>
     <row r="8" spans="1:22" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="103">
         <v>2014</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
     </row>
     <row r="9" spans="1:22" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="101"/>
+      <c r="A9" s="103"/>
       <c r="B9" s="46" t="s">
         <v>14</v>
       </c>
@@ -14218,21 +14231,21 @@
     </row>
     <row r="20" spans="1:105" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:105" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="91" t="s">
+      <c r="A21" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="91"/>
-      <c r="L21" s="91"/>
-      <c r="M21" s="91"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -14354,21 +14367,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -14379,21 +14392,21 @@
       <c r="U1" s="3"/>
     </row>
     <row r="2" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -14404,21 +14417,21 @@
       <c r="U2" s="5"/>
     </row>
     <row r="3" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="93">
+      <c r="A3" s="95">
         <v>2015</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -14475,62 +14488,62 @@
       <c r="U5" s="5"/>
     </row>
     <row r="6" spans="1:21" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="96"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
       <c r="U6" s="5"/>
     </row>
     <row r="7" spans="1:21" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
       <c r="U7" s="5"/>
     </row>
     <row r="8" spans="1:21" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="103">
         <v>2015</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
     </row>
     <row r="9" spans="1:21" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="101"/>
+      <c r="A9" s="103"/>
       <c r="B9" s="57" t="s">
         <v>14</v>
       </c>
@@ -15172,21 +15185,21 @@
     </row>
     <row r="20" spans="1:104" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:104" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="91" t="s">
+      <c r="A21" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="91"/>
-      <c r="L21" s="91"/>
-      <c r="M21" s="91"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>

--- a/Tabulados/Patrones.xlsx
+++ b/Tabulados/Patrones.xlsx
@@ -206,10 +206,10 @@
     <t>2008-2021</t>
   </si>
   <si>
-    <t>Var Oct 2021 respecto a Sep 2021</t>
+    <t>Var Nov 2021 respecto a Oct 2021</t>
   </si>
   <si>
-    <t>Var Oct 2021 respecto a Dic 2020</t>
+    <t>Var Nov 2021 respecto a Dic 2020</t>
   </si>
 </sst>
 </file>
@@ -2873,7 +2873,7 @@
   <dimension ref="A1:BK24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+      <selection activeCell="V27" sqref="V27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3177,10 +3177,10 @@
         <v>13</v>
       </c>
       <c r="O9" s="90" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P9" s="90" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q9" s="101"/>
       <c r="R9" s="101"/>
@@ -3230,18 +3230,18 @@
         <v>3432</v>
       </c>
       <c r="O10" s="91">
-        <v>3714</v>
+        <v>3736</v>
       </c>
       <c r="P10" s="91">
-        <v>3736</v>
+        <v>3766</v>
       </c>
       <c r="Q10" s="40">
         <f>P10-O10</f>
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="R10" s="44">
         <f>P10-N10</f>
-        <v>304</v>
+        <v>334</v>
       </c>
       <c r="S10" s="59"/>
     </row>
@@ -3289,18 +3289,18 @@
         <v>127</v>
       </c>
       <c r="O11" s="92">
+        <v>134</v>
+      </c>
+      <c r="P11" s="92">
         <v>133</v>
-      </c>
-      <c r="P11" s="92">
-        <v>134</v>
       </c>
       <c r="Q11" s="40">
         <f>P11-O11</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R11" s="44">
         <f>P11-N11</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S11" s="8"/>
     </row>
@@ -3348,18 +3348,18 @@
         <v>15414</v>
       </c>
       <c r="O12" s="91">
-        <v>15763</v>
+        <v>15767</v>
       </c>
       <c r="P12" s="91">
-        <v>15767</v>
+        <v>15784</v>
       </c>
       <c r="Q12" s="65">
         <f>P12-O12</f>
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="R12" s="44">
         <f>P12-N12</f>
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="S12" s="59"/>
     </row>
@@ -3407,18 +3407,18 @@
         <v>11694</v>
       </c>
       <c r="O13" s="92">
-        <v>12568</v>
+        <v>12644</v>
       </c>
       <c r="P13" s="92">
-        <v>12644</v>
+        <v>12712</v>
       </c>
       <c r="Q13" s="40">
         <f>P13-O13</f>
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="R13" s="44">
         <f>P13-N13</f>
-        <v>950</v>
+        <v>1018</v>
       </c>
       <c r="S13" s="8"/>
     </row>
@@ -3466,18 +3466,18 @@
         <v>161</v>
       </c>
       <c r="O14" s="91">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P14" s="91">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q14" s="40">
         <f>P14-O14</f>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="R14" s="44">
         <f>P14-N14</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="S14" s="8"/>
     </row>
@@ -3525,18 +3525,18 @@
         <v>30178</v>
       </c>
       <c r="O15" s="92">
-        <v>31418</v>
+        <v>31474</v>
       </c>
       <c r="P15" s="92">
-        <v>31474</v>
+        <v>31552</v>
       </c>
       <c r="Q15" s="40">
         <f>P15-O15</f>
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="R15" s="44">
         <f>P15-N15</f>
-        <v>1296</v>
+        <v>1374</v>
       </c>
       <c r="S15" s="59"/>
     </row>
@@ -3584,18 +3584,18 @@
         <v>6033</v>
       </c>
       <c r="O16" s="91">
-        <v>6163</v>
+        <v>6162</v>
       </c>
       <c r="P16" s="91">
-        <v>6162</v>
+        <v>6166</v>
       </c>
       <c r="Q16" s="40">
         <f>P16-O16</f>
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="R16" s="44">
         <f>P16-N16</f>
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="S16" s="59"/>
     </row>
@@ -3643,18 +3643,18 @@
         <v>31028</v>
       </c>
       <c r="O17" s="92">
-        <v>32535</v>
+        <v>32769</v>
       </c>
       <c r="P17" s="92">
-        <v>32769</v>
+        <v>32877</v>
       </c>
       <c r="Q17" s="71">
         <f>P17-O17</f>
-        <v>234</v>
+        <v>108</v>
       </c>
       <c r="R17" s="44">
         <f>P17-N17</f>
-        <v>1741</v>
+        <v>1849</v>
       </c>
       <c r="S17" s="59"/>
     </row>
@@ -3715,19 +3715,19 @@
       </c>
       <c r="O18" s="20">
         <f>SUM(O10:O17)</f>
-        <v>102475</v>
+        <v>102866</v>
       </c>
       <c r="P18" s="20">
         <f>SUM(P10:P17)</f>
-        <v>102866</v>
+        <v>103172</v>
       </c>
       <c r="Q18" s="20">
         <f>SUM(Q10:Q17)</f>
-        <v>391</v>
+        <v>306</v>
       </c>
       <c r="R18" s="74">
         <f>SUM(R10:R17)</f>
-        <v>4799</v>
+        <v>5105</v>
       </c>
       <c r="S18" s="59"/>
     </row>
@@ -7409,7 +7409,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7625,7 +7625,9 @@
       <c r="K10" s="40">
         <v>3736</v>
       </c>
-      <c r="L10" s="40"/>
+      <c r="L10" s="40">
+        <v>3766</v>
+      </c>
       <c r="M10" s="40"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -7662,7 +7664,9 @@
       <c r="K11" s="40">
         <v>134</v>
       </c>
-      <c r="L11" s="40"/>
+      <c r="L11" s="40">
+        <v>133</v>
+      </c>
       <c r="M11" s="40"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -7699,7 +7703,9 @@
       <c r="K12" s="40">
         <v>15767</v>
       </c>
-      <c r="L12" s="40"/>
+      <c r="L12" s="40">
+        <v>15784</v>
+      </c>
       <c r="M12" s="40"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -7736,7 +7742,9 @@
       <c r="K13" s="40">
         <v>12644</v>
       </c>
-      <c r="L13" s="40"/>
+      <c r="L13" s="40">
+        <v>12712</v>
+      </c>
       <c r="M13" s="40"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -7773,7 +7781,9 @@
       <c r="K14" s="40">
         <v>180</v>
       </c>
-      <c r="L14" s="40"/>
+      <c r="L14" s="40">
+        <v>182</v>
+      </c>
       <c r="M14" s="40"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -7810,7 +7820,9 @@
       <c r="K15" s="40">
         <v>31474</v>
       </c>
-      <c r="L15" s="40"/>
+      <c r="L15" s="40">
+        <v>31552</v>
+      </c>
       <c r="M15" s="40"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -7847,7 +7859,9 @@
       <c r="K16" s="40">
         <v>6162</v>
       </c>
-      <c r="L16" s="40"/>
+      <c r="L16" s="40">
+        <v>6166</v>
+      </c>
       <c r="M16" s="40"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -7884,7 +7898,9 @@
       <c r="K17" s="40">
         <v>32769</v>
       </c>
-      <c r="L17" s="40"/>
+      <c r="L17" s="40">
+        <v>32877</v>
+      </c>
       <c r="M17" s="40"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -7932,7 +7948,8 @@
         <v>102866</v>
       </c>
       <c r="L18" s="20">
-        <v>98316</v>
+        <f>SUM(L10:L17)</f>
+        <v>103172</v>
       </c>
       <c r="M18" s="20">
         <f t="shared" si="0"/>
@@ -7985,7 +8002,7 @@
       </c>
       <c r="L19" s="88">
         <f>(L18/K18-1)*100</f>
-        <v>-4.4232302218420116</v>
+        <v>0.29747438415026473</v>
       </c>
       <c r="M19" s="88">
         <f>(M18/L18-1)*100</f>

--- a/Tabulados/Patrones.xlsx
+++ b/Tabulados/Patrones.xlsx
@@ -206,10 +206,10 @@
     <t>2008-2021</t>
   </si>
   <si>
-    <t>Var Nov 2021 respecto a Oct 2021</t>
+    <t>Var Dic 2021 respecto a Nov 2021</t>
   </si>
   <si>
-    <t>Var Nov 2021 respecto a Dic 2020</t>
+    <t>Var Dic 2021 respecto a Dic 2020</t>
   </si>
 </sst>
 </file>
@@ -2873,7 +2873,7 @@
   <dimension ref="A1:BK24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V27" sqref="V27"/>
+      <selection activeCell="V26" sqref="V26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3177,10 +3177,10 @@
         <v>13</v>
       </c>
       <c r="O9" s="90" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P9" s="90" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="101"/>
       <c r="R9" s="101"/>
@@ -3230,18 +3230,18 @@
         <v>3432</v>
       </c>
       <c r="O10" s="91">
-        <v>3736</v>
+        <v>3766</v>
       </c>
       <c r="P10" s="91">
-        <v>3766</v>
+        <v>3768</v>
       </c>
       <c r="Q10" s="40">
-        <f>P10-O10</f>
-        <v>30</v>
+        <f t="shared" ref="Q10:Q17" si="0">P10-O10</f>
+        <v>2</v>
       </c>
       <c r="R10" s="44">
-        <f>P10-N10</f>
-        <v>334</v>
+        <f t="shared" ref="R10:R17" si="1">P10-N10</f>
+        <v>336</v>
       </c>
       <c r="S10" s="59"/>
     </row>
@@ -3289,18 +3289,18 @@
         <v>127</v>
       </c>
       <c r="O11" s="92">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P11" s="92">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="Q11" s="40">
-        <f>P11-O11</f>
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>-3</v>
       </c>
       <c r="R11" s="44">
-        <f>P11-N11</f>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="S11" s="8"/>
     </row>
@@ -3348,18 +3348,18 @@
         <v>15414</v>
       </c>
       <c r="O12" s="91">
-        <v>15767</v>
+        <v>15784</v>
       </c>
       <c r="P12" s="91">
-        <v>15784</v>
+        <v>15776</v>
       </c>
       <c r="Q12" s="65">
-        <f>P12-O12</f>
-        <v>17</v>
+        <f t="shared" si="0"/>
+        <v>-8</v>
       </c>
       <c r="R12" s="44">
-        <f>P12-N12</f>
-        <v>370</v>
+        <f t="shared" si="1"/>
+        <v>362</v>
       </c>
       <c r="S12" s="59"/>
     </row>
@@ -3407,18 +3407,18 @@
         <v>11694</v>
       </c>
       <c r="O13" s="92">
-        <v>12644</v>
+        <v>12712</v>
       </c>
       <c r="P13" s="92">
-        <v>12712</v>
+        <v>12726</v>
       </c>
       <c r="Q13" s="40">
-        <f>P13-O13</f>
-        <v>68</v>
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="R13" s="44">
-        <f>P13-N13</f>
-        <v>1018</v>
+        <f t="shared" si="1"/>
+        <v>1032</v>
       </c>
       <c r="S13" s="8"/>
     </row>
@@ -3466,18 +3466,18 @@
         <v>161</v>
       </c>
       <c r="O14" s="91">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P14" s="91">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q14" s="40">
-        <f>P14-O14</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="R14" s="44">
-        <f>P14-N14</f>
-        <v>21</v>
+        <f t="shared" si="1"/>
+        <v>24</v>
       </c>
       <c r="S14" s="8"/>
     </row>
@@ -3525,18 +3525,18 @@
         <v>30178</v>
       </c>
       <c r="O15" s="92">
-        <v>31474</v>
+        <v>31552</v>
       </c>
       <c r="P15" s="92">
-        <v>31552</v>
+        <v>31572</v>
       </c>
       <c r="Q15" s="40">
-        <f>P15-O15</f>
-        <v>78</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="R15" s="44">
-        <f>P15-N15</f>
-        <v>1374</v>
+        <f t="shared" si="1"/>
+        <v>1394</v>
       </c>
       <c r="S15" s="59"/>
     </row>
@@ -3584,18 +3584,18 @@
         <v>6033</v>
       </c>
       <c r="O16" s="91">
-        <v>6162</v>
+        <v>6166</v>
       </c>
       <c r="P16" s="91">
-        <v>6166</v>
+        <v>6149</v>
       </c>
       <c r="Q16" s="40">
-        <f>P16-O16</f>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>-17</v>
       </c>
       <c r="R16" s="44">
-        <f>P16-N16</f>
-        <v>133</v>
+        <f t="shared" si="1"/>
+        <v>116</v>
       </c>
       <c r="S16" s="59"/>
     </row>
@@ -3643,18 +3643,18 @@
         <v>31028</v>
       </c>
       <c r="O17" s="92">
-        <v>32769</v>
+        <v>32877</v>
       </c>
       <c r="P17" s="92">
-        <v>32877</v>
+        <v>32945</v>
       </c>
       <c r="Q17" s="71">
-        <f>P17-O17</f>
-        <v>108</v>
+        <f t="shared" si="0"/>
+        <v>68</v>
       </c>
       <c r="R17" s="44">
-        <f>P17-N17</f>
-        <v>1849</v>
+        <f t="shared" si="1"/>
+        <v>1917</v>
       </c>
       <c r="S17" s="59"/>
     </row>
@@ -3663,27 +3663,27 @@
         <v>11</v>
       </c>
       <c r="B18" s="20">
-        <f t="shared" ref="B18:L18" si="0">SUM(B10:B17)</f>
+        <f t="shared" ref="B18:L18" si="2">SUM(B10:B17)</f>
         <v>74287</v>
       </c>
       <c r="C18" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>73791</v>
       </c>
       <c r="D18" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>74713</v>
       </c>
       <c r="E18" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>75571</v>
       </c>
       <c r="F18" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>77290</v>
       </c>
       <c r="G18" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>78051</v>
       </c>
       <c r="H18" s="20">
@@ -3703,7 +3703,7 @@
         <v>90125</v>
       </c>
       <c r="L18" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>93370</v>
       </c>
       <c r="M18" s="20">
@@ -3715,19 +3715,19 @@
       </c>
       <c r="O18" s="20">
         <f>SUM(O10:O17)</f>
-        <v>102866</v>
+        <v>103172</v>
       </c>
       <c r="P18" s="20">
         <f>SUM(P10:P17)</f>
-        <v>103172</v>
+        <v>103251</v>
       </c>
       <c r="Q18" s="20">
         <f>SUM(Q10:Q17)</f>
-        <v>306</v>
+        <v>79</v>
       </c>
       <c r="R18" s="74">
         <f>SUM(R10:R17)</f>
-        <v>5105</v>
+        <v>5184</v>
       </c>
       <c r="S18" s="59"/>
     </row>
@@ -7409,7 +7409,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7628,7 +7628,9 @@
       <c r="L10" s="40">
         <v>3766</v>
       </c>
-      <c r="M10" s="40"/>
+      <c r="M10" s="40">
+        <v>3768</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="41" t="s">
@@ -7667,7 +7669,9 @@
       <c r="L11" s="40">
         <v>133</v>
       </c>
-      <c r="M11" s="40"/>
+      <c r="M11" s="40">
+        <v>130</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="41" t="s">
@@ -7706,7 +7710,9 @@
       <c r="L12" s="40">
         <v>15784</v>
       </c>
-      <c r="M12" s="40"/>
+      <c r="M12" s="40">
+        <v>15776</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="41" t="s">
@@ -7745,7 +7751,9 @@
       <c r="L13" s="40">
         <v>12712</v>
       </c>
-      <c r="M13" s="40"/>
+      <c r="M13" s="40">
+        <v>12726</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="41" t="s">
@@ -7784,7 +7792,9 @@
       <c r="L14" s="40">
         <v>182</v>
       </c>
-      <c r="M14" s="40"/>
+      <c r="M14" s="40">
+        <v>185</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="41" t="s">
@@ -7823,7 +7833,9 @@
       <c r="L15" s="40">
         <v>31552</v>
       </c>
-      <c r="M15" s="40"/>
+      <c r="M15" s="40">
+        <v>31572</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="41" t="s">
@@ -7862,7 +7874,9 @@
       <c r="L16" s="40">
         <v>6166</v>
       </c>
-      <c r="M16" s="40"/>
+      <c r="M16" s="40">
+        <v>6149</v>
+      </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="41" t="s">
@@ -7901,7 +7915,9 @@
       <c r="L17" s="40">
         <v>32877</v>
       </c>
-      <c r="M17" s="40"/>
+      <c r="M17" s="40">
+        <v>32945</v>
+      </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="42" t="s">
@@ -7953,7 +7969,7 @@
       </c>
       <c r="M18" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>103251</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
@@ -8006,7 +8022,7 @@
       </c>
       <c r="M19" s="88">
         <f>(M18/L18-1)*100</f>
-        <v>-100</v>
+        <v>7.6571162718575003E-2</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">

--- a/Tabulados/Patrones.xlsx
+++ b/Tabulados/Patrones.xlsx
@@ -27,6 +27,7 @@
     <sheet name="2019" sheetId="27" r:id="rId13"/>
     <sheet name="2020" sheetId="28" r:id="rId14"/>
     <sheet name="2021" sheetId="29" r:id="rId15"/>
+    <sheet name="2022" sheetId="30" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="rowNest1" localSheetId="9">'2016'!$Q$13</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="34">
   <si>
     <t>Agricultura, Ganadería, Silvicultura y Pesca</t>
   </si>
@@ -200,16 +201,13 @@
     <t xml:space="preserve">Por división económica </t>
   </si>
   <si>
-    <t>Por división económica 2008 - 2021</t>
+    <t>Var Ene 2022 respecto a Dic 2021</t>
   </si>
   <si>
-    <t>2008-2021</t>
+    <t>Por división económica 2008 - 2022</t>
   </si>
   <si>
-    <t>Var Dic 2021 respecto a Nov 2021</t>
-  </si>
-  <si>
-    <t>Var Dic 2021 respecto a Dic 2020</t>
+    <t>2008-2022</t>
   </si>
 </sst>
 </file>
@@ -738,7 +736,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -879,15 +877,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="1" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1131,7 +1120,7 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1232,9 +1221,6 @@
     <xf numFmtId="0" fontId="16" fillId="34" borderId="1" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="13" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1275,17 +1261,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1320,16 +1300,10 @@
     <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="33" borderId="1" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="41" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1373,6 +1347,15 @@
     <xf numFmtId="3" fontId="45" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="2" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -1399,9 +1382,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="38" borderId="2" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="2" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2583,6 +2563,159 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="2 Imagen" descr="http://189.202.239.32/cognos/ppwb/Icon/blank.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11258550" y="1981200"/>
+          <a:ext cx="76200" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="3 Imagen" descr="http://189.202.239.32/cognos/ppwb/Icon/blank.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12020550" y="1981200"/>
+          <a:ext cx="76200" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -2870,10 +3003,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BK24"/>
+  <dimension ref="A1:BI24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V26" sqref="V26"/>
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2883,96 +3016,89 @@
     <col min="7" max="8" width="6.5703125" style="36" customWidth="1"/>
     <col min="9" max="16" width="6.5703125" style="32" customWidth="1"/>
     <col min="17" max="17" width="10.5703125" style="32" customWidth="1"/>
-    <col min="18" max="18" width="10.42578125" style="32" customWidth="1"/>
-    <col min="19" max="24" width="11.42578125" style="32" customWidth="1"/>
-    <col min="25" max="16384" width="9.85546875" style="32"/>
+    <col min="18" max="22" width="11.42578125" style="32" customWidth="1"/>
+    <col min="23" max="16384" width="9.85546875" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="94" t="s">
+    <row r="1" spans="1:22" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="26"/>
       <c r="S1" s="26"/>
       <c r="T1" s="26"/>
       <c r="U1" s="26"/>
       <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-    </row>
-    <row r="2" spans="1:24" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="95" t="s">
+    </row>
+    <row r="2" spans="1:22" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
-      <c r="N2" s="95"/>
-      <c r="O2" s="95"/>
-      <c r="P2" s="95"/>
-      <c r="Q2" s="95"/>
-      <c r="R2" s="95"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="28"/>
       <c r="S2" s="28"/>
       <c r="T2" s="28"/>
       <c r="U2" s="28"/>
       <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-    </row>
-    <row r="3" spans="1:24" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="95" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95"/>
-      <c r="Q3" s="95"/>
-      <c r="R3" s="95"/>
+    </row>
+    <row r="3" spans="1:22" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="93" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="93"/>
+      <c r="P3" s="93"/>
+      <c r="Q3" s="93"/>
+      <c r="R3" s="28"/>
       <c r="S3" s="28"/>
       <c r="T3" s="28"/>
       <c r="U3" s="28"/>
       <c r="V3" s="28"/>
-      <c r="W3" s="28"/>
-      <c r="X3" s="28"/>
-    </row>
-    <row r="4" spans="1:24" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:22" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="30"/>
       <c r="B4" s="30"/>
       <c r="C4" s="30"/>
@@ -2990,15 +3116,13 @@
       <c r="O4" s="30"/>
       <c r="P4" s="30"/>
       <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
+      <c r="R4" s="8"/>
       <c r="S4" s="8"/>
       <c r="T4" s="8"/>
       <c r="U4" s="8"/>
       <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-    </row>
-    <row r="5" spans="1:24" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:22" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="30"/>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -3016,202 +3140,192 @@
       <c r="O5" s="30"/>
       <c r="P5" s="30"/>
       <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
+      <c r="R5" s="8"/>
       <c r="S5" s="8"/>
       <c r="T5" s="8"/>
       <c r="U5" s="8"/>
       <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-    </row>
-    <row r="6" spans="1:24" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="98" t="s">
+    </row>
+    <row r="6" spans="1:22" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="98"/>
-      <c r="M6" s="98"/>
-      <c r="N6" s="98"/>
-      <c r="O6" s="98"/>
-      <c r="P6" s="98"/>
-      <c r="Q6" s="98"/>
-      <c r="R6" s="98"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="96"/>
+      <c r="N6" s="96"/>
+      <c r="O6" s="96"/>
+      <c r="P6" s="96"/>
+      <c r="Q6" s="96"/>
+      <c r="R6" s="8"/>
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
       <c r="U6" s="8"/>
       <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-    </row>
-    <row r="7" spans="1:24" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="99" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
-      <c r="N7" s="99"/>
-      <c r="O7" s="99"/>
-      <c r="P7" s="99"/>
-      <c r="Q7" s="99"/>
-      <c r="R7" s="99"/>
+    </row>
+    <row r="7" spans="1:22" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="97" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="97"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="97"/>
+      <c r="M7" s="97"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="97"/>
+      <c r="P7" s="97"/>
+      <c r="Q7" s="97"/>
+      <c r="R7" s="8"/>
       <c r="S7" s="8"/>
       <c r="T7" s="8"/>
       <c r="U7" s="8"/>
       <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-    </row>
-    <row r="8" spans="1:24" s="7" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="96" t="s">
+    </row>
+    <row r="8" spans="1:22" s="7" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="86">
+      <c r="B8" s="81">
         <v>2008</v>
       </c>
-      <c r="C8" s="86">
+      <c r="C8" s="81">
         <v>2009</v>
       </c>
-      <c r="D8" s="86">
+      <c r="D8" s="81">
         <v>2010</v>
       </c>
-      <c r="E8" s="86">
+      <c r="E8" s="81">
         <v>2011</v>
       </c>
-      <c r="F8" s="86">
+      <c r="F8" s="81">
         <v>2012</v>
       </c>
-      <c r="G8" s="86">
+      <c r="G8" s="81">
         <v>2013</v>
       </c>
-      <c r="H8" s="86">
+      <c r="H8" s="81">
         <v>2014</v>
       </c>
-      <c r="I8" s="86">
+      <c r="I8" s="81">
         <v>2015</v>
       </c>
-      <c r="J8" s="86">
+      <c r="J8" s="81">
         <v>2016</v>
       </c>
-      <c r="K8" s="86">
+      <c r="K8" s="81">
         <v>2017</v>
       </c>
-      <c r="L8" s="86">
+      <c r="L8" s="81">
         <v>2018</v>
       </c>
-      <c r="M8" s="86">
+      <c r="M8" s="81">
         <v>2019</v>
       </c>
-      <c r="N8" s="86">
+      <c r="N8" s="81">
         <v>2020</v>
       </c>
-      <c r="O8" s="102">
+      <c r="O8" s="81">
         <v>2021</v>
       </c>
-      <c r="P8" s="102"/>
-      <c r="Q8" s="100" t="s">
-        <v>33</v>
-      </c>
-      <c r="R8" s="100" t="s">
-        <v>34</v>
-      </c>
-      <c r="S8" s="8"/>
-    </row>
-    <row r="9" spans="1:24" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="97"/>
-      <c r="B9" s="48" t="s">
+      <c r="P8" s="89">
+        <v>2022</v>
+      </c>
+      <c r="Q8" s="98" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="95"/>
+      <c r="B9" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="48" t="s">
+      <c r="E9" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="47" t="s">
+      <c r="F9" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="48" t="s">
+      <c r="G9" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="47" t="s">
+      <c r="H9" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="47" t="s">
+      <c r="I9" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="87" t="s">
+      <c r="J9" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="87" t="s">
+      <c r="K9" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="L9" s="85" t="s">
+      <c r="L9" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="M9" s="85" t="s">
+      <c r="M9" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="N9" s="85" t="s">
+      <c r="N9" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="90" t="s">
-        <v>24</v>
-      </c>
-      <c r="P9" s="90" t="s">
+      <c r="O9" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="Q9" s="101"/>
-      <c r="R9" s="101"/>
-      <c r="S9" s="8"/>
-    </row>
-    <row r="10" spans="1:24" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="66" t="s">
+      <c r="P9" s="85" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q9" s="99"/>
+    </row>
+    <row r="10" spans="1:22" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="67">
+      <c r="B10" s="64">
         <v>1951</v>
       </c>
-      <c r="C10" s="67">
+      <c r="C10" s="64">
         <v>1970</v>
       </c>
-      <c r="D10" s="68">
+      <c r="D10" s="65">
         <v>2002</v>
       </c>
-      <c r="E10" s="68">
+      <c r="E10" s="65">
         <v>2020</v>
       </c>
-      <c r="F10" s="68">
+      <c r="F10" s="65">
         <v>2022</v>
       </c>
-      <c r="G10" s="68">
+      <c r="G10" s="65">
         <v>2101</v>
       </c>
-      <c r="H10" s="68">
+      <c r="H10" s="65">
         <v>2249</v>
       </c>
-      <c r="I10" s="68">
+      <c r="I10" s="65">
         <v>2445</v>
       </c>
       <c r="J10" s="40">
@@ -3229,107 +3343,97 @@
       <c r="N10" s="40">
         <v>3432</v>
       </c>
-      <c r="O10" s="91">
-        <v>3766</v>
-      </c>
-      <c r="P10" s="91">
+      <c r="O10" s="86">
         <v>3768</v>
       </c>
+      <c r="P10" s="86">
+        <v>3784</v>
+      </c>
       <c r="Q10" s="40">
-        <f t="shared" ref="Q10:Q17" si="0">P10-O10</f>
+        <f>P10-O10</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="67">
+        <v>129</v>
+      </c>
+      <c r="C11" s="67">
+        <v>116</v>
+      </c>
+      <c r="D11" s="67">
+        <v>119</v>
+      </c>
+      <c r="E11" s="67">
+        <v>134</v>
+      </c>
+      <c r="F11" s="67">
+        <v>133</v>
+      </c>
+      <c r="G11" s="67">
+        <v>138</v>
+      </c>
+      <c r="H11" s="67">
+        <v>122</v>
+      </c>
+      <c r="I11" s="67">
+        <v>126</v>
+      </c>
+      <c r="J11" s="62">
+        <v>121</v>
+      </c>
+      <c r="K11" s="62">
+        <v>117</v>
+      </c>
+      <c r="L11" s="62">
+        <v>124</v>
+      </c>
+      <c r="M11" s="62">
+        <v>131</v>
+      </c>
+      <c r="N11" s="62">
+        <v>127</v>
+      </c>
+      <c r="O11" s="87">
+        <v>130</v>
+      </c>
+      <c r="P11" s="87">
+        <v>31557</v>
+      </c>
+      <c r="Q11" s="40">
+        <f t="shared" ref="Q11:Q17" si="0">P11-O11</f>
+        <v>31427</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="R10" s="44">
-        <f t="shared" ref="R10:R17" si="1">P10-N10</f>
-        <v>336</v>
-      </c>
-      <c r="S10" s="59"/>
-    </row>
-    <row r="11" spans="1:24" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="69" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="70">
-        <v>129</v>
-      </c>
-      <c r="C11" s="70">
-        <v>116</v>
-      </c>
-      <c r="D11" s="70">
-        <v>119</v>
-      </c>
-      <c r="E11" s="70">
-        <v>134</v>
-      </c>
-      <c r="F11" s="70">
-        <v>133</v>
-      </c>
-      <c r="G11" s="70">
-        <v>138</v>
-      </c>
-      <c r="H11" s="70">
-        <v>122</v>
-      </c>
-      <c r="I11" s="70">
-        <v>126</v>
-      </c>
-      <c r="J11" s="65">
-        <v>121</v>
-      </c>
-      <c r="K11" s="65">
-        <v>117</v>
-      </c>
-      <c r="L11" s="65">
-        <v>124</v>
-      </c>
-      <c r="M11" s="65">
-        <v>131</v>
-      </c>
-      <c r="N11" s="65">
-        <v>127</v>
-      </c>
-      <c r="O11" s="92">
-        <v>133</v>
-      </c>
-      <c r="P11" s="92">
-        <v>130</v>
-      </c>
-      <c r="Q11" s="40">
-        <f t="shared" si="0"/>
-        <v>-3</v>
-      </c>
-      <c r="R11" s="44">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="S11" s="8"/>
-    </row>
-    <row r="12" spans="1:24" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="66" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="68">
+      <c r="B12" s="65">
         <v>13491</v>
       </c>
-      <c r="C12" s="68">
+      <c r="C12" s="65">
         <v>13095</v>
       </c>
-      <c r="D12" s="68">
+      <c r="D12" s="65">
         <v>13168</v>
       </c>
-      <c r="E12" s="68">
+      <c r="E12" s="65">
         <v>13135</v>
       </c>
-      <c r="F12" s="68">
+      <c r="F12" s="65">
         <v>13165</v>
       </c>
-      <c r="G12" s="68">
+      <c r="G12" s="65">
         <v>13135</v>
       </c>
-      <c r="H12" s="68">
+      <c r="H12" s="65">
         <v>13305</v>
       </c>
-      <c r="I12" s="68">
+      <c r="I12" s="65">
         <v>13663</v>
       </c>
       <c r="J12" s="40">
@@ -3347,48 +3451,43 @@
       <c r="N12" s="40">
         <v>15414</v>
       </c>
-      <c r="O12" s="91">
-        <v>15784</v>
-      </c>
-      <c r="P12" s="91">
+      <c r="O12" s="86">
         <v>15776</v>
       </c>
-      <c r="Q12" s="65">
+      <c r="P12" s="86">
+        <v>12646</v>
+      </c>
+      <c r="Q12" s="40">
         <f t="shared" si="0"/>
-        <v>-8</v>
-      </c>
-      <c r="R12" s="44">
-        <f t="shared" si="1"/>
-        <v>362</v>
-      </c>
-      <c r="S12" s="59"/>
-    </row>
-    <row r="13" spans="1:24" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="66" t="s">
+        <v>-3130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="68">
+      <c r="B13" s="65">
         <v>7964</v>
       </c>
-      <c r="C13" s="68">
+      <c r="C13" s="65">
         <v>7671</v>
       </c>
-      <c r="D13" s="68">
+      <c r="D13" s="65">
         <v>7663</v>
       </c>
-      <c r="E13" s="68">
+      <c r="E13" s="65">
         <v>7755</v>
       </c>
-      <c r="F13" s="68">
+      <c r="F13" s="65">
         <v>8044</v>
       </c>
-      <c r="G13" s="68">
+      <c r="G13" s="65">
         <v>8121</v>
       </c>
-      <c r="H13" s="68">
+      <c r="H13" s="65">
         <v>8541</v>
       </c>
-      <c r="I13" s="68">
+      <c r="I13" s="65">
         <v>8976</v>
       </c>
       <c r="J13" s="40">
@@ -3406,107 +3505,97 @@
       <c r="N13" s="40">
         <v>11694</v>
       </c>
-      <c r="O13" s="92">
-        <v>12712</v>
-      </c>
-      <c r="P13" s="92">
+      <c r="O13" s="87">
         <v>12726</v>
+      </c>
+      <c r="P13" s="87">
+        <v>184</v>
       </c>
       <c r="Q13" s="40">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="R13" s="44">
-        <f t="shared" si="1"/>
-        <v>1032</v>
-      </c>
-      <c r="S13" s="8"/>
-    </row>
-    <row r="14" spans="1:24" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="66" t="s">
+        <v>-12542</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="68">
+      <c r="B14" s="65">
         <v>58</v>
       </c>
-      <c r="C14" s="68">
+      <c r="C14" s="65">
         <v>62</v>
       </c>
-      <c r="D14" s="68">
+      <c r="D14" s="65">
         <v>65</v>
       </c>
-      <c r="E14" s="68">
+      <c r="E14" s="65">
         <v>68</v>
       </c>
-      <c r="F14" s="68">
+      <c r="F14" s="65">
         <v>64</v>
       </c>
-      <c r="G14" s="68">
+      <c r="G14" s="65">
         <v>67</v>
       </c>
-      <c r="H14" s="68">
+      <c r="H14" s="65">
         <v>72</v>
       </c>
-      <c r="I14" s="68">
+      <c r="I14" s="65">
         <v>79</v>
       </c>
       <c r="J14" s="40">
         <v>94</v>
       </c>
-      <c r="K14" s="64">
+      <c r="K14" s="61">
         <v>102</v>
       </c>
-      <c r="L14" s="64">
+      <c r="L14" s="61">
         <v>128</v>
       </c>
-      <c r="M14" s="64">
+      <c r="M14" s="61">
         <v>147</v>
       </c>
-      <c r="N14" s="64">
+      <c r="N14" s="61">
         <v>161</v>
       </c>
-      <c r="O14" s="91">
-        <v>182</v>
-      </c>
-      <c r="P14" s="91">
+      <c r="O14" s="86">
         <v>185</v>
+      </c>
+      <c r="P14" s="86">
+        <v>15748</v>
       </c>
       <c r="Q14" s="40">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="R14" s="44">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="S14" s="8"/>
-    </row>
-    <row r="15" spans="1:24" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="66" t="s">
+        <v>15563</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="68">
+      <c r="B15" s="65">
         <v>22804</v>
       </c>
-      <c r="C15" s="68">
+      <c r="C15" s="65">
         <v>22958</v>
       </c>
-      <c r="D15" s="68">
+      <c r="D15" s="65">
         <v>23341</v>
       </c>
-      <c r="E15" s="68">
+      <c r="E15" s="65">
         <v>23679</v>
       </c>
-      <c r="F15" s="68">
+      <c r="F15" s="65">
         <v>24080</v>
       </c>
-      <c r="G15" s="68">
+      <c r="G15" s="65">
         <v>24338</v>
       </c>
-      <c r="H15" s="68">
+      <c r="H15" s="65">
         <v>24640</v>
       </c>
-      <c r="I15" s="68">
+      <c r="I15" s="65">
         <v>25583</v>
       </c>
       <c r="J15" s="40">
@@ -3524,48 +3613,43 @@
       <c r="N15" s="40">
         <v>30178</v>
       </c>
-      <c r="O15" s="92">
-        <v>31552</v>
-      </c>
-      <c r="P15" s="92">
+      <c r="O15" s="87">
         <v>31572</v>
+      </c>
+      <c r="P15" s="87">
+        <v>131</v>
       </c>
       <c r="Q15" s="40">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="R15" s="44">
-        <f t="shared" si="1"/>
-        <v>1394</v>
-      </c>
-      <c r="S15" s="59"/>
-    </row>
-    <row r="16" spans="1:24" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="66" t="s">
+        <v>-31441</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="68">
+      <c r="B16" s="65">
         <v>5603</v>
       </c>
-      <c r="C16" s="68">
+      <c r="C16" s="65">
         <v>5344</v>
       </c>
-      <c r="D16" s="68">
+      <c r="D16" s="65">
         <v>5328</v>
       </c>
-      <c r="E16" s="68">
+      <c r="E16" s="65">
         <v>5324</v>
       </c>
-      <c r="F16" s="68">
+      <c r="F16" s="65">
         <v>5452</v>
       </c>
-      <c r="G16" s="68">
+      <c r="G16" s="65">
         <v>5519</v>
       </c>
-      <c r="H16" s="68">
+      <c r="H16" s="65">
         <v>5798</v>
       </c>
-      <c r="I16" s="68">
+      <c r="I16" s="65">
         <v>5965</v>
       </c>
       <c r="J16" s="40">
@@ -3583,107 +3667,97 @@
       <c r="N16" s="40">
         <v>6033</v>
       </c>
-      <c r="O16" s="91">
-        <v>6166</v>
-      </c>
-      <c r="P16" s="91">
+      <c r="O16" s="86">
         <v>6149</v>
+      </c>
+      <c r="P16" s="86">
+        <v>32987</v>
       </c>
       <c r="Q16" s="40">
         <f t="shared" si="0"/>
-        <v>-17</v>
-      </c>
-      <c r="R16" s="44">
-        <f t="shared" si="1"/>
-        <v>116</v>
-      </c>
-      <c r="S16" s="59"/>
-    </row>
-    <row r="17" spans="1:63" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="72" t="s">
+        <v>26838</v>
+      </c>
+    </row>
+    <row r="17" spans="1:61" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="73">
+      <c r="B17" s="70">
         <v>22287</v>
       </c>
-      <c r="C17" s="73">
+      <c r="C17" s="70">
         <v>22575</v>
       </c>
-      <c r="D17" s="73">
+      <c r="D17" s="70">
         <v>23027</v>
       </c>
-      <c r="E17" s="73">
+      <c r="E17" s="70">
         <v>23456</v>
       </c>
-      <c r="F17" s="73">
+      <c r="F17" s="70">
         <v>24330</v>
       </c>
-      <c r="G17" s="73">
+      <c r="G17" s="70">
         <v>24632</v>
       </c>
-      <c r="H17" s="73">
+      <c r="H17" s="70">
         <v>25234</v>
       </c>
-      <c r="I17" s="73">
+      <c r="I17" s="70">
         <v>26120</v>
       </c>
-      <c r="J17" s="71">
+      <c r="J17" s="68">
         <v>26954</v>
       </c>
-      <c r="K17" s="71">
+      <c r="K17" s="68">
         <v>28175</v>
       </c>
-      <c r="L17" s="71">
+      <c r="L17" s="68">
         <v>29472</v>
       </c>
-      <c r="M17" s="71">
+      <c r="M17" s="68">
         <v>30907</v>
       </c>
-      <c r="N17" s="71">
+      <c r="N17" s="68">
         <v>31028</v>
       </c>
-      <c r="O17" s="92">
-        <v>32877</v>
-      </c>
-      <c r="P17" s="92">
+      <c r="O17" s="87">
         <v>32945</v>
       </c>
-      <c r="Q17" s="71">
+      <c r="P17" s="87">
+        <v>6163</v>
+      </c>
+      <c r="Q17" s="40">
         <f t="shared" si="0"/>
-        <v>68</v>
-      </c>
-      <c r="R17" s="44">
-        <f t="shared" si="1"/>
-        <v>1917</v>
-      </c>
-      <c r="S17" s="59"/>
-    </row>
-    <row r="18" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>-26782</v>
+      </c>
+    </row>
+    <row r="18" spans="1:61" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="42" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="20">
-        <f t="shared" ref="B18:L18" si="2">SUM(B10:B17)</f>
+        <f t="shared" ref="B18:L18" si="1">SUM(B10:B17)</f>
         <v>74287</v>
       </c>
       <c r="C18" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>73791</v>
       </c>
       <c r="D18" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>74713</v>
       </c>
       <c r="E18" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>75571</v>
       </c>
       <c r="F18" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>77290</v>
       </c>
       <c r="G18" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>78051</v>
       </c>
       <c r="H18" s="20">
@@ -3703,7 +3777,7 @@
         <v>90125</v>
       </c>
       <c r="L18" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>93370</v>
       </c>
       <c r="M18" s="20">
@@ -3715,23 +3789,18 @@
       </c>
       <c r="O18" s="20">
         <f>SUM(O10:O17)</f>
-        <v>103172</v>
+        <v>103251</v>
       </c>
       <c r="P18" s="20">
         <f>SUM(P10:P17)</f>
-        <v>103251</v>
+        <v>103200</v>
       </c>
       <c r="Q18" s="20">
         <f>SUM(Q10:Q17)</f>
-        <v>79</v>
-      </c>
-      <c r="R18" s="74">
-        <f>SUM(R10:R17)</f>
-        <v>5184</v>
-      </c>
-      <c r="S18" s="59"/>
-    </row>
-    <row r="19" spans="1:63" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:61" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="33"/>
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
@@ -3748,32 +3817,29 @@
       <c r="O19" s="33"/>
       <c r="P19" s="33"/>
       <c r="Q19" s="33"/>
-      <c r="R19" s="33"/>
-      <c r="S19" s="62"/>
-    </row>
-    <row r="20" spans="1:63" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="93" t="s">
+    </row>
+    <row r="20" spans="1:61" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="93"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="93"/>
-      <c r="I20" s="93"/>
-      <c r="J20" s="93"/>
-      <c r="K20" s="93"/>
-      <c r="L20" s="93"/>
-      <c r="M20" s="93"/>
-      <c r="N20" s="93"/>
-      <c r="O20" s="93"/>
-      <c r="P20" s="93"/>
-      <c r="Q20" s="93"/>
-      <c r="R20" s="93"/>
-    </row>
-    <row r="21" spans="1:63" s="35" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="91"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="91"/>
+      <c r="J20" s="91"/>
+      <c r="K20" s="91"/>
+      <c r="L20" s="91"/>
+      <c r="M20" s="91"/>
+      <c r="N20" s="91"/>
+      <c r="O20" s="91"/>
+      <c r="P20" s="91"/>
+      <c r="Q20" s="91"/>
+    </row>
+    <row r="21" spans="1:61" s="35" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="18"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
@@ -3791,9 +3857,8 @@
       <c r="O21" s="18"/>
       <c r="P21" s="18"/>
       <c r="Q21" s="18"/>
-      <c r="R21" s="19"/>
-    </row>
-    <row r="22" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>28</v>
       </c>
@@ -3801,9 +3866,8 @@
       <c r="O22" s="33"/>
       <c r="P22" s="33"/>
       <c r="Q22" s="33"/>
-      <c r="R22" s="33"/>
-    </row>
-    <row r="23" spans="1:63" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:61" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
       <c r="D23" s="38"/>
@@ -3820,7 +3884,7 @@
       <c r="O23" s="38"/>
       <c r="P23" s="38"/>
       <c r="Q23" s="38"/>
-      <c r="R23" s="77"/>
+      <c r="R23" s="38"/>
       <c r="S23" s="38"/>
       <c r="T23" s="38"/>
       <c r="U23" s="38"/>
@@ -3864,17 +3928,15 @@
       <c r="BG23" s="38"/>
       <c r="BH23" s="38"/>
       <c r="BI23" s="38"/>
-      <c r="BJ23" s="38"/>
-      <c r="BK23" s="38"/>
-    </row>
-    <row r="24" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="B24" s="78"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="79"/>
+    </row>
+    <row r="24" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="B24" s="73"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
       <c r="I24" s="33"/>
       <c r="J24" s="33"/>
       <c r="K24" s="33"/>
@@ -3886,16 +3948,14 @@
       <c r="Q24" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A20:R20"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="A3:R3"/>
+  <mergeCells count="8">
+    <mergeCell ref="A20:Q20"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A6:R6"/>
-    <mergeCell ref="A7:R7"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="A6:Q6"/>
+    <mergeCell ref="A7:Q7"/>
     <mergeCell ref="Q8:Q9"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
@@ -3924,175 +3984,175 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="95">
+      <c r="A3" s="93">
         <v>2016</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="98" t="s">
+      <c r="A6" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="98"/>
-      <c r="M6" s="98"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="96"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="103" t="s">
+      <c r="A8" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="103">
+      <c r="B8" s="100">
         <v>2016</v>
       </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="105"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="103"/>
-      <c r="B9" s="60" t="s">
+      <c r="A9" s="100"/>
+      <c r="B9" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="60" t="s">
+      <c r="D9" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="60" t="s">
+      <c r="E9" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="60" t="s">
+      <c r="F9" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="60" t="s">
+      <c r="G9" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="60" t="s">
+      <c r="H9" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="60" t="s">
+      <c r="I9" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="60" t="s">
+      <c r="J9" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="60" t="s">
+      <c r="K9" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="60" t="s">
+      <c r="L9" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="60" t="s">
+      <c r="M9" s="58" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4543,21 +4603,21 @@
       <c r="M20" s="22"/>
     </row>
     <row r="21" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="91"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -4622,175 +4682,175 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="95">
+      <c r="A3" s="93">
         <v>2017</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="98" t="s">
+      <c r="A6" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="98"/>
-      <c r="M6" s="98"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="96"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="103" t="s">
+      <c r="A8" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="103">
+      <c r="B8" s="100">
         <v>2017</v>
       </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="105"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="103"/>
-      <c r="B9" s="61" t="s">
+      <c r="A9" s="100"/>
+      <c r="B9" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="61" t="s">
+      <c r="D9" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="61" t="s">
+      <c r="E9" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="61" t="s">
+      <c r="F9" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="61" t="s">
+      <c r="G9" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="61" t="s">
+      <c r="H9" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="61" t="s">
+      <c r="I9" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="61" t="s">
+      <c r="J9" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="61" t="s">
+      <c r="K9" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="61" t="s">
+      <c r="L9" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="61" t="s">
+      <c r="M9" s="59" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5241,21 +5301,21 @@
       <c r="M20" s="22"/>
     </row>
     <row r="21" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="91"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -5320,175 +5380,175 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="95">
+      <c r="A3" s="93">
         <v>2018</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="98" t="s">
+      <c r="A6" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="98"/>
-      <c r="M6" s="98"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="96"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="103" t="s">
+      <c r="A8" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="103">
+      <c r="B8" s="100">
         <v>2018</v>
       </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="105"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="103"/>
-      <c r="B9" s="63" t="s">
+      <c r="A9" s="100"/>
+      <c r="B9" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="63" t="s">
+      <c r="D9" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="63" t="s">
+      <c r="E9" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="63" t="s">
+      <c r="F9" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="63" t="s">
+      <c r="G9" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="63" t="s">
+      <c r="H9" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="63" t="s">
+      <c r="I9" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="63" t="s">
+      <c r="J9" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="63" t="s">
+      <c r="K9" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="63" t="s">
+      <c r="L9" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="63" t="s">
+      <c r="M9" s="60" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5939,21 +5999,21 @@
       <c r="M20" s="22"/>
     </row>
     <row r="21" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="91"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -6018,175 +6078,175 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="95">
+      <c r="A3" s="93">
         <v>2019</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="98" t="s">
+      <c r="A6" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="98"/>
-      <c r="M6" s="98"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="96"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="103" t="s">
+      <c r="A8" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="103">
+      <c r="B8" s="100">
         <v>2019</v>
       </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="105"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="103"/>
-      <c r="B9" s="75" t="s">
+      <c r="A9" s="100"/>
+      <c r="B9" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="75" t="s">
+      <c r="C9" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="75" t="s">
+      <c r="D9" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="75" t="s">
+      <c r="E9" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="75" t="s">
+      <c r="F9" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="75" t="s">
+      <c r="G9" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="75" t="s">
+      <c r="H9" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="75" t="s">
+      <c r="I9" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="75" t="s">
+      <c r="J9" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="75" t="s">
+      <c r="K9" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="75" t="s">
+      <c r="L9" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="75" t="s">
+      <c r="M9" s="71" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6637,21 +6697,21 @@
       <c r="M20" s="22"/>
     </row>
     <row r="21" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="91"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -6682,11 +6742,11 @@
       <c r="I23" s="24"/>
       <c r="J23" s="24"/>
       <c r="K23" s="24"/>
-      <c r="L23" s="80"/>
+      <c r="L23" s="75"/>
       <c r="M23" s="24"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C25" s="76"/>
+      <c r="C25" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6719,175 +6779,175 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="95">
+      <c r="A3" s="93">
         <v>2020</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="81"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
+      <c r="A4" s="76"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="81"/>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
+      <c r="A5" s="76"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="98" t="s">
+      <c r="A6" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="98"/>
-      <c r="M6" s="98"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="96"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="103" t="s">
+      <c r="A8" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="103">
+      <c r="B8" s="100">
         <v>2020</v>
       </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="105"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="103"/>
-      <c r="B9" s="82" t="s">
+      <c r="A9" s="100"/>
+      <c r="B9" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="82" t="s">
+      <c r="C9" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="82" t="s">
+      <c r="D9" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="82" t="s">
+      <c r="E9" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="82" t="s">
+      <c r="F9" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="82" t="s">
+      <c r="G9" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="82" t="s">
+      <c r="H9" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="82" t="s">
+      <c r="I9" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="82" t="s">
+      <c r="J9" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="82" t="s">
+      <c r="K9" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="82" t="s">
+      <c r="L9" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="82" t="s">
+      <c r="M9" s="77" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7275,51 +7335,51 @@
       <c r="A19" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="88">
+      <c r="B19" s="83">
         <f>(B18/'2019'!M18-1)*100</f>
         <v>-9.959954820824013E-2</v>
       </c>
-      <c r="C19" s="88">
+      <c r="C19" s="83">
         <f t="shared" ref="C19:H19" si="1">(C18/B18-1)*100</f>
         <v>0.55913580627588999</v>
       </c>
-      <c r="D19" s="88">
+      <c r="D19" s="83">
         <f t="shared" si="1"/>
         <v>0.54171734619827827</v>
       </c>
-      <c r="E19" s="88">
+      <c r="E19" s="83">
         <f t="shared" si="1"/>
         <v>-0.6363922860308846</v>
       </c>
-      <c r="F19" s="88">
+      <c r="F19" s="83">
         <f t="shared" si="1"/>
         <v>-0.20973798099057639</v>
       </c>
-      <c r="G19" s="88">
+      <c r="G19" s="83">
         <f t="shared" si="1"/>
         <v>0.21838090551180578</v>
       </c>
-      <c r="H19" s="88">
+      <c r="H19" s="83">
         <f t="shared" si="1"/>
         <v>-1.1253312054337883E-2</v>
       </c>
-      <c r="I19" s="88">
+      <c r="I19" s="83">
         <f>(I18/H18-1)*100</f>
         <v>0.2742024596369852</v>
       </c>
-      <c r="J19" s="88">
+      <c r="J19" s="83">
         <f>(J18/I18-1)*100</f>
         <v>3.2651062179867019E-2</v>
       </c>
-      <c r="K19" s="88">
+      <c r="K19" s="83">
         <f>(K18/J18-1)*100</f>
         <v>0.18972235255716452</v>
       </c>
-      <c r="L19" s="88">
+      <c r="L19" s="83">
         <f>(L18/K18-1)*100</f>
         <v>9.3663463104731726E-2</v>
       </c>
-      <c r="M19" s="88">
+      <c r="M19" s="83">
         <f>(M18/L18-1)*100</f>
         <v>-0.25326498230197059</v>
       </c>
@@ -7330,28 +7390,28 @@
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
-      <c r="I20" s="83"/>
+      <c r="I20" s="78"/>
       <c r="J20" s="22"/>
       <c r="K20" s="22"/>
       <c r="L20" s="22"/>
       <c r="M20" s="22"/>
     </row>
     <row r="21" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="91"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -7382,11 +7442,11 @@
       <c r="I23" s="24"/>
       <c r="J23" s="24"/>
       <c r="K23" s="24"/>
-      <c r="L23" s="80"/>
+      <c r="L23" s="75"/>
       <c r="M23" s="24"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C25" s="76"/>
+      <c r="C25" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -7419,175 +7479,175 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="95">
+      <c r="A3" s="93">
         <v>2021</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="84"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="84"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="84"/>
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
+      <c r="A5" s="79"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="79"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="98" t="s">
+      <c r="A6" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="98"/>
-      <c r="M6" s="98"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="96"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="103" t="s">
+      <c r="A8" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="103">
+      <c r="B8" s="100">
         <v>2021</v>
       </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="105"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="103"/>
-      <c r="B9" s="87" t="s">
+      <c r="A9" s="100"/>
+      <c r="B9" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="87" t="s">
+      <c r="C9" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="87" t="s">
+      <c r="D9" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="87" t="s">
+      <c r="E9" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="87" t="s">
+      <c r="F9" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="87" t="s">
+      <c r="G9" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="87" t="s">
+      <c r="H9" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="87" t="s">
+      <c r="I9" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="87" t="s">
+      <c r="J9" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="87" t="s">
+      <c r="K9" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="87" t="s">
+      <c r="L9" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="87" t="s">
+      <c r="M9" s="82" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7598,7 +7658,7 @@
       <c r="B10" s="40">
         <v>3450</v>
       </c>
-      <c r="C10" s="71">
+      <c r="C10" s="68">
         <v>3451</v>
       </c>
       <c r="D10" s="40">
@@ -7680,7 +7740,7 @@
       <c r="B12" s="40">
         <v>15429</v>
       </c>
-      <c r="C12" s="71">
+      <c r="C12" s="68">
         <v>15446</v>
       </c>
       <c r="D12" s="40">
@@ -7762,7 +7822,7 @@
       <c r="B14" s="40">
         <v>166</v>
       </c>
-      <c r="C14" s="89">
+      <c r="C14" s="84">
         <v>166</v>
       </c>
       <c r="D14" s="40">
@@ -7844,7 +7904,7 @@
       <c r="B16" s="40">
         <v>6028</v>
       </c>
-      <c r="C16" s="71">
+      <c r="C16" s="68">
         <v>6039</v>
       </c>
       <c r="D16" s="40">
@@ -7976,51 +8036,51 @@
       <c r="A19" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="88">
+      <c r="B19" s="83">
         <f>(B18/'2020'!M18-1)*100</f>
         <v>0.14887780802921302</v>
       </c>
-      <c r="C19" s="88">
+      <c r="C19" s="83">
         <f>(C18/B18-1)*100</f>
         <v>0.26574893344057937</v>
       </c>
-      <c r="D19" s="88">
+      <c r="D19" s="83">
         <f t="shared" ref="D19:H19" si="1">(D18/C18-1)*100</f>
         <v>0.22950220362736307</v>
       </c>
-      <c r="E19" s="88">
+      <c r="E19" s="83">
         <f t="shared" si="1"/>
         <v>0.17933130699088196</v>
       </c>
-      <c r="F19" s="88">
+      <c r="F19" s="83">
         <f t="shared" si="1"/>
         <v>0.37217957664572587</v>
       </c>
-      <c r="G19" s="88">
+      <c r="G19" s="83">
         <f t="shared" si="1"/>
         <v>0.43730162728601307</v>
       </c>
-      <c r="H19" s="88">
+      <c r="H19" s="83">
         <f t="shared" si="1"/>
         <v>1.2881349130709596</v>
       </c>
-      <c r="I19" s="88">
+      <c r="I19" s="83">
         <f>(I18/H18-1)*100</f>
         <v>0.82505472301734883</v>
       </c>
-      <c r="J19" s="88">
+      <c r="J19" s="83">
         <f>(J18/I18-1)*100</f>
         <v>0.66702031514007665</v>
       </c>
-      <c r="K19" s="88">
+      <c r="K19" s="83">
         <f>(K18/J18-1)*100</f>
         <v>0.38155647718955965</v>
       </c>
-      <c r="L19" s="88">
+      <c r="L19" s="83">
         <f>(L18/K18-1)*100</f>
         <v>0.29747438415026473</v>
       </c>
-      <c r="M19" s="88">
+      <c r="M19" s="83">
         <f>(M18/L18-1)*100</f>
         <v>7.6571162718575003E-2</v>
       </c>
@@ -8031,28 +8091,28 @@
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
-      <c r="I20" s="83"/>
+      <c r="I20" s="78"/>
       <c r="J20" s="22"/>
       <c r="K20" s="22"/>
       <c r="L20" s="22"/>
       <c r="M20" s="22"/>
     </row>
     <row r="21" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="91"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -8083,11 +8143,536 @@
       <c r="I23" s="24"/>
       <c r="J23" s="24"/>
       <c r="K23" s="24"/>
-      <c r="L23" s="80"/>
+      <c r="L23" s="75"/>
       <c r="M23" s="24"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C25" s="76"/>
+      <c r="C25" s="72"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A21:M21"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="A6:M6"/>
+    <mergeCell ref="A7:M7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:M8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="34.5703125" customWidth="1"/>
+    <col min="2" max="13" width="9.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="92" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="93">
+        <v>2022</v>
+      </c>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="88"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="88"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="96" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="96"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="101" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="100" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="100">
+        <v>2022</v>
+      </c>
+      <c r="C8" s="100"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="100"/>
+      <c r="B9" s="90" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="90" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="90" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="90" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="90" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="90" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="90" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="90" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="90" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="40">
+        <v>3784</v>
+      </c>
+      <c r="C10" s="68"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="40">
+        <v>31557</v>
+      </c>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="40">
+        <v>12646</v>
+      </c>
+      <c r="C12" s="68"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="40">
+        <v>184</v>
+      </c>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="40">
+        <v>15748</v>
+      </c>
+      <c r="C14" s="84"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="40">
+        <v>131</v>
+      </c>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="40">
+        <v>32987</v>
+      </c>
+      <c r="C16" s="68"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="40">
+        <v>6163</v>
+      </c>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="20">
+        <f t="shared" ref="B18:M18" si="0">SUM(B10:B17)</f>
+        <v>103200</v>
+      </c>
+      <c r="C18" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="20">
+        <f>SUM(L10:L17)</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="83">
+        <f>(B18/'2021'!M18-1)*100</f>
+        <v>-4.9394194729346363E-2</v>
+      </c>
+      <c r="C19" s="83">
+        <f>(C18/B18-1)*100</f>
+        <v>-100</v>
+      </c>
+      <c r="D19" s="83" t="e">
+        <f t="shared" ref="D19:H19" si="1">(D18/C18-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E19" s="83" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F19" s="83" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G19" s="83" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H19" s="83" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I19" s="83" t="e">
+        <f>(I18/H18-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J19" s="83" t="e">
+        <f>(J18/I18-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K19" s="83" t="e">
+        <f>(K18/J18-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L19" s="83" t="e">
+        <f>(L18/K18-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M19" s="83" t="e">
+        <f>(M18/L18-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+    </row>
+    <row r="21" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="91" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="91"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="91"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="10"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="75"/>
+      <c r="M23" s="24"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C25" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -8121,21 +8706,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -8148,21 +8733,21 @@
       <c r="W1" s="3"/>
     </row>
     <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
@@ -8175,21 +8760,21 @@
       <c r="W2" s="6"/>
     </row>
     <row r="3" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="95">
+      <c r="A3" s="93">
         <v>2008</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
@@ -8202,19 +8787,19 @@
       <c r="W3" s="6"/>
     </row>
     <row r="4" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
@@ -8227,19 +8812,19 @@
       <c r="W4" s="6"/>
     </row>
     <row r="5" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
@@ -8252,21 +8837,21 @@
       <c r="W5" s="6"/>
     </row>
     <row r="6" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="98" t="s">
+      <c r="A6" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="98"/>
-      <c r="M6" s="98"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="96"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -8279,21 +8864,21 @@
       <c r="W6" s="6"/>
     </row>
     <row r="7" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -8306,60 +8891,60 @@
       <c r="W7" s="6"/>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="103" t="s">
+      <c r="A8" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="103">
+      <c r="B8" s="100">
         <v>2008</v>
       </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="103"/>
-      <c r="B9" s="46" t="s">
+      <c r="A9" s="100"/>
+      <c r="B9" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="46" t="s">
+      <c r="F9" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="46" t="s">
+      <c r="G9" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="46" t="s">
+      <c r="H9" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="46" t="s">
+      <c r="I9" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="46" t="s">
+      <c r="J9" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="46" t="s">
+      <c r="K9" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="46" t="s">
+      <c r="L9" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="46" t="s">
+      <c r="M9" s="45" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8891,21 +9476,21 @@
     </row>
     <row r="20" spans="1:106" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:106" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="91"/>
     </row>
     <row r="22" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -9008,21 +9593,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -9035,21 +9620,21 @@
       <c r="W1" s="3"/>
     </row>
     <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -9062,21 +9647,21 @@
       <c r="W2" s="5"/>
     </row>
     <row r="3" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="95">
+      <c r="A3" s="93">
         <v>2009</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -9089,19 +9674,19 @@
       <c r="W3" s="5"/>
     </row>
     <row r="4" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
@@ -9114,19 +9699,19 @@
       <c r="W4" s="5"/>
     </row>
     <row r="5" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
@@ -9139,21 +9724,21 @@
       <c r="W5" s="5"/>
     </row>
     <row r="6" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="98" t="s">
+      <c r="A6" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="98"/>
-      <c r="M6" s="98"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="96"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
@@ -9166,21 +9751,21 @@
       <c r="W6" s="5"/>
     </row>
     <row r="7" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
@@ -9193,60 +9778,60 @@
       <c r="W7" s="5"/>
     </row>
     <row r="8" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="103" t="s">
+      <c r="A8" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="103">
+      <c r="B8" s="100">
         <v>2009</v>
       </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
     </row>
     <row r="9" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="103"/>
-      <c r="B9" s="46" t="s">
+      <c r="A9" s="100"/>
+      <c r="B9" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="46" t="s">
+      <c r="F9" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="46" t="s">
+      <c r="G9" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="46" t="s">
+      <c r="H9" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="46" t="s">
+      <c r="I9" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="46" t="s">
+      <c r="J9" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="46" t="s">
+      <c r="K9" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="46" t="s">
+      <c r="L9" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="46" t="s">
+      <c r="M9" s="45" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9779,21 +10364,21 @@
     </row>
     <row r="20" spans="1:106" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:106" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="91"/>
     </row>
     <row r="22" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -9896,21 +10481,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -9923,21 +10508,21 @@
       <c r="W1" s="3"/>
     </row>
     <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -9950,21 +10535,21 @@
       <c r="W2" s="5"/>
     </row>
     <row r="3" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="95">
+      <c r="A3" s="93">
         <v>2010</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -9977,19 +10562,19 @@
       <c r="W3" s="5"/>
     </row>
     <row r="4" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
@@ -10002,19 +10587,19 @@
       <c r="W4" s="5"/>
     </row>
     <row r="5" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
@@ -10027,21 +10612,21 @@
       <c r="W5" s="5"/>
     </row>
     <row r="6" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="98" t="s">
+      <c r="A6" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="98"/>
-      <c r="M6" s="98"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="96"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
@@ -10054,21 +10639,21 @@
       <c r="W6" s="5"/>
     </row>
     <row r="7" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
@@ -10081,60 +10666,60 @@
       <c r="W7" s="5"/>
     </row>
     <row r="8" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="103" t="s">
+      <c r="A8" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="103">
+      <c r="B8" s="100">
         <v>2010</v>
       </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
     </row>
     <row r="9" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="103"/>
-      <c r="B9" s="46" t="s">
+      <c r="A9" s="100"/>
+      <c r="B9" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="46" t="s">
+      <c r="F9" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="46" t="s">
+      <c r="G9" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="46" t="s">
+      <c r="H9" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="46" t="s">
+      <c r="I9" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="46" t="s">
+      <c r="J9" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="46" t="s">
+      <c r="K9" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="46" t="s">
+      <c r="L9" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="46" t="s">
+      <c r="M9" s="45" t="s">
         <v>13</v>
       </c>
     </row>
@@ -10667,21 +11252,21 @@
     </row>
     <row r="20" spans="1:106" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:106" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="91"/>
     </row>
     <row r="22" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -10797,21 +11382,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -10824,21 +11409,21 @@
       <c r="W1" s="3"/>
     </row>
     <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -10851,21 +11436,21 @@
       <c r="W2" s="5"/>
     </row>
     <row r="3" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="95">
+      <c r="A3" s="93">
         <v>2011</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -10878,19 +11463,19 @@
       <c r="W3" s="5"/>
     </row>
     <row r="4" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
@@ -10903,19 +11488,19 @@
       <c r="W4" s="5"/>
     </row>
     <row r="5" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
@@ -10928,21 +11513,21 @@
       <c r="W5" s="5"/>
     </row>
     <row r="6" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="98" t="s">
+      <c r="A6" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="98"/>
-      <c r="M6" s="98"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="96"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
@@ -10955,21 +11540,21 @@
       <c r="W6" s="5"/>
     </row>
     <row r="7" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
@@ -10982,60 +11567,60 @@
       <c r="W7" s="5"/>
     </row>
     <row r="8" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="103" t="s">
+      <c r="A8" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="103">
+      <c r="B8" s="100">
         <v>2011</v>
       </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
     </row>
     <row r="9" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="103"/>
-      <c r="B9" s="46" t="s">
+      <c r="A9" s="100"/>
+      <c r="B9" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="46" t="s">
+      <c r="F9" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="46" t="s">
+      <c r="G9" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="46" t="s">
+      <c r="H9" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="46" t="s">
+      <c r="I9" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="46" t="s">
+      <c r="J9" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="46" t="s">
+      <c r="K9" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="46" t="s">
+      <c r="L9" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="46" t="s">
+      <c r="M9" s="45" t="s">
         <v>13</v>
       </c>
     </row>
@@ -11568,21 +12153,21 @@
     </row>
     <row r="20" spans="1:106" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:106" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="91"/>
     </row>
     <row r="22" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -11699,21 +12284,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -11726,21 +12311,21 @@
       <c r="W1" s="3"/>
     </row>
     <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -11753,21 +12338,21 @@
       <c r="W2" s="5"/>
     </row>
     <row r="3" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="95">
+      <c r="A3" s="93">
         <v>2012</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -11780,19 +12365,19 @@
       <c r="W3" s="5"/>
     </row>
     <row r="4" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
@@ -11805,19 +12390,19 @@
       <c r="W4" s="5"/>
     </row>
     <row r="5" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
@@ -11830,21 +12415,21 @@
       <c r="W5" s="5"/>
     </row>
     <row r="6" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="98" t="s">
+      <c r="A6" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="98"/>
-      <c r="M6" s="98"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="96"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
@@ -11857,21 +12442,21 @@
       <c r="W6" s="5"/>
     </row>
     <row r="7" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
@@ -11884,60 +12469,60 @@
       <c r="W7" s="5"/>
     </row>
     <row r="8" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="103" t="s">
+      <c r="A8" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="103">
+      <c r="B8" s="100">
         <v>2012</v>
       </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="105"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
     </row>
     <row r="9" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="103"/>
-      <c r="B9" s="46" t="s">
+      <c r="A9" s="100"/>
+      <c r="B9" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="46" t="s">
+      <c r="F9" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="46" t="s">
+      <c r="G9" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="46" t="s">
+      <c r="H9" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="46" t="s">
+      <c r="I9" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="46" t="s">
+      <c r="J9" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="46" t="s">
+      <c r="K9" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="46" t="s">
+      <c r="L9" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="46" t="s">
+      <c r="M9" s="45" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12470,21 +13055,21 @@
     </row>
     <row r="20" spans="1:106" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:106" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="91"/>
     </row>
     <row r="22" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -12600,21 +13185,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -12627,21 +13212,21 @@
       <c r="W1" s="3"/>
     </row>
     <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -12654,21 +13239,21 @@
       <c r="W2" s="5"/>
     </row>
     <row r="3" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="95">
+      <c r="A3" s="93">
         <v>2013</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -12681,19 +13266,19 @@
       <c r="W3" s="5"/>
     </row>
     <row r="4" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
@@ -12706,19 +13291,19 @@
       <c r="W4" s="5"/>
     </row>
     <row r="5" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
@@ -12731,21 +13316,21 @@
       <c r="W5" s="5"/>
     </row>
     <row r="6" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="98" t="s">
+      <c r="A6" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="98"/>
-      <c r="M6" s="98"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="96"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
@@ -12758,21 +13343,21 @@
       <c r="W6" s="5"/>
     </row>
     <row r="7" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
@@ -12785,60 +13370,60 @@
       <c r="W7" s="5"/>
     </row>
     <row r="8" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="103" t="s">
+      <c r="A8" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="103">
+      <c r="B8" s="100">
         <v>2013</v>
       </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="105"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
     </row>
     <row r="9" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="103"/>
-      <c r="B9" s="46" t="s">
+      <c r="A9" s="100"/>
+      <c r="B9" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="46" t="s">
+      <c r="F9" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="46" t="s">
+      <c r="G9" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="46" t="s">
+      <c r="H9" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="46" t="s">
+      <c r="I9" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="46" t="s">
+      <c r="J9" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="46" t="s">
+      <c r="K9" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="46" t="s">
+      <c r="L9" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="46" t="s">
+      <c r="M9" s="45" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13371,21 +13956,21 @@
     </row>
     <row r="20" spans="1:106" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:106" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="91"/>
     </row>
     <row r="22" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -13501,21 +14086,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -13527,21 +14112,21 @@
       <c r="V1" s="3"/>
     </row>
     <row r="2" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -13553,21 +14138,21 @@
       <c r="V2" s="5"/>
     </row>
     <row r="3" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="95">
+      <c r="A3" s="93">
         <v>2014</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -13579,19 +14164,19 @@
       <c r="V3" s="5"/>
     </row>
     <row r="4" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
@@ -13603,19 +14188,19 @@
       <c r="V4" s="5"/>
     </row>
     <row r="5" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
@@ -13627,21 +14212,21 @@
       <c r="V5" s="5"/>
     </row>
     <row r="6" spans="1:22" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="98" t="s">
+      <c r="A6" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="98"/>
-      <c r="M6" s="98"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="96"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
@@ -13653,21 +14238,21 @@
       <c r="V6" s="5"/>
     </row>
     <row r="7" spans="1:22" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
@@ -13679,60 +14264,60 @@
       <c r="V7" s="5"/>
     </row>
     <row r="8" spans="1:22" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="103" t="s">
+      <c r="A8" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="103">
+      <c r="B8" s="100">
         <v>2014</v>
       </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="105"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
     </row>
     <row r="9" spans="1:22" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="103"/>
-      <c r="B9" s="46" t="s">
+      <c r="A9" s="100"/>
+      <c r="B9" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="E9" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="51" t="s">
+      <c r="F9" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="52" t="s">
+      <c r="G9" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="53" t="s">
+      <c r="H9" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="54" t="s">
+      <c r="I9" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="55" t="s">
+      <c r="J9" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="56" t="s">
+      <c r="K9" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="56" t="s">
+      <c r="L9" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="56" t="s">
+      <c r="M9" s="55" t="s">
         <v>13</v>
       </c>
     </row>
@@ -14264,21 +14849,21 @@
     </row>
     <row r="20" spans="1:105" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:105" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="91"/>
     </row>
     <row r="22" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -14316,10 +14901,10 @@
       <c r="A24" s="10"/>
     </row>
     <row r="26" spans="1:105" x14ac:dyDescent="0.2">
-      <c r="M26" s="58"/>
+      <c r="M26" s="57"/>
     </row>
     <row r="27" spans="1:105" x14ac:dyDescent="0.2">
-      <c r="M27" s="58"/>
+      <c r="M27" s="57"/>
     </row>
     <row r="28" spans="1:105" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="14"/>
@@ -14400,21 +14985,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -14425,21 +15010,21 @@
       <c r="U1" s="3"/>
     </row>
     <row r="2" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -14450,21 +15035,21 @@
       <c r="U2" s="5"/>
     </row>
     <row r="3" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="95">
+      <c r="A3" s="93">
         <v>2015</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -14475,19 +15060,19 @@
       <c r="U3" s="5"/>
     </row>
     <row r="4" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
@@ -14498,19 +15083,19 @@
       <c r="U4" s="5"/>
     </row>
     <row r="5" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
@@ -14521,96 +15106,96 @@
       <c r="U5" s="5"/>
     </row>
     <row r="6" spans="1:21" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="98" t="s">
+      <c r="A6" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="98"/>
-      <c r="M6" s="98"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="96"/>
       <c r="U6" s="5"/>
     </row>
     <row r="7" spans="1:21" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
       <c r="U7" s="5"/>
     </row>
     <row r="8" spans="1:21" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="103" t="s">
+      <c r="A8" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="103">
+      <c r="B8" s="100">
         <v>2015</v>
       </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="105"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
     </row>
     <row r="9" spans="1:21" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="103"/>
-      <c r="B9" s="57" t="s">
+      <c r="A9" s="100"/>
+      <c r="B9" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="57" t="s">
+      <c r="E9" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="57" t="s">
+      <c r="F9" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="57" t="s">
+      <c r="G9" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="57" t="s">
+      <c r="H9" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="57" t="s">
+      <c r="I9" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="57" t="s">
+      <c r="J9" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="57" t="s">
+      <c r="K9" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="57" t="s">
+      <c r="L9" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="57" t="s">
+      <c r="M9" s="56" t="s">
         <v>13</v>
       </c>
       <c r="N9"/>
@@ -15218,21 +15803,21 @@
     </row>
     <row r="20" spans="1:104" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:104" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="91"/>
     </row>
     <row r="22" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -15298,10 +15883,10 @@
       <c r="A24" s="10"/>
     </row>
     <row r="26" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="M26" s="58"/>
+      <c r="M26" s="57"/>
     </row>
     <row r="27" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="M27" s="58"/>
+      <c r="M27" s="57"/>
     </row>
     <row r="28" spans="1:104" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="14"/>

--- a/Tabulados/Patrones.xlsx
+++ b/Tabulados/Patrones.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="35">
   <si>
     <t>Agricultura, Ganadería, Silvicultura y Pesca</t>
   </si>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t>2008-2022</t>
+  </si>
+  <si>
+    <t>Var Feb 2022 respecto a Ene 2022</t>
   </si>
 </sst>
 </file>
@@ -1350,9 +1353,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="2" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1391,6 +1391,9 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="1" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="237">
@@ -3003,10 +3006,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BI24"/>
+  <dimension ref="A1:BK24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+      <selection activeCell="W18" sqref="W18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3014,91 +3017,98 @@
     <col min="1" max="1" width="27.5703125" style="32" customWidth="1"/>
     <col min="2" max="6" width="6.5703125" style="32" customWidth="1"/>
     <col min="7" max="8" width="6.5703125" style="36" customWidth="1"/>
-    <col min="9" max="16" width="6.5703125" style="32" customWidth="1"/>
-    <col min="17" max="17" width="10.5703125" style="32" customWidth="1"/>
-    <col min="18" max="22" width="11.42578125" style="32" customWidth="1"/>
-    <col min="23" max="16384" width="9.85546875" style="32"/>
+    <col min="9" max="17" width="6.5703125" style="32" customWidth="1"/>
+    <col min="18" max="18" width="10.28515625" style="32" customWidth="1"/>
+    <col min="19" max="19" width="10.5703125" style="32" customWidth="1"/>
+    <col min="20" max="24" width="11.42578125" style="32" customWidth="1"/>
+    <col min="25" max="16384" width="9.85546875" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
+    <row r="1" spans="1:24" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
       <c r="T1" s="26"/>
       <c r="U1" s="26"/>
       <c r="V1" s="26"/>
-    </row>
-    <row r="2" spans="1:22" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="93" t="s">
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+    </row>
+    <row r="2" spans="1:24" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="92"/>
       <c r="T2" s="28"/>
       <c r="U2" s="28"/>
       <c r="V2" s="28"/>
-    </row>
-    <row r="3" spans="1:22" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="93" t="s">
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+    </row>
+    <row r="3" spans="1:24" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="93"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="93"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="92"/>
+      <c r="R3" s="92"/>
+      <c r="S3" s="92"/>
       <c r="T3" s="28"/>
       <c r="U3" s="28"/>
       <c r="V3" s="28"/>
-    </row>
-    <row r="4" spans="1:22" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W3" s="28"/>
+      <c r="X3" s="28"/>
+    </row>
+    <row r="4" spans="1:24" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="30"/>
       <c r="B4" s="30"/>
       <c r="C4" s="30"/>
@@ -3116,13 +3126,15 @@
       <c r="O4" s="30"/>
       <c r="P4" s="30"/>
       <c r="Q4" s="30"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
       <c r="T4" s="8"/>
       <c r="U4" s="8"/>
       <c r="V4" s="8"/>
-    </row>
-    <row r="5" spans="1:22" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+    </row>
+    <row r="5" spans="1:24" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="30"/>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -3140,66 +3152,72 @@
       <c r="O5" s="30"/>
       <c r="P5" s="30"/>
       <c r="Q5" s="30"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
       <c r="T5" s="8"/>
       <c r="U5" s="8"/>
       <c r="V5" s="8"/>
-    </row>
-    <row r="6" spans="1:22" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="96" t="s">
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+    </row>
+    <row r="6" spans="1:24" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="96"/>
-      <c r="N6" s="96"/>
-      <c r="O6" s="96"/>
-      <c r="P6" s="96"/>
-      <c r="Q6" s="96"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
+      <c r="N6" s="95"/>
+      <c r="O6" s="95"/>
+      <c r="P6" s="95"/>
+      <c r="Q6" s="95"/>
+      <c r="R6" s="95"/>
+      <c r="S6" s="95"/>
       <c r="T6" s="8"/>
       <c r="U6" s="8"/>
       <c r="V6" s="8"/>
-    </row>
-    <row r="7" spans="1:22" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="97" t="s">
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+    </row>
+    <row r="7" spans="1:24" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="97"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="97"/>
-      <c r="L7" s="97"/>
-      <c r="M7" s="97"/>
-      <c r="N7" s="97"/>
-      <c r="O7" s="97"/>
-      <c r="P7" s="97"/>
-      <c r="Q7" s="97"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="96"/>
+      <c r="L7" s="96"/>
+      <c r="M7" s="96"/>
+      <c r="N7" s="96"/>
+      <c r="O7" s="96"/>
+      <c r="P7" s="96"/>
+      <c r="Q7" s="96"/>
+      <c r="R7" s="96"/>
+      <c r="S7" s="96"/>
       <c r="T7" s="8"/>
       <c r="U7" s="8"/>
       <c r="V7" s="8"/>
-    </row>
-    <row r="8" spans="1:22" s="7" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="94" t="s">
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+    </row>
+    <row r="8" spans="1:24" s="7" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="93" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="81">
@@ -3244,15 +3262,19 @@
       <c r="O8" s="81">
         <v>2021</v>
       </c>
-      <c r="P8" s="89">
+      <c r="P8" s="102">
         <v>2022</v>
       </c>
-      <c r="Q8" s="98" t="s">
+      <c r="Q8" s="102"/>
+      <c r="R8" s="97" t="s">
+        <v>34</v>
+      </c>
+      <c r="S8" s="97" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:22" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="95"/>
+    <row r="9" spans="1:24" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="94"/>
       <c r="B9" s="47" t="s">
         <v>13</v>
       </c>
@@ -3298,9 +3320,13 @@
       <c r="P9" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q9" s="99"/>
-    </row>
-    <row r="10" spans="1:22" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q9" s="85" t="s">
+        <v>15</v>
+      </c>
+      <c r="R9" s="98"/>
+      <c r="S9" s="98"/>
+    </row>
+    <row r="10" spans="1:24" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="63" t="s">
         <v>0</v>
       </c>
@@ -3349,12 +3375,19 @@
       <c r="P10" s="86">
         <v>3784</v>
       </c>
-      <c r="Q10" s="40">
-        <f>P10-O10</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q10" s="86">
+        <v>3812</v>
+      </c>
+      <c r="R10" s="86">
+        <f>Q10-P10</f>
+        <v>28</v>
+      </c>
+      <c r="S10" s="40">
+        <f>Q10-O10</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="66" t="s">
         <v>1</v>
       </c>
@@ -3401,14 +3434,21 @@
         <v>130</v>
       </c>
       <c r="P11" s="87">
-        <v>31557</v>
-      </c>
-      <c r="Q11" s="40">
-        <f t="shared" ref="Q11:Q17" si="0">P11-O11</f>
-        <v>31427</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+      <c r="Q11" s="87">
+        <v>130</v>
+      </c>
+      <c r="R11" s="86">
+        <f t="shared" ref="R11:R17" si="0">Q11-P11</f>
+        <v>-1</v>
+      </c>
+      <c r="S11" s="40">
+        <f t="shared" ref="S11:S17" si="1">Q11-O11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="63" t="s">
         <v>2</v>
       </c>
@@ -3455,14 +3495,21 @@
         <v>15776</v>
       </c>
       <c r="P12" s="86">
-        <v>12646</v>
-      </c>
-      <c r="Q12" s="40">
+        <v>15748</v>
+      </c>
+      <c r="Q12" s="86">
+        <v>15799</v>
+      </c>
+      <c r="R12" s="86">
         <f t="shared" si="0"/>
-        <v>-3130</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="S12" s="40">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="63" t="s">
         <v>3</v>
       </c>
@@ -3509,14 +3556,21 @@
         <v>12726</v>
       </c>
       <c r="P13" s="87">
-        <v>184</v>
-      </c>
-      <c r="Q13" s="40">
+        <v>12646</v>
+      </c>
+      <c r="Q13" s="87">
+        <v>12794</v>
+      </c>
+      <c r="R13" s="86">
         <f t="shared" si="0"/>
-        <v>-12542</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+      <c r="S13" s="40">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="63" t="s">
         <v>4</v>
       </c>
@@ -3563,14 +3617,21 @@
         <v>185</v>
       </c>
       <c r="P14" s="86">
-        <v>15748</v>
-      </c>
-      <c r="Q14" s="40">
+        <v>184</v>
+      </c>
+      <c r="Q14" s="86">
+        <v>187</v>
+      </c>
+      <c r="R14" s="86">
         <f t="shared" si="0"/>
-        <v>15563</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="S14" s="40">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="63" t="s">
         <v>5</v>
       </c>
@@ -3617,14 +3678,21 @@
         <v>31572</v>
       </c>
       <c r="P15" s="87">
-        <v>131</v>
-      </c>
-      <c r="Q15" s="40">
+        <v>31557</v>
+      </c>
+      <c r="Q15" s="87">
+        <v>31629</v>
+      </c>
+      <c r="R15" s="86">
         <f t="shared" si="0"/>
-        <v>-31441</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+      <c r="S15" s="40">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="63" t="s">
         <v>6</v>
       </c>
@@ -3671,14 +3739,21 @@
         <v>6149</v>
       </c>
       <c r="P16" s="86">
-        <v>32987</v>
-      </c>
-      <c r="Q16" s="40">
+        <v>6163</v>
+      </c>
+      <c r="Q16" s="86">
+        <v>6158</v>
+      </c>
+      <c r="R16" s="86">
         <f t="shared" si="0"/>
-        <v>26838</v>
-      </c>
-    </row>
-    <row r="17" spans="1:61" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-5</v>
+      </c>
+      <c r="S16" s="40">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:63" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="69" t="s">
         <v>7</v>
       </c>
@@ -3725,39 +3800,46 @@
         <v>32945</v>
       </c>
       <c r="P17" s="87">
-        <v>6163</v>
-      </c>
-      <c r="Q17" s="40">
+        <v>32987</v>
+      </c>
+      <c r="Q17" s="87">
+        <v>33117</v>
+      </c>
+      <c r="R17" s="86">
         <f t="shared" si="0"/>
-        <v>-26782</v>
-      </c>
-    </row>
-    <row r="18" spans="1:61" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="S17" s="40">
+        <f t="shared" si="1"/>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="42" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="20">
-        <f t="shared" ref="B18:L18" si="1">SUM(B10:B17)</f>
+        <f t="shared" ref="B18:L18" si="2">SUM(B10:B17)</f>
         <v>74287</v>
       </c>
       <c r="C18" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>73791</v>
       </c>
       <c r="D18" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>74713</v>
       </c>
       <c r="E18" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>75571</v>
       </c>
       <c r="F18" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>77290</v>
       </c>
       <c r="G18" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>78051</v>
       </c>
       <c r="H18" s="20">
@@ -3777,7 +3859,7 @@
         <v>90125</v>
       </c>
       <c r="L18" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>93370</v>
       </c>
       <c r="M18" s="20">
@@ -3797,10 +3879,18 @@
       </c>
       <c r="Q18" s="20">
         <f>SUM(Q10:Q17)</f>
-        <v>-51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:61" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>103626</v>
+      </c>
+      <c r="R18" s="20">
+        <f>SUM(R10:R17)</f>
+        <v>426</v>
+      </c>
+      <c r="S18" s="20">
+        <f>SUM(S10:S17)</f>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="19" spans="1:63" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="33"/>
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
@@ -3817,29 +3907,33 @@
       <c r="O19" s="33"/>
       <c r="P19" s="33"/>
       <c r="Q19" s="33"/>
-    </row>
-    <row r="20" spans="1:61" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="91" t="s">
+      <c r="R19" s="33"/>
+      <c r="S19" s="33"/>
+    </row>
+    <row r="20" spans="1:63" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="91"/>
-      <c r="C20" s="91"/>
-      <c r="D20" s="91"/>
-      <c r="E20" s="91"/>
-      <c r="F20" s="91"/>
-      <c r="G20" s="91"/>
-      <c r="H20" s="91"/>
-      <c r="I20" s="91"/>
-      <c r="J20" s="91"/>
-      <c r="K20" s="91"/>
-      <c r="L20" s="91"/>
-      <c r="M20" s="91"/>
-      <c r="N20" s="91"/>
-      <c r="O20" s="91"/>
-      <c r="P20" s="91"/>
-      <c r="Q20" s="91"/>
-    </row>
-    <row r="21" spans="1:61" s="35" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="90"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="90"/>
+      <c r="H20" s="90"/>
+      <c r="I20" s="90"/>
+      <c r="J20" s="90"/>
+      <c r="K20" s="90"/>
+      <c r="L20" s="90"/>
+      <c r="M20" s="90"/>
+      <c r="N20" s="90"/>
+      <c r="O20" s="90"/>
+      <c r="P20" s="90"/>
+      <c r="Q20" s="90"/>
+      <c r="R20" s="90"/>
+      <c r="S20" s="90"/>
+    </row>
+    <row r="21" spans="1:63" s="35" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="18"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
@@ -3857,8 +3951,10 @@
       <c r="O21" s="18"/>
       <c r="P21" s="18"/>
       <c r="Q21" s="18"/>
-    </row>
-    <row r="22" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+    </row>
+    <row r="22" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>28</v>
       </c>
@@ -3866,8 +3962,10 @@
       <c r="O22" s="33"/>
       <c r="P22" s="33"/>
       <c r="Q22" s="33"/>
-    </row>
-    <row r="23" spans="1:61" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R22" s="33"/>
+      <c r="S22" s="33"/>
+    </row>
+    <row r="23" spans="1:63" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
       <c r="D23" s="38"/>
@@ -3928,8 +4026,10 @@
       <c r="BG23" s="38"/>
       <c r="BH23" s="38"/>
       <c r="BI23" s="38"/>
-    </row>
-    <row r="24" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="BJ23" s="38"/>
+      <c r="BK23" s="38"/>
+    </row>
+    <row r="24" spans="1:63" x14ac:dyDescent="0.2">
       <c r="B24" s="73"/>
       <c r="C24" s="73"/>
       <c r="D24" s="73"/>
@@ -3946,17 +4046,21 @@
       <c r="O24" s="33"/>
       <c r="P24" s="33"/>
       <c r="Q24" s="33"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A20:Q20"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="A3:Q3"/>
+  <mergeCells count="10">
+    <mergeCell ref="A20:S20"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:S2"/>
+    <mergeCell ref="A3:S3"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A6:Q6"/>
-    <mergeCell ref="A7:Q7"/>
-    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="A6:S6"/>
+    <mergeCell ref="A7:S7"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:R9"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3984,55 +4088,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="93">
+      <c r="A3" s="92">
         <v>2016</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="44"/>
@@ -4065,60 +4169,60 @@
       <c r="M5" s="44"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="96"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="100">
+      <c r="B8" s="99">
         <v>2016</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="100"/>
+      <c r="A9" s="99"/>
       <c r="B9" s="58" t="s">
         <v>14</v>
       </c>
@@ -4603,21 +4707,21 @@
       <c r="M20" s="22"/>
     </row>
     <row r="21" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="91" t="s">
+      <c r="A21" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="91"/>
-      <c r="L21" s="91"/>
-      <c r="M21" s="91"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="90"/>
+      <c r="K21" s="90"/>
+      <c r="L21" s="90"/>
+      <c r="M21" s="90"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -4682,55 +4786,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="93">
+      <c r="A3" s="92">
         <v>2017</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="44"/>
@@ -4763,60 +4867,60 @@
       <c r="M5" s="44"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="96"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="100">
+      <c r="B8" s="99">
         <v>2017</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="100"/>
+      <c r="A9" s="99"/>
       <c r="B9" s="59" t="s">
         <v>14</v>
       </c>
@@ -5301,21 +5405,21 @@
       <c r="M20" s="22"/>
     </row>
     <row r="21" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="91" t="s">
+      <c r="A21" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="91"/>
-      <c r="L21" s="91"/>
-      <c r="M21" s="91"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="90"/>
+      <c r="K21" s="90"/>
+      <c r="L21" s="90"/>
+      <c r="M21" s="90"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -5380,55 +5484,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="93">
+      <c r="A3" s="92">
         <v>2018</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="44"/>
@@ -5461,60 +5565,60 @@
       <c r="M5" s="44"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="96"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="100">
+      <c r="B8" s="99">
         <v>2018</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="100"/>
+      <c r="A9" s="99"/>
       <c r="B9" s="60" t="s">
         <v>14</v>
       </c>
@@ -5999,21 +6103,21 @@
       <c r="M20" s="22"/>
     </row>
     <row r="21" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="91" t="s">
+      <c r="A21" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="91"/>
-      <c r="L21" s="91"/>
-      <c r="M21" s="91"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="90"/>
+      <c r="K21" s="90"/>
+      <c r="L21" s="90"/>
+      <c r="M21" s="90"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -6078,55 +6182,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="93">
+      <c r="A3" s="92">
         <v>2019</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="44"/>
@@ -6159,60 +6263,60 @@
       <c r="M5" s="44"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="96"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="100">
+      <c r="B8" s="99">
         <v>2019</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="100"/>
+      <c r="A9" s="99"/>
       <c r="B9" s="71" t="s">
         <v>14</v>
       </c>
@@ -6697,21 +6801,21 @@
       <c r="M20" s="22"/>
     </row>
     <row r="21" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="91" t="s">
+      <c r="A21" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="91"/>
-      <c r="L21" s="91"/>
-      <c r="M21" s="91"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="90"/>
+      <c r="K21" s="90"/>
+      <c r="L21" s="90"/>
+      <c r="M21" s="90"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -6779,55 +6883,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="93">
+      <c r="A3" s="92">
         <v>2020</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="76"/>
@@ -6860,60 +6964,60 @@
       <c r="M5" s="76"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="96"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="100">
+      <c r="B8" s="99">
         <v>2020</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="100"/>
+      <c r="A9" s="99"/>
       <c r="B9" s="77" t="s">
         <v>14</v>
       </c>
@@ -7397,21 +7501,21 @@
       <c r="M20" s="22"/>
     </row>
     <row r="21" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="91" t="s">
+      <c r="A21" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="91"/>
-      <c r="L21" s="91"/>
-      <c r="M21" s="91"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="90"/>
+      <c r="K21" s="90"/>
+      <c r="L21" s="90"/>
+      <c r="M21" s="90"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -7479,55 +7583,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="93">
+      <c r="A3" s="92">
         <v>2021</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="79"/>
@@ -7560,60 +7664,60 @@
       <c r="M5" s="79"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="96"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="100">
+      <c r="B8" s="99">
         <v>2021</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="100"/>
+      <c r="A9" s="99"/>
       <c r="B9" s="82" t="s">
         <v>14</v>
       </c>
@@ -8098,21 +8202,21 @@
       <c r="M20" s="22"/>
     </row>
     <row r="21" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="91" t="s">
+      <c r="A21" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="91"/>
-      <c r="L21" s="91"/>
-      <c r="M21" s="91"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="90"/>
+      <c r="K21" s="90"/>
+      <c r="L21" s="90"/>
+      <c r="M21" s="90"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -8170,7 +8274,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+      <selection activeCell="C10" sqref="C10:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8180,55 +8284,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="93">
+      <c r="A3" s="92">
         <v>2022</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="88"/>
@@ -8261,94 +8365,94 @@
       <c r="M5" s="88"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="96"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="100">
+      <c r="B8" s="99">
         <v>2022</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="100"/>
-      <c r="B9" s="90" t="s">
+      <c r="A9" s="99"/>
+      <c r="B9" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="90" t="s">
+      <c r="C9" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="90" t="s">
+      <c r="D9" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="90" t="s">
+      <c r="E9" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="90" t="s">
+      <c r="F9" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="90" t="s">
+      <c r="G9" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="90" t="s">
+      <c r="H9" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="90" t="s">
+      <c r="I9" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="90" t="s">
+      <c r="J9" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="90" t="s">
+      <c r="K9" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="90" t="s">
+      <c r="L9" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="90" t="s">
+      <c r="M9" s="89" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8359,7 +8463,9 @@
       <c r="B10" s="40">
         <v>3784</v>
       </c>
-      <c r="C10" s="68"/>
+      <c r="C10" s="68">
+        <v>3812</v>
+      </c>
       <c r="D10" s="40"/>
       <c r="E10" s="40"/>
       <c r="F10" s="40"/>
@@ -8378,7 +8484,9 @@
       <c r="B11" s="40">
         <v>31557</v>
       </c>
-      <c r="C11" s="40"/>
+      <c r="C11" s="40">
+        <v>130</v>
+      </c>
       <c r="D11" s="40"/>
       <c r="E11" s="40"/>
       <c r="F11" s="40"/>
@@ -8397,7 +8505,9 @@
       <c r="B12" s="40">
         <v>12646</v>
       </c>
-      <c r="C12" s="68"/>
+      <c r="C12" s="68">
+        <v>15799</v>
+      </c>
       <c r="D12" s="40"/>
       <c r="E12" s="40"/>
       <c r="F12" s="40"/>
@@ -8416,7 +8526,9 @@
       <c r="B13" s="40">
         <v>184</v>
       </c>
-      <c r="C13" s="40"/>
+      <c r="C13" s="40">
+        <v>12794</v>
+      </c>
       <c r="D13" s="40"/>
       <c r="E13" s="40"/>
       <c r="F13" s="40"/>
@@ -8435,7 +8547,9 @@
       <c r="B14" s="40">
         <v>15748</v>
       </c>
-      <c r="C14" s="84"/>
+      <c r="C14" s="84">
+        <v>187</v>
+      </c>
       <c r="D14" s="40"/>
       <c r="E14" s="40"/>
       <c r="F14" s="40"/>
@@ -8454,7 +8568,9 @@
       <c r="B15" s="40">
         <v>131</v>
       </c>
-      <c r="C15" s="40"/>
+      <c r="C15" s="40">
+        <v>31629</v>
+      </c>
       <c r="D15" s="40"/>
       <c r="E15" s="40"/>
       <c r="F15" s="40"/>
@@ -8473,7 +8589,9 @@
       <c r="B16" s="40">
         <v>32987</v>
       </c>
-      <c r="C16" s="68"/>
+      <c r="C16" s="68">
+        <v>6158</v>
+      </c>
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
       <c r="F16" s="40"/>
@@ -8492,7 +8610,9 @@
       <c r="B17" s="40">
         <v>6163</v>
       </c>
-      <c r="C17" s="40"/>
+      <c r="C17" s="40">
+        <v>33117</v>
+      </c>
       <c r="D17" s="40"/>
       <c r="E17" s="40"/>
       <c r="F17" s="40"/>
@@ -8514,7 +8634,7 @@
       </c>
       <c r="C18" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>103626</v>
       </c>
       <c r="D18" s="20">
         <f t="shared" si="0"/>
@@ -8567,11 +8687,11 @@
       </c>
       <c r="C19" s="83">
         <f>(C18/B18-1)*100</f>
+        <v>0.41279069767441445</v>
+      </c>
+      <c r="D19" s="83">
+        <f t="shared" ref="D19:H19" si="1">(D18/C18-1)*100</f>
         <v>-100</v>
-      </c>
-      <c r="D19" s="83" t="e">
-        <f t="shared" ref="D19:H19" si="1">(D18/C18-1)*100</f>
-        <v>#DIV/0!</v>
       </c>
       <c r="E19" s="83" t="e">
         <f t="shared" si="1"/>
@@ -8623,21 +8743,21 @@
       <c r="M20" s="22"/>
     </row>
     <row r="21" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="91" t="s">
+      <c r="A21" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="91"/>
-      <c r="L21" s="91"/>
-      <c r="M21" s="91"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="90"/>
+      <c r="K21" s="90"/>
+      <c r="L21" s="90"/>
+      <c r="M21" s="90"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -8706,21 +8826,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -8733,21 +8853,21 @@
       <c r="W1" s="3"/>
     </row>
     <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
@@ -8760,21 +8880,21 @@
       <c r="W2" s="6"/>
     </row>
     <row r="3" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="93">
+      <c r="A3" s="92">
         <v>2008</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
@@ -8837,21 +8957,21 @@
       <c r="W5" s="6"/>
     </row>
     <row r="6" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="96"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -8864,21 +8984,21 @@
       <c r="W6" s="6"/>
     </row>
     <row r="7" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -8891,26 +9011,26 @@
       <c r="W7" s="6"/>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="100">
+      <c r="B8" s="99">
         <v>2008</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="100"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="100"/>
+      <c r="A9" s="99"/>
       <c r="B9" s="45" t="s">
         <v>14</v>
       </c>
@@ -9476,21 +9596,21 @@
     </row>
     <row r="20" spans="1:106" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:106" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="91" t="s">
+      <c r="A21" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="91"/>
-      <c r="L21" s="91"/>
-      <c r="M21" s="91"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="90"/>
+      <c r="K21" s="90"/>
+      <c r="L21" s="90"/>
+      <c r="M21" s="90"/>
     </row>
     <row r="22" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -9593,21 +9713,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -9620,21 +9740,21 @@
       <c r="W1" s="3"/>
     </row>
     <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -9647,21 +9767,21 @@
       <c r="W2" s="5"/>
     </row>
     <row r="3" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="93">
+      <c r="A3" s="92">
         <v>2009</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -9724,21 +9844,21 @@
       <c r="W5" s="5"/>
     </row>
     <row r="6" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="96"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
@@ -9751,21 +9871,21 @@
       <c r="W6" s="5"/>
     </row>
     <row r="7" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
@@ -9778,26 +9898,26 @@
       <c r="W7" s="5"/>
     </row>
     <row r="8" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="100">
+      <c r="B8" s="99">
         <v>2009</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="100"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
     </row>
     <row r="9" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="100"/>
+      <c r="A9" s="99"/>
       <c r="B9" s="45" t="s">
         <v>14</v>
       </c>
@@ -10364,21 +10484,21 @@
     </row>
     <row r="20" spans="1:106" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:106" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="91" t="s">
+      <c r="A21" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="91"/>
-      <c r="L21" s="91"/>
-      <c r="M21" s="91"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="90"/>
+      <c r="K21" s="90"/>
+      <c r="L21" s="90"/>
+      <c r="M21" s="90"/>
     </row>
     <row r="22" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -10481,21 +10601,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -10508,21 +10628,21 @@
       <c r="W1" s="3"/>
     </row>
     <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -10535,21 +10655,21 @@
       <c r="W2" s="5"/>
     </row>
     <row r="3" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="93">
+      <c r="A3" s="92">
         <v>2010</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -10612,21 +10732,21 @@
       <c r="W5" s="5"/>
     </row>
     <row r="6" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="96"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
@@ -10639,21 +10759,21 @@
       <c r="W6" s="5"/>
     </row>
     <row r="7" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
@@ -10666,26 +10786,26 @@
       <c r="W7" s="5"/>
     </row>
     <row r="8" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="100">
+      <c r="B8" s="99">
         <v>2010</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="100"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
     </row>
     <row r="9" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="100"/>
+      <c r="A9" s="99"/>
       <c r="B9" s="45" t="s">
         <v>14</v>
       </c>
@@ -11252,21 +11372,21 @@
     </row>
     <row r="20" spans="1:106" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:106" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="91" t="s">
+      <c r="A21" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="91"/>
-      <c r="L21" s="91"/>
-      <c r="M21" s="91"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="90"/>
+      <c r="K21" s="90"/>
+      <c r="L21" s="90"/>
+      <c r="M21" s="90"/>
     </row>
     <row r="22" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -11382,21 +11502,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -11409,21 +11529,21 @@
       <c r="W1" s="3"/>
     </row>
     <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -11436,21 +11556,21 @@
       <c r="W2" s="5"/>
     </row>
     <row r="3" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="93">
+      <c r="A3" s="92">
         <v>2011</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -11513,21 +11633,21 @@
       <c r="W5" s="5"/>
     </row>
     <row r="6" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="96"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
@@ -11540,21 +11660,21 @@
       <c r="W6" s="5"/>
     </row>
     <row r="7" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
@@ -11567,26 +11687,26 @@
       <c r="W7" s="5"/>
     </row>
     <row r="8" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="100">
+      <c r="B8" s="99">
         <v>2011</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="100"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
     </row>
     <row r="9" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="100"/>
+      <c r="A9" s="99"/>
       <c r="B9" s="45" t="s">
         <v>14</v>
       </c>
@@ -12153,21 +12273,21 @@
     </row>
     <row r="20" spans="1:106" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:106" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="91" t="s">
+      <c r="A21" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="91"/>
-      <c r="L21" s="91"/>
-      <c r="M21" s="91"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="90"/>
+      <c r="K21" s="90"/>
+      <c r="L21" s="90"/>
+      <c r="M21" s="90"/>
     </row>
     <row r="22" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -12284,21 +12404,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -12311,21 +12431,21 @@
       <c r="W1" s="3"/>
     </row>
     <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -12338,21 +12458,21 @@
       <c r="W2" s="5"/>
     </row>
     <row r="3" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="93">
+      <c r="A3" s="92">
         <v>2012</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -12415,21 +12535,21 @@
       <c r="W5" s="5"/>
     </row>
     <row r="6" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="96"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
@@ -12442,21 +12562,21 @@
       <c r="W6" s="5"/>
     </row>
     <row r="7" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
@@ -12469,26 +12589,26 @@
       <c r="W7" s="5"/>
     </row>
     <row r="8" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="100">
+      <c r="B8" s="99">
         <v>2012</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
     </row>
     <row r="9" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="100"/>
+      <c r="A9" s="99"/>
       <c r="B9" s="45" t="s">
         <v>14</v>
       </c>
@@ -13055,21 +13175,21 @@
     </row>
     <row r="20" spans="1:106" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:106" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="91" t="s">
+      <c r="A21" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="91"/>
-      <c r="L21" s="91"/>
-      <c r="M21" s="91"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="90"/>
+      <c r="K21" s="90"/>
+      <c r="L21" s="90"/>
+      <c r="M21" s="90"/>
     </row>
     <row r="22" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -13185,21 +13305,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -13212,21 +13332,21 @@
       <c r="W1" s="3"/>
     </row>
     <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -13239,21 +13359,21 @@
       <c r="W2" s="5"/>
     </row>
     <row r="3" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="93">
+      <c r="A3" s="92">
         <v>2013</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -13316,21 +13436,21 @@
       <c r="W5" s="5"/>
     </row>
     <row r="6" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="96"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
@@ -13343,21 +13463,21 @@
       <c r="W6" s="5"/>
     </row>
     <row r="7" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
@@ -13370,26 +13490,26 @@
       <c r="W7" s="5"/>
     </row>
     <row r="8" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="100">
+      <c r="B8" s="99">
         <v>2013</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
     </row>
     <row r="9" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="100"/>
+      <c r="A9" s="99"/>
       <c r="B9" s="45" t="s">
         <v>14</v>
       </c>
@@ -13956,21 +14076,21 @@
     </row>
     <row r="20" spans="1:106" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:106" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="91" t="s">
+      <c r="A21" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="91"/>
-      <c r="L21" s="91"/>
-      <c r="M21" s="91"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="90"/>
+      <c r="K21" s="90"/>
+      <c r="L21" s="90"/>
+      <c r="M21" s="90"/>
     </row>
     <row r="22" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -14086,21 +14206,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -14112,21 +14232,21 @@
       <c r="V1" s="3"/>
     </row>
     <row r="2" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -14138,21 +14258,21 @@
       <c r="V2" s="5"/>
     </row>
     <row r="3" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="93">
+      <c r="A3" s="92">
         <v>2014</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -14212,21 +14332,21 @@
       <c r="V5" s="5"/>
     </row>
     <row r="6" spans="1:22" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="96"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
@@ -14238,21 +14358,21 @@
       <c r="V6" s="5"/>
     </row>
     <row r="7" spans="1:22" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
@@ -14264,26 +14384,26 @@
       <c r="V7" s="5"/>
     </row>
     <row r="8" spans="1:22" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="100">
+      <c r="B8" s="99">
         <v>2014</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
     </row>
     <row r="9" spans="1:22" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="100"/>
+      <c r="A9" s="99"/>
       <c r="B9" s="45" t="s">
         <v>14</v>
       </c>
@@ -14849,21 +14969,21 @@
     </row>
     <row r="20" spans="1:105" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:105" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="91" t="s">
+      <c r="A21" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="91"/>
-      <c r="L21" s="91"/>
-      <c r="M21" s="91"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="90"/>
+      <c r="K21" s="90"/>
+      <c r="L21" s="90"/>
+      <c r="M21" s="90"/>
     </row>
     <row r="22" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -14985,21 +15105,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -15010,21 +15130,21 @@
       <c r="U1" s="3"/>
     </row>
     <row r="2" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -15035,21 +15155,21 @@
       <c r="U2" s="5"/>
     </row>
     <row r="3" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="93">
+      <c r="A3" s="92">
         <v>2015</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -15106,62 +15226,62 @@
       <c r="U5" s="5"/>
     </row>
     <row r="6" spans="1:21" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="96"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
       <c r="U6" s="5"/>
     </row>
     <row r="7" spans="1:21" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
       <c r="U7" s="5"/>
     </row>
     <row r="8" spans="1:21" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="100">
+      <c r="B8" s="99">
         <v>2015</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
     </row>
     <row r="9" spans="1:21" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="100"/>
+      <c r="A9" s="99"/>
       <c r="B9" s="56" t="s">
         <v>14</v>
       </c>
@@ -15803,21 +15923,21 @@
     </row>
     <row r="20" spans="1:104" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:104" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="91" t="s">
+      <c r="A21" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="91"/>
-      <c r="L21" s="91"/>
-      <c r="M21" s="91"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="90"/>
+      <c r="K21" s="90"/>
+      <c r="L21" s="90"/>
+      <c r="M21" s="90"/>
     </row>
     <row r="22" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>

--- a/Tabulados/Patrones.xlsx
+++ b/Tabulados/Patrones.xlsx
@@ -201,16 +201,16 @@
     <t xml:space="preserve">Por división económica </t>
   </si>
   <si>
-    <t>Var Ene 2022 respecto a Dic 2021</t>
-  </si>
-  <si>
     <t>Por división económica 2008 - 2022</t>
   </si>
   <si>
     <t>2008-2022</t>
   </si>
   <si>
-    <t>Var Feb 2022 respecto a Ene 2022</t>
+    <t>Var Mar 2022 respecto a Feb 2022</t>
+  </si>
+  <si>
+    <t>Var Mar 2022 respecto a Dic 2021</t>
   </si>
 </sst>
 </file>
@@ -1383,6 +1383,9 @@
     <xf numFmtId="0" fontId="21" fillId="38" borderId="2" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="1" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1391,9 +1394,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="1" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="237">
@@ -3009,7 +3009,7 @@
   <dimension ref="A1:BK24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W18" sqref="W18"/>
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3082,7 +3082,7 @@
     </row>
     <row r="3" spans="1:24" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="92" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="92"/>
       <c r="C3" s="92"/>
@@ -3190,7 +3190,7 @@
     </row>
     <row r="7" spans="1:24" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="96" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="96"/>
       <c r="C7" s="96"/>
@@ -3262,15 +3262,15 @@
       <c r="O8" s="81">
         <v>2021</v>
       </c>
-      <c r="P8" s="102">
+      <c r="P8" s="99">
         <v>2022</v>
       </c>
-      <c r="Q8" s="102"/>
+      <c r="Q8" s="99"/>
       <c r="R8" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="S8" s="97" t="s">
         <v>34</v>
-      </c>
-      <c r="S8" s="97" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:24" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3318,10 +3318,10 @@
         <v>13</v>
       </c>
       <c r="P9" s="85" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="85" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R9" s="98"/>
       <c r="S9" s="98"/>
@@ -3373,18 +3373,18 @@
         <v>3768</v>
       </c>
       <c r="P10" s="86">
-        <v>3784</v>
+        <v>3812</v>
       </c>
       <c r="Q10" s="86">
-        <v>3812</v>
+        <v>3819</v>
       </c>
       <c r="R10" s="86">
         <f>Q10-P10</f>
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="S10" s="40">
         <f>Q10-O10</f>
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:24" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -3434,18 +3434,18 @@
         <v>130</v>
       </c>
       <c r="P11" s="87">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q11" s="87">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="R11" s="86">
         <f t="shared" ref="R11:R17" si="0">Q11-P11</f>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="S11" s="40">
         <f t="shared" ref="S11:S17" si="1">Q11-O11</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="12" spans="1:24" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -3495,18 +3495,18 @@
         <v>15776</v>
       </c>
       <c r="P12" s="86">
-        <v>15748</v>
+        <v>15799</v>
       </c>
       <c r="Q12" s="86">
-        <v>15799</v>
+        <v>15826</v>
       </c>
       <c r="R12" s="86">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="S12" s="40">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:24" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -3556,18 +3556,18 @@
         <v>12726</v>
       </c>
       <c r="P13" s="87">
-        <v>12646</v>
+        <v>12794</v>
       </c>
       <c r="Q13" s="87">
-        <v>12794</v>
+        <v>12874</v>
       </c>
       <c r="R13" s="86">
         <f t="shared" si="0"/>
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="S13" s="40">
         <f t="shared" si="1"/>
-        <v>68</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:24" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -3617,18 +3617,18 @@
         <v>185</v>
       </c>
       <c r="P14" s="86">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q14" s="86">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="R14" s="86">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S14" s="40">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:24" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -3678,18 +3678,18 @@
         <v>31572</v>
       </c>
       <c r="P15" s="87">
-        <v>31557</v>
+        <v>31629</v>
       </c>
       <c r="Q15" s="87">
-        <v>31629</v>
+        <v>31715</v>
       </c>
       <c r="R15" s="86">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="S15" s="40">
         <f t="shared" si="1"/>
-        <v>57</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:24" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -3739,18 +3739,18 @@
         <v>6149</v>
       </c>
       <c r="P16" s="86">
-        <v>6163</v>
+        <v>6158</v>
       </c>
       <c r="Q16" s="86">
-        <v>6158</v>
+        <v>6164</v>
       </c>
       <c r="R16" s="86">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>6</v>
       </c>
       <c r="S16" s="40">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:63" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -3800,18 +3800,18 @@
         <v>32945</v>
       </c>
       <c r="P17" s="87">
-        <v>32987</v>
+        <v>33117</v>
       </c>
       <c r="Q17" s="87">
-        <v>33117</v>
+        <v>33259</v>
       </c>
       <c r="R17" s="86">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="S17" s="40">
         <f t="shared" si="1"/>
-        <v>172</v>
+        <v>314</v>
       </c>
     </row>
     <row r="18" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3875,19 +3875,19 @@
       </c>
       <c r="P18" s="20">
         <f>SUM(P10:P17)</f>
-        <v>103200</v>
+        <v>103626</v>
       </c>
       <c r="Q18" s="20">
         <f>SUM(Q10:Q17)</f>
-        <v>103626</v>
+        <v>103976</v>
       </c>
       <c r="R18" s="20">
         <f>SUM(R10:R17)</f>
-        <v>426</v>
+        <v>350</v>
       </c>
       <c r="S18" s="20">
         <f>SUM(S10:S17)</f>
-        <v>375</v>
+        <v>725</v>
       </c>
     </row>
     <row r="19" spans="1:63" ht="9" customHeight="1" x14ac:dyDescent="0.2">
@@ -4186,43 +4186,43 @@
       <c r="M6" s="95"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="99" t="s">
+      <c r="A8" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="99">
+      <c r="B8" s="100">
         <v>2016</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="99"/>
+      <c r="A9" s="100"/>
       <c r="B9" s="58" t="s">
         <v>14</v>
       </c>
@@ -4884,43 +4884,43 @@
       <c r="M6" s="95"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="99" t="s">
+      <c r="A8" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="99">
+      <c r="B8" s="100">
         <v>2017</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="99"/>
+      <c r="A9" s="100"/>
       <c r="B9" s="59" t="s">
         <v>14</v>
       </c>
@@ -5582,43 +5582,43 @@
       <c r="M6" s="95"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="99" t="s">
+      <c r="A8" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="99">
+      <c r="B8" s="100">
         <v>2018</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="99"/>
+      <c r="A9" s="100"/>
       <c r="B9" s="60" t="s">
         <v>14</v>
       </c>
@@ -6280,43 +6280,43 @@
       <c r="M6" s="95"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="99" t="s">
+      <c r="A8" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="99">
+      <c r="B8" s="100">
         <v>2019</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="99"/>
+      <c r="A9" s="100"/>
       <c r="B9" s="71" t="s">
         <v>14</v>
       </c>
@@ -6981,43 +6981,43 @@
       <c r="M6" s="95"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="99" t="s">
+      <c r="A8" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="99">
+      <c r="B8" s="100">
         <v>2020</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="99"/>
+      <c r="A9" s="100"/>
       <c r="B9" s="77" t="s">
         <v>14</v>
       </c>
@@ -7681,43 +7681,43 @@
       <c r="M6" s="95"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="99" t="s">
+      <c r="A8" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="99">
+      <c r="B8" s="100">
         <v>2021</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="99"/>
+      <c r="A9" s="100"/>
       <c r="B9" s="82" t="s">
         <v>14</v>
       </c>
@@ -8274,7 +8274,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:C17"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8382,43 +8382,43 @@
       <c r="M6" s="95"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="99" t="s">
+      <c r="A8" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="99">
+      <c r="B8" s="100">
         <v>2022</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="99"/>
+      <c r="A9" s="100"/>
       <c r="B9" s="89" t="s">
         <v>14</v>
       </c>
@@ -8466,7 +8466,9 @@
       <c r="C10" s="68">
         <v>3812</v>
       </c>
-      <c r="D10" s="40"/>
+      <c r="D10" s="40">
+        <v>3819</v>
+      </c>
       <c r="E10" s="40"/>
       <c r="F10" s="40"/>
       <c r="G10" s="40"/>
@@ -8487,7 +8489,9 @@
       <c r="C11" s="40">
         <v>130</v>
       </c>
-      <c r="D11" s="40"/>
+      <c r="D11" s="40">
+        <v>128</v>
+      </c>
       <c r="E11" s="40"/>
       <c r="F11" s="40"/>
       <c r="G11" s="40"/>
@@ -8508,7 +8512,9 @@
       <c r="C12" s="68">
         <v>15799</v>
       </c>
-      <c r="D12" s="40"/>
+      <c r="D12" s="40">
+        <v>15826</v>
+      </c>
       <c r="E12" s="40"/>
       <c r="F12" s="40"/>
       <c r="G12" s="40"/>
@@ -8529,7 +8535,9 @@
       <c r="C13" s="40">
         <v>12794</v>
       </c>
-      <c r="D13" s="40"/>
+      <c r="D13" s="40">
+        <v>12874</v>
+      </c>
       <c r="E13" s="40"/>
       <c r="F13" s="40"/>
       <c r="G13" s="40"/>
@@ -8550,7 +8558,9 @@
       <c r="C14" s="84">
         <v>187</v>
       </c>
-      <c r="D14" s="40"/>
+      <c r="D14" s="40">
+        <v>191</v>
+      </c>
       <c r="E14" s="40"/>
       <c r="F14" s="40"/>
       <c r="G14" s="40"/>
@@ -8571,7 +8581,9 @@
       <c r="C15" s="40">
         <v>31629</v>
       </c>
-      <c r="D15" s="40"/>
+      <c r="D15" s="40">
+        <v>31715</v>
+      </c>
       <c r="E15" s="40"/>
       <c r="F15" s="40"/>
       <c r="G15" s="40"/>
@@ -8592,7 +8604,9 @@
       <c r="C16" s="68">
         <v>6158</v>
       </c>
-      <c r="D16" s="40"/>
+      <c r="D16" s="40">
+        <v>6164</v>
+      </c>
       <c r="E16" s="40"/>
       <c r="F16" s="40"/>
       <c r="G16" s="40"/>
@@ -8613,7 +8627,9 @@
       <c r="C17" s="40">
         <v>33117</v>
       </c>
-      <c r="D17" s="40"/>
+      <c r="D17" s="40">
+        <v>33259</v>
+      </c>
       <c r="E17" s="40"/>
       <c r="F17" s="40"/>
       <c r="G17" s="40"/>
@@ -8638,7 +8654,7 @@
       </c>
       <c r="D18" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>103976</v>
       </c>
       <c r="E18" s="20">
         <f t="shared" si="0"/>
@@ -8691,11 +8707,11 @@
       </c>
       <c r="D19" s="83">
         <f t="shared" ref="D19:H19" si="1">(D18/C18-1)*100</f>
+        <v>0.33775307355297102</v>
+      </c>
+      <c r="E19" s="83">
+        <f t="shared" si="1"/>
         <v>-100</v>
-      </c>
-      <c r="E19" s="83" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="F19" s="83" t="e">
         <f t="shared" si="1"/>
@@ -8984,21 +9000,21 @@
       <c r="W6" s="6"/>
     </row>
     <row r="7" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -9011,26 +9027,26 @@
       <c r="W7" s="6"/>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="99" t="s">
+      <c r="A8" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="99">
+      <c r="B8" s="100">
         <v>2008</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="99"/>
+      <c r="A9" s="100"/>
       <c r="B9" s="45" t="s">
         <v>14</v>
       </c>
@@ -9871,21 +9887,21 @@
       <c r="W6" s="5"/>
     </row>
     <row r="7" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
@@ -9898,26 +9914,26 @@
       <c r="W7" s="5"/>
     </row>
     <row r="8" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="99" t="s">
+      <c r="A8" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="99">
+      <c r="B8" s="100">
         <v>2009</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
     </row>
     <row r="9" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="99"/>
+      <c r="A9" s="100"/>
       <c r="B9" s="45" t="s">
         <v>14</v>
       </c>
@@ -10759,21 +10775,21 @@
       <c r="W6" s="5"/>
     </row>
     <row r="7" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
@@ -10786,26 +10802,26 @@
       <c r="W7" s="5"/>
     </row>
     <row r="8" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="99" t="s">
+      <c r="A8" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="99">
+      <c r="B8" s="100">
         <v>2010</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
     </row>
     <row r="9" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="99"/>
+      <c r="A9" s="100"/>
       <c r="B9" s="45" t="s">
         <v>14</v>
       </c>
@@ -11660,21 +11676,21 @@
       <c r="W6" s="5"/>
     </row>
     <row r="7" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
@@ -11687,26 +11703,26 @@
       <c r="W7" s="5"/>
     </row>
     <row r="8" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="99" t="s">
+      <c r="A8" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="99">
+      <c r="B8" s="100">
         <v>2011</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
     </row>
     <row r="9" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="99"/>
+      <c r="A9" s="100"/>
       <c r="B9" s="45" t="s">
         <v>14</v>
       </c>
@@ -12562,21 +12578,21 @@
       <c r="W6" s="5"/>
     </row>
     <row r="7" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
@@ -12589,26 +12605,26 @@
       <c r="W7" s="5"/>
     </row>
     <row r="8" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="99" t="s">
+      <c r="A8" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="99">
+      <c r="B8" s="100">
         <v>2012</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
     </row>
     <row r="9" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="99"/>
+      <c r="A9" s="100"/>
       <c r="B9" s="45" t="s">
         <v>14</v>
       </c>
@@ -13463,21 +13479,21 @@
       <c r="W6" s="5"/>
     </row>
     <row r="7" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
@@ -13490,26 +13506,26 @@
       <c r="W7" s="5"/>
     </row>
     <row r="8" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="99" t="s">
+      <c r="A8" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="99">
+      <c r="B8" s="100">
         <v>2013</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
     </row>
     <row r="9" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="99"/>
+      <c r="A9" s="100"/>
       <c r="B9" s="45" t="s">
         <v>14</v>
       </c>
@@ -14358,21 +14374,21 @@
       <c r="V6" s="5"/>
     </row>
     <row r="7" spans="1:22" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
@@ -14384,26 +14400,26 @@
       <c r="V7" s="5"/>
     </row>
     <row r="8" spans="1:22" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="99" t="s">
+      <c r="A8" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="99">
+      <c r="B8" s="100">
         <v>2014</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
     </row>
     <row r="9" spans="1:22" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="99"/>
+      <c r="A9" s="100"/>
       <c r="B9" s="45" t="s">
         <v>14</v>
       </c>
@@ -15244,44 +15260,44 @@
       <c r="U6" s="5"/>
     </row>
     <row r="7" spans="1:21" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
       <c r="U7" s="5"/>
     </row>
     <row r="8" spans="1:21" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="99" t="s">
+      <c r="A8" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="99">
+      <c r="B8" s="100">
         <v>2015</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
     </row>
     <row r="9" spans="1:21" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="99"/>
+      <c r="A9" s="100"/>
       <c r="B9" s="56" t="s">
         <v>14</v>
       </c>

--- a/Tabulados/Patrones.xlsx
+++ b/Tabulados/Patrones.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6345" tabRatio="848"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19195" windowHeight="6344" tabRatio="848"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen Gral 08-21" sheetId="1" r:id="rId1"/>
@@ -207,10 +207,10 @@
     <t>2008-2022</t>
   </si>
   <si>
-    <t>Var Mar 2022 respecto a Feb 2022</t>
+    <t>Var Abr 2022 respecto a Dic 2021</t>
   </si>
   <si>
-    <t>Var Mar 2022 respecto a Dic 2021</t>
+    <t>Var Abr 2022 respecto a Mar 2022</t>
   </si>
 </sst>
 </file>
@@ -3009,22 +3009,22 @@
   <dimension ref="A1:BK24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" style="32" customWidth="1"/>
-    <col min="2" max="6" width="6.5703125" style="32" customWidth="1"/>
-    <col min="7" max="8" width="6.5703125" style="36" customWidth="1"/>
-    <col min="9" max="17" width="6.5703125" style="32" customWidth="1"/>
-    <col min="18" max="18" width="10.28515625" style="32" customWidth="1"/>
-    <col min="19" max="19" width="10.5703125" style="32" customWidth="1"/>
-    <col min="20" max="24" width="11.42578125" style="32" customWidth="1"/>
-    <col min="25" max="16384" width="9.85546875" style="32"/>
+    <col min="1" max="1" width="27.625" style="32" customWidth="1"/>
+    <col min="2" max="6" width="6.625" style="32" customWidth="1"/>
+    <col min="7" max="8" width="6.625" style="36" customWidth="1"/>
+    <col min="9" max="17" width="6.625" style="32" customWidth="1"/>
+    <col min="18" max="18" width="10.25" style="32" customWidth="1"/>
+    <col min="19" max="19" width="10.625" style="32" customWidth="1"/>
+    <col min="20" max="24" width="11.375" style="32" customWidth="1"/>
+    <col min="25" max="16384" width="9.875" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" s="27" customFormat="1" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="91" t="s">
         <v>27</v>
       </c>
@@ -3052,7 +3052,7 @@
       <c r="W1" s="26"/>
       <c r="X1" s="26"/>
     </row>
-    <row r="2" spans="1:24" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" s="29" customFormat="1" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="92" t="s">
         <v>12</v>
       </c>
@@ -3080,7 +3080,7 @@
       <c r="W2" s="28"/>
       <c r="X2" s="28"/>
     </row>
-    <row r="3" spans="1:24" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" s="29" customFormat="1" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="92" t="s">
         <v>32</v>
       </c>
@@ -3267,10 +3267,10 @@
       </c>
       <c r="Q8" s="99"/>
       <c r="R8" s="97" t="s">
+        <v>34</v>
+      </c>
+      <c r="S8" s="97" t="s">
         <v>33</v>
-      </c>
-      <c r="S8" s="97" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:24" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3318,15 +3318,15 @@
         <v>13</v>
       </c>
       <c r="P9" s="85" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q9" s="85" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R9" s="98"/>
       <c r="S9" s="98"/>
     </row>
-    <row r="10" spans="1:24" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" s="7" customFormat="1" ht="23.3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="63" t="s">
         <v>0</v>
       </c>
@@ -3373,21 +3373,21 @@
         <v>3768</v>
       </c>
       <c r="P10" s="86">
-        <v>3812</v>
+        <v>3819</v>
       </c>
       <c r="Q10" s="86">
-        <v>3819</v>
+        <v>3822</v>
       </c>
       <c r="R10" s="86">
         <f>Q10-P10</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="S10" s="40">
         <f>Q10-O10</f>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="66" t="s">
         <v>1</v>
       </c>
@@ -3434,21 +3434,21 @@
         <v>130</v>
       </c>
       <c r="P11" s="87">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Q11" s="87">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="R11" s="86">
         <f t="shared" ref="R11:R17" si="0">Q11-P11</f>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="S11" s="40">
         <f t="shared" ref="S11:S17" si="1">Q11-O11</f>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="63" t="s">
         <v>2</v>
       </c>
@@ -3495,21 +3495,21 @@
         <v>15776</v>
       </c>
       <c r="P12" s="86">
-        <v>15799</v>
+        <v>15826</v>
       </c>
       <c r="Q12" s="86">
-        <v>15826</v>
+        <v>15861</v>
       </c>
       <c r="R12" s="86">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="S12" s="40">
         <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="63" t="s">
         <v>3</v>
       </c>
@@ -3556,21 +3556,21 @@
         <v>12726</v>
       </c>
       <c r="P13" s="87">
-        <v>12794</v>
+        <v>12874</v>
       </c>
       <c r="Q13" s="87">
-        <v>12874</v>
+        <v>12927</v>
       </c>
       <c r="R13" s="86">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="S13" s="40">
         <f t="shared" si="1"/>
-        <v>148</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="63" t="s">
         <v>4</v>
       </c>
@@ -3617,21 +3617,21 @@
         <v>185</v>
       </c>
       <c r="P14" s="86">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q14" s="86">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="R14" s="86">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S14" s="40">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="63" t="s">
         <v>5</v>
       </c>
@@ -3678,21 +3678,21 @@
         <v>31572</v>
       </c>
       <c r="P15" s="87">
-        <v>31629</v>
+        <v>31715</v>
       </c>
       <c r="Q15" s="87">
-        <v>31715</v>
+        <v>31780</v>
       </c>
       <c r="R15" s="86">
         <f t="shared" si="0"/>
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="S15" s="40">
         <f t="shared" si="1"/>
-        <v>143</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="63" t="s">
         <v>6</v>
       </c>
@@ -3739,21 +3739,21 @@
         <v>6149</v>
       </c>
       <c r="P16" s="86">
-        <v>6158</v>
+        <v>6164</v>
       </c>
       <c r="Q16" s="86">
-        <v>6164</v>
+        <v>6174</v>
       </c>
       <c r="R16" s="86">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S16" s="40">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:63" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:63" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="69" t="s">
         <v>7</v>
       </c>
@@ -3800,21 +3800,21 @@
         <v>32945</v>
       </c>
       <c r="P17" s="87">
-        <v>33117</v>
+        <v>33259</v>
       </c>
       <c r="Q17" s="87">
-        <v>33259</v>
+        <v>33351</v>
       </c>
       <c r="R17" s="86">
         <f t="shared" si="0"/>
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="S17" s="40">
         <f t="shared" si="1"/>
-        <v>314</v>
-      </c>
-    </row>
-    <row r="18" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="18" spans="1:63" s="7" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A18" s="42" t="s">
         <v>11</v>
       </c>
@@ -3875,19 +3875,19 @@
       </c>
       <c r="P18" s="20">
         <f>SUM(P10:P17)</f>
-        <v>103626</v>
+        <v>103976</v>
       </c>
       <c r="Q18" s="20">
         <f>SUM(Q10:Q17)</f>
-        <v>103976</v>
+        <v>104232</v>
       </c>
       <c r="R18" s="20">
         <f>SUM(R10:R17)</f>
-        <v>350</v>
+        <v>256</v>
       </c>
       <c r="S18" s="20">
         <f>SUM(S10:S17)</f>
-        <v>725</v>
+        <v>981</v>
       </c>
     </row>
     <row r="19" spans="1:63" ht="9" customHeight="1" x14ac:dyDescent="0.2">
@@ -3910,7 +3910,7 @@
       <c r="R19" s="33"/>
       <c r="S19" s="33"/>
     </row>
-    <row r="20" spans="1:63" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:63" ht="19.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="90" t="s">
         <v>8</v>
       </c>
@@ -3954,7 +3954,7 @@
       <c r="R21" s="18"/>
       <c r="S21" s="18"/>
     </row>
-    <row r="22" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:63" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>28</v>
       </c>
@@ -3965,7 +3965,7 @@
       <c r="R22" s="33"/>
       <c r="S22" s="33"/>
     </row>
-    <row r="23" spans="1:63" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:63" s="37" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
       <c r="D23" s="38"/>
@@ -4081,13 +4081,13 @@
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" customWidth="1"/>
-    <col min="2" max="13" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="34.625" customWidth="1"/>
+    <col min="2" max="13" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="15.65" x14ac:dyDescent="0.2">
       <c r="A1" s="91" t="s">
         <v>26</v>
       </c>
@@ -4706,7 +4706,7 @@
       <c r="L20" s="22"/>
       <c r="M20" s="22"/>
     </row>
-    <row r="21" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="26.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="90" t="s">
         <v>9</v>
       </c>
@@ -4779,13 +4779,13 @@
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" customWidth="1"/>
-    <col min="2" max="13" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="34.625" customWidth="1"/>
+    <col min="2" max="13" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="15.65" x14ac:dyDescent="0.2">
       <c r="A1" s="91" t="s">
         <v>26</v>
       </c>
@@ -5404,7 +5404,7 @@
       <c r="L20" s="22"/>
       <c r="M20" s="22"/>
     </row>
-    <row r="21" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="26.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="90" t="s">
         <v>9</v>
       </c>
@@ -5477,13 +5477,13 @@
       <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" customWidth="1"/>
-    <col min="2" max="13" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="34.625" customWidth="1"/>
+    <col min="2" max="13" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="15.65" x14ac:dyDescent="0.2">
       <c r="A1" s="91" t="s">
         <v>26</v>
       </c>
@@ -6102,7 +6102,7 @@
       <c r="L20" s="22"/>
       <c r="M20" s="22"/>
     </row>
-    <row r="21" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="26.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="90" t="s">
         <v>9</v>
       </c>
@@ -6175,13 +6175,13 @@
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" customWidth="1"/>
-    <col min="2" max="13" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="34.625" customWidth="1"/>
+    <col min="2" max="13" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="15.65" x14ac:dyDescent="0.2">
       <c r="A1" s="91" t="s">
         <v>26</v>
       </c>
@@ -6800,7 +6800,7 @@
       <c r="L20" s="22"/>
       <c r="M20" s="22"/>
     </row>
-    <row r="21" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="26.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="90" t="s">
         <v>9</v>
       </c>
@@ -6876,13 +6876,13 @@
       <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" customWidth="1"/>
-    <col min="2" max="13" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="34.625" customWidth="1"/>
+    <col min="2" max="13" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="15.65" x14ac:dyDescent="0.2">
       <c r="A1" s="91" t="s">
         <v>26</v>
       </c>
@@ -7500,7 +7500,7 @@
       <c r="L20" s="22"/>
       <c r="M20" s="22"/>
     </row>
-    <row r="21" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="26.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="90" t="s">
         <v>9</v>
       </c>
@@ -7576,13 +7576,13 @@
       <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" customWidth="1"/>
-    <col min="2" max="13" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="34.625" customWidth="1"/>
+    <col min="2" max="13" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="15.65" x14ac:dyDescent="0.2">
       <c r="A1" s="91" t="s">
         <v>26</v>
       </c>
@@ -8201,7 +8201,7 @@
       <c r="L20" s="22"/>
       <c r="M20" s="22"/>
     </row>
-    <row r="21" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="26.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="90" t="s">
         <v>9</v>
       </c>
@@ -8274,16 +8274,16 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" customWidth="1"/>
-    <col min="2" max="13" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="34.625" customWidth="1"/>
+    <col min="2" max="13" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="15.65" x14ac:dyDescent="0.2">
       <c r="A1" s="91" t="s">
         <v>26</v>
       </c>
@@ -8469,7 +8469,9 @@
       <c r="D10" s="40">
         <v>3819</v>
       </c>
-      <c r="E10" s="40"/>
+      <c r="E10" s="40">
+        <v>3822</v>
+      </c>
       <c r="F10" s="40"/>
       <c r="G10" s="40"/>
       <c r="H10" s="40"/>
@@ -8492,7 +8494,9 @@
       <c r="D11" s="40">
         <v>128</v>
       </c>
-      <c r="E11" s="40"/>
+      <c r="E11" s="40">
+        <v>125</v>
+      </c>
       <c r="F11" s="40"/>
       <c r="G11" s="40"/>
       <c r="H11" s="40"/>
@@ -8515,7 +8519,9 @@
       <c r="D12" s="40">
         <v>15826</v>
       </c>
-      <c r="E12" s="40"/>
+      <c r="E12" s="40">
+        <v>15861</v>
+      </c>
       <c r="F12" s="40"/>
       <c r="G12" s="40"/>
       <c r="H12" s="40"/>
@@ -8538,7 +8544,9 @@
       <c r="D13" s="40">
         <v>12874</v>
       </c>
-      <c r="E13" s="40"/>
+      <c r="E13" s="40">
+        <v>12927</v>
+      </c>
       <c r="F13" s="40"/>
       <c r="G13" s="40"/>
       <c r="H13" s="40"/>
@@ -8561,7 +8569,9 @@
       <c r="D14" s="40">
         <v>191</v>
       </c>
-      <c r="E14" s="40"/>
+      <c r="E14" s="40">
+        <v>192</v>
+      </c>
       <c r="F14" s="40"/>
       <c r="G14" s="40"/>
       <c r="H14" s="40"/>
@@ -8584,7 +8594,9 @@
       <c r="D15" s="40">
         <v>31715</v>
       </c>
-      <c r="E15" s="40"/>
+      <c r="E15" s="40">
+        <v>31780</v>
+      </c>
       <c r="F15" s="40"/>
       <c r="G15" s="40"/>
       <c r="H15" s="40"/>
@@ -8607,7 +8619,9 @@
       <c r="D16" s="40">
         <v>6164</v>
       </c>
-      <c r="E16" s="40"/>
+      <c r="E16" s="40">
+        <v>6174</v>
+      </c>
       <c r="F16" s="40"/>
       <c r="G16" s="40"/>
       <c r="H16" s="40"/>
@@ -8630,7 +8644,9 @@
       <c r="D17" s="40">
         <v>33259</v>
       </c>
-      <c r="E17" s="40"/>
+      <c r="E17" s="40">
+        <v>33351</v>
+      </c>
       <c r="F17" s="40"/>
       <c r="G17" s="40"/>
       <c r="H17" s="40"/>
@@ -8658,7 +8674,7 @@
       </c>
       <c r="E18" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>104232</v>
       </c>
       <c r="F18" s="20">
         <f t="shared" si="0"/>
@@ -8711,11 +8727,11 @@
       </c>
       <c r="E19" s="83">
         <f t="shared" si="1"/>
+        <v>0.24621066399939107</v>
+      </c>
+      <c r="F19" s="83">
+        <f t="shared" si="1"/>
         <v>-100</v>
-      </c>
-      <c r="F19" s="83" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="G19" s="83" t="e">
         <f t="shared" si="1"/>
@@ -8758,7 +8774,7 @@
       <c r="L20" s="22"/>
       <c r="M20" s="22"/>
     </row>
-    <row r="21" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="26.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="90" t="s">
         <v>9</v>
       </c>
@@ -8834,14 +8850,14 @@
       <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" customWidth="1"/>
-    <col min="2" max="13" width="9.28515625" customWidth="1"/>
-    <col min="14" max="23" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.625" customWidth="1"/>
+    <col min="2" max="13" width="9.25" customWidth="1"/>
+    <col min="14" max="23" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" s="2" customFormat="1" ht="18.350000000000001" x14ac:dyDescent="0.2">
       <c r="A1" s="91" t="s">
         <v>27</v>
       </c>
@@ -9026,7 +9042,7 @@
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
     </row>
-    <row r="8" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" s="1" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="100" t="s">
         <v>10</v>
       </c>
@@ -9045,7 +9061,7 @@
       <c r="L8" s="100"/>
       <c r="M8" s="100"/>
     </row>
-    <row r="9" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" s="1" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="100"/>
       <c r="B9" s="45" t="s">
         <v>14</v>
@@ -9084,7 +9100,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" s="1" customFormat="1" ht="13.6" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
         <v>0</v>
       </c>
@@ -9125,7 +9141,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="41" t="s">
         <v>1</v>
       </c>
@@ -9166,7 +9182,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="41" t="s">
         <v>2</v>
       </c>
@@ -9207,7 +9223,7 @@
         <v>13491</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="41" t="s">
         <v>3</v>
       </c>
@@ -9248,7 +9264,7 @@
         <v>7964</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="41" t="s">
         <v>4</v>
       </c>
@@ -9289,7 +9305,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="41" t="s">
         <v>5</v>
       </c>
@@ -9330,7 +9346,7 @@
         <v>22804</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="41" t="s">
         <v>6</v>
       </c>
@@ -9371,7 +9387,7 @@
         <v>5603</v>
       </c>
     </row>
-    <row r="17" spans="1:106" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:106" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="41" t="s">
         <v>7</v>
       </c>
@@ -9412,7 +9428,7 @@
         <v>22287</v>
       </c>
     </row>
-    <row r="18" spans="1:106" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:106" s="1" customFormat="1" ht="18.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
         <v>11</v>
       </c>
@@ -9465,7 +9481,7 @@
         <v>74287</v>
       </c>
     </row>
-    <row r="19" spans="1:106" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:106" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
         <v>25</v>
       </c>
@@ -9610,8 +9626,8 @@
       <c r="DA19" s="13"/>
       <c r="DB19" s="13"/>
     </row>
-    <row r="20" spans="1:106" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:106" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:106" ht="10.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:106" ht="39.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="90" t="s">
         <v>9</v>
       </c>
@@ -9643,7 +9659,7 @@
       <c r="L22" s="12"/>
       <c r="M22" s="15"/>
     </row>
-    <row r="23" spans="1:106" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:106" s="16" customFormat="1" ht="10.9" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>28</v>
       </c>
@@ -9660,7 +9676,7 @@
       <c r="L23" s="18"/>
       <c r="M23" s="18"/>
     </row>
-    <row r="24" spans="1:106" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:106" ht="9.6999999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
     </row>
     <row r="28" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9721,14 +9737,14 @@
       <selection activeCell="A10" sqref="A10:M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" customWidth="1"/>
-    <col min="2" max="13" width="9.28515625" customWidth="1"/>
-    <col min="14" max="23" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.625" customWidth="1"/>
+    <col min="2" max="13" width="9.25" customWidth="1"/>
+    <col min="14" max="23" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" s="2" customFormat="1" ht="18.350000000000001" x14ac:dyDescent="0.2">
       <c r="A1" s="91" t="s">
         <v>27</v>
       </c>
@@ -9913,7 +9929,7 @@
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
     </row>
-    <row r="8" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" s="17" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="100" t="s">
         <v>10</v>
       </c>
@@ -9932,7 +9948,7 @@
       <c r="L8" s="100"/>
       <c r="M8" s="100"/>
     </row>
-    <row r="9" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" s="17" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="100"/>
       <c r="B9" s="45" t="s">
         <v>14</v>
@@ -9971,7 +9987,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" s="17" customFormat="1" ht="13.6" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
         <v>0</v>
       </c>
@@ -10012,7 +10028,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="41" t="s">
         <v>1</v>
       </c>
@@ -10053,7 +10069,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="41" t="s">
         <v>2</v>
       </c>
@@ -10094,7 +10110,7 @@
         <v>13095</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="41" t="s">
         <v>3</v>
       </c>
@@ -10135,7 +10151,7 @@
         <v>7671</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="41" t="s">
         <v>4</v>
       </c>
@@ -10176,7 +10192,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="41" t="s">
         <v>5</v>
       </c>
@@ -10217,7 +10233,7 @@
         <v>22958</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="41" t="s">
         <v>6</v>
       </c>
@@ -10258,7 +10274,7 @@
         <v>5344</v>
       </c>
     </row>
-    <row r="17" spans="1:106" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:106" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="41" t="s">
         <v>7</v>
       </c>
@@ -10299,7 +10315,7 @@
         <v>22575</v>
       </c>
     </row>
-    <row r="18" spans="1:106" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:106" s="17" customFormat="1" ht="18.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
         <v>11</v>
       </c>
@@ -10352,7 +10368,7 @@
         <v>73791</v>
       </c>
     </row>
-    <row r="19" spans="1:106" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:106" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
         <v>25</v>
       </c>
@@ -10498,8 +10514,8 @@
       <c r="DA19" s="13"/>
       <c r="DB19" s="13"/>
     </row>
-    <row r="20" spans="1:106" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:106" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:106" ht="10.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:106" ht="46.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="90" t="s">
         <v>9</v>
       </c>
@@ -10531,7 +10547,7 @@
       <c r="L22" s="12"/>
       <c r="M22" s="15"/>
     </row>
-    <row r="23" spans="1:106" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:106" s="16" customFormat="1" ht="10.9" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>28</v>
       </c>
@@ -10548,7 +10564,7 @@
       <c r="L23" s="19"/>
       <c r="M23" s="19"/>
     </row>
-    <row r="24" spans="1:106" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:106" ht="9.6999999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
     </row>
     <row r="28" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10609,14 +10625,14 @@
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" customWidth="1"/>
-    <col min="2" max="13" width="9.28515625" customWidth="1"/>
-    <col min="14" max="23" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.625" customWidth="1"/>
+    <col min="2" max="13" width="9.25" customWidth="1"/>
+    <col min="14" max="23" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" s="2" customFormat="1" ht="18.350000000000001" x14ac:dyDescent="0.2">
       <c r="A1" s="91" t="s">
         <v>27</v>
       </c>
@@ -10801,7 +10817,7 @@
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
     </row>
-    <row r="8" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" s="17" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="100" t="s">
         <v>10</v>
       </c>
@@ -10820,7 +10836,7 @@
       <c r="L8" s="100"/>
       <c r="M8" s="100"/>
     </row>
-    <row r="9" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" s="17" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="100"/>
       <c r="B9" s="45" t="s">
         <v>14</v>
@@ -10859,7 +10875,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" s="17" customFormat="1" ht="13.6" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
         <v>0</v>
       </c>
@@ -10900,7 +10916,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="41" t="s">
         <v>1</v>
       </c>
@@ -10941,7 +10957,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="41" t="s">
         <v>2</v>
       </c>
@@ -10982,7 +10998,7 @@
         <v>13168</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="41" t="s">
         <v>3</v>
       </c>
@@ -11023,7 +11039,7 @@
         <v>7663</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="41" t="s">
         <v>4</v>
       </c>
@@ -11064,7 +11080,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="41" t="s">
         <v>5</v>
       </c>
@@ -11105,7 +11121,7 @@
         <v>23341</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="41" t="s">
         <v>6</v>
       </c>
@@ -11146,7 +11162,7 @@
         <v>5328</v>
       </c>
     </row>
-    <row r="17" spans="1:106" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:106" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="41" t="s">
         <v>7</v>
       </c>
@@ -11187,7 +11203,7 @@
         <v>23027</v>
       </c>
     </row>
-    <row r="18" spans="1:106" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:106" s="17" customFormat="1" ht="18.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
         <v>11</v>
       </c>
@@ -11240,7 +11256,7 @@
         <v>74713</v>
       </c>
     </row>
-    <row r="19" spans="1:106" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:106" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
         <v>25</v>
       </c>
@@ -11386,8 +11402,8 @@
       <c r="DA19" s="13"/>
       <c r="DB19" s="13"/>
     </row>
-    <row r="20" spans="1:106" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:106" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:106" ht="10.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:106" ht="46.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="90" t="s">
         <v>9</v>
       </c>
@@ -11419,7 +11435,7 @@
       <c r="L22" s="15"/>
       <c r="M22" s="15"/>
     </row>
-    <row r="23" spans="1:106" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:106" s="5" customFormat="1" ht="10.9" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>28</v>
       </c>
@@ -11436,7 +11452,7 @@
       <c r="L23" s="18"/>
       <c r="M23" s="18"/>
     </row>
-    <row r="24" spans="1:106" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:106" ht="9.6999999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
     </row>
     <row r="25" spans="1:106" x14ac:dyDescent="0.2">
@@ -11510,14 +11526,14 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" customWidth="1"/>
-    <col min="2" max="13" width="9.28515625" customWidth="1"/>
-    <col min="14" max="23" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.625" customWidth="1"/>
+    <col min="2" max="13" width="9.25" customWidth="1"/>
+    <col min="14" max="23" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" s="2" customFormat="1" ht="18.350000000000001" x14ac:dyDescent="0.2">
       <c r="A1" s="91" t="s">
         <v>27</v>
       </c>
@@ -11702,7 +11718,7 @@
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
     </row>
-    <row r="8" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" s="17" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="100" t="s">
         <v>10</v>
       </c>
@@ -11721,7 +11737,7 @@
       <c r="L8" s="100"/>
       <c r="M8" s="100"/>
     </row>
-    <row r="9" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" s="17" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="100"/>
       <c r="B9" s="45" t="s">
         <v>14</v>
@@ -11760,7 +11776,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" s="17" customFormat="1" ht="13.6" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
         <v>0</v>
       </c>
@@ -11801,7 +11817,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="41" t="s">
         <v>1</v>
       </c>
@@ -11842,7 +11858,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="41" t="s">
         <v>2</v>
       </c>
@@ -11883,7 +11899,7 @@
         <v>13135</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="41" t="s">
         <v>3</v>
       </c>
@@ -11924,7 +11940,7 @@
         <v>7755</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="41" t="s">
         <v>4</v>
       </c>
@@ -11965,7 +11981,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="41" t="s">
         <v>5</v>
       </c>
@@ -12006,7 +12022,7 @@
         <v>23679</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="41" t="s">
         <v>6</v>
       </c>
@@ -12047,7 +12063,7 @@
         <v>5324</v>
       </c>
     </row>
-    <row r="17" spans="1:106" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:106" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="41" t="s">
         <v>7</v>
       </c>
@@ -12088,7 +12104,7 @@
         <v>23456</v>
       </c>
     </row>
-    <row r="18" spans="1:106" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:106" s="17" customFormat="1" ht="18.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
         <v>11</v>
       </c>
@@ -12141,7 +12157,7 @@
         <v>75571</v>
       </c>
     </row>
-    <row r="19" spans="1:106" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:106" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
         <v>25</v>
       </c>
@@ -12287,8 +12303,8 @@
       <c r="DA19" s="13"/>
       <c r="DB19" s="13"/>
     </row>
-    <row r="20" spans="1:106" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:106" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:106" ht="10.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:106" ht="46.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="90" t="s">
         <v>9</v>
       </c>
@@ -12320,7 +12336,7 @@
       <c r="L22" s="12"/>
       <c r="M22" s="15"/>
     </row>
-    <row r="23" spans="1:106" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:106" s="5" customFormat="1" ht="10.9" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>28</v>
       </c>
@@ -12337,7 +12353,7 @@
       <c r="L23" s="18"/>
       <c r="M23" s="18"/>
     </row>
-    <row r="24" spans="1:106" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:106" ht="9.6999999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
     </row>
     <row r="28" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12410,16 +12426,16 @@
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" customWidth="1"/>
-    <col min="2" max="3" width="9.28515625" customWidth="1"/>
-    <col min="4" max="12" width="9.28515625" style="22" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" customWidth="1"/>
-    <col min="14" max="23" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.625" customWidth="1"/>
+    <col min="2" max="3" width="9.25" customWidth="1"/>
+    <col min="4" max="12" width="9.25" style="22" customWidth="1"/>
+    <col min="13" max="13" width="9.25" customWidth="1"/>
+    <col min="14" max="23" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" s="2" customFormat="1" ht="18.350000000000001" x14ac:dyDescent="0.2">
       <c r="A1" s="91" t="s">
         <v>27</v>
       </c>
@@ -12604,7 +12620,7 @@
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
     </row>
-    <row r="8" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" s="17" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="100" t="s">
         <v>10</v>
       </c>
@@ -12623,7 +12639,7 @@
       <c r="L8" s="102"/>
       <c r="M8" s="102"/>
     </row>
-    <row r="9" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" s="17" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="100"/>
       <c r="B9" s="45" t="s">
         <v>14</v>
@@ -12662,7 +12678,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" s="17" customFormat="1" ht="13.6" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
         <v>0</v>
       </c>
@@ -12703,7 +12719,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="41" t="s">
         <v>1</v>
       </c>
@@ -12744,7 +12760,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="41" t="s">
         <v>2</v>
       </c>
@@ -12785,7 +12801,7 @@
         <v>13165</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="41" t="s">
         <v>3</v>
       </c>
@@ -12826,7 +12842,7 @@
         <v>8044</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="41" t="s">
         <v>4</v>
       </c>
@@ -12867,7 +12883,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="41" t="s">
         <v>5</v>
       </c>
@@ -12908,7 +12924,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="41" t="s">
         <v>6</v>
       </c>
@@ -12949,7 +12965,7 @@
         <v>5452</v>
       </c>
     </row>
-    <row r="17" spans="1:106" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:106" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="41" t="s">
         <v>7</v>
       </c>
@@ -12990,7 +13006,7 @@
         <v>24330</v>
       </c>
     </row>
-    <row r="18" spans="1:106" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:106" s="17" customFormat="1" ht="18.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
         <v>11</v>
       </c>
@@ -13043,7 +13059,7 @@
         <v>77290</v>
       </c>
     </row>
-    <row r="19" spans="1:106" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:106" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
         <v>25</v>
       </c>
@@ -13189,8 +13205,8 @@
       <c r="DA19" s="13"/>
       <c r="DB19" s="13"/>
     </row>
-    <row r="20" spans="1:106" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:106" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:106" ht="10.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:106" ht="46.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="90" t="s">
         <v>9</v>
       </c>
@@ -13222,7 +13238,7 @@
       <c r="L22" s="23"/>
       <c r="M22" s="15"/>
     </row>
-    <row r="23" spans="1:106" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:106" s="5" customFormat="1" ht="10.9" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>28</v>
       </c>
@@ -13239,7 +13255,7 @@
       <c r="L23" s="24"/>
       <c r="M23" s="18"/>
     </row>
-    <row r="24" spans="1:106" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:106" ht="9.6999999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
     </row>
     <row r="28" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13312,15 +13328,15 @@
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" customWidth="1"/>
-    <col min="2" max="3" width="9.28515625" customWidth="1"/>
-    <col min="4" max="13" width="9.28515625" style="22" customWidth="1"/>
-    <col min="14" max="23" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.625" customWidth="1"/>
+    <col min="2" max="3" width="9.25" customWidth="1"/>
+    <col min="4" max="13" width="9.25" style="22" customWidth="1"/>
+    <col min="14" max="23" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" s="2" customFormat="1" ht="15.65" x14ac:dyDescent="0.2">
       <c r="A1" s="91" t="s">
         <v>26</v>
       </c>
@@ -13505,7 +13521,7 @@
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
     </row>
-    <row r="8" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" s="17" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="100" t="s">
         <v>10</v>
       </c>
@@ -13524,7 +13540,7 @@
       <c r="L8" s="102"/>
       <c r="M8" s="102"/>
     </row>
-    <row r="9" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" s="17" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="100"/>
       <c r="B9" s="45" t="s">
         <v>14</v>
@@ -13563,7 +13579,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" s="17" customFormat="1" ht="13.6" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
         <v>0</v>
       </c>
@@ -13604,7 +13620,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="41" t="s">
         <v>1</v>
       </c>
@@ -13645,7 +13661,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="41" t="s">
         <v>2</v>
       </c>
@@ -13686,7 +13702,7 @@
         <v>13135</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="41" t="s">
         <v>3</v>
       </c>
@@ -13727,7 +13743,7 @@
         <v>8121</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="41" t="s">
         <v>4</v>
       </c>
@@ -13768,7 +13784,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="41" t="s">
         <v>5</v>
       </c>
@@ -13809,7 +13825,7 @@
         <v>24338</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="41" t="s">
         <v>6</v>
       </c>
@@ -13850,7 +13866,7 @@
         <v>5519</v>
       </c>
     </row>
-    <row r="17" spans="1:106" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:106" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="41" t="s">
         <v>7</v>
       </c>
@@ -13891,7 +13907,7 @@
         <v>24632</v>
       </c>
     </row>
-    <row r="18" spans="1:106" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:106" s="17" customFormat="1" ht="18.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
         <v>11</v>
       </c>
@@ -13944,7 +13960,7 @@
         <v>78051</v>
       </c>
     </row>
-    <row r="19" spans="1:106" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:106" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
         <v>25</v>
       </c>
@@ -14090,8 +14106,8 @@
       <c r="DA19" s="13"/>
       <c r="DB19" s="13"/>
     </row>
-    <row r="20" spans="1:106" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:106" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:106" ht="10.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:106" ht="46.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="90" t="s">
         <v>9</v>
       </c>
@@ -14123,7 +14139,7 @@
       <c r="L22" s="23"/>
       <c r="M22" s="23"/>
     </row>
-    <row r="23" spans="1:106" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:106" s="5" customFormat="1" ht="10.9" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>28</v>
       </c>
@@ -14140,7 +14156,7 @@
       <c r="L23" s="24"/>
       <c r="M23" s="24"/>
     </row>
-    <row r="24" spans="1:106" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:106" ht="9.6999999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
     </row>
     <row r="28" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14213,15 +14229,15 @@
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" customWidth="1"/>
-    <col min="2" max="3" width="9.28515625" customWidth="1"/>
-    <col min="4" max="13" width="9.28515625" style="22" customWidth="1"/>
-    <col min="14" max="22" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="35.25" customWidth="1"/>
+    <col min="2" max="3" width="9.25" customWidth="1"/>
+    <col min="4" max="13" width="9.25" style="22" customWidth="1"/>
+    <col min="14" max="22" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" s="2" customFormat="1" ht="15.65" x14ac:dyDescent="0.2">
       <c r="A1" s="91" t="s">
         <v>26</v>
       </c>
@@ -14399,7 +14415,7 @@
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
     </row>
-    <row r="8" spans="1:22" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" s="17" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="100" t="s">
         <v>10</v>
       </c>
@@ -14418,7 +14434,7 @@
       <c r="L8" s="102"/>
       <c r="M8" s="102"/>
     </row>
-    <row r="9" spans="1:22" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" s="17" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="100"/>
       <c r="B9" s="45" t="s">
         <v>14</v>
@@ -14457,7 +14473,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" s="17" customFormat="1" ht="13.6" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
         <v>0</v>
       </c>
@@ -14498,7 +14514,7 @@
         <v>2249</v>
       </c>
     </row>
-    <row r="11" spans="1:22" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="41" t="s">
         <v>1</v>
       </c>
@@ -14539,7 +14555,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:22" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="41" t="s">
         <v>2</v>
       </c>
@@ -14580,7 +14596,7 @@
         <v>13305</v>
       </c>
     </row>
-    <row r="13" spans="1:22" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="41" t="s">
         <v>3</v>
       </c>
@@ -14621,7 +14637,7 @@
         <v>8541</v>
       </c>
     </row>
-    <row r="14" spans="1:22" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="41" t="s">
         <v>4</v>
       </c>
@@ -14662,7 +14678,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:22" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="41" t="s">
         <v>5</v>
       </c>
@@ -14703,7 +14719,7 @@
         <v>24640</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="41" t="s">
         <v>6</v>
       </c>
@@ -14744,7 +14760,7 @@
         <v>5798</v>
       </c>
     </row>
-    <row r="17" spans="1:105" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:105" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="41" t="s">
         <v>7</v>
       </c>
@@ -14785,7 +14801,7 @@
         <v>25234</v>
       </c>
     </row>
-    <row r="18" spans="1:105" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:105" s="17" customFormat="1" ht="18.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
         <v>11</v>
       </c>
@@ -14838,7 +14854,7 @@
         <v>79961</v>
       </c>
     </row>
-    <row r="19" spans="1:105" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:105" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
         <v>25</v>
       </c>
@@ -14983,8 +14999,8 @@
       <c r="CZ19" s="13"/>
       <c r="DA19" s="13"/>
     </row>
-    <row r="20" spans="1:105" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:105" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:105" ht="10.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:105" ht="46.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="90" t="s">
         <v>9</v>
       </c>
@@ -15016,7 +15032,7 @@
       <c r="L22" s="23"/>
       <c r="M22" s="23"/>
     </row>
-    <row r="23" spans="1:105" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:105" s="5" customFormat="1" ht="10.9" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>28</v>
       </c>
@@ -15033,7 +15049,7 @@
       <c r="L23" s="24"/>
       <c r="M23" s="24"/>
     </row>
-    <row r="24" spans="1:105" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:105" ht="9.6999999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
     </row>
     <row r="26" spans="1:105" x14ac:dyDescent="0.2">
@@ -15112,15 +15128,15 @@
       <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" customWidth="1"/>
-    <col min="2" max="3" width="9.28515625" customWidth="1"/>
-    <col min="4" max="13" width="9.28515625" style="22" customWidth="1"/>
-    <col min="14" max="21" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="35.25" customWidth="1"/>
+    <col min="2" max="3" width="9.25" customWidth="1"/>
+    <col min="4" max="13" width="9.25" style="22" customWidth="1"/>
+    <col min="14" max="21" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15.65" x14ac:dyDescent="0.2">
       <c r="A1" s="91" t="s">
         <v>26</v>
       </c>
@@ -15277,7 +15293,7 @@
       <c r="M7" s="101"/>
       <c r="U7" s="5"/>
     </row>
-    <row r="8" spans="1:21" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" s="17" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="100" t="s">
         <v>10</v>
       </c>
@@ -15296,7 +15312,7 @@
       <c r="L8" s="102"/>
       <c r="M8" s="102"/>
     </row>
-    <row r="9" spans="1:21" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" s="17" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="100"/>
       <c r="B9" s="56" t="s">
         <v>14</v>
@@ -15342,7 +15358,7 @@
       <c r="S9"/>
       <c r="T9"/>
     </row>
-    <row r="10" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" s="17" customFormat="1" ht="13.6" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
         <v>0</v>
       </c>
@@ -15390,7 +15406,7 @@
       <c r="S10"/>
       <c r="T10"/>
     </row>
-    <row r="11" spans="1:21" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="41" t="s">
         <v>1</v>
       </c>
@@ -15438,7 +15454,7 @@
       <c r="S11"/>
       <c r="T11"/>
     </row>
-    <row r="12" spans="1:21" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="41" t="s">
         <v>2</v>
       </c>
@@ -15486,7 +15502,7 @@
       <c r="S12"/>
       <c r="T12"/>
     </row>
-    <row r="13" spans="1:21" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="41" t="s">
         <v>3</v>
       </c>
@@ -15534,7 +15550,7 @@
       <c r="S13"/>
       <c r="T13"/>
     </row>
-    <row r="14" spans="1:21" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="41" t="s">
         <v>4</v>
       </c>
@@ -15582,7 +15598,7 @@
       <c r="S14"/>
       <c r="T14"/>
     </row>
-    <row r="15" spans="1:21" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="41" t="s">
         <v>5</v>
       </c>
@@ -15630,7 +15646,7 @@
       <c r="S15"/>
       <c r="T15"/>
     </row>
-    <row r="16" spans="1:21" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="41" t="s">
         <v>6</v>
       </c>
@@ -15678,7 +15694,7 @@
       <c r="S16"/>
       <c r="T16"/>
     </row>
-    <row r="17" spans="1:104" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:104" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="41" t="s">
         <v>7</v>
       </c>
@@ -15726,7 +15742,7 @@
       <c r="S17"/>
       <c r="T17"/>
     </row>
-    <row r="18" spans="1:104" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:104" s="17" customFormat="1" ht="18.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
         <v>11</v>
       </c>
@@ -15793,7 +15809,7 @@
       <c r="Z18" s="13"/>
       <c r="AA18" s="13"/>
     </row>
-    <row r="19" spans="1:104" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:104" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
         <v>25</v>
       </c>
@@ -15937,8 +15953,8 @@
       <c r="CY19" s="13"/>
       <c r="CZ19" s="13"/>
     </row>
-    <row r="20" spans="1:104" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:104" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:104" ht="10.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:104" ht="46.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="90" t="s">
         <v>9</v>
       </c>
@@ -16015,7 +16031,7 @@
       <c r="Z23"/>
       <c r="AA23"/>
     </row>
-    <row r="24" spans="1:104" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:104" ht="9.6999999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
     </row>
     <row r="26" spans="1:104" x14ac:dyDescent="0.2">

--- a/Tabulados/Patrones.xlsx
+++ b/Tabulados/Patrones.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\UEF\Actualizaciones pagina\Tabulados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susana.galindo\Documents\GitHub\SIE\Tabulados\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -207,10 +207,10 @@
     <t>2008-2022</t>
   </si>
   <si>
-    <t>Var Abr 2022 respecto a Dic 2021</t>
+    <t>Var Mayo 2022 respecto a Abril 2022</t>
   </si>
   <si>
-    <t>Var Abr 2022 respecto a Mar 2022</t>
+    <t>Var Mayo 2022 respecto a Diciembre 2021</t>
   </si>
 </sst>
 </file>
@@ -3009,7 +3009,7 @@
   <dimension ref="A1:BK24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
@@ -3267,13 +3267,13 @@
       </c>
       <c r="Q8" s="99"/>
       <c r="R8" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="S8" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="S8" s="97" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:24" s="7" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="94"/>
       <c r="B9" s="47" t="s">
         <v>13</v>
@@ -3318,10 +3318,10 @@
         <v>13</v>
       </c>
       <c r="P9" s="85" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q9" s="85" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R9" s="98"/>
       <c r="S9" s="98"/>
@@ -3373,18 +3373,18 @@
         <v>3768</v>
       </c>
       <c r="P10" s="86">
-        <v>3819</v>
+        <v>3822</v>
       </c>
       <c r="Q10" s="86">
-        <v>3822</v>
+        <v>3839</v>
       </c>
       <c r="R10" s="86">
         <f>Q10-P10</f>
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="S10" s="40">
         <f>Q10-O10</f>
-        <v>54</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:24" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3434,14 +3434,14 @@
         <v>130</v>
       </c>
       <c r="P11" s="87">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="Q11" s="87">
         <v>125</v>
       </c>
       <c r="R11" s="86">
         <f t="shared" ref="R11:R17" si="0">Q11-P11</f>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="S11" s="40">
         <f t="shared" ref="S11:S17" si="1">Q11-O11</f>
@@ -3495,18 +3495,18 @@
         <v>15776</v>
       </c>
       <c r="P12" s="86">
-        <v>15826</v>
+        <v>15861</v>
       </c>
       <c r="Q12" s="86">
-        <v>15861</v>
+        <v>15898</v>
       </c>
       <c r="R12" s="86">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S12" s="40">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:24" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3556,18 +3556,18 @@
         <v>12726</v>
       </c>
       <c r="P13" s="87">
-        <v>12874</v>
+        <v>12927</v>
       </c>
       <c r="Q13" s="87">
-        <v>12927</v>
+        <v>13034</v>
       </c>
       <c r="R13" s="86">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="S13" s="40">
         <f t="shared" si="1"/>
-        <v>201</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:24" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3617,18 +3617,18 @@
         <v>185</v>
       </c>
       <c r="P14" s="86">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q14" s="86">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="R14" s="86">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S14" s="40">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:24" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3678,18 +3678,18 @@
         <v>31572</v>
       </c>
       <c r="P15" s="87">
-        <v>31715</v>
+        <v>31780</v>
       </c>
       <c r="Q15" s="87">
-        <v>31780</v>
+        <v>31821</v>
       </c>
       <c r="R15" s="86">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="S15" s="40">
         <f t="shared" si="1"/>
-        <v>208</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:24" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3739,18 +3739,18 @@
         <v>6149</v>
       </c>
       <c r="P16" s="86">
-        <v>6164</v>
+        <v>6174</v>
       </c>
       <c r="Q16" s="86">
-        <v>6174</v>
+        <v>6200</v>
       </c>
       <c r="R16" s="86">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="S16" s="40">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:63" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3800,18 +3800,18 @@
         <v>32945</v>
       </c>
       <c r="P17" s="87">
-        <v>33259</v>
+        <v>33351</v>
       </c>
       <c r="Q17" s="87">
-        <v>33351</v>
+        <v>33464</v>
       </c>
       <c r="R17" s="86">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="S17" s="40">
         <f t="shared" si="1"/>
-        <v>406</v>
+        <v>519</v>
       </c>
     </row>
     <row r="18" spans="1:63" s="7" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
@@ -3875,19 +3875,19 @@
       </c>
       <c r="P18" s="20">
         <f>SUM(P10:P17)</f>
-        <v>103976</v>
+        <v>104232</v>
       </c>
       <c r="Q18" s="20">
         <f>SUM(Q10:Q17)</f>
-        <v>104232</v>
+        <v>104578</v>
       </c>
       <c r="R18" s="20">
         <f>SUM(R10:R17)</f>
-        <v>256</v>
+        <v>346</v>
       </c>
       <c r="S18" s="20">
         <f>SUM(S10:S17)</f>
-        <v>981</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="19" spans="1:63" ht="9" customHeight="1" x14ac:dyDescent="0.2">
@@ -8274,7 +8274,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
@@ -8472,7 +8472,9 @@
       <c r="E10" s="40">
         <v>3822</v>
       </c>
-      <c r="F10" s="40"/>
+      <c r="F10" s="40">
+        <v>3839</v>
+      </c>
       <c r="G10" s="40"/>
       <c r="H10" s="40"/>
       <c r="I10" s="40"/>
@@ -8497,7 +8499,9 @@
       <c r="E11" s="40">
         <v>125</v>
       </c>
-      <c r="F11" s="40"/>
+      <c r="F11" s="40">
+        <v>125</v>
+      </c>
       <c r="G11" s="40"/>
       <c r="H11" s="40"/>
       <c r="I11" s="40"/>
@@ -8522,7 +8526,9 @@
       <c r="E12" s="40">
         <v>15861</v>
       </c>
-      <c r="F12" s="40"/>
+      <c r="F12" s="40">
+        <v>15898</v>
+      </c>
       <c r="G12" s="40"/>
       <c r="H12" s="40"/>
       <c r="I12" s="40"/>
@@ -8547,7 +8553,9 @@
       <c r="E13" s="40">
         <v>12927</v>
       </c>
-      <c r="F13" s="40"/>
+      <c r="F13" s="40">
+        <v>13034</v>
+      </c>
       <c r="G13" s="40"/>
       <c r="H13" s="40"/>
       <c r="I13" s="40"/>
@@ -8572,7 +8580,9 @@
       <c r="E14" s="40">
         <v>192</v>
       </c>
-      <c r="F14" s="40"/>
+      <c r="F14" s="40">
+        <v>197</v>
+      </c>
       <c r="G14" s="40"/>
       <c r="H14" s="40"/>
       <c r="I14" s="40"/>
@@ -8597,7 +8607,9 @@
       <c r="E15" s="40">
         <v>31780</v>
       </c>
-      <c r="F15" s="40"/>
+      <c r="F15" s="40">
+        <v>31821</v>
+      </c>
       <c r="G15" s="40"/>
       <c r="H15" s="40"/>
       <c r="I15" s="40"/>
@@ -8622,7 +8634,9 @@
       <c r="E16" s="40">
         <v>6174</v>
       </c>
-      <c r="F16" s="40"/>
+      <c r="F16" s="40">
+        <v>6200</v>
+      </c>
       <c r="G16" s="40"/>
       <c r="H16" s="40"/>
       <c r="I16" s="40"/>
@@ -8647,7 +8661,9 @@
       <c r="E17" s="40">
         <v>33351</v>
       </c>
-      <c r="F17" s="40"/>
+      <c r="F17" s="40">
+        <v>33464</v>
+      </c>
       <c r="G17" s="40"/>
       <c r="H17" s="40"/>
       <c r="I17" s="40"/>
@@ -8678,7 +8694,7 @@
       </c>
       <c r="F18" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>104578</v>
       </c>
       <c r="G18" s="20">
         <f t="shared" si="0"/>
@@ -8731,11 +8747,11 @@
       </c>
       <c r="F19" s="83">
         <f t="shared" si="1"/>
+        <v>0.33195179983114276</v>
+      </c>
+      <c r="G19" s="83">
+        <f t="shared" si="1"/>
         <v>-100</v>
-      </c>
-      <c r="G19" s="83" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="H19" s="83" t="e">
         <f t="shared" si="1"/>

--- a/Tabulados/Patrones.xlsx
+++ b/Tabulados/Patrones.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susana.galindo\Documents\GitHub\SIE\Tabulados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\UEF\Actualizaciones pagina\Tabulados\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -207,10 +207,10 @@
     <t>2008-2022</t>
   </si>
   <si>
-    <t>Var Mayo 2022 respecto a Abril 2022</t>
+    <t>Var Junio 2022 respecto a Mayo 2022</t>
   </si>
   <si>
-    <t>Var Mayo 2022 respecto a Diciembre 2021</t>
+    <t>Var Junio 2022 respecto a Diciembre 2021</t>
   </si>
 </sst>
 </file>
@@ -3009,7 +3009,7 @@
   <dimension ref="A1:BK24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="Q10" sqref="Q10:Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
@@ -3318,10 +3318,10 @@
         <v>13</v>
       </c>
       <c r="P9" s="85" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q9" s="85" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R9" s="98"/>
       <c r="S9" s="98"/>
@@ -3373,18 +3373,18 @@
         <v>3768</v>
       </c>
       <c r="P10" s="86">
-        <v>3822</v>
+        <v>3839</v>
       </c>
       <c r="Q10" s="86">
-        <v>3839</v>
+        <v>3850</v>
       </c>
       <c r="R10" s="86">
         <f>Q10-P10</f>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="S10" s="40">
         <f>Q10-O10</f>
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:24" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3437,15 +3437,15 @@
         <v>125</v>
       </c>
       <c r="Q11" s="87">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R11" s="86">
         <f t="shared" ref="R11:R17" si="0">Q11-P11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11" s="40">
         <f t="shared" ref="S11:S17" si="1">Q11-O11</f>
-        <v>-5</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="12" spans="1:24" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3495,18 +3495,18 @@
         <v>15776</v>
       </c>
       <c r="P12" s="86">
-        <v>15861</v>
+        <v>15898</v>
       </c>
       <c r="Q12" s="86">
-        <v>15898</v>
+        <v>15913</v>
       </c>
       <c r="R12" s="86">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="S12" s="40">
         <f t="shared" si="1"/>
-        <v>122</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:24" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3556,18 +3556,18 @@
         <v>12726</v>
       </c>
       <c r="P13" s="87">
-        <v>12927</v>
+        <v>13034</v>
       </c>
       <c r="Q13" s="87">
-        <v>13034</v>
+        <v>13144</v>
       </c>
       <c r="R13" s="86">
         <f t="shared" si="0"/>
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="S13" s="40">
         <f t="shared" si="1"/>
-        <v>308</v>
+        <v>418</v>
       </c>
     </row>
     <row r="14" spans="1:24" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3617,18 +3617,18 @@
         <v>185</v>
       </c>
       <c r="P14" s="86">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q14" s="86">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="R14" s="86">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>-3</v>
       </c>
       <c r="S14" s="40">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:24" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3678,18 +3678,18 @@
         <v>31572</v>
       </c>
       <c r="P15" s="87">
-        <v>31780</v>
+        <v>31821</v>
       </c>
       <c r="Q15" s="87">
-        <v>31821</v>
+        <v>31885</v>
       </c>
       <c r="R15" s="86">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="S15" s="40">
         <f t="shared" si="1"/>
-        <v>249</v>
+        <v>313</v>
       </c>
     </row>
     <row r="16" spans="1:24" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3739,18 +3739,18 @@
         <v>6149</v>
       </c>
       <c r="P16" s="86">
-        <v>6174</v>
+        <v>6200</v>
       </c>
       <c r="Q16" s="86">
-        <v>6200</v>
+        <v>6210</v>
       </c>
       <c r="R16" s="86">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="S16" s="40">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:63" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3800,18 +3800,18 @@
         <v>32945</v>
       </c>
       <c r="P17" s="87">
-        <v>33351</v>
+        <v>33464</v>
       </c>
       <c r="Q17" s="87">
-        <v>33464</v>
+        <v>33596</v>
       </c>
       <c r="R17" s="86">
         <f t="shared" si="0"/>
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="S17" s="40">
         <f t="shared" si="1"/>
-        <v>519</v>
+        <v>651</v>
       </c>
     </row>
     <row r="18" spans="1:63" s="7" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
@@ -3875,19 +3875,19 @@
       </c>
       <c r="P18" s="20">
         <f>SUM(P10:P17)</f>
-        <v>104232</v>
+        <v>104578</v>
       </c>
       <c r="Q18" s="20">
         <f>SUM(Q10:Q17)</f>
-        <v>104578</v>
+        <v>104918</v>
       </c>
       <c r="R18" s="20">
         <f>SUM(R10:R17)</f>
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="S18" s="20">
         <f>SUM(S10:S17)</f>
-        <v>1327</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="19" spans="1:63" ht="9" customHeight="1" x14ac:dyDescent="0.2">
@@ -8274,7 +8274,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
@@ -8475,7 +8475,9 @@
       <c r="F10" s="40">
         <v>3839</v>
       </c>
-      <c r="G10" s="40"/>
+      <c r="G10" s="40">
+        <v>3850</v>
+      </c>
       <c r="H10" s="40"/>
       <c r="I10" s="40"/>
       <c r="J10" s="40"/>
@@ -8502,7 +8504,9 @@
       <c r="F11" s="40">
         <v>125</v>
       </c>
-      <c r="G11" s="40"/>
+      <c r="G11" s="40">
+        <v>126</v>
+      </c>
       <c r="H11" s="40"/>
       <c r="I11" s="40"/>
       <c r="J11" s="40"/>
@@ -8529,7 +8533,9 @@
       <c r="F12" s="40">
         <v>15898</v>
       </c>
-      <c r="G12" s="40"/>
+      <c r="G12" s="40">
+        <v>15913</v>
+      </c>
       <c r="H12" s="40"/>
       <c r="I12" s="40"/>
       <c r="J12" s="40"/>
@@ -8556,7 +8562,9 @@
       <c r="F13" s="40">
         <v>13034</v>
       </c>
-      <c r="G13" s="40"/>
+      <c r="G13" s="40">
+        <v>13144</v>
+      </c>
       <c r="H13" s="40"/>
       <c r="I13" s="40"/>
       <c r="J13" s="40"/>
@@ -8583,7 +8591,9 @@
       <c r="F14" s="40">
         <v>197</v>
       </c>
-      <c r="G14" s="40"/>
+      <c r="G14" s="40">
+        <v>194</v>
+      </c>
       <c r="H14" s="40"/>
       <c r="I14" s="40"/>
       <c r="J14" s="40"/>
@@ -8610,7 +8620,9 @@
       <c r="F15" s="40">
         <v>31821</v>
       </c>
-      <c r="G15" s="40"/>
+      <c r="G15" s="40">
+        <v>31885</v>
+      </c>
       <c r="H15" s="40"/>
       <c r="I15" s="40"/>
       <c r="J15" s="40"/>
@@ -8637,7 +8649,9 @@
       <c r="F16" s="40">
         <v>6200</v>
       </c>
-      <c r="G16" s="40"/>
+      <c r="G16" s="40">
+        <v>6210</v>
+      </c>
       <c r="H16" s="40"/>
       <c r="I16" s="40"/>
       <c r="J16" s="40"/>
@@ -8664,7 +8678,9 @@
       <c r="F17" s="40">
         <v>33464</v>
       </c>
-      <c r="G17" s="40"/>
+      <c r="G17" s="40">
+        <v>33596</v>
+      </c>
       <c r="H17" s="40"/>
       <c r="I17" s="40"/>
       <c r="J17" s="40"/>
@@ -8698,7 +8714,7 @@
       </c>
       <c r="G18" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>104918</v>
       </c>
       <c r="H18" s="20">
         <f t="shared" si="0"/>
@@ -8751,11 +8767,11 @@
       </c>
       <c r="G19" s="83">
         <f t="shared" si="1"/>
+        <v>0.32511618122359476</v>
+      </c>
+      <c r="H19" s="83">
+        <f t="shared" si="1"/>
         <v>-100</v>
-      </c>
-      <c r="H19" s="83" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="I19" s="83" t="e">
         <f>(I18/H18-1)*100</f>

--- a/Tabulados/Patrones.xlsx
+++ b/Tabulados/Patrones.xlsx
@@ -207,10 +207,10 @@
     <t>2008-2022</t>
   </si>
   <si>
-    <t>Var Junio 2022 respecto a Mayo 2022</t>
+    <t>Var Julio 2022 respecto a Junio 2022</t>
   </si>
   <si>
-    <t>Var Junio 2022 respecto a Diciembre 2021</t>
+    <t>Var Julio 2022 respecto a Diciembre 2021</t>
   </si>
 </sst>
 </file>
@@ -3318,10 +3318,10 @@
         <v>13</v>
       </c>
       <c r="P9" s="85" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="85" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R9" s="98"/>
       <c r="S9" s="98"/>
@@ -3373,18 +3373,18 @@
         <v>3768</v>
       </c>
       <c r="P10" s="86">
-        <v>3839</v>
+        <v>3850</v>
       </c>
       <c r="Q10" s="86">
-        <v>3850</v>
+        <v>3866</v>
       </c>
       <c r="R10" s="86">
         <f>Q10-P10</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="S10" s="40">
         <f>Q10-O10</f>
-        <v>82</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:24" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3434,14 +3434,14 @@
         <v>130</v>
       </c>
       <c r="P11" s="87">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q11" s="87">
         <v>126</v>
       </c>
       <c r="R11" s="86">
         <f t="shared" ref="R11:R17" si="0">Q11-P11</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11" s="40">
         <f t="shared" ref="S11:S17" si="1">Q11-O11</f>
@@ -3495,18 +3495,18 @@
         <v>15776</v>
       </c>
       <c r="P12" s="86">
-        <v>15898</v>
+        <v>15913</v>
       </c>
       <c r="Q12" s="86">
-        <v>15913</v>
+        <v>15942</v>
       </c>
       <c r="R12" s="86">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="S12" s="40">
         <f t="shared" si="1"/>
-        <v>137</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:24" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3556,18 +3556,18 @@
         <v>12726</v>
       </c>
       <c r="P13" s="87">
-        <v>13034</v>
+        <v>13144</v>
       </c>
       <c r="Q13" s="87">
-        <v>13144</v>
+        <v>13181</v>
       </c>
       <c r="R13" s="86">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="S13" s="40">
         <f t="shared" si="1"/>
-        <v>418</v>
+        <v>455</v>
       </c>
     </row>
     <row r="14" spans="1:24" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3617,18 +3617,18 @@
         <v>185</v>
       </c>
       <c r="P14" s="86">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="Q14" s="86">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R14" s="86">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="S14" s="40">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:24" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3678,18 +3678,18 @@
         <v>31572</v>
       </c>
       <c r="P15" s="87">
-        <v>31821</v>
+        <v>31885</v>
       </c>
       <c r="Q15" s="87">
-        <v>31885</v>
+        <v>31886</v>
       </c>
       <c r="R15" s="86">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="S15" s="40">
         <f t="shared" si="1"/>
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="16" spans="1:24" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3739,18 +3739,18 @@
         <v>6149</v>
       </c>
       <c r="P16" s="86">
-        <v>6200</v>
+        <v>6210</v>
       </c>
       <c r="Q16" s="86">
-        <v>6210</v>
+        <v>6198</v>
       </c>
       <c r="R16" s="86">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>-12</v>
       </c>
       <c r="S16" s="40">
         <f t="shared" si="1"/>
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:63" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3800,18 +3800,18 @@
         <v>32945</v>
       </c>
       <c r="P17" s="87">
-        <v>33464</v>
+        <v>33596</v>
       </c>
       <c r="Q17" s="87">
-        <v>33596</v>
+        <v>33686</v>
       </c>
       <c r="R17" s="86">
         <f t="shared" si="0"/>
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="S17" s="40">
         <f t="shared" si="1"/>
-        <v>651</v>
+        <v>741</v>
       </c>
     </row>
     <row r="18" spans="1:63" s="7" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
@@ -3875,19 +3875,19 @@
       </c>
       <c r="P18" s="20">
         <f>SUM(P10:P17)</f>
-        <v>104578</v>
+        <v>104918</v>
       </c>
       <c r="Q18" s="20">
         <f>SUM(Q10:Q17)</f>
-        <v>104918</v>
+        <v>105078</v>
       </c>
       <c r="R18" s="20">
         <f>SUM(R10:R17)</f>
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="S18" s="20">
         <f>SUM(S10:S17)</f>
-        <v>1667</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="19" spans="1:63" ht="9" customHeight="1" x14ac:dyDescent="0.2">
@@ -8274,7 +8274,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
@@ -8478,7 +8478,9 @@
       <c r="G10" s="40">
         <v>3850</v>
       </c>
-      <c r="H10" s="40"/>
+      <c r="H10" s="40">
+        <v>3866</v>
+      </c>
       <c r="I10" s="40"/>
       <c r="J10" s="40"/>
       <c r="K10" s="40"/>
@@ -8507,7 +8509,9 @@
       <c r="G11" s="40">
         <v>126</v>
       </c>
-      <c r="H11" s="40"/>
+      <c r="H11" s="40">
+        <v>126</v>
+      </c>
       <c r="I11" s="40"/>
       <c r="J11" s="40"/>
       <c r="K11" s="40"/>
@@ -8536,7 +8540,9 @@
       <c r="G12" s="40">
         <v>15913</v>
       </c>
-      <c r="H12" s="40"/>
+      <c r="H12" s="40">
+        <v>15942</v>
+      </c>
       <c r="I12" s="40"/>
       <c r="J12" s="40"/>
       <c r="K12" s="40"/>
@@ -8565,7 +8571,9 @@
       <c r="G13" s="40">
         <v>13144</v>
       </c>
-      <c r="H13" s="40"/>
+      <c r="H13" s="40">
+        <v>13181</v>
+      </c>
       <c r="I13" s="40"/>
       <c r="J13" s="40"/>
       <c r="K13" s="40"/>
@@ -8594,7 +8602,9 @@
       <c r="G14" s="40">
         <v>194</v>
       </c>
-      <c r="H14" s="40"/>
+      <c r="H14" s="40">
+        <v>193</v>
+      </c>
       <c r="I14" s="40"/>
       <c r="J14" s="40"/>
       <c r="K14" s="40"/>
@@ -8623,7 +8633,9 @@
       <c r="G15" s="40">
         <v>31885</v>
       </c>
-      <c r="H15" s="40"/>
+      <c r="H15" s="40">
+        <v>31886</v>
+      </c>
       <c r="I15" s="40"/>
       <c r="J15" s="40"/>
       <c r="K15" s="40"/>
@@ -8652,7 +8664,9 @@
       <c r="G16" s="40">
         <v>6210</v>
       </c>
-      <c r="H16" s="40"/>
+      <c r="H16" s="40">
+        <v>6198</v>
+      </c>
       <c r="I16" s="40"/>
       <c r="J16" s="40"/>
       <c r="K16" s="40"/>
@@ -8681,7 +8695,9 @@
       <c r="G17" s="40">
         <v>33596</v>
       </c>
-      <c r="H17" s="40"/>
+      <c r="H17" s="40">
+        <v>33686</v>
+      </c>
       <c r="I17" s="40"/>
       <c r="J17" s="40"/>
       <c r="K17" s="40"/>
@@ -8718,7 +8734,7 @@
       </c>
       <c r="H18" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>105078</v>
       </c>
       <c r="I18" s="20">
         <f t="shared" si="0"/>
@@ -8771,11 +8787,11 @@
       </c>
       <c r="H19" s="83">
         <f t="shared" si="1"/>
+        <v>0.15250004765625658</v>
+      </c>
+      <c r="I19" s="83">
+        <f>(I18/H18-1)*100</f>
         <v>-100</v>
-      </c>
-      <c r="I19" s="83" t="e">
-        <f>(I18/H18-1)*100</f>
-        <v>#DIV/0!</v>
       </c>
       <c r="J19" s="83" t="e">
         <f>(J18/I18-1)*100</f>

--- a/Tabulados/Patrones.xlsx
+++ b/Tabulados/Patrones.xlsx
@@ -207,10 +207,10 @@
     <t>2008-2022</t>
   </si>
   <si>
-    <t>Var Julio 2022 respecto a Junio 2022</t>
+    <t>Var Agosto 2022 respecto a Julio 2022</t>
   </si>
   <si>
-    <t>Var Julio 2022 respecto a Diciembre 2021</t>
+    <t>Var Agosto 2022 respecto a Diciembre 2021</t>
   </si>
 </sst>
 </file>
@@ -3009,7 +3009,7 @@
   <dimension ref="A1:BK24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10:Q17"/>
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
@@ -3318,10 +3318,10 @@
         <v>13</v>
       </c>
       <c r="P9" s="85" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q9" s="85" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R9" s="98"/>
       <c r="S9" s="98"/>
@@ -3373,18 +3373,18 @@
         <v>3768</v>
       </c>
       <c r="P10" s="86">
-        <v>3850</v>
+        <v>3866</v>
       </c>
       <c r="Q10" s="86">
-        <v>3866</v>
+        <v>3895</v>
       </c>
       <c r="R10" s="86">
         <f>Q10-P10</f>
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="S10" s="40">
         <f>Q10-O10</f>
-        <v>98</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:24" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3437,15 +3437,15 @@
         <v>126</v>
       </c>
       <c r="Q11" s="87">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="R11" s="86">
         <f t="shared" ref="R11:R17" si="0">Q11-P11</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S11" s="40">
         <f t="shared" ref="S11:S17" si="1">Q11-O11</f>
-        <v>-4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:24" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3495,18 +3495,18 @@
         <v>15776</v>
       </c>
       <c r="P12" s="86">
-        <v>15913</v>
+        <v>15942</v>
       </c>
       <c r="Q12" s="86">
-        <v>15942</v>
+        <v>15964</v>
       </c>
       <c r="R12" s="86">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="S12" s="40">
         <f t="shared" si="1"/>
-        <v>166</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:24" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3556,18 +3556,18 @@
         <v>12726</v>
       </c>
       <c r="P13" s="87">
-        <v>13144</v>
+        <v>13181</v>
       </c>
       <c r="Q13" s="87">
-        <v>13181</v>
+        <v>13269</v>
       </c>
       <c r="R13" s="86">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="S13" s="40">
         <f t="shared" si="1"/>
-        <v>455</v>
+        <v>543</v>
       </c>
     </row>
     <row r="14" spans="1:24" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3617,18 +3617,18 @@
         <v>185</v>
       </c>
       <c r="P14" s="86">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q14" s="86">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="R14" s="86">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="S14" s="40">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:24" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3678,18 +3678,18 @@
         <v>31572</v>
       </c>
       <c r="P15" s="87">
-        <v>31885</v>
+        <v>31886</v>
       </c>
       <c r="Q15" s="87">
-        <v>31886</v>
+        <v>31981</v>
       </c>
       <c r="R15" s="86">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="S15" s="40">
         <f t="shared" si="1"/>
-        <v>314</v>
+        <v>409</v>
       </c>
     </row>
     <row r="16" spans="1:24" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3739,18 +3739,18 @@
         <v>6149</v>
       </c>
       <c r="P16" s="86">
-        <v>6210</v>
+        <v>6198</v>
       </c>
       <c r="Q16" s="86">
-        <v>6198</v>
+        <v>6216</v>
       </c>
       <c r="R16" s="86">
         <f t="shared" si="0"/>
-        <v>-12</v>
+        <v>18</v>
       </c>
       <c r="S16" s="40">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:63" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3800,18 +3800,18 @@
         <v>32945</v>
       </c>
       <c r="P17" s="87">
-        <v>33596</v>
+        <v>33686</v>
       </c>
       <c r="Q17" s="87">
-        <v>33686</v>
+        <v>33805</v>
       </c>
       <c r="R17" s="86">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="S17" s="40">
         <f t="shared" si="1"/>
-        <v>741</v>
+        <v>860</v>
       </c>
     </row>
     <row r="18" spans="1:63" s="7" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
@@ -3875,19 +3875,19 @@
       </c>
       <c r="P18" s="20">
         <f>SUM(P10:P17)</f>
-        <v>104918</v>
+        <v>105078</v>
       </c>
       <c r="Q18" s="20">
         <f>SUM(Q10:Q17)</f>
-        <v>105078</v>
+        <v>105454</v>
       </c>
       <c r="R18" s="20">
         <f>SUM(R10:R17)</f>
-        <v>160</v>
+        <v>376</v>
       </c>
       <c r="S18" s="20">
         <f>SUM(S10:S17)</f>
-        <v>1827</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="19" spans="1:63" ht="9" customHeight="1" x14ac:dyDescent="0.2">
@@ -8274,7 +8274,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
@@ -8481,7 +8481,9 @@
       <c r="H10" s="40">
         <v>3866</v>
       </c>
-      <c r="I10" s="40"/>
+      <c r="I10" s="40">
+        <v>3895</v>
+      </c>
       <c r="J10" s="40"/>
       <c r="K10" s="40"/>
       <c r="L10" s="40"/>
@@ -8512,7 +8514,9 @@
       <c r="H11" s="40">
         <v>126</v>
       </c>
-      <c r="I11" s="40"/>
+      <c r="I11" s="40">
+        <v>129</v>
+      </c>
       <c r="J11" s="40"/>
       <c r="K11" s="40"/>
       <c r="L11" s="40"/>
@@ -8543,7 +8547,9 @@
       <c r="H12" s="40">
         <v>15942</v>
       </c>
-      <c r="I12" s="40"/>
+      <c r="I12" s="40">
+        <v>15964</v>
+      </c>
       <c r="J12" s="40"/>
       <c r="K12" s="40"/>
       <c r="L12" s="40"/>
@@ -8574,7 +8580,9 @@
       <c r="H13" s="40">
         <v>13181</v>
       </c>
-      <c r="I13" s="40"/>
+      <c r="I13" s="40">
+        <v>13269</v>
+      </c>
       <c r="J13" s="40"/>
       <c r="K13" s="40"/>
       <c r="L13" s="40"/>
@@ -8605,7 +8613,9 @@
       <c r="H14" s="40">
         <v>193</v>
       </c>
-      <c r="I14" s="40"/>
+      <c r="I14" s="40">
+        <v>195</v>
+      </c>
       <c r="J14" s="40"/>
       <c r="K14" s="40"/>
       <c r="L14" s="40"/>
@@ -8636,7 +8646,9 @@
       <c r="H15" s="40">
         <v>31886</v>
       </c>
-      <c r="I15" s="40"/>
+      <c r="I15" s="40">
+        <v>31981</v>
+      </c>
       <c r="J15" s="40"/>
       <c r="K15" s="40"/>
       <c r="L15" s="40"/>
@@ -8667,7 +8679,9 @@
       <c r="H16" s="40">
         <v>6198</v>
       </c>
-      <c r="I16" s="40"/>
+      <c r="I16" s="40">
+        <v>6216</v>
+      </c>
       <c r="J16" s="40"/>
       <c r="K16" s="40"/>
       <c r="L16" s="40"/>
@@ -8698,7 +8712,9 @@
       <c r="H17" s="40">
         <v>33686</v>
       </c>
-      <c r="I17" s="40"/>
+      <c r="I17" s="40">
+        <v>33805</v>
+      </c>
       <c r="J17" s="40"/>
       <c r="K17" s="40"/>
       <c r="L17" s="40"/>
@@ -8738,7 +8754,7 @@
       </c>
       <c r="I18" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>105454</v>
       </c>
       <c r="J18" s="20">
         <f t="shared" si="0"/>
@@ -8791,11 +8807,11 @@
       </c>
       <c r="I19" s="83">
         <f>(I18/H18-1)*100</f>
+        <v>0.35782942195321521</v>
+      </c>
+      <c r="J19" s="83">
+        <f>(J18/I18-1)*100</f>
         <v>-100</v>
-      </c>
-      <c r="J19" s="83" t="e">
-        <f>(J18/I18-1)*100</f>
-        <v>#DIV/0!</v>
       </c>
       <c r="K19" s="83" t="e">
         <f>(K18/J18-1)*100</f>

--- a/Tabulados/Patrones.xlsx
+++ b/Tabulados/Patrones.xlsx
@@ -207,10 +207,10 @@
     <t>2008-2022</t>
   </si>
   <si>
-    <t>Var Agosto 2022 respecto a Julio 2022</t>
+    <t>Var Septiembre 2022 respecto a Agosto 2022</t>
   </si>
   <si>
-    <t>Var Agosto 2022 respecto a Diciembre 2021</t>
+    <t>Var Septiembre 2022 respecto a Diciembre 2021</t>
   </si>
 </sst>
 </file>
@@ -3009,7 +3009,7 @@
   <dimension ref="A1:BK24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+      <selection activeCell="S34" sqref="S34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
@@ -3318,10 +3318,10 @@
         <v>13</v>
       </c>
       <c r="P9" s="85" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="85" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R9" s="98"/>
       <c r="S9" s="98"/>
@@ -3373,18 +3373,18 @@
         <v>3768</v>
       </c>
       <c r="P10" s="86">
-        <v>3866</v>
+        <v>3895</v>
       </c>
       <c r="Q10" s="86">
-        <v>3895</v>
+        <v>3901</v>
       </c>
       <c r="R10" s="86">
         <f>Q10-P10</f>
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="S10" s="40">
         <f>Q10-O10</f>
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:24" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3434,18 +3434,18 @@
         <v>130</v>
       </c>
       <c r="P11" s="87">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q11" s="87">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="R11" s="86">
         <f t="shared" ref="R11:R17" si="0">Q11-P11</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S11" s="40">
         <f t="shared" ref="S11:S17" si="1">Q11-O11</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:24" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3495,18 +3495,18 @@
         <v>15776</v>
       </c>
       <c r="P12" s="86">
-        <v>15942</v>
+        <v>15964</v>
       </c>
       <c r="Q12" s="86">
-        <v>15964</v>
+        <v>15993</v>
       </c>
       <c r="R12" s="86">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="S12" s="40">
         <f t="shared" si="1"/>
-        <v>188</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:24" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3556,18 +3556,18 @@
         <v>12726</v>
       </c>
       <c r="P13" s="87">
-        <v>13181</v>
+        <v>13269</v>
       </c>
       <c r="Q13" s="87">
-        <v>13269</v>
+        <v>13354</v>
       </c>
       <c r="R13" s="86">
         <f t="shared" si="0"/>
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="S13" s="40">
         <f t="shared" si="1"/>
-        <v>543</v>
+        <v>628</v>
       </c>
     </row>
     <row r="14" spans="1:24" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3617,18 +3617,18 @@
         <v>185</v>
       </c>
       <c r="P14" s="86">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q14" s="86">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="R14" s="86">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S14" s="40">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:24" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3678,18 +3678,18 @@
         <v>31572</v>
       </c>
       <c r="P15" s="87">
-        <v>31886</v>
+        <v>31981</v>
       </c>
       <c r="Q15" s="87">
-        <v>31981</v>
+        <v>31946</v>
       </c>
       <c r="R15" s="86">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>-35</v>
       </c>
       <c r="S15" s="40">
         <f t="shared" si="1"/>
-        <v>409</v>
+        <v>374</v>
       </c>
     </row>
     <row r="16" spans="1:24" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3739,18 +3739,18 @@
         <v>6149</v>
       </c>
       <c r="P16" s="86">
-        <v>6198</v>
+        <v>6216</v>
       </c>
       <c r="Q16" s="86">
-        <v>6216</v>
+        <v>6231</v>
       </c>
       <c r="R16" s="86">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="S16" s="40">
         <f t="shared" si="1"/>
-        <v>67</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:63" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3800,18 +3800,18 @@
         <v>32945</v>
       </c>
       <c r="P17" s="87">
-        <v>33686</v>
+        <v>33805</v>
       </c>
       <c r="Q17" s="87">
-        <v>33805</v>
+        <v>33850</v>
       </c>
       <c r="R17" s="86">
         <f t="shared" si="0"/>
-        <v>119</v>
+        <v>45</v>
       </c>
       <c r="S17" s="40">
         <f t="shared" si="1"/>
-        <v>860</v>
+        <v>905</v>
       </c>
     </row>
     <row r="18" spans="1:63" s="7" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
@@ -3875,19 +3875,19 @@
       </c>
       <c r="P18" s="20">
         <f>SUM(P10:P17)</f>
-        <v>105078</v>
+        <v>105454</v>
       </c>
       <c r="Q18" s="20">
         <f>SUM(Q10:Q17)</f>
-        <v>105454</v>
+        <v>105603</v>
       </c>
       <c r="R18" s="20">
         <f>SUM(R10:R17)</f>
-        <v>376</v>
+        <v>149</v>
       </c>
       <c r="S18" s="20">
         <f>SUM(S10:S17)</f>
-        <v>2203</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="19" spans="1:63" ht="9" customHeight="1" x14ac:dyDescent="0.2">
@@ -8274,7 +8274,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
@@ -8484,7 +8484,9 @@
       <c r="I10" s="40">
         <v>3895</v>
       </c>
-      <c r="J10" s="40"/>
+      <c r="J10" s="40">
+        <v>3901</v>
+      </c>
       <c r="K10" s="40"/>
       <c r="L10" s="40"/>
       <c r="M10" s="40"/>
@@ -8517,7 +8519,9 @@
       <c r="I11" s="40">
         <v>129</v>
       </c>
-      <c r="J11" s="40"/>
+      <c r="J11" s="40">
+        <v>130</v>
+      </c>
       <c r="K11" s="40"/>
       <c r="L11" s="40"/>
       <c r="M11" s="40"/>
@@ -8550,7 +8554,9 @@
       <c r="I12" s="40">
         <v>15964</v>
       </c>
-      <c r="J12" s="40"/>
+      <c r="J12" s="40">
+        <v>15993</v>
+      </c>
       <c r="K12" s="40"/>
       <c r="L12" s="40"/>
       <c r="M12" s="40"/>
@@ -8583,7 +8589,9 @@
       <c r="I13" s="40">
         <v>13269</v>
       </c>
-      <c r="J13" s="40"/>
+      <c r="J13" s="40">
+        <v>13354</v>
+      </c>
       <c r="K13" s="40"/>
       <c r="L13" s="40"/>
       <c r="M13" s="40"/>
@@ -8616,7 +8624,9 @@
       <c r="I14" s="40">
         <v>195</v>
       </c>
-      <c r="J14" s="40"/>
+      <c r="J14" s="40">
+        <v>198</v>
+      </c>
       <c r="K14" s="40"/>
       <c r="L14" s="40"/>
       <c r="M14" s="40"/>
@@ -8649,7 +8659,9 @@
       <c r="I15" s="40">
         <v>31981</v>
       </c>
-      <c r="J15" s="40"/>
+      <c r="J15" s="40">
+        <v>31946</v>
+      </c>
       <c r="K15" s="40"/>
       <c r="L15" s="40"/>
       <c r="M15" s="40"/>
@@ -8682,7 +8694,9 @@
       <c r="I16" s="40">
         <v>6216</v>
       </c>
-      <c r="J16" s="40"/>
+      <c r="J16" s="40">
+        <v>6231</v>
+      </c>
       <c r="K16" s="40"/>
       <c r="L16" s="40"/>
       <c r="M16" s="40"/>
@@ -8715,7 +8729,9 @@
       <c r="I17" s="40">
         <v>33805</v>
       </c>
-      <c r="J17" s="40"/>
+      <c r="J17" s="40">
+        <v>33850</v>
+      </c>
       <c r="K17" s="40"/>
       <c r="L17" s="40"/>
       <c r="M17" s="40"/>
@@ -8758,7 +8774,7 @@
       </c>
       <c r="J18" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>105603</v>
       </c>
       <c r="K18" s="20">
         <f t="shared" si="0"/>
@@ -8811,11 +8827,11 @@
       </c>
       <c r="J19" s="83">
         <f>(J18/I18-1)*100</f>
+        <v>0.14129383427845532</v>
+      </c>
+      <c r="K19" s="83">
+        <f>(K18/J18-1)*100</f>
         <v>-100</v>
-      </c>
-      <c r="K19" s="83" t="e">
-        <f>(K18/J18-1)*100</f>
-        <v>#DIV/0!</v>
       </c>
       <c r="L19" s="83" t="e">
         <f>(L18/K18-1)*100</f>

--- a/Tabulados/Patrones.xlsx
+++ b/Tabulados/Patrones.xlsx
@@ -207,10 +207,10 @@
     <t>2008-2022</t>
   </si>
   <si>
-    <t>Var Septiembre 2022 respecto a Agosto 2022</t>
+    <t>Var Octubre 2022 respecto a Septiembre 2022</t>
   </si>
   <si>
-    <t>Var Septiembre 2022 respecto a Diciembre 2021</t>
+    <t>Var Octubre 2022 respecto a Diciembre 2021</t>
   </si>
 </sst>
 </file>
@@ -3009,7 +3009,7 @@
   <dimension ref="A1:BK24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S34" sqref="S34"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
@@ -3318,10 +3318,10 @@
         <v>13</v>
       </c>
       <c r="P9" s="85" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q9" s="85" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R9" s="98"/>
       <c r="S9" s="98"/>
@@ -3373,18 +3373,18 @@
         <v>3768</v>
       </c>
       <c r="P10" s="86">
-        <v>3895</v>
+        <v>3901</v>
       </c>
       <c r="Q10" s="86">
-        <v>3901</v>
+        <v>3923</v>
       </c>
       <c r="R10" s="86">
         <f>Q10-P10</f>
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="S10" s="40">
         <f>Q10-O10</f>
-        <v>133</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:24" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3434,18 +3434,18 @@
         <v>130</v>
       </c>
       <c r="P11" s="87">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q11" s="87">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="R11" s="86">
         <f t="shared" ref="R11:R17" si="0">Q11-P11</f>
-        <v>1</v>
+        <v>-6</v>
       </c>
       <c r="S11" s="40">
         <f t="shared" ref="S11:S17" si="1">Q11-O11</f>
-        <v>0</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="12" spans="1:24" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3495,18 +3495,18 @@
         <v>15776</v>
       </c>
       <c r="P12" s="86">
-        <v>15964</v>
+        <v>15993</v>
       </c>
       <c r="Q12" s="86">
-        <v>15993</v>
+        <v>16005</v>
       </c>
       <c r="R12" s="86">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="S12" s="40">
         <f t="shared" si="1"/>
-        <v>217</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:24" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3556,18 +3556,18 @@
         <v>12726</v>
       </c>
       <c r="P13" s="87">
-        <v>13269</v>
+        <v>13354</v>
       </c>
       <c r="Q13" s="87">
-        <v>13354</v>
+        <v>13471</v>
       </c>
       <c r="R13" s="86">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="S13" s="40">
         <f t="shared" si="1"/>
-        <v>628</v>
+        <v>745</v>
       </c>
     </row>
     <row r="14" spans="1:24" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3617,10 +3617,10 @@
         <v>185</v>
       </c>
       <c r="P14" s="86">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q14" s="86">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="R14" s="86">
         <f t="shared" si="0"/>
@@ -3628,7 +3628,7 @@
       </c>
       <c r="S14" s="40">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:24" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3678,18 +3678,18 @@
         <v>31572</v>
       </c>
       <c r="P15" s="87">
-        <v>31981</v>
+        <v>31946</v>
       </c>
       <c r="Q15" s="87">
-        <v>31946</v>
+        <v>31970</v>
       </c>
       <c r="R15" s="86">
         <f t="shared" si="0"/>
-        <v>-35</v>
+        <v>24</v>
       </c>
       <c r="S15" s="40">
         <f t="shared" si="1"/>
-        <v>374</v>
+        <v>398</v>
       </c>
     </row>
     <row r="16" spans="1:24" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3739,18 +3739,18 @@
         <v>6149</v>
       </c>
       <c r="P16" s="86">
-        <v>6216</v>
+        <v>6231</v>
       </c>
       <c r="Q16" s="86">
-        <v>6231</v>
+        <v>6232</v>
       </c>
       <c r="R16" s="86">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="S16" s="40">
         <f t="shared" si="1"/>
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:63" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3800,18 +3800,18 @@
         <v>32945</v>
       </c>
       <c r="P17" s="87">
-        <v>33805</v>
+        <v>33850</v>
       </c>
       <c r="Q17" s="87">
-        <v>33850</v>
+        <v>33976</v>
       </c>
       <c r="R17" s="86">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="S17" s="40">
         <f t="shared" si="1"/>
-        <v>905</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="18" spans="1:63" s="7" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
@@ -3875,19 +3875,19 @@
       </c>
       <c r="P18" s="20">
         <f>SUM(P10:P17)</f>
-        <v>105454</v>
+        <v>105603</v>
       </c>
       <c r="Q18" s="20">
         <f>SUM(Q10:Q17)</f>
-        <v>105603</v>
+        <v>105902</v>
       </c>
       <c r="R18" s="20">
         <f>SUM(R10:R17)</f>
-        <v>149</v>
+        <v>299</v>
       </c>
       <c r="S18" s="20">
         <f>SUM(S10:S17)</f>
-        <v>2352</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="19" spans="1:63" ht="9" customHeight="1" x14ac:dyDescent="0.2">
@@ -8274,7 +8274,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
@@ -8487,7 +8487,9 @@
       <c r="J10" s="40">
         <v>3901</v>
       </c>
-      <c r="K10" s="40"/>
+      <c r="K10" s="40">
+        <v>3923</v>
+      </c>
       <c r="L10" s="40"/>
       <c r="M10" s="40"/>
     </row>
@@ -8522,7 +8524,9 @@
       <c r="J11" s="40">
         <v>130</v>
       </c>
-      <c r="K11" s="40"/>
+      <c r="K11" s="40">
+        <v>124</v>
+      </c>
       <c r="L11" s="40"/>
       <c r="M11" s="40"/>
     </row>
@@ -8557,7 +8561,9 @@
       <c r="J12" s="40">
         <v>15993</v>
       </c>
-      <c r="K12" s="40"/>
+      <c r="K12" s="40">
+        <v>16005</v>
+      </c>
       <c r="L12" s="40"/>
       <c r="M12" s="40"/>
     </row>
@@ -8592,7 +8598,9 @@
       <c r="J13" s="40">
         <v>13354</v>
       </c>
-      <c r="K13" s="40"/>
+      <c r="K13" s="40">
+        <v>13471</v>
+      </c>
       <c r="L13" s="40"/>
       <c r="M13" s="40"/>
     </row>
@@ -8627,7 +8635,9 @@
       <c r="J14" s="40">
         <v>198</v>
       </c>
-      <c r="K14" s="40"/>
+      <c r="K14" s="40">
+        <v>201</v>
+      </c>
       <c r="L14" s="40"/>
       <c r="M14" s="40"/>
     </row>
@@ -8662,7 +8672,9 @@
       <c r="J15" s="40">
         <v>31946</v>
       </c>
-      <c r="K15" s="40"/>
+      <c r="K15" s="40">
+        <v>31970</v>
+      </c>
       <c r="L15" s="40"/>
       <c r="M15" s="40"/>
     </row>
@@ -8697,7 +8709,9 @@
       <c r="J16" s="40">
         <v>6231</v>
       </c>
-      <c r="K16" s="40"/>
+      <c r="K16" s="40">
+        <v>6232</v>
+      </c>
       <c r="L16" s="40"/>
       <c r="M16" s="40"/>
     </row>
@@ -8732,7 +8746,9 @@
       <c r="J17" s="40">
         <v>33850</v>
       </c>
-      <c r="K17" s="40"/>
+      <c r="K17" s="40">
+        <v>33976</v>
+      </c>
       <c r="L17" s="40"/>
       <c r="M17" s="40"/>
     </row>
@@ -8778,7 +8794,7 @@
       </c>
       <c r="K18" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>105902</v>
       </c>
       <c r="L18" s="20">
         <f>SUM(L10:L17)</f>
@@ -8831,11 +8847,11 @@
       </c>
       <c r="K19" s="83">
         <f>(K18/J18-1)*100</f>
+        <v>0.28313589576054454</v>
+      </c>
+      <c r="L19" s="83">
+        <f>(L18/K18-1)*100</f>
         <v>-100</v>
-      </c>
-      <c r="L19" s="83" t="e">
-        <f>(L18/K18-1)*100</f>
-        <v>#DIV/0!</v>
       </c>
       <c r="M19" s="83" t="e">
         <f>(M18/L18-1)*100</f>

--- a/Tabulados/Patrones.xlsx
+++ b/Tabulados/Patrones.xlsx
@@ -207,10 +207,10 @@
     <t>2008-2022</t>
   </si>
   <si>
-    <t>Var Octubre 2022 respecto a Septiembre 2022</t>
+    <t>Var Noviembre 2022 respecto a Octubre 2022</t>
   </si>
   <si>
-    <t>Var Octubre 2022 respecto a Diciembre 2021</t>
+    <t>Var Noviembre 2022 respecto a Diciembre 2021</t>
   </si>
 </sst>
 </file>
@@ -3009,7 +3009,7 @@
   <dimension ref="A1:BK24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
@@ -3318,10 +3318,10 @@
         <v>13</v>
       </c>
       <c r="P9" s="85" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="85" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R9" s="98"/>
       <c r="S9" s="98"/>
@@ -3373,18 +3373,18 @@
         <v>3768</v>
       </c>
       <c r="P10" s="86">
-        <v>3901</v>
+        <v>3923</v>
       </c>
       <c r="Q10" s="86">
-        <v>3923</v>
+        <v>3955</v>
       </c>
       <c r="R10" s="86">
         <f>Q10-P10</f>
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="S10" s="40">
         <f>Q10-O10</f>
-        <v>155</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:24" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3434,18 +3434,18 @@
         <v>130</v>
       </c>
       <c r="P11" s="87">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="Q11" s="87">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R11" s="86">
         <f t="shared" ref="R11:R17" si="0">Q11-P11</f>
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="S11" s="40">
         <f t="shared" ref="S11:S17" si="1">Q11-O11</f>
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="12" spans="1:24" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3495,18 +3495,18 @@
         <v>15776</v>
       </c>
       <c r="P12" s="86">
-        <v>15993</v>
+        <v>16005</v>
       </c>
       <c r="Q12" s="86">
-        <v>16005</v>
+        <v>15959</v>
       </c>
       <c r="R12" s="86">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>-46</v>
       </c>
       <c r="S12" s="40">
         <f t="shared" si="1"/>
-        <v>229</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:24" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3556,18 +3556,18 @@
         <v>12726</v>
       </c>
       <c r="P13" s="87">
-        <v>13354</v>
+        <v>13471</v>
       </c>
       <c r="Q13" s="87">
-        <v>13471</v>
+        <v>13460</v>
       </c>
       <c r="R13" s="86">
         <f t="shared" si="0"/>
-        <v>117</v>
+        <v>-11</v>
       </c>
       <c r="S13" s="40">
         <f t="shared" si="1"/>
-        <v>745</v>
+        <v>734</v>
       </c>
     </row>
     <row r="14" spans="1:24" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3617,18 +3617,18 @@
         <v>185</v>
       </c>
       <c r="P14" s="86">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q14" s="86">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="R14" s="86">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S14" s="40">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:24" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3678,18 +3678,18 @@
         <v>31572</v>
       </c>
       <c r="P15" s="87">
-        <v>31946</v>
+        <v>31970</v>
       </c>
       <c r="Q15" s="87">
-        <v>31970</v>
+        <v>31998</v>
       </c>
       <c r="R15" s="86">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="S15" s="40">
         <f t="shared" si="1"/>
-        <v>398</v>
+        <v>426</v>
       </c>
     </row>
     <row r="16" spans="1:24" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3739,18 +3739,18 @@
         <v>6149</v>
       </c>
       <c r="P16" s="86">
-        <v>6231</v>
+        <v>6232</v>
       </c>
       <c r="Q16" s="86">
-        <v>6232</v>
+        <v>6204</v>
       </c>
       <c r="R16" s="86">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>-28</v>
       </c>
       <c r="S16" s="40">
         <f t="shared" si="1"/>
-        <v>83</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:63" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3800,18 +3800,21 @@
         <v>32945</v>
       </c>
       <c r="P17" s="87">
-        <v>33850</v>
+        <v>33976</v>
       </c>
       <c r="Q17" s="87">
-        <v>33976</v>
+        <v>34007</v>
       </c>
       <c r="R17" s="86">
         <f t="shared" si="0"/>
-        <v>126</v>
+        <v>31</v>
       </c>
       <c r="S17" s="40">
         <f t="shared" si="1"/>
-        <v>1031</v>
+        <v>1062</v>
+      </c>
+      <c r="U17" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:63" s="7" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
@@ -3875,19 +3878,19 @@
       </c>
       <c r="P18" s="20">
         <f>SUM(P10:P17)</f>
-        <v>105603</v>
+        <v>105902</v>
       </c>
       <c r="Q18" s="20">
         <f>SUM(Q10:Q17)</f>
-        <v>105902</v>
+        <v>105908</v>
       </c>
       <c r="R18" s="20">
         <f>SUM(R10:R17)</f>
-        <v>299</v>
+        <v>6</v>
       </c>
       <c r="S18" s="20">
         <f>SUM(S10:S17)</f>
-        <v>2651</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="19" spans="1:63" ht="9" customHeight="1" x14ac:dyDescent="0.2">
@@ -8274,7 +8277,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
@@ -8490,7 +8493,9 @@
       <c r="K10" s="40">
         <v>3923</v>
       </c>
-      <c r="L10" s="40"/>
+      <c r="L10" s="40">
+        <v>3955</v>
+      </c>
       <c r="M10" s="40"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -8527,7 +8532,9 @@
       <c r="K11" s="40">
         <v>124</v>
       </c>
-      <c r="L11" s="40"/>
+      <c r="L11" s="40">
+        <v>123</v>
+      </c>
       <c r="M11" s="40"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -8564,7 +8571,9 @@
       <c r="K12" s="40">
         <v>16005</v>
       </c>
-      <c r="L12" s="40"/>
+      <c r="L12" s="40">
+        <v>15959</v>
+      </c>
       <c r="M12" s="40"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -8601,7 +8610,9 @@
       <c r="K13" s="40">
         <v>13471</v>
       </c>
-      <c r="L13" s="40"/>
+      <c r="L13" s="40">
+        <v>13460</v>
+      </c>
       <c r="M13" s="40"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -8638,7 +8649,9 @@
       <c r="K14" s="40">
         <v>201</v>
       </c>
-      <c r="L14" s="40"/>
+      <c r="L14" s="40">
+        <v>202</v>
+      </c>
       <c r="M14" s="40"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -8675,7 +8688,9 @@
       <c r="K15" s="40">
         <v>31970</v>
       </c>
-      <c r="L15" s="40"/>
+      <c r="L15" s="40">
+        <v>31998</v>
+      </c>
       <c r="M15" s="40"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -8712,7 +8727,9 @@
       <c r="K16" s="40">
         <v>6232</v>
       </c>
-      <c r="L16" s="40"/>
+      <c r="L16" s="40">
+        <v>6204</v>
+      </c>
       <c r="M16" s="40"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -8749,7 +8766,9 @@
       <c r="K17" s="40">
         <v>33976</v>
       </c>
-      <c r="L17" s="40"/>
+      <c r="L17" s="40">
+        <v>34007</v>
+      </c>
       <c r="M17" s="40"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -8798,7 +8817,7 @@
       </c>
       <c r="L18" s="20">
         <f>SUM(L10:L17)</f>
-        <v>0</v>
+        <v>105908</v>
       </c>
       <c r="M18" s="20">
         <f t="shared" si="0"/>
@@ -8851,11 +8870,11 @@
       </c>
       <c r="L19" s="83">
         <f>(L18/K18-1)*100</f>
+        <v>5.6656153802681075E-3</v>
+      </c>
+      <c r="M19" s="83">
+        <f>(M18/L18-1)*100</f>
         <v>-100</v>
-      </c>
-      <c r="M19" s="83" t="e">
-        <f>(M18/L18-1)*100</f>
-        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">

--- a/Tabulados/Patrones.xlsx
+++ b/Tabulados/Patrones.xlsx
@@ -207,10 +207,10 @@
     <t>2008-2022</t>
   </si>
   <si>
-    <t>Var Noviembre 2022 respecto a Octubre 2022</t>
+    <t>Var Diciembre 2022 respecto a Noviembre 2022</t>
   </si>
   <si>
-    <t>Var Noviembre 2022 respecto a Diciembre 2021</t>
+    <t>Var Diciembre 2022 respecto a Diciembre 2021</t>
   </si>
 </sst>
 </file>
@@ -3009,7 +3009,7 @@
   <dimension ref="A1:BK24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
@@ -3318,10 +3318,10 @@
         <v>13</v>
       </c>
       <c r="P9" s="85" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q9" s="85" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="R9" s="98"/>
       <c r="S9" s="98"/>
@@ -3373,18 +3373,18 @@
         <v>3768</v>
       </c>
       <c r="P10" s="86">
-        <v>3923</v>
+        <v>3955</v>
       </c>
       <c r="Q10" s="86">
-        <v>3955</v>
+        <v>3956</v>
       </c>
       <c r="R10" s="86">
         <f>Q10-P10</f>
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="S10" s="40">
         <f>Q10-O10</f>
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:24" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3434,14 +3434,14 @@
         <v>130</v>
       </c>
       <c r="P11" s="87">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q11" s="87">
         <v>123</v>
       </c>
       <c r="R11" s="86">
         <f t="shared" ref="R11:R17" si="0">Q11-P11</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S11" s="40">
         <f t="shared" ref="S11:S17" si="1">Q11-O11</f>
@@ -3495,18 +3495,18 @@
         <v>15776</v>
       </c>
       <c r="P12" s="86">
-        <v>16005</v>
+        <v>15959</v>
       </c>
       <c r="Q12" s="86">
-        <v>15959</v>
+        <v>15927</v>
       </c>
       <c r="R12" s="86">
         <f t="shared" si="0"/>
-        <v>-46</v>
+        <v>-32</v>
       </c>
       <c r="S12" s="40">
         <f t="shared" si="1"/>
-        <v>183</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:24" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3556,18 +3556,18 @@
         <v>12726</v>
       </c>
       <c r="P13" s="87">
-        <v>13471</v>
+        <v>13460</v>
       </c>
       <c r="Q13" s="87">
-        <v>13460</v>
+        <v>13340</v>
       </c>
       <c r="R13" s="86">
         <f t="shared" si="0"/>
-        <v>-11</v>
+        <v>-120</v>
       </c>
       <c r="S13" s="40">
         <f t="shared" si="1"/>
-        <v>734</v>
+        <v>614</v>
       </c>
     </row>
     <row r="14" spans="1:24" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3617,18 +3617,18 @@
         <v>185</v>
       </c>
       <c r="P14" s="86">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q14" s="86">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="R14" s="86">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S14" s="40">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:24" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3678,18 +3678,18 @@
         <v>31572</v>
       </c>
       <c r="P15" s="87">
-        <v>31970</v>
+        <v>31998</v>
       </c>
       <c r="Q15" s="87">
-        <v>31998</v>
+        <v>31947</v>
       </c>
       <c r="R15" s="86">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>-51</v>
       </c>
       <c r="S15" s="40">
         <f t="shared" si="1"/>
-        <v>426</v>
+        <v>375</v>
       </c>
     </row>
     <row r="16" spans="1:24" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3739,18 +3739,18 @@
         <v>6149</v>
       </c>
       <c r="P16" s="86">
-        <v>6232</v>
+        <v>6204</v>
       </c>
       <c r="Q16" s="86">
-        <v>6204</v>
+        <v>6186</v>
       </c>
       <c r="R16" s="86">
         <f t="shared" si="0"/>
-        <v>-28</v>
+        <v>-18</v>
       </c>
       <c r="S16" s="40">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:63" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3800,18 +3800,18 @@
         <v>32945</v>
       </c>
       <c r="P17" s="87">
-        <v>33976</v>
+        <v>34007</v>
       </c>
       <c r="Q17" s="87">
-        <v>34007</v>
+        <v>33990</v>
       </c>
       <c r="R17" s="86">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>-17</v>
       </c>
       <c r="S17" s="40">
         <f t="shared" si="1"/>
-        <v>1062</v>
+        <v>1045</v>
       </c>
       <c r="U17" s="7">
         <v>1</v>
@@ -3878,19 +3878,19 @@
       </c>
       <c r="P18" s="20">
         <f>SUM(P10:P17)</f>
-        <v>105902</v>
+        <v>105908</v>
       </c>
       <c r="Q18" s="20">
         <f>SUM(Q10:Q17)</f>
-        <v>105908</v>
+        <v>105675</v>
       </c>
       <c r="R18" s="20">
         <f>SUM(R10:R17)</f>
-        <v>6</v>
+        <v>-233</v>
       </c>
       <c r="S18" s="20">
         <f>SUM(S10:S17)</f>
-        <v>2657</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="19" spans="1:63" ht="9" customHeight="1" x14ac:dyDescent="0.2">
@@ -8277,7 +8277,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+      <selection activeCell="K27" sqref="J27:K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
@@ -8496,7 +8496,9 @@
       <c r="L10" s="40">
         <v>3955</v>
       </c>
-      <c r="M10" s="40"/>
+      <c r="M10" s="40">
+        <v>3956</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="41" t="s">
@@ -8535,7 +8537,9 @@
       <c r="L11" s="40">
         <v>123</v>
       </c>
-      <c r="M11" s="40"/>
+      <c r="M11" s="40">
+        <v>123</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="41" t="s">
@@ -8574,7 +8578,9 @@
       <c r="L12" s="40">
         <v>15959</v>
       </c>
-      <c r="M12" s="40"/>
+      <c r="M12" s="40">
+        <v>15927</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="41" t="s">
@@ -8613,7 +8619,9 @@
       <c r="L13" s="40">
         <v>13460</v>
       </c>
-      <c r="M13" s="40"/>
+      <c r="M13" s="40">
+        <v>13340</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="41" t="s">
@@ -8652,7 +8660,9 @@
       <c r="L14" s="40">
         <v>202</v>
       </c>
-      <c r="M14" s="40"/>
+      <c r="M14" s="40">
+        <v>206</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="41" t="s">
@@ -8691,7 +8701,9 @@
       <c r="L15" s="40">
         <v>31998</v>
       </c>
-      <c r="M15" s="40"/>
+      <c r="M15" s="40">
+        <v>31947</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="41" t="s">
@@ -8730,7 +8742,9 @@
       <c r="L16" s="40">
         <v>6204</v>
       </c>
-      <c r="M16" s="40"/>
+      <c r="M16" s="40">
+        <v>6186</v>
+      </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="41" t="s">
@@ -8769,7 +8783,9 @@
       <c r="L17" s="40">
         <v>34007</v>
       </c>
-      <c r="M17" s="40"/>
+      <c r="M17" s="40">
+        <v>33990</v>
+      </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="42" t="s">
@@ -8821,7 +8837,7 @@
       </c>
       <c r="M18" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>105675</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
@@ -8874,7 +8890,7 @@
       </c>
       <c r="M19" s="83">
         <f>(M18/L18-1)*100</f>
-        <v>-100</v>
+        <v>-0.22000226611775808</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">

--- a/Tabulados/Patrones.xlsx
+++ b/Tabulados/Patrones.xlsx
@@ -28,6 +28,7 @@
     <sheet name="2020" sheetId="28" r:id="rId14"/>
     <sheet name="2021" sheetId="29" r:id="rId15"/>
     <sheet name="2022" sheetId="30" r:id="rId16"/>
+    <sheet name="2023" sheetId="31" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="rowNest1" localSheetId="9">'2016'!$Q$13</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="34">
   <si>
     <t>Agricultura, Ganadería, Silvicultura y Pesca</t>
   </si>
@@ -201,16 +202,13 @@
     <t xml:space="preserve">Por división económica </t>
   </si>
   <si>
-    <t>Por división económica 2008 - 2022</t>
+    <t>2008-2023</t>
   </si>
   <si>
-    <t>2008-2022</t>
+    <t>Por división económica 2008 - 2023</t>
   </si>
   <si>
-    <t>Var Diciembre 2022 respecto a Noviembre 2022</t>
-  </si>
-  <si>
-    <t>Var Diciembre 2022 respecto a Diciembre 2021</t>
+    <t>Var Enero 2023 respecto a Diciembre 2022</t>
   </si>
 </sst>
 </file>
@@ -1123,7 +1121,7 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1356,6 +1354,15 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="1" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -1382,9 +1389,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="38" borderId="2" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="1" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2719,6 +2723,159 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="2 Imagen" descr="http://189.202.239.32/cognos/ppwb/Icon/blank.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11568023" y="2001328"/>
+          <a:ext cx="76200" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="3 Imagen" descr="http://189.202.239.32/cognos/ppwb/Icon/blank.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12327147" y="2001328"/>
+          <a:ext cx="76200" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -3006,10 +3163,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BK24"/>
+  <dimension ref="A1:BJ24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
@@ -3019,96 +3176,92 @@
     <col min="7" max="8" width="6.625" style="36" customWidth="1"/>
     <col min="9" max="17" width="6.625" style="32" customWidth="1"/>
     <col min="18" max="18" width="10.25" style="32" customWidth="1"/>
-    <col min="19" max="19" width="10.625" style="32" customWidth="1"/>
-    <col min="20" max="24" width="11.375" style="32" customWidth="1"/>
-    <col min="25" max="16384" width="9.875" style="32"/>
+    <col min="19" max="23" width="11.375" style="32" customWidth="1"/>
+    <col min="24" max="16384" width="9.875" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="27" customFormat="1" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="91" t="s">
+    <row r="1" spans="1:23" s="27" customFormat="1" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="26"/>
       <c r="T1" s="26"/>
       <c r="U1" s="26"/>
       <c r="V1" s="26"/>
       <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-    </row>
-    <row r="2" spans="1:24" s="29" customFormat="1" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="92" t="s">
+    </row>
+    <row r="2" spans="1:23" s="29" customFormat="1" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="92"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="95"/>
+      <c r="Q2" s="95"/>
+      <c r="R2" s="95"/>
+      <c r="S2" s="28"/>
       <c r="T2" s="28"/>
       <c r="U2" s="28"/>
       <c r="V2" s="28"/>
       <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-    </row>
-    <row r="3" spans="1:24" s="29" customFormat="1" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="92" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="92"/>
-      <c r="P3" s="92"/>
-      <c r="Q3" s="92"/>
-      <c r="R3" s="92"/>
-      <c r="S3" s="92"/>
+    </row>
+    <row r="3" spans="1:23" s="29" customFormat="1" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="95" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="95"/>
+      <c r="Q3" s="95"/>
+      <c r="R3" s="95"/>
+      <c r="S3" s="28"/>
       <c r="T3" s="28"/>
       <c r="U3" s="28"/>
       <c r="V3" s="28"/>
       <c r="W3" s="28"/>
-      <c r="X3" s="28"/>
-    </row>
-    <row r="4" spans="1:24" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:23" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="30"/>
       <c r="B4" s="30"/>
       <c r="C4" s="30"/>
@@ -3127,14 +3280,13 @@
       <c r="P4" s="30"/>
       <c r="Q4" s="30"/>
       <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
+      <c r="S4" s="8"/>
       <c r="T4" s="8"/>
       <c r="U4" s="8"/>
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-    </row>
-    <row r="5" spans="1:24" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:23" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="30"/>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -3153,71 +3305,68 @@
       <c r="P5" s="30"/>
       <c r="Q5" s="30"/>
       <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
+      <c r="S5" s="8"/>
       <c r="T5" s="8"/>
       <c r="U5" s="8"/>
       <c r="V5" s="8"/>
       <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-    </row>
-    <row r="6" spans="1:24" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="95" t="s">
+    </row>
+    <row r="6" spans="1:23" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
-      <c r="N6" s="95"/>
-      <c r="O6" s="95"/>
-      <c r="P6" s="95"/>
-      <c r="Q6" s="95"/>
-      <c r="R6" s="95"/>
-      <c r="S6" s="95"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
+      <c r="N6" s="98"/>
+      <c r="O6" s="98"/>
+      <c r="P6" s="98"/>
+      <c r="Q6" s="98"/>
+      <c r="R6" s="98"/>
+      <c r="S6" s="8"/>
       <c r="T6" s="8"/>
       <c r="U6" s="8"/>
       <c r="V6" s="8"/>
       <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-    </row>
-    <row r="7" spans="1:24" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="96" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="96"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="96"/>
-      <c r="L7" s="96"/>
-      <c r="M7" s="96"/>
-      <c r="N7" s="96"/>
-      <c r="O7" s="96"/>
-      <c r="P7" s="96"/>
-      <c r="Q7" s="96"/>
-      <c r="R7" s="96"/>
-      <c r="S7" s="96"/>
+    </row>
+    <row r="7" spans="1:23" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="99" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="99"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="99"/>
+      <c r="P7" s="99"/>
+      <c r="Q7" s="99"/>
+      <c r="R7" s="99"/>
+      <c r="S7" s="8"/>
       <c r="T7" s="8"/>
       <c r="U7" s="8"/>
       <c r="V7" s="8"/>
       <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-    </row>
-    <row r="8" spans="1:24" s="7" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="93" t="s">
+    </row>
+    <row r="8" spans="1:23" s="7" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="96" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="81">
@@ -3262,19 +3411,18 @@
       <c r="O8" s="81">
         <v>2021</v>
       </c>
-      <c r="P8" s="99">
+      <c r="P8" s="91">
         <v>2022</v>
       </c>
-      <c r="Q8" s="99"/>
-      <c r="R8" s="97" t="s">
+      <c r="Q8" s="91">
+        <v>2023</v>
+      </c>
+      <c r="R8" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="S8" s="97" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" s="7" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="94"/>
+    </row>
+    <row r="9" spans="1:23" s="7" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="97"/>
       <c r="B9" s="47" t="s">
         <v>13</v>
       </c>
@@ -3318,15 +3466,14 @@
         <v>13</v>
       </c>
       <c r="P9" s="85" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="85" t="s">
-        <v>13</v>
-      </c>
-      <c r="R9" s="98"/>
-      <c r="S9" s="98"/>
-    </row>
-    <row r="10" spans="1:24" s="7" customFormat="1" ht="23.3" customHeight="1" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="R9" s="101"/>
+    </row>
+    <row r="10" spans="1:23" s="7" customFormat="1" ht="23.3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="63" t="s">
         <v>0</v>
       </c>
@@ -3373,21 +3520,17 @@
         <v>3768</v>
       </c>
       <c r="P10" s="86">
-        <v>3955</v>
+        <v>3956</v>
       </c>
       <c r="Q10" s="86">
         <v>3956</v>
       </c>
       <c r="R10" s="86">
         <f>Q10-P10</f>
-        <v>1</v>
-      </c>
-      <c r="S10" s="40">
-        <f>Q10-O10</f>
-        <v>188</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="66" t="s">
         <v>1</v>
       </c>
@@ -3443,12 +3586,8 @@
         <f t="shared" ref="R11:R17" si="0">Q11-P11</f>
         <v>0</v>
       </c>
-      <c r="S11" s="40">
-        <f t="shared" ref="S11:S17" si="1">Q11-O11</f>
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:23" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="63" t="s">
         <v>2</v>
       </c>
@@ -3495,21 +3634,17 @@
         <v>15776</v>
       </c>
       <c r="P12" s="86">
-        <v>15959</v>
+        <v>15927</v>
       </c>
       <c r="Q12" s="86">
-        <v>15927</v>
+        <v>15946</v>
       </c>
       <c r="R12" s="86">
         <f t="shared" si="0"/>
-        <v>-32</v>
-      </c>
-      <c r="S12" s="40">
-        <f t="shared" si="1"/>
-        <v>151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="63" t="s">
         <v>3</v>
       </c>
@@ -3556,21 +3691,17 @@
         <v>12726</v>
       </c>
       <c r="P13" s="87">
-        <v>13460</v>
+        <v>13340</v>
       </c>
       <c r="Q13" s="87">
-        <v>13340</v>
+        <v>13326</v>
       </c>
       <c r="R13" s="86">
         <f t="shared" si="0"/>
-        <v>-120</v>
-      </c>
-      <c r="S13" s="40">
-        <f t="shared" si="1"/>
-        <v>614</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="63" t="s">
         <v>4</v>
       </c>
@@ -3617,21 +3748,17 @@
         <v>185</v>
       </c>
       <c r="P14" s="86">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q14" s="86">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="R14" s="86">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="S14" s="40">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="63" t="s">
         <v>5</v>
       </c>
@@ -3678,21 +3805,17 @@
         <v>31572</v>
       </c>
       <c r="P15" s="87">
-        <v>31998</v>
+        <v>31947</v>
       </c>
       <c r="Q15" s="87">
-        <v>31947</v>
+        <v>31914</v>
       </c>
       <c r="R15" s="86">
         <f t="shared" si="0"/>
-        <v>-51</v>
-      </c>
-      <c r="S15" s="40">
-        <f t="shared" si="1"/>
-        <v>375</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="63" t="s">
         <v>6</v>
       </c>
@@ -3739,21 +3862,17 @@
         <v>6149</v>
       </c>
       <c r="P16" s="86">
-        <v>6204</v>
+        <v>6186</v>
       </c>
       <c r="Q16" s="86">
-        <v>6186</v>
+        <v>6196</v>
       </c>
       <c r="R16" s="86">
         <f t="shared" si="0"/>
-        <v>-18</v>
-      </c>
-      <c r="S16" s="40">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:63" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:62" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="69" t="s">
         <v>7</v>
       </c>
@@ -3800,49 +3919,45 @@
         <v>32945</v>
       </c>
       <c r="P17" s="87">
-        <v>34007</v>
+        <v>33990</v>
       </c>
       <c r="Q17" s="87">
-        <v>33990</v>
+        <v>33944</v>
       </c>
       <c r="R17" s="86">
         <f t="shared" si="0"/>
-        <v>-17</v>
-      </c>
-      <c r="S17" s="40">
-        <f t="shared" si="1"/>
-        <v>1045</v>
-      </c>
-      <c r="U17" s="7">
+        <v>-46</v>
+      </c>
+      <c r="T17" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:63" s="7" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:62" s="7" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A18" s="42" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="20">
-        <f t="shared" ref="B18:L18" si="2">SUM(B10:B17)</f>
+        <f t="shared" ref="B18:L18" si="1">SUM(B10:B17)</f>
         <v>74287</v>
       </c>
       <c r="C18" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>73791</v>
       </c>
       <c r="D18" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>74713</v>
       </c>
       <c r="E18" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>75571</v>
       </c>
       <c r="F18" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>77290</v>
       </c>
       <c r="G18" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>78051</v>
       </c>
       <c r="H18" s="20">
@@ -3862,7 +3977,7 @@
         <v>90125</v>
       </c>
       <c r="L18" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>93370</v>
       </c>
       <c r="M18" s="20">
@@ -3878,22 +3993,18 @@
       </c>
       <c r="P18" s="20">
         <f>SUM(P10:P17)</f>
-        <v>105908</v>
+        <v>105675</v>
       </c>
       <c r="Q18" s="20">
         <f>SUM(Q10:Q17)</f>
-        <v>105675</v>
+        <v>105609</v>
       </c>
       <c r="R18" s="20">
         <f>SUM(R10:R17)</f>
-        <v>-233</v>
-      </c>
-      <c r="S18" s="20">
-        <f>SUM(S10:S17)</f>
-        <v>2424</v>
-      </c>
-    </row>
-    <row r="19" spans="1:63" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:62" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="33"/>
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
@@ -3911,32 +4022,30 @@
       <c r="P19" s="33"/>
       <c r="Q19" s="33"/>
       <c r="R19" s="33"/>
-      <c r="S19" s="33"/>
-    </row>
-    <row r="20" spans="1:63" ht="19.55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="90" t="s">
+    </row>
+    <row r="20" spans="1:62" ht="19.55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="90"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="90"/>
-      <c r="J20" s="90"/>
-      <c r="K20" s="90"/>
-      <c r="L20" s="90"/>
-      <c r="M20" s="90"/>
-      <c r="N20" s="90"/>
-      <c r="O20" s="90"/>
-      <c r="P20" s="90"/>
-      <c r="Q20" s="90"/>
-      <c r="R20" s="90"/>
-      <c r="S20" s="90"/>
-    </row>
-    <row r="21" spans="1:63" s="35" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="93"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="93"/>
+      <c r="I20" s="93"/>
+      <c r="J20" s="93"/>
+      <c r="K20" s="93"/>
+      <c r="L20" s="93"/>
+      <c r="M20" s="93"/>
+      <c r="N20" s="93"/>
+      <c r="O20" s="93"/>
+      <c r="P20" s="93"/>
+      <c r="Q20" s="93"/>
+      <c r="R20" s="93"/>
+    </row>
+    <row r="21" spans="1:62" s="35" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="18"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
@@ -3955,9 +4064,8 @@
       <c r="P21" s="18"/>
       <c r="Q21" s="18"/>
       <c r="R21" s="18"/>
-      <c r="S21" s="18"/>
-    </row>
-    <row r="22" spans="1:63" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:62" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>28</v>
       </c>
@@ -3966,9 +4074,8 @@
       <c r="P22" s="33"/>
       <c r="Q22" s="33"/>
       <c r="R22" s="33"/>
-      <c r="S22" s="33"/>
-    </row>
-    <row r="23" spans="1:63" s="37" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:62" s="37" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
       <c r="D23" s="38"/>
@@ -4030,9 +4137,8 @@
       <c r="BH23" s="38"/>
       <c r="BI23" s="38"/>
       <c r="BJ23" s="38"/>
-      <c r="BK23" s="38"/>
-    </row>
-    <row r="24" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:62" x14ac:dyDescent="0.2">
       <c r="B24" s="73"/>
       <c r="C24" s="73"/>
       <c r="D24" s="73"/>
@@ -4050,19 +4156,16 @@
       <c r="P24" s="33"/>
       <c r="Q24" s="33"/>
       <c r="R24" s="33"/>
-      <c r="S24" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A20:S20"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:S2"/>
-    <mergeCell ref="A3:S3"/>
+  <mergeCells count="8">
+    <mergeCell ref="A20:R20"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="A3:R3"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A6:S6"/>
-    <mergeCell ref="A7:S7"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="A6:R6"/>
+    <mergeCell ref="A7:R7"/>
     <mergeCell ref="R8:R9"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
@@ -4091,55 +4194,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.65" x14ac:dyDescent="0.2">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="92">
+      <c r="A3" s="95">
         <v>2016</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="44"/>
@@ -4172,60 +4275,60 @@
       <c r="M5" s="44"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="100">
+      <c r="B8" s="102">
         <v>2016</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="100"/>
+      <c r="A9" s="102"/>
       <c r="B9" s="58" t="s">
         <v>14</v>
       </c>
@@ -4710,21 +4813,21 @@
       <c r="M20" s="22"/>
     </row>
     <row r="21" spans="1:13" ht="26.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="90" t="s">
+      <c r="A21" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="90"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -4789,55 +4892,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.65" x14ac:dyDescent="0.2">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="92">
+      <c r="A3" s="95">
         <v>2017</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="44"/>
@@ -4870,60 +4973,60 @@
       <c r="M5" s="44"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="100">
+      <c r="B8" s="102">
         <v>2017</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="100"/>
+      <c r="A9" s="102"/>
       <c r="B9" s="59" t="s">
         <v>14</v>
       </c>
@@ -5408,21 +5511,21 @@
       <c r="M20" s="22"/>
     </row>
     <row r="21" spans="1:13" ht="26.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="90" t="s">
+      <c r="A21" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="90"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -5487,55 +5590,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.65" x14ac:dyDescent="0.2">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="92">
+      <c r="A3" s="95">
         <v>2018</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="44"/>
@@ -5568,60 +5671,60 @@
       <c r="M5" s="44"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="100">
+      <c r="B8" s="102">
         <v>2018</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="100"/>
+      <c r="A9" s="102"/>
       <c r="B9" s="60" t="s">
         <v>14</v>
       </c>
@@ -6106,21 +6209,21 @@
       <c r="M20" s="22"/>
     </row>
     <row r="21" spans="1:13" ht="26.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="90" t="s">
+      <c r="A21" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="90"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -6185,55 +6288,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.65" x14ac:dyDescent="0.2">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="92">
+      <c r="A3" s="95">
         <v>2019</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="44"/>
@@ -6266,60 +6369,60 @@
       <c r="M5" s="44"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="100">
+      <c r="B8" s="102">
         <v>2019</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="100"/>
+      <c r="A9" s="102"/>
       <c r="B9" s="71" t="s">
         <v>14</v>
       </c>
@@ -6804,21 +6907,21 @@
       <c r="M20" s="22"/>
     </row>
     <row r="21" spans="1:13" ht="26.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="90" t="s">
+      <c r="A21" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="90"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -6886,55 +6989,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.65" x14ac:dyDescent="0.2">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="92">
+      <c r="A3" s="95">
         <v>2020</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="76"/>
@@ -6967,60 +7070,60 @@
       <c r="M5" s="76"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="100">
+      <c r="B8" s="102">
         <v>2020</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="100"/>
+      <c r="A9" s="102"/>
       <c r="B9" s="77" t="s">
         <v>14</v>
       </c>
@@ -7504,21 +7607,21 @@
       <c r="M20" s="22"/>
     </row>
     <row r="21" spans="1:13" ht="26.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="90" t="s">
+      <c r="A21" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="90"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -7586,55 +7689,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.65" x14ac:dyDescent="0.2">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="92">
+      <c r="A3" s="95">
         <v>2021</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="79"/>
@@ -7667,60 +7770,60 @@
       <c r="M5" s="79"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="100">
+      <c r="B8" s="102">
         <v>2021</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="100"/>
+      <c r="A9" s="102"/>
       <c r="B9" s="82" t="s">
         <v>14</v>
       </c>
@@ -8205,21 +8308,21 @@
       <c r="M20" s="22"/>
     </row>
     <row r="21" spans="1:13" ht="26.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="90" t="s">
+      <c r="A21" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="90"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -8287,55 +8390,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.65" x14ac:dyDescent="0.2">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="92">
+      <c r="A3" s="95">
         <v>2022</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="88"/>
@@ -8368,60 +8471,60 @@
       <c r="M5" s="88"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="100">
+      <c r="B8" s="102">
         <v>2022</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="100"/>
+      <c r="A9" s="102"/>
       <c r="B9" s="89" t="s">
         <v>14</v>
       </c>
@@ -8906,21 +9009,546 @@
       <c r="M20" s="22"/>
     </row>
     <row r="21" spans="1:13" ht="26.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="90" t="s">
+      <c r="A21" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="90"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="10"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="75"/>
+      <c r="M23" s="24"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C25" s="72"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A21:M21"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="A6:M6"/>
+    <mergeCell ref="A7:M7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:M8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="34.625" customWidth="1"/>
+    <col min="2" max="13" width="9.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.65" x14ac:dyDescent="0.2">
+      <c r="A1" s="94" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="95">
+        <v>2023</v>
+      </c>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="90"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="90"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="90"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="98" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="103" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="102" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="102">
+        <v>2023</v>
+      </c>
+      <c r="C8" s="102"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="102"/>
+      <c r="B9" s="92" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="92" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="92" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="92" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="92" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="92" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="92" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="92" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="92" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="92" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="92" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="40">
+        <v>3956</v>
+      </c>
+      <c r="C10" s="68"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="40">
+        <v>123</v>
+      </c>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="40">
+        <v>15946</v>
+      </c>
+      <c r="C12" s="68"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="40">
+        <v>13326</v>
+      </c>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="40">
+        <v>204</v>
+      </c>
+      <c r="C14" s="84"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="40">
+        <v>31914</v>
+      </c>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="40">
+        <v>6196</v>
+      </c>
+      <c r="C16" s="68"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="40">
+        <v>33944</v>
+      </c>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="20">
+        <f t="shared" ref="B18:M18" si="0">SUM(B10:B17)</f>
+        <v>105609</v>
+      </c>
+      <c r="C18" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="20">
+        <f>SUM(L10:L17)</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="83">
+        <f>(B18/'2022'!M18-1)*100</f>
+        <v>-6.2455642299508174E-2</v>
+      </c>
+      <c r="C19" s="83">
+        <f>(C18/B18-1)*100</f>
+        <v>-100</v>
+      </c>
+      <c r="D19" s="83" t="e">
+        <f t="shared" ref="D19:H19" si="1">(D18/C18-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E19" s="83" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F19" s="83" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G19" s="83" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H19" s="83" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I19" s="83" t="e">
+        <f>(I18/H18-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J19" s="83" t="e">
+        <f>(J18/I18-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K19" s="83" t="e">
+        <f>(K18/J18-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L19" s="83" t="e">
+        <f>(L18/K18-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M19" s="83" t="e">
+        <f>(M18/L18-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+    </row>
+    <row r="21" spans="1:13" ht="26.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -8989,21 +9617,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="2" customFormat="1" ht="18.350000000000001" x14ac:dyDescent="0.2">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -9016,21 +9644,21 @@
       <c r="W1" s="3"/>
     </row>
     <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
@@ -9043,21 +9671,21 @@
       <c r="W2" s="6"/>
     </row>
     <row r="3" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="92">
+      <c r="A3" s="95">
         <v>2008</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
@@ -9120,21 +9748,21 @@
       <c r="W5" s="6"/>
     </row>
     <row r="6" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -9147,21 +9775,21 @@
       <c r="W6" s="6"/>
     </row>
     <row r="7" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -9174,26 +9802,26 @@
       <c r="W7" s="6"/>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="100">
+      <c r="B8" s="102">
         <v>2008</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="100"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="100"/>
+      <c r="A9" s="102"/>
       <c r="B9" s="45" t="s">
         <v>14</v>
       </c>
@@ -9759,21 +10387,21 @@
     </row>
     <row r="20" spans="1:106" ht="10.55" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:106" ht="39.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="90" t="s">
+      <c r="A21" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="90"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -9876,21 +10504,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="2" customFormat="1" ht="18.350000000000001" x14ac:dyDescent="0.2">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -9903,21 +10531,21 @@
       <c r="W1" s="3"/>
     </row>
     <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -9930,21 +10558,21 @@
       <c r="W2" s="5"/>
     </row>
     <row r="3" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="92">
+      <c r="A3" s="95">
         <v>2009</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -10007,21 +10635,21 @@
       <c r="W5" s="5"/>
     </row>
     <row r="6" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
@@ -10034,21 +10662,21 @@
       <c r="W6" s="5"/>
     </row>
     <row r="7" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
@@ -10061,26 +10689,26 @@
       <c r="W7" s="5"/>
     </row>
     <row r="8" spans="1:23" s="17" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="100">
+      <c r="B8" s="102">
         <v>2009</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="100"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
     </row>
     <row r="9" spans="1:23" s="17" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="100"/>
+      <c r="A9" s="102"/>
       <c r="B9" s="45" t="s">
         <v>14</v>
       </c>
@@ -10647,21 +11275,21 @@
     </row>
     <row r="20" spans="1:106" ht="10.55" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:106" ht="46.55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="90" t="s">
+      <c r="A21" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="90"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -10764,21 +11392,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="2" customFormat="1" ht="18.350000000000001" x14ac:dyDescent="0.2">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -10791,21 +11419,21 @@
       <c r="W1" s="3"/>
     </row>
     <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -10818,21 +11446,21 @@
       <c r="W2" s="5"/>
     </row>
     <row r="3" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="92">
+      <c r="A3" s="95">
         <v>2010</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -10895,21 +11523,21 @@
       <c r="W5" s="5"/>
     </row>
     <row r="6" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
@@ -10922,21 +11550,21 @@
       <c r="W6" s="5"/>
     </row>
     <row r="7" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
@@ -10949,26 +11577,26 @@
       <c r="W7" s="5"/>
     </row>
     <row r="8" spans="1:23" s="17" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="100">
+      <c r="B8" s="102">
         <v>2010</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="100"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
     </row>
     <row r="9" spans="1:23" s="17" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="100"/>
+      <c r="A9" s="102"/>
       <c r="B9" s="45" t="s">
         <v>14</v>
       </c>
@@ -11535,21 +12163,21 @@
     </row>
     <row r="20" spans="1:106" ht="10.55" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:106" ht="46.55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="90" t="s">
+      <c r="A21" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="90"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -11665,21 +12293,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="2" customFormat="1" ht="18.350000000000001" x14ac:dyDescent="0.2">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -11692,21 +12320,21 @@
       <c r="W1" s="3"/>
     </row>
     <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -11719,21 +12347,21 @@
       <c r="W2" s="5"/>
     </row>
     <row r="3" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="92">
+      <c r="A3" s="95">
         <v>2011</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -11796,21 +12424,21 @@
       <c r="W5" s="5"/>
     </row>
     <row r="6" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
@@ -11823,21 +12451,21 @@
       <c r="W6" s="5"/>
     </row>
     <row r="7" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
@@ -11850,26 +12478,26 @@
       <c r="W7" s="5"/>
     </row>
     <row r="8" spans="1:23" s="17" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="100">
+      <c r="B8" s="102">
         <v>2011</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="100"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
     </row>
     <row r="9" spans="1:23" s="17" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="100"/>
+      <c r="A9" s="102"/>
       <c r="B9" s="45" t="s">
         <v>14</v>
       </c>
@@ -12436,21 +13064,21 @@
     </row>
     <row r="20" spans="1:106" ht="10.55" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:106" ht="46.55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="90" t="s">
+      <c r="A21" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="90"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -12567,21 +13195,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="2" customFormat="1" ht="18.350000000000001" x14ac:dyDescent="0.2">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -12594,21 +13222,21 @@
       <c r="W1" s="3"/>
     </row>
     <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -12621,21 +13249,21 @@
       <c r="W2" s="5"/>
     </row>
     <row r="3" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="92">
+      <c r="A3" s="95">
         <v>2012</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -12698,21 +13326,21 @@
       <c r="W5" s="5"/>
     </row>
     <row r="6" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
@@ -12725,21 +13353,21 @@
       <c r="W6" s="5"/>
     </row>
     <row r="7" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
@@ -12752,26 +13380,26 @@
       <c r="W7" s="5"/>
     </row>
     <row r="8" spans="1:23" s="17" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="100">
+      <c r="B8" s="102">
         <v>2012</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
     </row>
     <row r="9" spans="1:23" s="17" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="100"/>
+      <c r="A9" s="102"/>
       <c r="B9" s="45" t="s">
         <v>14</v>
       </c>
@@ -13338,21 +13966,21 @@
     </row>
     <row r="20" spans="1:106" ht="10.55" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:106" ht="46.55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="90" t="s">
+      <c r="A21" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="90"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -13468,21 +14096,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="2" customFormat="1" ht="15.65" x14ac:dyDescent="0.2">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -13495,21 +14123,21 @@
       <c r="W1" s="3"/>
     </row>
     <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -13522,21 +14150,21 @@
       <c r="W2" s="5"/>
     </row>
     <row r="3" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="92">
+      <c r="A3" s="95">
         <v>2013</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -13599,21 +14227,21 @@
       <c r="W5" s="5"/>
     </row>
     <row r="6" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
@@ -13626,21 +14254,21 @@
       <c r="W6" s="5"/>
     </row>
     <row r="7" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
@@ -13653,26 +14281,26 @@
       <c r="W7" s="5"/>
     </row>
     <row r="8" spans="1:23" s="17" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="100">
+      <c r="B8" s="102">
         <v>2013</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
     </row>
     <row r="9" spans="1:23" s="17" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="100"/>
+      <c r="A9" s="102"/>
       <c r="B9" s="45" t="s">
         <v>14</v>
       </c>
@@ -14239,21 +14867,21 @@
     </row>
     <row r="20" spans="1:106" ht="10.55" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:106" ht="46.55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="90" t="s">
+      <c r="A21" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="90"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -14369,21 +14997,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="2" customFormat="1" ht="15.65" x14ac:dyDescent="0.2">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -14395,21 +15023,21 @@
       <c r="V1" s="3"/>
     </row>
     <row r="2" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -14421,21 +15049,21 @@
       <c r="V2" s="5"/>
     </row>
     <row r="3" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="92">
+      <c r="A3" s="95">
         <v>2014</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -14495,21 +15123,21 @@
       <c r="V5" s="5"/>
     </row>
     <row r="6" spans="1:22" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
@@ -14521,21 +15149,21 @@
       <c r="V6" s="5"/>
     </row>
     <row r="7" spans="1:22" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
@@ -14547,26 +15175,26 @@
       <c r="V7" s="5"/>
     </row>
     <row r="8" spans="1:22" s="17" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="100">
+      <c r="B8" s="102">
         <v>2014</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
     </row>
     <row r="9" spans="1:22" s="17" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="100"/>
+      <c r="A9" s="102"/>
       <c r="B9" s="45" t="s">
         <v>14</v>
       </c>
@@ -15132,21 +15760,21 @@
     </row>
     <row r="20" spans="1:105" ht="10.55" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:105" ht="46.55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="90" t="s">
+      <c r="A21" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="90"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -15268,21 +15896,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="2" customFormat="1" ht="15.65" x14ac:dyDescent="0.2">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -15293,21 +15921,21 @@
       <c r="U1" s="3"/>
     </row>
     <row r="2" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -15318,21 +15946,21 @@
       <c r="U2" s="5"/>
     </row>
     <row r="3" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="92">
+      <c r="A3" s="95">
         <v>2015</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -15389,62 +16017,62 @@
       <c r="U5" s="5"/>
     </row>
     <row r="6" spans="1:21" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
       <c r="U6" s="5"/>
     </row>
     <row r="7" spans="1:21" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
       <c r="U7" s="5"/>
     </row>
     <row r="8" spans="1:21" s="17" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="100">
+      <c r="B8" s="102">
         <v>2015</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
     </row>
     <row r="9" spans="1:21" s="17" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="100"/>
+      <c r="A9" s="102"/>
       <c r="B9" s="56" t="s">
         <v>14</v>
       </c>
@@ -16086,21 +16714,21 @@
     </row>
     <row r="20" spans="1:104" ht="10.55" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:104" ht="46.55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="90" t="s">
+      <c r="A21" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="90"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>

--- a/Tabulados/Patrones.xlsx
+++ b/Tabulados/Patrones.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20395"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\UEF\Actualizaciones pagina\Tabulados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roberto.galindo\Documents\GitHub\SIE\Tabulados\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BB5910-501B-4901-8374-DF11DD11F0A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19195" windowHeight="6344" tabRatio="848"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6345" tabRatio="848" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Resumen Gral 08-21" sheetId="1" r:id="rId1"/>
+    <sheet name="Resumen Gral 08-23" sheetId="1" r:id="rId1"/>
     <sheet name="2008" sheetId="15" r:id="rId2"/>
     <sheet name="2009" sheetId="16" r:id="rId3"/>
     <sheet name="2010" sheetId="18" r:id="rId4"/>
@@ -34,7 +35,7 @@
     <definedName name="rowNest1" localSheetId="9">'2016'!$Q$13</definedName>
     <definedName name="sortIcon" localSheetId="9">'2016'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -208,19 +209,19 @@
     <t>Por división económica 2008 - 2023</t>
   </si>
   <si>
-    <t>Var Enero 2023 respecto a Diciembre 2022</t>
+    <t>Var Febrero 2023 respecto a Diciembre 2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="46" x14ac:knownFonts="1">
+  <fonts count="46">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1121,7 +1122,7 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1399,170 +1400,173 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="237">
     <cellStyle name="20% - Énfasis1" xfId="1" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis1 2" xfId="55"/>
-    <cellStyle name="20% - Énfasis1 2 2" xfId="166"/>
-    <cellStyle name="20% - Énfasis1 3" xfId="70"/>
-    <cellStyle name="20% - Énfasis1 3 2" xfId="181"/>
-    <cellStyle name="20% - Énfasis1 4" xfId="85"/>
-    <cellStyle name="20% - Énfasis1 4 2" xfId="196"/>
-    <cellStyle name="20% - Énfasis1 5" xfId="99"/>
-    <cellStyle name="20% - Énfasis1 5 2" xfId="210"/>
-    <cellStyle name="20% - Énfasis1 6" xfId="113"/>
-    <cellStyle name="20% - Énfasis1 6 2" xfId="224"/>
-    <cellStyle name="20% - Énfasis1 7" xfId="130"/>
+    <cellStyle name="20% - Énfasis1 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - Énfasis1 2 2" xfId="166" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - Énfasis1 3" xfId="70" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - Énfasis1 3 2" xfId="181" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - Énfasis1 4" xfId="85" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="20% - Énfasis1 4 2" xfId="196" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="20% - Énfasis1 5" xfId="99" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="20% - Énfasis1 5 2" xfId="210" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="20% - Énfasis1 6" xfId="113" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="20% - Énfasis1 6 2" xfId="224" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="20% - Énfasis1 7" xfId="130" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="20% - Énfasis2" xfId="2" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2 2" xfId="57"/>
-    <cellStyle name="20% - Énfasis2 2 2" xfId="168"/>
-    <cellStyle name="20% - Énfasis2 3" xfId="72"/>
-    <cellStyle name="20% - Énfasis2 3 2" xfId="183"/>
-    <cellStyle name="20% - Énfasis2 4" xfId="87"/>
-    <cellStyle name="20% - Énfasis2 4 2" xfId="198"/>
-    <cellStyle name="20% - Énfasis2 5" xfId="101"/>
-    <cellStyle name="20% - Énfasis2 5 2" xfId="212"/>
-    <cellStyle name="20% - Énfasis2 6" xfId="115"/>
-    <cellStyle name="20% - Énfasis2 6 2" xfId="226"/>
-    <cellStyle name="20% - Énfasis2 7" xfId="133"/>
+    <cellStyle name="20% - Énfasis2 2" xfId="57" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="20% - Énfasis2 2 2" xfId="168" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="20% - Énfasis2 3" xfId="72" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="20% - Énfasis2 3 2" xfId="183" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="20% - Énfasis2 4" xfId="87" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="20% - Énfasis2 4 2" xfId="198" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="20% - Énfasis2 5" xfId="101" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="20% - Énfasis2 5 2" xfId="212" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="20% - Énfasis2 6" xfId="115" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="20% - Énfasis2 6 2" xfId="226" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="20% - Énfasis2 7" xfId="133" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
     <cellStyle name="20% - Énfasis3" xfId="3" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3 2" xfId="59"/>
-    <cellStyle name="20% - Énfasis3 2 2" xfId="170"/>
-    <cellStyle name="20% - Énfasis3 3" xfId="74"/>
-    <cellStyle name="20% - Énfasis3 3 2" xfId="185"/>
-    <cellStyle name="20% - Énfasis3 4" xfId="89"/>
-    <cellStyle name="20% - Énfasis3 4 2" xfId="200"/>
-    <cellStyle name="20% - Énfasis3 5" xfId="103"/>
-    <cellStyle name="20% - Énfasis3 5 2" xfId="214"/>
-    <cellStyle name="20% - Énfasis3 6" xfId="117"/>
-    <cellStyle name="20% - Énfasis3 6 2" xfId="228"/>
-    <cellStyle name="20% - Énfasis3 7" xfId="136"/>
+    <cellStyle name="20% - Énfasis3 2" xfId="59" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="20% - Énfasis3 2 2" xfId="170" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="20% - Énfasis3 3" xfId="74" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="20% - Énfasis3 3 2" xfId="185" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="20% - Énfasis3 4" xfId="89" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="20% - Énfasis3 4 2" xfId="200" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="20% - Énfasis3 5" xfId="103" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="20% - Énfasis3 5 2" xfId="214" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="20% - Énfasis3 6" xfId="117" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="20% - Énfasis3 6 2" xfId="228" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="20% - Énfasis3 7" xfId="136" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
     <cellStyle name="20% - Énfasis4" xfId="4" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4 2" xfId="61"/>
-    <cellStyle name="20% - Énfasis4 2 2" xfId="172"/>
-    <cellStyle name="20% - Énfasis4 3" xfId="76"/>
-    <cellStyle name="20% - Énfasis4 3 2" xfId="187"/>
-    <cellStyle name="20% - Énfasis4 4" xfId="91"/>
-    <cellStyle name="20% - Énfasis4 4 2" xfId="202"/>
-    <cellStyle name="20% - Énfasis4 5" xfId="105"/>
-    <cellStyle name="20% - Énfasis4 5 2" xfId="216"/>
-    <cellStyle name="20% - Énfasis4 6" xfId="119"/>
-    <cellStyle name="20% - Énfasis4 6 2" xfId="230"/>
-    <cellStyle name="20% - Énfasis4 7" xfId="139"/>
+    <cellStyle name="20% - Énfasis4 2" xfId="61" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="20% - Énfasis4 2 2" xfId="172" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="20% - Énfasis4 3" xfId="76" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="20% - Énfasis4 3 2" xfId="187" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="20% - Énfasis4 4" xfId="91" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="20% - Énfasis4 4 2" xfId="202" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="20% - Énfasis4 5" xfId="105" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="20% - Énfasis4 5 2" xfId="216" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="20% - Énfasis4 6" xfId="119" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="20% - Énfasis4 6 2" xfId="230" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="20% - Énfasis4 7" xfId="139" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
     <cellStyle name="20% - Énfasis5" xfId="5" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5 2" xfId="63"/>
-    <cellStyle name="20% - Énfasis5 2 2" xfId="174"/>
-    <cellStyle name="20% - Énfasis5 3" xfId="78"/>
-    <cellStyle name="20% - Énfasis5 3 2" xfId="189"/>
-    <cellStyle name="20% - Énfasis5 4" xfId="93"/>
-    <cellStyle name="20% - Énfasis5 4 2" xfId="204"/>
-    <cellStyle name="20% - Énfasis5 5" xfId="107"/>
-    <cellStyle name="20% - Énfasis5 5 2" xfId="218"/>
-    <cellStyle name="20% - Énfasis5 6" xfId="121"/>
-    <cellStyle name="20% - Énfasis5 6 2" xfId="232"/>
-    <cellStyle name="20% - Énfasis5 7" xfId="142"/>
+    <cellStyle name="20% - Énfasis5 2" xfId="63" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="20% - Énfasis5 2 2" xfId="174" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="20% - Énfasis5 3" xfId="78" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="20% - Énfasis5 3 2" xfId="189" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="20% - Énfasis5 4" xfId="93" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="20% - Énfasis5 4 2" xfId="204" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="20% - Énfasis5 5" xfId="107" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="20% - Énfasis5 5 2" xfId="218" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="20% - Énfasis5 6" xfId="121" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="20% - Énfasis5 6 2" xfId="232" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="20% - Énfasis5 7" xfId="142" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
     <cellStyle name="20% - Énfasis6" xfId="6" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6 2" xfId="65"/>
-    <cellStyle name="20% - Énfasis6 2 2" xfId="176"/>
-    <cellStyle name="20% - Énfasis6 3" xfId="80"/>
-    <cellStyle name="20% - Énfasis6 3 2" xfId="191"/>
-    <cellStyle name="20% - Énfasis6 4" xfId="95"/>
-    <cellStyle name="20% - Énfasis6 4 2" xfId="206"/>
-    <cellStyle name="20% - Énfasis6 5" xfId="109"/>
-    <cellStyle name="20% - Énfasis6 5 2" xfId="220"/>
-    <cellStyle name="20% - Énfasis6 6" xfId="123"/>
-    <cellStyle name="20% - Énfasis6 6 2" xfId="234"/>
-    <cellStyle name="20% - Énfasis6 7" xfId="145"/>
+    <cellStyle name="20% - Énfasis6 2" xfId="65" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="20% - Énfasis6 2 2" xfId="176" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="20% - Énfasis6 3" xfId="80" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="20% - Énfasis6 3 2" xfId="191" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="20% - Énfasis6 4" xfId="95" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="20% - Énfasis6 4 2" xfId="206" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="20% - Énfasis6 5" xfId="109" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="20% - Énfasis6 5 2" xfId="220" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="20% - Énfasis6 6" xfId="123" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="20% - Énfasis6 6 2" xfId="234" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="20% - Énfasis6 7" xfId="145" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
     <cellStyle name="40% - Énfasis1" xfId="7" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1 2" xfId="56"/>
-    <cellStyle name="40% - Énfasis1 2 2" xfId="167"/>
-    <cellStyle name="40% - Énfasis1 3" xfId="71"/>
-    <cellStyle name="40% - Énfasis1 3 2" xfId="182"/>
-    <cellStyle name="40% - Énfasis1 4" xfId="86"/>
-    <cellStyle name="40% - Énfasis1 4 2" xfId="197"/>
-    <cellStyle name="40% - Énfasis1 5" xfId="100"/>
-    <cellStyle name="40% - Énfasis1 5 2" xfId="211"/>
-    <cellStyle name="40% - Énfasis1 6" xfId="114"/>
-    <cellStyle name="40% - Énfasis1 6 2" xfId="225"/>
-    <cellStyle name="40% - Énfasis1 7" xfId="131"/>
+    <cellStyle name="40% - Énfasis1 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="40% - Énfasis1 2 2" xfId="167" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="40% - Énfasis1 3" xfId="71" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="40% - Énfasis1 3 2" xfId="182" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="40% - Énfasis1 4" xfId="86" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="40% - Énfasis1 4 2" xfId="197" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="40% - Énfasis1 5" xfId="100" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="40% - Énfasis1 5 2" xfId="211" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="40% - Énfasis1 6" xfId="114" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="40% - Énfasis1 6 2" xfId="225" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="40% - Énfasis1 7" xfId="131" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
     <cellStyle name="40% - Énfasis2" xfId="8" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2 2" xfId="58"/>
-    <cellStyle name="40% - Énfasis2 2 2" xfId="169"/>
-    <cellStyle name="40% - Énfasis2 3" xfId="73"/>
-    <cellStyle name="40% - Énfasis2 3 2" xfId="184"/>
-    <cellStyle name="40% - Énfasis2 4" xfId="88"/>
-    <cellStyle name="40% - Énfasis2 4 2" xfId="199"/>
-    <cellStyle name="40% - Énfasis2 5" xfId="102"/>
-    <cellStyle name="40% - Énfasis2 5 2" xfId="213"/>
-    <cellStyle name="40% - Énfasis2 6" xfId="116"/>
-    <cellStyle name="40% - Énfasis2 6 2" xfId="227"/>
-    <cellStyle name="40% - Énfasis2 7" xfId="134"/>
+    <cellStyle name="40% - Énfasis2 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="40% - Énfasis2 2 2" xfId="169" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="40% - Énfasis2 3" xfId="73" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="40% - Énfasis2 3 2" xfId="184" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="40% - Énfasis2 4" xfId="88" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="40% - Énfasis2 4 2" xfId="199" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="40% - Énfasis2 5" xfId="102" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="40% - Énfasis2 5 2" xfId="213" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="40% - Énfasis2 6" xfId="116" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="40% - Énfasis2 6 2" xfId="227" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="40% - Énfasis2 7" xfId="134" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
     <cellStyle name="40% - Énfasis3" xfId="9" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3 2" xfId="60"/>
-    <cellStyle name="40% - Énfasis3 2 2" xfId="171"/>
-    <cellStyle name="40% - Énfasis3 3" xfId="75"/>
-    <cellStyle name="40% - Énfasis3 3 2" xfId="186"/>
-    <cellStyle name="40% - Énfasis3 4" xfId="90"/>
-    <cellStyle name="40% - Énfasis3 4 2" xfId="201"/>
-    <cellStyle name="40% - Énfasis3 5" xfId="104"/>
-    <cellStyle name="40% - Énfasis3 5 2" xfId="215"/>
-    <cellStyle name="40% - Énfasis3 6" xfId="118"/>
-    <cellStyle name="40% - Énfasis3 6 2" xfId="229"/>
-    <cellStyle name="40% - Énfasis3 7" xfId="137"/>
+    <cellStyle name="40% - Énfasis3 2" xfId="60" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="40% - Énfasis3 2 2" xfId="171" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="40% - Énfasis3 3" xfId="75" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="40% - Énfasis3 3 2" xfId="186" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="40% - Énfasis3 4" xfId="90" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="40% - Énfasis3 4 2" xfId="201" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="40% - Énfasis3 5" xfId="104" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="40% - Énfasis3 5 2" xfId="215" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="40% - Énfasis3 6" xfId="118" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="40% - Énfasis3 6 2" xfId="229" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="40% - Énfasis3 7" xfId="137" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
     <cellStyle name="40% - Énfasis4" xfId="10" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4 2" xfId="62"/>
-    <cellStyle name="40% - Énfasis4 2 2" xfId="173"/>
-    <cellStyle name="40% - Énfasis4 3" xfId="77"/>
-    <cellStyle name="40% - Énfasis4 3 2" xfId="188"/>
-    <cellStyle name="40% - Énfasis4 4" xfId="92"/>
-    <cellStyle name="40% - Énfasis4 4 2" xfId="203"/>
-    <cellStyle name="40% - Énfasis4 5" xfId="106"/>
-    <cellStyle name="40% - Énfasis4 5 2" xfId="217"/>
-    <cellStyle name="40% - Énfasis4 6" xfId="120"/>
-    <cellStyle name="40% - Énfasis4 6 2" xfId="231"/>
-    <cellStyle name="40% - Énfasis4 7" xfId="140"/>
+    <cellStyle name="40% - Énfasis4 2" xfId="62" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="40% - Énfasis4 2 2" xfId="173" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="40% - Énfasis4 3" xfId="77" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="40% - Énfasis4 3 2" xfId="188" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="40% - Énfasis4 4" xfId="92" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="40% - Énfasis4 4 2" xfId="203" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="40% - Énfasis4 5" xfId="106" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="40% - Énfasis4 5 2" xfId="217" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="40% - Énfasis4 6" xfId="120" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="40% - Énfasis4 6 2" xfId="231" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="40% - Énfasis4 7" xfId="140" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
     <cellStyle name="40% - Énfasis5" xfId="11" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5 2" xfId="64"/>
-    <cellStyle name="40% - Énfasis5 2 2" xfId="175"/>
-    <cellStyle name="40% - Énfasis5 3" xfId="79"/>
-    <cellStyle name="40% - Énfasis5 3 2" xfId="190"/>
-    <cellStyle name="40% - Énfasis5 4" xfId="94"/>
-    <cellStyle name="40% - Énfasis5 4 2" xfId="205"/>
-    <cellStyle name="40% - Énfasis5 5" xfId="108"/>
-    <cellStyle name="40% - Énfasis5 5 2" xfId="219"/>
-    <cellStyle name="40% - Énfasis5 6" xfId="122"/>
-    <cellStyle name="40% - Énfasis5 6 2" xfId="233"/>
-    <cellStyle name="40% - Énfasis5 7" xfId="143"/>
+    <cellStyle name="40% - Énfasis5 2" xfId="64" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="40% - Énfasis5 2 2" xfId="175" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="40% - Énfasis5 3" xfId="79" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="40% - Énfasis5 3 2" xfId="190" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="40% - Énfasis5 4" xfId="94" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="40% - Énfasis5 4 2" xfId="205" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="40% - Énfasis5 5" xfId="108" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="40% - Énfasis5 5 2" xfId="219" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="40% - Énfasis5 6" xfId="122" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="40% - Énfasis5 6 2" xfId="233" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="40% - Énfasis5 7" xfId="143" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
     <cellStyle name="40% - Énfasis6" xfId="12" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6 2" xfId="66"/>
-    <cellStyle name="40% - Énfasis6 2 2" xfId="177"/>
-    <cellStyle name="40% - Énfasis6 3" xfId="81"/>
-    <cellStyle name="40% - Énfasis6 3 2" xfId="192"/>
-    <cellStyle name="40% - Énfasis6 4" xfId="96"/>
-    <cellStyle name="40% - Énfasis6 4 2" xfId="207"/>
-    <cellStyle name="40% - Énfasis6 5" xfId="110"/>
-    <cellStyle name="40% - Énfasis6 5 2" xfId="221"/>
-    <cellStyle name="40% - Énfasis6 6" xfId="124"/>
-    <cellStyle name="40% - Énfasis6 6 2" xfId="235"/>
-    <cellStyle name="40% - Énfasis6 7" xfId="146"/>
+    <cellStyle name="40% - Énfasis6 2" xfId="66" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="40% - Énfasis6 2 2" xfId="177" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="40% - Énfasis6 3" xfId="81" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="40% - Énfasis6 3 2" xfId="192" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="40% - Énfasis6 4" xfId="96" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="40% - Énfasis6 4 2" xfId="207" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="40% - Énfasis6 5" xfId="110" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="40% - Énfasis6 5 2" xfId="221" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="40% - Énfasis6 6" xfId="124" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="40% - Énfasis6 6 2" xfId="235" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="40% - Énfasis6 7" xfId="146" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
     <cellStyle name="60% - Énfasis1" xfId="13" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1 2" xfId="150"/>
-    <cellStyle name="60% - Énfasis1 3" xfId="132"/>
+    <cellStyle name="60% - Énfasis1 2" xfId="150" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="60% - Énfasis1 3" xfId="132" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
     <cellStyle name="60% - Énfasis2" xfId="14" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2 2" xfId="153"/>
-    <cellStyle name="60% - Énfasis2 3" xfId="135"/>
+    <cellStyle name="60% - Énfasis2 2" xfId="153" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="60% - Énfasis2 3" xfId="135" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
     <cellStyle name="60% - Énfasis3" xfId="15" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3 2" xfId="159"/>
-    <cellStyle name="60% - Énfasis3 3" xfId="138"/>
+    <cellStyle name="60% - Énfasis3 2" xfId="159" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="60% - Énfasis3 3" xfId="138" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
     <cellStyle name="60% - Énfasis4" xfId="16" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4 2" xfId="160"/>
-    <cellStyle name="60% - Énfasis4 3" xfId="141"/>
+    <cellStyle name="60% - Énfasis4 2" xfId="160" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
+    <cellStyle name="60% - Énfasis4 3" xfId="141" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
     <cellStyle name="60% - Énfasis5" xfId="17" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5 2" xfId="154"/>
-    <cellStyle name="60% - Énfasis5 3" xfId="144"/>
+    <cellStyle name="60% - Énfasis5 2" xfId="154" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
+    <cellStyle name="60% - Énfasis5 3" xfId="144" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
     <cellStyle name="60% - Énfasis6" xfId="18" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6 2" xfId="157"/>
-    <cellStyle name="60% - Énfasis6 3" xfId="147"/>
+    <cellStyle name="60% - Énfasis6 2" xfId="157" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
+    <cellStyle name="60% - Énfasis6 3" xfId="147" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
     <cellStyle name="Bueno" xfId="19" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="20" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Celda de comprobación" xfId="21" builtinId="23" customBuiltin="1"/>
@@ -1578,65 +1582,65 @@
     <cellStyle name="Entrada" xfId="30" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Incorrecto" xfId="31" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Millares" xfId="32" builtinId="3"/>
-    <cellStyle name="Millares 2" xfId="33"/>
-    <cellStyle name="Millares 2 2" xfId="34"/>
-    <cellStyle name="Millares 2 2 2" xfId="149"/>
-    <cellStyle name="Millares 2 3" xfId="155"/>
-    <cellStyle name="Millares 3" xfId="35"/>
-    <cellStyle name="Millares 3 2" xfId="158"/>
-    <cellStyle name="Millares 4" xfId="156"/>
+    <cellStyle name="Millares 2" xfId="33" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
+    <cellStyle name="Millares 2 2" xfId="34" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
+    <cellStyle name="Millares 2 2 2" xfId="149" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
+    <cellStyle name="Millares 2 3" xfId="155" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
+    <cellStyle name="Millares 3" xfId="35" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
+    <cellStyle name="Millares 3 2" xfId="158" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
+    <cellStyle name="Millares 4" xfId="156" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
     <cellStyle name="Neutral" xfId="36" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Neutral 2" xfId="148"/>
-    <cellStyle name="Neutral 3" xfId="128"/>
+    <cellStyle name="Neutral 2" xfId="148" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
+    <cellStyle name="Neutral 3" xfId="128" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="126"/>
-    <cellStyle name="Normal 2" xfId="37"/>
-    <cellStyle name="Normal 2 2" xfId="67"/>
-    <cellStyle name="Normal 2 2 2" xfId="178"/>
-    <cellStyle name="Normal 2 3" xfId="82"/>
-    <cellStyle name="Normal 2 3 2" xfId="193"/>
-    <cellStyle name="Normal 2 4" xfId="151"/>
-    <cellStyle name="Normal 3" xfId="38"/>
-    <cellStyle name="Normal 4" xfId="53"/>
-    <cellStyle name="Normal 4 2" xfId="164"/>
-    <cellStyle name="Normal 5" xfId="68"/>
-    <cellStyle name="Normal 5 2" xfId="179"/>
-    <cellStyle name="Normal 6" xfId="83"/>
-    <cellStyle name="Normal 6 2" xfId="194"/>
-    <cellStyle name="Normal 7" xfId="97"/>
-    <cellStyle name="Normal 7 2" xfId="208"/>
-    <cellStyle name="Normal 8" xfId="111"/>
-    <cellStyle name="Normal 8 2" xfId="222"/>
-    <cellStyle name="Normal 9" xfId="152"/>
-    <cellStyle name="Normal_INDIC3" xfId="39"/>
-    <cellStyle name="Normal_INDICA18" xfId="40"/>
-    <cellStyle name="Normal_INDICA8" xfId="41"/>
-    <cellStyle name="Normal_Trab_Comer_Jal" xfId="42"/>
-    <cellStyle name="Notas 2" xfId="43"/>
-    <cellStyle name="Notas 2 2" xfId="161"/>
-    <cellStyle name="Notas 3" xfId="54"/>
-    <cellStyle name="Notas 3 2" xfId="165"/>
-    <cellStyle name="Notas 4" xfId="69"/>
-    <cellStyle name="Notas 4 2" xfId="180"/>
-    <cellStyle name="Notas 5" xfId="84"/>
-    <cellStyle name="Notas 5 2" xfId="195"/>
-    <cellStyle name="Notas 6" xfId="98"/>
-    <cellStyle name="Notas 6 2" xfId="209"/>
-    <cellStyle name="Notas 7" xfId="112"/>
-    <cellStyle name="Notas 7 2" xfId="223"/>
-    <cellStyle name="Notas 8" xfId="129"/>
+    <cellStyle name="Normal 10" xfId="126" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
+    <cellStyle name="Normal 2" xfId="37" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
+    <cellStyle name="Normal 2 2" xfId="67" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
+    <cellStyle name="Normal 2 2 2" xfId="178" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
+    <cellStyle name="Normal 2 3" xfId="82" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
+    <cellStyle name="Normal 2 3 2" xfId="193" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
+    <cellStyle name="Normal 2 4" xfId="151" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
+    <cellStyle name="Normal 3" xfId="38" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
+    <cellStyle name="Normal 4" xfId="53" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
+    <cellStyle name="Normal 4 2" xfId="164" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
+    <cellStyle name="Normal 5" xfId="68" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
+    <cellStyle name="Normal 5 2" xfId="179" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
+    <cellStyle name="Normal 6" xfId="83" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
+    <cellStyle name="Normal 6 2" xfId="194" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
+    <cellStyle name="Normal 7" xfId="97" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
+    <cellStyle name="Normal 7 2" xfId="208" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
+    <cellStyle name="Normal 8" xfId="111" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
+    <cellStyle name="Normal 8 2" xfId="222" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
+    <cellStyle name="Normal 9" xfId="152" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
+    <cellStyle name="Normal_INDIC3" xfId="39" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
+    <cellStyle name="Normal_INDICA18" xfId="40" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
+    <cellStyle name="Normal_INDICA8" xfId="41" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
+    <cellStyle name="Normal_Trab_Comer_Jal" xfId="42" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
+    <cellStyle name="Notas 2" xfId="43" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
+    <cellStyle name="Notas 2 2" xfId="161" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
+    <cellStyle name="Notas 3" xfId="54" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
+    <cellStyle name="Notas 3 2" xfId="165" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
+    <cellStyle name="Notas 4" xfId="69" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
+    <cellStyle name="Notas 4 2" xfId="180" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
+    <cellStyle name="Notas 5" xfId="84" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
+    <cellStyle name="Notas 5 2" xfId="195" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
+    <cellStyle name="Notas 6" xfId="98" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
+    <cellStyle name="Notas 6 2" xfId="209" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
+    <cellStyle name="Notas 7" xfId="112" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
+    <cellStyle name="Notas 7 2" xfId="223" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
+    <cellStyle name="Notas 8" xfId="129" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
     <cellStyle name="Porcentaje" xfId="44" builtinId="5"/>
-    <cellStyle name="Porcentaje 2" xfId="125"/>
-    <cellStyle name="Porcentaje 2 2" xfId="236"/>
-    <cellStyle name="Porcentaje 3" xfId="162"/>
+    <cellStyle name="Porcentaje 2" xfId="125" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
+    <cellStyle name="Porcentaje 2 2" xfId="236" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
+    <cellStyle name="Porcentaje 3" xfId="162" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
     <cellStyle name="Salida" xfId="45" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texto de advertencia" xfId="46" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto explicativo" xfId="47" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Título" xfId="48" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Título 2" xfId="50" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Título 3" xfId="51" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Título 4" xfId="163"/>
-    <cellStyle name="Título 5" xfId="127"/>
+    <cellStyle name="Título 4" xfId="163" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
+    <cellStyle name="Título 5" xfId="127" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
     <cellStyle name="Total" xfId="52" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2590,7 +2594,7 @@
         <xdr:cNvPr id="2" name="2 Imagen" descr="http://189.202.239.32/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2664,7 +2668,7 @@
         <xdr:cNvPr id="3" name="3 Imagen" descr="http://189.202.239.32/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2743,7 +2747,7 @@
         <xdr:cNvPr id="2" name="2 Imagen" descr="http://189.202.239.32/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2817,7 +2821,7 @@
         <xdr:cNvPr id="3" name="3 Imagen" descr="http://189.202.239.32/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2952,6 +2956,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2987,6 +3008,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3162,25 +3200,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BJ24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+      <selection sqref="A1:R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="27.625" style="32" customWidth="1"/>
-    <col min="2" max="6" width="6.625" style="32" customWidth="1"/>
-    <col min="7" max="8" width="6.625" style="36" customWidth="1"/>
-    <col min="9" max="17" width="6.625" style="32" customWidth="1"/>
-    <col min="18" max="18" width="10.25" style="32" customWidth="1"/>
-    <col min="19" max="23" width="11.375" style="32" customWidth="1"/>
-    <col min="24" max="16384" width="9.875" style="32"/>
+    <col min="1" max="1" width="27.5703125" style="32" customWidth="1"/>
+    <col min="2" max="6" width="6.5703125" style="32" customWidth="1"/>
+    <col min="7" max="8" width="6.5703125" style="36" customWidth="1"/>
+    <col min="9" max="17" width="6.5703125" style="32" customWidth="1"/>
+    <col min="18" max="18" width="10.28515625" style="32" customWidth="1"/>
+    <col min="19" max="23" width="11.42578125" style="32" customWidth="1"/>
+    <col min="24" max="16384" width="9.85546875" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="27" customFormat="1" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" s="27" customFormat="1" ht="15.75" customHeight="1">
       <c r="A1" s="94" t="s">
         <v>27</v>
       </c>
@@ -3207,7 +3245,7 @@
       <c r="V1" s="26"/>
       <c r="W1" s="26"/>
     </row>
-    <row r="2" spans="1:23" s="29" customFormat="1" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" s="29" customFormat="1" ht="15.75" customHeight="1">
       <c r="A2" s="95" t="s">
         <v>12</v>
       </c>
@@ -3234,7 +3272,7 @@
       <c r="V2" s="28"/>
       <c r="W2" s="28"/>
     </row>
-    <row r="3" spans="1:23" s="29" customFormat="1" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" s="29" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="95" t="s">
         <v>31</v>
       </c>
@@ -3261,7 +3299,7 @@
       <c r="V3" s="28"/>
       <c r="W3" s="28"/>
     </row>
-    <row r="4" spans="1:23" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" s="7" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="30"/>
       <c r="B4" s="30"/>
       <c r="C4" s="30"/>
@@ -3286,7 +3324,7 @@
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
     </row>
-    <row r="5" spans="1:23" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" s="7" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="30"/>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -3311,7 +3349,7 @@
       <c r="V5" s="8"/>
       <c r="W5" s="8"/>
     </row>
-    <row r="6" spans="1:23" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" s="7" customFormat="1" ht="12.75" customHeight="1">
       <c r="A6" s="98" t="s">
         <v>29</v>
       </c>
@@ -3338,7 +3376,7 @@
       <c r="V6" s="8"/>
       <c r="W6" s="8"/>
     </row>
-    <row r="7" spans="1:23" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" s="7" customFormat="1" ht="12.75" customHeight="1">
       <c r="A7" s="99" t="s">
         <v>32</v>
       </c>
@@ -3365,7 +3403,7 @@
       <c r="V7" s="8"/>
       <c r="W7" s="8"/>
     </row>
-    <row r="8" spans="1:23" s="7" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" s="7" customFormat="1" ht="21.75" customHeight="1">
       <c r="A8" s="96" t="s">
         <v>10</v>
       </c>
@@ -3421,7 +3459,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:23" s="7" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" s="7" customFormat="1" ht="23.1" customHeight="1">
       <c r="A9" s="97"/>
       <c r="B9" s="47" t="s">
         <v>13</v>
@@ -3469,11 +3507,11 @@
         <v>13</v>
       </c>
       <c r="Q9" s="85" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R9" s="101"/>
     </row>
-    <row r="10" spans="1:23" s="7" customFormat="1" ht="23.3" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" s="7" customFormat="1" ht="23.25" customHeight="1">
       <c r="A10" s="63" t="s">
         <v>0</v>
       </c>
@@ -3523,14 +3561,14 @@
         <v>3956</v>
       </c>
       <c r="Q10" s="86">
-        <v>3956</v>
+        <v>3974</v>
       </c>
       <c r="R10" s="86">
         <f>Q10-P10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" s="7" customFormat="1" ht="12.2" customHeight="1">
       <c r="A11" s="66" t="s">
         <v>1</v>
       </c>
@@ -3580,14 +3618,14 @@
         <v>123</v>
       </c>
       <c r="Q11" s="87">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R11" s="86">
         <f t="shared" ref="R11:R17" si="0">Q11-P11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" s="7" customFormat="1" ht="12.2" customHeight="1">
       <c r="A12" s="63" t="s">
         <v>2</v>
       </c>
@@ -3637,14 +3675,14 @@
         <v>15927</v>
       </c>
       <c r="Q12" s="86">
-        <v>15946</v>
+        <v>15962</v>
       </c>
       <c r="R12" s="86">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" s="7" customFormat="1" ht="12.2" customHeight="1">
       <c r="A13" s="63" t="s">
         <v>3</v>
       </c>
@@ -3694,14 +3732,14 @@
         <v>13340</v>
       </c>
       <c r="Q13" s="87">
-        <v>13326</v>
+        <v>13462</v>
       </c>
       <c r="R13" s="86">
         <f t="shared" si="0"/>
-        <v>-14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" s="7" customFormat="1" ht="12.2" customHeight="1">
       <c r="A14" s="63" t="s">
         <v>4</v>
       </c>
@@ -3751,14 +3789,14 @@
         <v>206</v>
       </c>
       <c r="Q14" s="86">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="R14" s="86">
         <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" s="7" customFormat="1" ht="12.2" customHeight="1">
       <c r="A15" s="63" t="s">
         <v>5</v>
       </c>
@@ -3808,14 +3846,14 @@
         <v>31947</v>
       </c>
       <c r="Q15" s="87">
-        <v>31914</v>
+        <v>31961</v>
       </c>
       <c r="R15" s="86">
         <f t="shared" si="0"/>
-        <v>-33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" s="7" customFormat="1" ht="12.2" customHeight="1">
       <c r="A16" s="63" t="s">
         <v>6</v>
       </c>
@@ -3865,14 +3903,14 @@
         <v>6186</v>
       </c>
       <c r="Q16" s="86">
-        <v>6196</v>
+        <v>6215</v>
       </c>
       <c r="R16" s="86">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:62" s="7" customFormat="1" ht="12.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:62" s="7" customFormat="1" ht="12.2" customHeight="1">
       <c r="A17" s="69" t="s">
         <v>7</v>
       </c>
@@ -3922,17 +3960,15 @@
         <v>33990</v>
       </c>
       <c r="Q17" s="87">
-        <v>33944</v>
+        <v>34067</v>
       </c>
       <c r="R17" s="86">
         <f t="shared" si="0"/>
-        <v>-46</v>
-      </c>
-      <c r="T17" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:62" s="7" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="T17" s="105"/>
+    </row>
+    <row r="18" spans="1:62" s="7" customFormat="1">
       <c r="A18" s="42" t="s">
         <v>11</v>
       </c>
@@ -3997,14 +4033,14 @@
       </c>
       <c r="Q18" s="20">
         <f>SUM(Q10:Q17)</f>
-        <v>105609</v>
+        <v>105971</v>
       </c>
       <c r="R18" s="20">
         <f>SUM(R10:R17)</f>
-        <v>-66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:62" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="19" spans="1:62" ht="9" customHeight="1">
       <c r="B19" s="33"/>
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
@@ -4022,8 +4058,10 @@
       <c r="P19" s="33"/>
       <c r="Q19" s="33"/>
       <c r="R19" s="33"/>
-    </row>
-    <row r="20" spans="1:62" ht="19.55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+    </row>
+    <row r="20" spans="1:62" ht="19.5" customHeight="1">
       <c r="A20" s="93" t="s">
         <v>8</v>
       </c>
@@ -4045,7 +4083,7 @@
       <c r="Q20" s="93"/>
       <c r="R20" s="93"/>
     </row>
-    <row r="21" spans="1:62" s="35" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:62" s="35" customFormat="1" ht="7.5" customHeight="1">
       <c r="A21" s="18"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
@@ -4065,7 +4103,7 @@
       <c r="Q21" s="18"/>
       <c r="R21" s="18"/>
     </row>
-    <row r="22" spans="1:62" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:62" ht="15" customHeight="1">
       <c r="A22" s="14" t="s">
         <v>28</v>
       </c>
@@ -4075,7 +4113,7 @@
       <c r="Q22" s="33"/>
       <c r="R22" s="33"/>
     </row>
-    <row r="23" spans="1:62" s="37" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:62" s="37" customFormat="1">
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
       <c r="D23" s="38"/>
@@ -4138,7 +4176,7 @@
       <c r="BI23" s="38"/>
       <c r="BJ23" s="38"/>
     </row>
-    <row r="24" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:62">
       <c r="B24" s="73"/>
       <c r="C24" s="73"/>
       <c r="D24" s="73"/>
@@ -4180,20 +4218,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="34.625" customWidth="1"/>
-    <col min="2" max="13" width="9.25" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" customWidth="1"/>
+    <col min="2" max="13" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.65" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="15.75">
       <c r="A1" s="94" t="s">
         <v>26</v>
       </c>
@@ -4210,7 +4248,7 @@
       <c r="L1" s="94"/>
       <c r="M1" s="94"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" s="95" t="s">
         <v>12</v>
       </c>
@@ -4227,7 +4265,7 @@
       <c r="L2" s="95"/>
       <c r="M2" s="95"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" s="95">
         <v>2016</v>
       </c>
@@ -4244,7 +4282,7 @@
       <c r="L3" s="95"/>
       <c r="M3" s="95"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" s="44"/>
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
@@ -4259,7 +4297,7 @@
       <c r="L4" s="44"/>
       <c r="M4" s="44"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" s="44"/>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
@@ -4274,7 +4312,7 @@
       <c r="L5" s="44"/>
       <c r="M5" s="44"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" s="98" t="s">
         <v>29</v>
       </c>
@@ -4291,7 +4329,7 @@
       <c r="L6" s="98"/>
       <c r="M6" s="98"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" s="103" t="s">
         <v>30</v>
       </c>
@@ -4308,7 +4346,7 @@
       <c r="L7" s="103"/>
       <c r="M7" s="103"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" s="102" t="s">
         <v>10</v>
       </c>
@@ -4327,7 +4365,7 @@
       <c r="L8" s="104"/>
       <c r="M8" s="104"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" s="102"/>
       <c r="B9" s="58" t="s">
         <v>14</v>
@@ -4366,7 +4404,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" s="41" t="s">
         <v>0</v>
       </c>
@@ -4407,7 +4445,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" s="41" t="s">
         <v>1</v>
       </c>
@@ -4448,7 +4486,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12" s="41" t="s">
         <v>2</v>
       </c>
@@ -4489,7 +4527,7 @@
         <v>14113</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13" s="41" t="s">
         <v>3</v>
       </c>
@@ -4530,7 +4568,7 @@
         <v>9597</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14" s="41" t="s">
         <v>4</v>
       </c>
@@ -4571,7 +4609,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="A15" s="41" t="s">
         <v>5</v>
       </c>
@@ -4612,7 +4650,7 @@
         <v>26469</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="A16" s="41" t="s">
         <v>6</v>
       </c>
@@ -4653,7 +4691,7 @@
         <v>6134</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" s="41" t="s">
         <v>7</v>
       </c>
@@ -4694,7 +4732,7 @@
         <v>26954</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" s="42" t="s">
         <v>11</v>
       </c>
@@ -4747,7 +4785,7 @@
         <v>86097</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" s="43" t="s">
         <v>25</v>
       </c>
@@ -4800,7 +4838,7 @@
         <v>2.2073003554915309E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
@@ -4812,7 +4850,7 @@
       <c r="L20" s="22"/>
       <c r="M20" s="22"/>
     </row>
-    <row r="21" spans="1:13" ht="26.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="26.45" customHeight="1">
       <c r="A21" s="93" t="s">
         <v>9</v>
       </c>
@@ -4829,7 +4867,7 @@
       <c r="L21" s="93"/>
       <c r="M21" s="93"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" s="10"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -4844,7 +4882,7 @@
       <c r="L22" s="23"/>
       <c r="M22" s="23"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23" s="14" t="s">
         <v>28</v>
       </c>
@@ -4878,20 +4916,20 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="34.625" customWidth="1"/>
-    <col min="2" max="13" width="9.25" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" customWidth="1"/>
+    <col min="2" max="13" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.65" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="15.75">
       <c r="A1" s="94" t="s">
         <v>26</v>
       </c>
@@ -4908,7 +4946,7 @@
       <c r="L1" s="94"/>
       <c r="M1" s="94"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" s="95" t="s">
         <v>12</v>
       </c>
@@ -4925,7 +4963,7 @@
       <c r="L2" s="95"/>
       <c r="M2" s="95"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" s="95">
         <v>2017</v>
       </c>
@@ -4942,7 +4980,7 @@
       <c r="L3" s="95"/>
       <c r="M3" s="95"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" s="44"/>
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
@@ -4957,7 +4995,7 @@
       <c r="L4" s="44"/>
       <c r="M4" s="44"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" s="44"/>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
@@ -4972,7 +5010,7 @@
       <c r="L5" s="44"/>
       <c r="M5" s="44"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" s="98" t="s">
         <v>29</v>
       </c>
@@ -4989,7 +5027,7 @@
       <c r="L6" s="98"/>
       <c r="M6" s="98"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" s="103" t="s">
         <v>30</v>
       </c>
@@ -5006,7 +5044,7 @@
       <c r="L7" s="103"/>
       <c r="M7" s="103"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" s="102" t="s">
         <v>10</v>
       </c>
@@ -5025,7 +5063,7 @@
       <c r="L8" s="104"/>
       <c r="M8" s="104"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" s="102"/>
       <c r="B9" s="59" t="s">
         <v>14</v>
@@ -5064,7 +5102,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" s="41" t="s">
         <v>0</v>
       </c>
@@ -5105,7 +5143,7 @@
         <v>2804</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" s="41" t="s">
         <v>1</v>
       </c>
@@ -5146,7 +5184,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12" s="41" t="s">
         <v>2</v>
       </c>
@@ -5187,7 +5225,7 @@
         <v>14699</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13" s="41" t="s">
         <v>3</v>
       </c>
@@ -5228,7 +5266,7 @@
         <v>10318</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14" s="41" t="s">
         <v>4</v>
       </c>
@@ -5269,7 +5307,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="A15" s="41" t="s">
         <v>5</v>
       </c>
@@ -5310,7 +5348,7 @@
         <v>27734</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="A16" s="41" t="s">
         <v>6</v>
       </c>
@@ -5351,7 +5389,7 @@
         <v>6176</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" s="41" t="s">
         <v>7</v>
       </c>
@@ -5392,7 +5430,7 @@
         <v>28175</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" s="42" t="s">
         <v>11</v>
       </c>
@@ -5445,7 +5483,7 @@
         <v>90125</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" s="43" t="s">
         <v>25</v>
       </c>
@@ -5498,7 +5536,7 @@
         <v>-3.2167180602080882E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
@@ -5510,7 +5548,7 @@
       <c r="L20" s="22"/>
       <c r="M20" s="22"/>
     </row>
-    <row r="21" spans="1:13" ht="26.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="26.45" customHeight="1">
       <c r="A21" s="93" t="s">
         <v>9</v>
       </c>
@@ -5527,7 +5565,7 @@
       <c r="L21" s="93"/>
       <c r="M21" s="93"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" s="10"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -5542,7 +5580,7 @@
       <c r="L22" s="23"/>
       <c r="M22" s="23"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23" s="14" t="s">
         <v>28</v>
       </c>
@@ -5576,20 +5614,20 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="34.625" customWidth="1"/>
-    <col min="2" max="13" width="9.25" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" customWidth="1"/>
+    <col min="2" max="13" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.65" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="15.75">
       <c r="A1" s="94" t="s">
         <v>26</v>
       </c>
@@ -5606,7 +5644,7 @@
       <c r="L1" s="94"/>
       <c r="M1" s="94"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" s="95" t="s">
         <v>12</v>
       </c>
@@ -5623,7 +5661,7 @@
       <c r="L2" s="95"/>
       <c r="M2" s="95"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" s="95">
         <v>2018</v>
       </c>
@@ -5640,7 +5678,7 @@
       <c r="L3" s="95"/>
       <c r="M3" s="95"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" s="44"/>
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
@@ -5655,7 +5693,7 @@
       <c r="L4" s="44"/>
       <c r="M4" s="44"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" s="44"/>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
@@ -5670,7 +5708,7 @@
       <c r="L5" s="44"/>
       <c r="M5" s="44"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" s="98" t="s">
         <v>29</v>
       </c>
@@ -5687,7 +5725,7 @@
       <c r="L6" s="98"/>
       <c r="M6" s="98"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" s="103" t="s">
         <v>30</v>
       </c>
@@ -5704,7 +5742,7 @@
       <c r="L7" s="103"/>
       <c r="M7" s="103"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" s="102" t="s">
         <v>10</v>
       </c>
@@ -5723,7 +5761,7 @@
       <c r="L8" s="104"/>
       <c r="M8" s="104"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" s="102"/>
       <c r="B9" s="60" t="s">
         <v>14</v>
@@ -5762,7 +5800,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" s="41" t="s">
         <v>0</v>
       </c>
@@ -5803,7 +5841,7 @@
         <v>3008</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" s="41" t="s">
         <v>1</v>
       </c>
@@ -5844,7 +5882,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12" s="41" t="s">
         <v>2</v>
       </c>
@@ -5885,7 +5923,7 @@
         <v>15012</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13" s="41" t="s">
         <v>3</v>
       </c>
@@ -5926,7 +5964,7 @@
         <v>10911</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14" s="41" t="s">
         <v>4</v>
       </c>
@@ -5967,7 +6005,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="A15" s="41" t="s">
         <v>5</v>
       </c>
@@ -6008,7 +6046,7 @@
         <v>28474</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="A16" s="41" t="s">
         <v>6</v>
       </c>
@@ -6049,7 +6087,7 @@
         <v>6241</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" s="41" t="s">
         <v>7</v>
       </c>
@@ -6090,7 +6128,7 @@
         <v>29472</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" s="42" t="s">
         <v>11</v>
       </c>
@@ -6143,7 +6181,7 @@
         <v>93370</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" s="43" t="s">
         <v>25</v>
       </c>
@@ -6196,7 +6234,7 @@
         <v>-0.23506784912918047</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
@@ -6208,7 +6246,7 @@
       <c r="L20" s="22"/>
       <c r="M20" s="22"/>
     </row>
-    <row r="21" spans="1:13" ht="26.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="26.45" customHeight="1">
       <c r="A21" s="93" t="s">
         <v>9</v>
       </c>
@@ -6225,7 +6263,7 @@
       <c r="L21" s="93"/>
       <c r="M21" s="93"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" s="10"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -6240,7 +6278,7 @@
       <c r="L22" s="23"/>
       <c r="M22" s="23"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23" s="14" t="s">
         <v>28</v>
       </c>
@@ -6274,20 +6312,20 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="34.625" customWidth="1"/>
-    <col min="2" max="13" width="9.25" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" customWidth="1"/>
+    <col min="2" max="13" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.65" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="15.75">
       <c r="A1" s="94" t="s">
         <v>26</v>
       </c>
@@ -6304,7 +6342,7 @@
       <c r="L1" s="94"/>
       <c r="M1" s="94"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" s="95" t="s">
         <v>12</v>
       </c>
@@ -6321,7 +6359,7 @@
       <c r="L2" s="95"/>
       <c r="M2" s="95"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" s="95">
         <v>2019</v>
       </c>
@@ -6338,7 +6376,7 @@
       <c r="L3" s="95"/>
       <c r="M3" s="95"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" s="44"/>
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
@@ -6353,7 +6391,7 @@
       <c r="L4" s="44"/>
       <c r="M4" s="44"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" s="44"/>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
@@ -6368,7 +6406,7 @@
       <c r="L5" s="44"/>
       <c r="M5" s="44"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" s="98" t="s">
         <v>29</v>
       </c>
@@ -6385,7 +6423,7 @@
       <c r="L6" s="98"/>
       <c r="M6" s="98"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" s="103" t="s">
         <v>30</v>
       </c>
@@ -6402,7 +6440,7 @@
       <c r="L7" s="103"/>
       <c r="M7" s="103"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" s="102" t="s">
         <v>10</v>
       </c>
@@ -6421,7 +6459,7 @@
       <c r="L8" s="104"/>
       <c r="M8" s="104"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" s="102"/>
       <c r="B9" s="71" t="s">
         <v>14</v>
@@ -6460,7 +6498,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" s="41" t="s">
         <v>0</v>
       </c>
@@ -6501,7 +6539,7 @@
         <v>3255</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" s="41" t="s">
         <v>1</v>
       </c>
@@ -6542,7 +6580,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12" s="41" t="s">
         <v>2</v>
       </c>
@@ -6583,7 +6621,7 @@
         <v>15390</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13" s="41" t="s">
         <v>3</v>
       </c>
@@ -6624,7 +6662,7 @@
         <v>11746</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14" s="41" t="s">
         <v>4</v>
       </c>
@@ -6665,7 +6703,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="A15" s="41" t="s">
         <v>5</v>
       </c>
@@ -6706,7 +6744,7 @@
         <v>29511</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="A16" s="41" t="s">
         <v>6</v>
       </c>
@@ -6747,7 +6785,7 @@
         <v>6303</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" s="41" t="s">
         <v>7</v>
       </c>
@@ -6788,7 +6826,7 @@
         <v>30907</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" s="42" t="s">
         <v>11</v>
       </c>
@@ -6841,7 +6879,7 @@
         <v>97390</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" s="43" t="s">
         <v>25</v>
       </c>
@@ -6894,7 +6932,7 @@
         <v>-2.0531772918591519E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
@@ -6906,7 +6944,7 @@
       <c r="L20" s="22"/>
       <c r="M20" s="22"/>
     </row>
-    <row r="21" spans="1:13" ht="26.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="26.45" customHeight="1">
       <c r="A21" s="93" t="s">
         <v>9</v>
       </c>
@@ -6923,7 +6961,7 @@
       <c r="L21" s="93"/>
       <c r="M21" s="93"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" s="10"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -6938,7 +6976,7 @@
       <c r="L22" s="23"/>
       <c r="M22" s="23"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23" s="14" t="s">
         <v>28</v>
       </c>
@@ -6955,7 +6993,7 @@
       <c r="L23" s="75"/>
       <c r="M23" s="24"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="C25" s="72"/>
     </row>
   </sheetData>
@@ -6975,20 +7013,20 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="34.625" customWidth="1"/>
-    <col min="2" max="13" width="9.25" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" customWidth="1"/>
+    <col min="2" max="13" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.65" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="15.75">
       <c r="A1" s="94" t="s">
         <v>26</v>
       </c>
@@ -7005,7 +7043,7 @@
       <c r="L1" s="94"/>
       <c r="M1" s="94"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" s="95" t="s">
         <v>12</v>
       </c>
@@ -7022,7 +7060,7 @@
       <c r="L2" s="95"/>
       <c r="M2" s="95"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" s="95">
         <v>2020</v>
       </c>
@@ -7039,7 +7077,7 @@
       <c r="L3" s="95"/>
       <c r="M3" s="95"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" s="76"/>
       <c r="B4" s="76"/>
       <c r="C4" s="76"/>
@@ -7054,7 +7092,7 @@
       <c r="L4" s="76"/>
       <c r="M4" s="76"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" s="76"/>
       <c r="B5" s="76"/>
       <c r="C5" s="76"/>
@@ -7069,7 +7107,7 @@
       <c r="L5" s="76"/>
       <c r="M5" s="76"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" s="98" t="s">
         <v>29</v>
       </c>
@@ -7086,7 +7124,7 @@
       <c r="L6" s="98"/>
       <c r="M6" s="98"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" s="103" t="s">
         <v>30</v>
       </c>
@@ -7103,7 +7141,7 @@
       <c r="L7" s="103"/>
       <c r="M7" s="103"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" s="102" t="s">
         <v>10</v>
       </c>
@@ -7122,7 +7160,7 @@
       <c r="L8" s="104"/>
       <c r="M8" s="104"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" s="102"/>
       <c r="B9" s="77" t="s">
         <v>14</v>
@@ -7161,7 +7199,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" s="41" t="s">
         <v>0</v>
       </c>
@@ -7202,7 +7240,7 @@
         <v>3432</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" s="41" t="s">
         <v>1</v>
       </c>
@@ -7243,7 +7281,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12" s="41" t="s">
         <v>2</v>
       </c>
@@ -7284,7 +7322,7 @@
         <v>15414</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13" s="41" t="s">
         <v>3</v>
       </c>
@@ -7325,7 +7363,7 @@
         <v>11694</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14" s="41" t="s">
         <v>4</v>
       </c>
@@ -7366,7 +7404,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="A15" s="41" t="s">
         <v>5</v>
       </c>
@@ -7407,7 +7445,7 @@
         <v>30178</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="A16" s="41" t="s">
         <v>6</v>
       </c>
@@ -7448,7 +7486,7 @@
         <v>6033</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" s="41" t="s">
         <v>7</v>
       </c>
@@ -7489,7 +7527,7 @@
         <v>31028</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" s="42" t="s">
         <v>11</v>
       </c>
@@ -7541,7 +7579,7 @@
         <v>98067</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" s="43" t="s">
         <v>25</v>
       </c>
@@ -7594,7 +7632,7 @@
         <v>-0.25326498230197059</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
@@ -7606,7 +7644,7 @@
       <c r="L20" s="22"/>
       <c r="M20" s="22"/>
     </row>
-    <row r="21" spans="1:13" ht="26.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="26.45" customHeight="1">
       <c r="A21" s="93" t="s">
         <v>9</v>
       </c>
@@ -7623,7 +7661,7 @@
       <c r="L21" s="93"/>
       <c r="M21" s="93"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" s="10"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -7638,7 +7676,7 @@
       <c r="L22" s="23"/>
       <c r="M22" s="23"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23" s="14" t="s">
         <v>28</v>
       </c>
@@ -7655,7 +7693,7 @@
       <c r="L23" s="75"/>
       <c r="M23" s="24"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="C25" s="72"/>
     </row>
   </sheetData>
@@ -7675,20 +7713,20 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="34.625" customWidth="1"/>
-    <col min="2" max="13" width="9.25" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" customWidth="1"/>
+    <col min="2" max="13" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.65" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="15.75">
       <c r="A1" s="94" t="s">
         <v>26</v>
       </c>
@@ -7705,7 +7743,7 @@
       <c r="L1" s="94"/>
       <c r="M1" s="94"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" s="95" t="s">
         <v>12</v>
       </c>
@@ -7722,7 +7760,7 @@
       <c r="L2" s="95"/>
       <c r="M2" s="95"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" s="95">
         <v>2021</v>
       </c>
@@ -7739,7 +7777,7 @@
       <c r="L3" s="95"/>
       <c r="M3" s="95"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" s="79"/>
       <c r="B4" s="79"/>
       <c r="C4" s="79"/>
@@ -7754,7 +7792,7 @@
       <c r="L4" s="79"/>
       <c r="M4" s="79"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" s="79"/>
       <c r="B5" s="79"/>
       <c r="C5" s="79"/>
@@ -7769,7 +7807,7 @@
       <c r="L5" s="79"/>
       <c r="M5" s="79"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" s="98" t="s">
         <v>29</v>
       </c>
@@ -7786,7 +7824,7 @@
       <c r="L6" s="98"/>
       <c r="M6" s="98"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" s="103" t="s">
         <v>30</v>
       </c>
@@ -7803,7 +7841,7 @@
       <c r="L7" s="103"/>
       <c r="M7" s="103"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" s="102" t="s">
         <v>10</v>
       </c>
@@ -7822,7 +7860,7 @@
       <c r="L8" s="104"/>
       <c r="M8" s="104"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" s="102"/>
       <c r="B9" s="82" t="s">
         <v>14</v>
@@ -7861,7 +7899,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" s="41" t="s">
         <v>0</v>
       </c>
@@ -7902,7 +7940,7 @@
         <v>3768</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" s="41" t="s">
         <v>1</v>
       </c>
@@ -7943,7 +7981,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12" s="41" t="s">
         <v>2</v>
       </c>
@@ -7984,7 +8022,7 @@
         <v>15776</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13" s="41" t="s">
         <v>3</v>
       </c>
@@ -8025,7 +8063,7 @@
         <v>12726</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14" s="41" t="s">
         <v>4</v>
       </c>
@@ -8066,7 +8104,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="A15" s="41" t="s">
         <v>5</v>
       </c>
@@ -8107,7 +8145,7 @@
         <v>31572</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="A16" s="41" t="s">
         <v>6</v>
       </c>
@@ -8148,7 +8186,7 @@
         <v>6149</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" s="41" t="s">
         <v>7</v>
       </c>
@@ -8189,7 +8227,7 @@
         <v>32945</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" s="42" t="s">
         <v>11</v>
       </c>
@@ -8242,7 +8280,7 @@
         <v>103251</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" s="43" t="s">
         <v>25</v>
       </c>
@@ -8295,7 +8333,7 @@
         <v>7.6571162718575003E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
@@ -8307,7 +8345,7 @@
       <c r="L20" s="22"/>
       <c r="M20" s="22"/>
     </row>
-    <row r="21" spans="1:13" ht="26.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="26.45" customHeight="1">
       <c r="A21" s="93" t="s">
         <v>9</v>
       </c>
@@ -8324,7 +8362,7 @@
       <c r="L21" s="93"/>
       <c r="M21" s="93"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" s="10"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -8339,7 +8377,7 @@
       <c r="L22" s="23"/>
       <c r="M22" s="23"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23" s="14" t="s">
         <v>28</v>
       </c>
@@ -8356,7 +8394,7 @@
       <c r="L23" s="75"/>
       <c r="M23" s="24"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="C25" s="72"/>
     </row>
   </sheetData>
@@ -8376,20 +8414,20 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K27" sqref="J27:K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="34.625" customWidth="1"/>
-    <col min="2" max="13" width="9.25" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" customWidth="1"/>
+    <col min="2" max="13" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.65" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="15.75">
       <c r="A1" s="94" t="s">
         <v>26</v>
       </c>
@@ -8406,7 +8444,7 @@
       <c r="L1" s="94"/>
       <c r="M1" s="94"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" s="95" t="s">
         <v>12</v>
       </c>
@@ -8423,7 +8461,7 @@
       <c r="L2" s="95"/>
       <c r="M2" s="95"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" s="95">
         <v>2022</v>
       </c>
@@ -8440,7 +8478,7 @@
       <c r="L3" s="95"/>
       <c r="M3" s="95"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" s="88"/>
       <c r="B4" s="88"/>
       <c r="C4" s="88"/>
@@ -8455,7 +8493,7 @@
       <c r="L4" s="88"/>
       <c r="M4" s="88"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" s="88"/>
       <c r="B5" s="88"/>
       <c r="C5" s="88"/>
@@ -8470,7 +8508,7 @@
       <c r="L5" s="88"/>
       <c r="M5" s="88"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" s="98" t="s">
         <v>29</v>
       </c>
@@ -8487,7 +8525,7 @@
       <c r="L6" s="98"/>
       <c r="M6" s="98"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" s="103" t="s">
         <v>30</v>
       </c>
@@ -8504,7 +8542,7 @@
       <c r="L7" s="103"/>
       <c r="M7" s="103"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" s="102" t="s">
         <v>10</v>
       </c>
@@ -8523,7 +8561,7 @@
       <c r="L8" s="104"/>
       <c r="M8" s="104"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" s="102"/>
       <c r="B9" s="89" t="s">
         <v>14</v>
@@ -8562,7 +8600,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" s="41" t="s">
         <v>0</v>
       </c>
@@ -8603,7 +8641,7 @@
         <v>3956</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" s="41" t="s">
         <v>1</v>
       </c>
@@ -8644,7 +8682,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12" s="41" t="s">
         <v>2</v>
       </c>
@@ -8685,7 +8723,7 @@
         <v>15927</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13" s="41" t="s">
         <v>3</v>
       </c>
@@ -8726,7 +8764,7 @@
         <v>13340</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14" s="41" t="s">
         <v>4</v>
       </c>
@@ -8767,7 +8805,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="A15" s="41" t="s">
         <v>5</v>
       </c>
@@ -8808,7 +8846,7 @@
         <v>31947</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="A16" s="41" t="s">
         <v>6</v>
       </c>
@@ -8849,7 +8887,7 @@
         <v>6186</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" s="41" t="s">
         <v>7</v>
       </c>
@@ -8890,7 +8928,7 @@
         <v>33990</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" s="42" t="s">
         <v>11</v>
       </c>
@@ -8943,7 +8981,7 @@
         <v>105675</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" s="43" t="s">
         <v>25</v>
       </c>
@@ -8996,7 +9034,7 @@
         <v>-0.22000226611775808</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
@@ -9008,7 +9046,7 @@
       <c r="L20" s="22"/>
       <c r="M20" s="22"/>
     </row>
-    <row r="21" spans="1:13" ht="26.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="26.45" customHeight="1">
       <c r="A21" s="93" t="s">
         <v>9</v>
       </c>
@@ -9025,7 +9063,7 @@
       <c r="L21" s="93"/>
       <c r="M21" s="93"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" s="10"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -9040,7 +9078,7 @@
       <c r="L22" s="23"/>
       <c r="M22" s="23"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23" s="14" t="s">
         <v>28</v>
       </c>
@@ -9057,7 +9095,7 @@
       <c r="L23" s="75"/>
       <c r="M23" s="24"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="C25" s="72"/>
     </row>
   </sheetData>
@@ -9077,20 +9115,20 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="A10" sqref="A10:A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="34.625" customWidth="1"/>
-    <col min="2" max="13" width="9.25" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" customWidth="1"/>
+    <col min="2" max="13" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.65" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="15.75">
       <c r="A1" s="94" t="s">
         <v>26</v>
       </c>
@@ -9107,7 +9145,7 @@
       <c r="L1" s="94"/>
       <c r="M1" s="94"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" s="95" t="s">
         <v>12</v>
       </c>
@@ -9124,7 +9162,7 @@
       <c r="L2" s="95"/>
       <c r="M2" s="95"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" s="95">
         <v>2023</v>
       </c>
@@ -9141,7 +9179,7 @@
       <c r="L3" s="95"/>
       <c r="M3" s="95"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" s="90"/>
       <c r="B4" s="90"/>
       <c r="C4" s="90"/>
@@ -9156,7 +9194,7 @@
       <c r="L4" s="90"/>
       <c r="M4" s="90"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" s="90"/>
       <c r="B5" s="90"/>
       <c r="C5" s="90"/>
@@ -9171,7 +9209,7 @@
       <c r="L5" s="90"/>
       <c r="M5" s="90"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" s="98" t="s">
         <v>29</v>
       </c>
@@ -9188,7 +9226,7 @@
       <c r="L6" s="98"/>
       <c r="M6" s="98"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" s="103" t="s">
         <v>30</v>
       </c>
@@ -9205,7 +9243,7 @@
       <c r="L7" s="103"/>
       <c r="M7" s="103"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" s="102" t="s">
         <v>10</v>
       </c>
@@ -9224,7 +9262,7 @@
       <c r="L8" s="104"/>
       <c r="M8" s="104"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" s="102"/>
       <c r="B9" s="92" t="s">
         <v>14</v>
@@ -9263,14 +9301,16 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" s="41" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="40">
         <v>3956</v>
       </c>
-      <c r="C10" s="68"/>
+      <c r="C10" s="68">
+        <v>3974</v>
+      </c>
       <c r="D10" s="40"/>
       <c r="E10" s="40"/>
       <c r="F10" s="40"/>
@@ -9282,14 +9322,16 @@
       <c r="L10" s="40"/>
       <c r="M10" s="40"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" s="41" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="40">
         <v>123</v>
       </c>
-      <c r="C11" s="40"/>
+      <c r="C11" s="40">
+        <v>122</v>
+      </c>
       <c r="D11" s="40"/>
       <c r="E11" s="40"/>
       <c r="F11" s="40"/>
@@ -9301,14 +9343,16 @@
       <c r="L11" s="40"/>
       <c r="M11" s="40"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12" s="41" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="40">
         <v>15946</v>
       </c>
-      <c r="C12" s="68"/>
+      <c r="C12" s="68">
+        <v>15962</v>
+      </c>
       <c r="D12" s="40"/>
       <c r="E12" s="40"/>
       <c r="F12" s="40"/>
@@ -9320,14 +9364,16 @@
       <c r="L12" s="40"/>
       <c r="M12" s="40"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13" s="41" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="40">
         <v>13326</v>
       </c>
-      <c r="C13" s="40"/>
+      <c r="C13" s="40">
+        <v>13462</v>
+      </c>
       <c r="D13" s="40"/>
       <c r="E13" s="40"/>
       <c r="F13" s="40"/>
@@ -9339,14 +9385,16 @@
       <c r="L13" s="40"/>
       <c r="M13" s="40"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14" s="41" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="40">
         <v>204</v>
       </c>
-      <c r="C14" s="84"/>
+      <c r="C14" s="84">
+        <v>208</v>
+      </c>
       <c r="D14" s="40"/>
       <c r="E14" s="40"/>
       <c r="F14" s="40"/>
@@ -9358,14 +9406,16 @@
       <c r="L14" s="40"/>
       <c r="M14" s="40"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="A15" s="41" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="40">
         <v>31914</v>
       </c>
-      <c r="C15" s="40"/>
+      <c r="C15" s="40">
+        <v>31961</v>
+      </c>
       <c r="D15" s="40"/>
       <c r="E15" s="40"/>
       <c r="F15" s="40"/>
@@ -9377,14 +9427,16 @@
       <c r="L15" s="40"/>
       <c r="M15" s="40"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="A16" s="41" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="40">
         <v>6196</v>
       </c>
-      <c r="C16" s="68"/>
+      <c r="C16" s="68">
+        <v>6215</v>
+      </c>
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
       <c r="F16" s="40"/>
@@ -9396,14 +9448,16 @@
       <c r="L16" s="40"/>
       <c r="M16" s="40"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" s="41" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="40">
         <v>33944</v>
       </c>
-      <c r="C17" s="40"/>
+      <c r="C17" s="40">
+        <v>34067</v>
+      </c>
       <c r="D17" s="40"/>
       <c r="E17" s="40"/>
       <c r="F17" s="40"/>
@@ -9415,7 +9469,7 @@
       <c r="L17" s="40"/>
       <c r="M17" s="40"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" s="42" t="s">
         <v>11</v>
       </c>
@@ -9425,7 +9479,7 @@
       </c>
       <c r="C18" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>105971</v>
       </c>
       <c r="D18" s="20">
         <f t="shared" si="0"/>
@@ -9468,7 +9522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" s="43" t="s">
         <v>25</v>
       </c>
@@ -9478,11 +9532,11 @@
       </c>
       <c r="C19" s="83">
         <f>(C18/B18-1)*100</f>
+        <v>0.34277381662548567</v>
+      </c>
+      <c r="D19" s="83">
+        <f t="shared" ref="D19:H19" si="1">(D18/C18-1)*100</f>
         <v>-100</v>
-      </c>
-      <c r="D19" s="83" t="e">
-        <f t="shared" ref="D19:H19" si="1">(D18/C18-1)*100</f>
-        <v>#DIV/0!</v>
       </c>
       <c r="E19" s="83" t="e">
         <f t="shared" si="1"/>
@@ -9521,7 +9575,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
@@ -9533,7 +9587,7 @@
       <c r="L20" s="22"/>
       <c r="M20" s="22"/>
     </row>
-    <row r="21" spans="1:13" ht="26.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="26.45" customHeight="1">
       <c r="A21" s="93" t="s">
         <v>9</v>
       </c>
@@ -9550,7 +9604,7 @@
       <c r="L21" s="93"/>
       <c r="M21" s="93"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" s="10"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -9565,7 +9619,7 @@
       <c r="L22" s="23"/>
       <c r="M22" s="23"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23" s="14" t="s">
         <v>28</v>
       </c>
@@ -9582,7 +9636,7 @@
       <c r="L23" s="75"/>
       <c r="M23" s="24"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="C25" s="72"/>
     </row>
   </sheetData>
@@ -9602,21 +9656,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:DB42"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="31.625" customWidth="1"/>
-    <col min="2" max="13" width="9.25" customWidth="1"/>
-    <col min="14" max="23" width="11.375" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" customWidth="1"/>
+    <col min="2" max="13" width="9.28515625" customWidth="1"/>
+    <col min="14" max="23" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" ht="18.350000000000001" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" s="2" customFormat="1" ht="18.75">
       <c r="A1" s="94" t="s">
         <v>27</v>
       </c>
@@ -9643,7 +9697,7 @@
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
     </row>
-    <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" s="4" customFormat="1">
       <c r="A2" s="95" t="s">
         <v>12</v>
       </c>
@@ -9670,7 +9724,7 @@
       <c r="V2" s="6"/>
       <c r="W2" s="6"/>
     </row>
-    <row r="3" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" s="4" customFormat="1">
       <c r="A3" s="95">
         <v>2008</v>
       </c>
@@ -9697,7 +9751,7 @@
       <c r="V3" s="6"/>
       <c r="W3" s="6"/>
     </row>
-    <row r="4" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" s="4" customFormat="1">
       <c r="A4" s="44"/>
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
@@ -9722,7 +9776,7 @@
       <c r="V4" s="6"/>
       <c r="W4" s="6"/>
     </row>
-    <row r="5" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" s="4" customFormat="1">
       <c r="A5" s="44"/>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
@@ -9747,7 +9801,7 @@
       <c r="V5" s="6"/>
       <c r="W5" s="6"/>
     </row>
-    <row r="6" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1">
       <c r="A6" s="98" t="s">
         <v>29</v>
       </c>
@@ -9774,7 +9828,7 @@
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>
     </row>
-    <row r="7" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1">
       <c r="A7" s="103" t="s">
         <v>30</v>
       </c>
@@ -9801,7 +9855,7 @@
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
     </row>
-    <row r="8" spans="1:23" s="1" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A8" s="102" t="s">
         <v>10</v>
       </c>
@@ -9820,7 +9874,7 @@
       <c r="L8" s="102"/>
       <c r="M8" s="102"/>
     </row>
-    <row r="9" spans="1:23" s="1" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A9" s="102"/>
       <c r="B9" s="45" t="s">
         <v>14</v>
@@ -9859,7 +9913,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="1" customFormat="1" ht="13.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" s="1" customFormat="1">
       <c r="A10" s="39" t="s">
         <v>0</v>
       </c>
@@ -9900,7 +9954,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1">
       <c r="A11" s="41" t="s">
         <v>1</v>
       </c>
@@ -9941,7 +9995,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1">
       <c r="A12" s="41" t="s">
         <v>2</v>
       </c>
@@ -9982,7 +10036,7 @@
         <v>13491</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1">
       <c r="A13" s="41" t="s">
         <v>3</v>
       </c>
@@ -10023,7 +10077,7 @@
         <v>7964</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1">
       <c r="A14" s="41" t="s">
         <v>4</v>
       </c>
@@ -10064,7 +10118,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1">
       <c r="A15" s="41" t="s">
         <v>5</v>
       </c>
@@ -10105,7 +10159,7 @@
         <v>22804</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1">
       <c r="A16" s="41" t="s">
         <v>6</v>
       </c>
@@ -10146,7 +10200,7 @@
         <v>5603</v>
       </c>
     </row>
-    <row r="17" spans="1:106" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:106" s="1" customFormat="1" ht="11.25" customHeight="1">
       <c r="A17" s="41" t="s">
         <v>7</v>
       </c>
@@ -10187,7 +10241,7 @@
         <v>22287</v>
       </c>
     </row>
-    <row r="18" spans="1:106" s="1" customFormat="1" ht="18.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:106" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A18" s="42" t="s">
         <v>11</v>
       </c>
@@ -10240,7 +10294,7 @@
         <v>74287</v>
       </c>
     </row>
-    <row r="19" spans="1:106" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:106" s="11" customFormat="1" ht="20.25" customHeight="1">
       <c r="A19" s="43" t="s">
         <v>25</v>
       </c>
@@ -10385,8 +10439,8 @@
       <c r="DA19" s="13"/>
       <c r="DB19" s="13"/>
     </row>
-    <row r="20" spans="1:106" ht="10.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:106" ht="39.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:106" ht="10.5" customHeight="1"/>
+    <row r="21" spans="1:106" ht="39.200000000000003" customHeight="1">
       <c r="A21" s="93" t="s">
         <v>9</v>
       </c>
@@ -10403,7 +10457,7 @@
       <c r="L21" s="93"/>
       <c r="M21" s="93"/>
     </row>
-    <row r="22" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:106">
       <c r="A22" s="10"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -10418,7 +10472,7 @@
       <c r="L22" s="12"/>
       <c r="M22" s="15"/>
     </row>
-    <row r="23" spans="1:106" s="16" customFormat="1" ht="10.9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:106" s="16" customFormat="1" ht="11.25">
       <c r="A23" s="14" t="s">
         <v>28</v>
       </c>
@@ -10435,10 +10489,10 @@
       <c r="L23" s="18"/>
       <c r="M23" s="18"/>
     </row>
-    <row r="24" spans="1:106" ht="9.6999999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:106" ht="9.75" customHeight="1">
       <c r="A24" s="10"/>
     </row>
-    <row r="28" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:106" ht="12.75" customHeight="1">
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -10452,20 +10506,20 @@
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
     </row>
-    <row r="29" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:106" ht="12.75" customHeight="1"/>
+    <row r="30" spans="1:106" ht="12.75" customHeight="1"/>
+    <row r="31" spans="1:106" ht="12.75" customHeight="1"/>
+    <row r="32" spans="1:106" ht="12.75" customHeight="1"/>
+    <row r="33" ht="12.75" customHeight="1"/>
+    <row r="34" ht="12.75" customHeight="1"/>
+    <row r="35" ht="12.75" customHeight="1"/>
+    <row r="36" ht="12.75" customHeight="1"/>
+    <row r="37" ht="12.75" customHeight="1"/>
+    <row r="38" ht="12.75" customHeight="1"/>
+    <row r="39" ht="12.75" customHeight="1"/>
+    <row r="40" ht="12.75" customHeight="1"/>
+    <row r="41" ht="12.75" customHeight="1"/>
+    <row r="42" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -10489,21 +10543,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:DB42"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A10" sqref="A10:M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="31.625" customWidth="1"/>
-    <col min="2" max="13" width="9.25" customWidth="1"/>
-    <col min="14" max="23" width="11.375" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" customWidth="1"/>
+    <col min="2" max="13" width="9.28515625" customWidth="1"/>
+    <col min="14" max="23" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" ht="18.350000000000001" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" s="2" customFormat="1" ht="18.75">
       <c r="A1" s="94" t="s">
         <v>27</v>
       </c>
@@ -10530,7 +10584,7 @@
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
     </row>
-    <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" s="4" customFormat="1">
       <c r="A2" s="95" t="s">
         <v>12</v>
       </c>
@@ -10557,7 +10611,7 @@
       <c r="V2" s="5"/>
       <c r="W2" s="5"/>
     </row>
-    <row r="3" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" s="4" customFormat="1">
       <c r="A3" s="95">
         <v>2009</v>
       </c>
@@ -10584,7 +10638,7 @@
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
     </row>
-    <row r="4" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" s="4" customFormat="1">
       <c r="A4" s="44"/>
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
@@ -10609,7 +10663,7 @@
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
     </row>
-    <row r="5" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" s="4" customFormat="1">
       <c r="A5" s="44"/>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
@@ -10634,7 +10688,7 @@
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
     </row>
-    <row r="6" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1">
       <c r="A6" s="98" t="s">
         <v>29</v>
       </c>
@@ -10661,7 +10715,7 @@
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
     </row>
-    <row r="7" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1">
       <c r="A7" s="103" t="s">
         <v>30</v>
       </c>
@@ -10688,7 +10742,7 @@
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
     </row>
-    <row r="8" spans="1:23" s="17" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1">
       <c r="A8" s="102" t="s">
         <v>10</v>
       </c>
@@ -10707,7 +10761,7 @@
       <c r="L8" s="102"/>
       <c r="M8" s="102"/>
     </row>
-    <row r="9" spans="1:23" s="17" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1">
       <c r="A9" s="102"/>
       <c r="B9" s="45" t="s">
         <v>14</v>
@@ -10746,7 +10800,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="17" customFormat="1" ht="13.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" s="17" customFormat="1">
       <c r="A10" s="39" t="s">
         <v>0</v>
       </c>
@@ -10787,7 +10841,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1">
       <c r="A11" s="41" t="s">
         <v>1</v>
       </c>
@@ -10828,7 +10882,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1">
       <c r="A12" s="41" t="s">
         <v>2</v>
       </c>
@@ -10869,7 +10923,7 @@
         <v>13095</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1">
       <c r="A13" s="41" t="s">
         <v>3</v>
       </c>
@@ -10910,7 +10964,7 @@
         <v>7671</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1">
       <c r="A14" s="41" t="s">
         <v>4</v>
       </c>
@@ -10951,7 +11005,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1">
       <c r="A15" s="41" t="s">
         <v>5</v>
       </c>
@@ -10992,7 +11046,7 @@
         <v>22958</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1">
       <c r="A16" s="41" t="s">
         <v>6</v>
       </c>
@@ -11033,7 +11087,7 @@
         <v>5344</v>
       </c>
     </row>
-    <row r="17" spans="1:106" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:106" s="17" customFormat="1" ht="11.25" customHeight="1">
       <c r="A17" s="41" t="s">
         <v>7</v>
       </c>
@@ -11074,7 +11128,7 @@
         <v>22575</v>
       </c>
     </row>
-    <row r="18" spans="1:106" s="17" customFormat="1" ht="18.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:106" s="17" customFormat="1" ht="18.75" customHeight="1">
       <c r="A18" s="42" t="s">
         <v>11</v>
       </c>
@@ -11127,7 +11181,7 @@
         <v>73791</v>
       </c>
     </row>
-    <row r="19" spans="1:106" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:106" s="11" customFormat="1" ht="20.25" customHeight="1">
       <c r="A19" s="43" t="s">
         <v>25</v>
       </c>
@@ -11273,8 +11327,8 @@
       <c r="DA19" s="13"/>
       <c r="DB19" s="13"/>
     </row>
-    <row r="20" spans="1:106" ht="10.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:106" ht="46.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:106" ht="10.5" customHeight="1"/>
+    <row r="21" spans="1:106" ht="46.5" customHeight="1">
       <c r="A21" s="93" t="s">
         <v>9</v>
       </c>
@@ -11291,7 +11345,7 @@
       <c r="L21" s="93"/>
       <c r="M21" s="93"/>
     </row>
-    <row r="22" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:106">
       <c r="A22" s="10"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -11306,7 +11360,7 @@
       <c r="L22" s="12"/>
       <c r="M22" s="15"/>
     </row>
-    <row r="23" spans="1:106" s="16" customFormat="1" ht="10.9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:106" s="16" customFormat="1" ht="11.25">
       <c r="A23" s="14" t="s">
         <v>28</v>
       </c>
@@ -11323,10 +11377,10 @@
       <c r="L23" s="19"/>
       <c r="M23" s="19"/>
     </row>
-    <row r="24" spans="1:106" ht="9.6999999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:106" ht="9.75" customHeight="1">
       <c r="A24" s="10"/>
     </row>
-    <row r="28" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:106" ht="12.75" customHeight="1">
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -11340,20 +11394,20 @@
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
     </row>
-    <row r="29" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:106" ht="12.75" customHeight="1"/>
+    <row r="30" spans="1:106" ht="12.75" customHeight="1"/>
+    <row r="31" spans="1:106" ht="12.75" customHeight="1"/>
+    <row r="32" spans="1:106" ht="12.75" customHeight="1"/>
+    <row r="33" ht="12.75" customHeight="1"/>
+    <row r="34" ht="12.75" customHeight="1"/>
+    <row r="35" ht="12.75" customHeight="1"/>
+    <row r="36" ht="12.75" customHeight="1"/>
+    <row r="37" ht="12.75" customHeight="1"/>
+    <row r="38" ht="12.75" customHeight="1"/>
+    <row r="39" ht="12.75" customHeight="1"/>
+    <row r="40" ht="12.75" customHeight="1"/>
+    <row r="41" ht="12.75" customHeight="1"/>
+    <row r="42" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -11377,21 +11431,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:DB42"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="31.625" customWidth="1"/>
-    <col min="2" max="13" width="9.25" customWidth="1"/>
-    <col min="14" max="23" width="11.375" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" customWidth="1"/>
+    <col min="2" max="13" width="9.28515625" customWidth="1"/>
+    <col min="14" max="23" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" ht="18.350000000000001" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" s="2" customFormat="1" ht="18.75">
       <c r="A1" s="94" t="s">
         <v>27</v>
       </c>
@@ -11418,7 +11472,7 @@
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
     </row>
-    <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" s="4" customFormat="1">
       <c r="A2" s="95" t="s">
         <v>12</v>
       </c>
@@ -11445,7 +11499,7 @@
       <c r="V2" s="5"/>
       <c r="W2" s="5"/>
     </row>
-    <row r="3" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" s="4" customFormat="1">
       <c r="A3" s="95">
         <v>2010</v>
       </c>
@@ -11472,7 +11526,7 @@
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
     </row>
-    <row r="4" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" s="4" customFormat="1">
       <c r="A4" s="44"/>
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
@@ -11497,7 +11551,7 @@
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
     </row>
-    <row r="5" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" s="4" customFormat="1">
       <c r="A5" s="44"/>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
@@ -11522,7 +11576,7 @@
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
     </row>
-    <row r="6" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1">
       <c r="A6" s="98" t="s">
         <v>29</v>
       </c>
@@ -11549,7 +11603,7 @@
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
     </row>
-    <row r="7" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1">
       <c r="A7" s="103" t="s">
         <v>30</v>
       </c>
@@ -11576,7 +11630,7 @@
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
     </row>
-    <row r="8" spans="1:23" s="17" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1">
       <c r="A8" s="102" t="s">
         <v>10</v>
       </c>
@@ -11595,7 +11649,7 @@
       <c r="L8" s="102"/>
       <c r="M8" s="102"/>
     </row>
-    <row r="9" spans="1:23" s="17" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1">
       <c r="A9" s="102"/>
       <c r="B9" s="45" t="s">
         <v>14</v>
@@ -11634,7 +11688,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="17" customFormat="1" ht="13.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" s="17" customFormat="1">
       <c r="A10" s="39" t="s">
         <v>0</v>
       </c>
@@ -11675,7 +11729,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1">
       <c r="A11" s="41" t="s">
         <v>1</v>
       </c>
@@ -11716,7 +11770,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1">
       <c r="A12" s="41" t="s">
         <v>2</v>
       </c>
@@ -11757,7 +11811,7 @@
         <v>13168</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1">
       <c r="A13" s="41" t="s">
         <v>3</v>
       </c>
@@ -11798,7 +11852,7 @@
         <v>7663</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1">
       <c r="A14" s="41" t="s">
         <v>4</v>
       </c>
@@ -11839,7 +11893,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1">
       <c r="A15" s="41" t="s">
         <v>5</v>
       </c>
@@ -11880,7 +11934,7 @@
         <v>23341</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1">
       <c r="A16" s="41" t="s">
         <v>6</v>
       </c>
@@ -11921,7 +11975,7 @@
         <v>5328</v>
       </c>
     </row>
-    <row r="17" spans="1:106" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:106" s="17" customFormat="1" ht="11.25" customHeight="1">
       <c r="A17" s="41" t="s">
         <v>7</v>
       </c>
@@ -11962,7 +12016,7 @@
         <v>23027</v>
       </c>
     </row>
-    <row r="18" spans="1:106" s="17" customFormat="1" ht="18.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:106" s="17" customFormat="1" ht="18.75" customHeight="1">
       <c r="A18" s="42" t="s">
         <v>11</v>
       </c>
@@ -12015,7 +12069,7 @@
         <v>74713</v>
       </c>
     </row>
-    <row r="19" spans="1:106" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:106" s="11" customFormat="1" ht="20.25" customHeight="1">
       <c r="A19" s="43" t="s">
         <v>25</v>
       </c>
@@ -12161,8 +12215,8 @@
       <c r="DA19" s="13"/>
       <c r="DB19" s="13"/>
     </row>
-    <row r="20" spans="1:106" ht="10.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:106" ht="46.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:106" ht="10.5" customHeight="1"/>
+    <row r="21" spans="1:106" ht="46.5" customHeight="1">
       <c r="A21" s="93" t="s">
         <v>9</v>
       </c>
@@ -12179,7 +12233,7 @@
       <c r="L21" s="93"/>
       <c r="M21" s="93"/>
     </row>
-    <row r="22" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:106">
       <c r="A22" s="10"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -12194,7 +12248,7 @@
       <c r="L22" s="15"/>
       <c r="M22" s="15"/>
     </row>
-    <row r="23" spans="1:106" s="5" customFormat="1" ht="10.9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:106" s="5" customFormat="1" ht="11.25">
       <c r="A23" s="14" t="s">
         <v>28</v>
       </c>
@@ -12211,10 +12265,10 @@
       <c r="L23" s="18"/>
       <c r="M23" s="18"/>
     </row>
-    <row r="24" spans="1:106" ht="9.6999999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:106" ht="9.75" customHeight="1">
       <c r="A24" s="10"/>
     </row>
-    <row r="25" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:106">
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -12228,7 +12282,7 @@
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
     </row>
-    <row r="28" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:106" ht="12.75" customHeight="1">
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -12242,20 +12296,20 @@
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
     </row>
-    <row r="29" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:106" ht="12.75" customHeight="1"/>
+    <row r="30" spans="1:106" ht="12.75" customHeight="1"/>
+    <row r="31" spans="1:106" ht="12.75" customHeight="1"/>
+    <row r="32" spans="1:106" ht="12.75" customHeight="1"/>
+    <row r="33" ht="12.75" customHeight="1"/>
+    <row r="34" ht="12.75" customHeight="1"/>
+    <row r="35" ht="12.75" customHeight="1"/>
+    <row r="36" ht="12.75" customHeight="1"/>
+    <row r="37" ht="12.75" customHeight="1"/>
+    <row r="38" ht="12.75" customHeight="1"/>
+    <row r="39" ht="12.75" customHeight="1"/>
+    <row r="40" ht="12.75" customHeight="1"/>
+    <row r="41" ht="12.75" customHeight="1"/>
+    <row r="42" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -12278,21 +12332,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:DB42"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="31.625" customWidth="1"/>
-    <col min="2" max="13" width="9.25" customWidth="1"/>
-    <col min="14" max="23" width="11.375" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" customWidth="1"/>
+    <col min="2" max="13" width="9.28515625" customWidth="1"/>
+    <col min="14" max="23" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" ht="18.350000000000001" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" s="2" customFormat="1" ht="18.75">
       <c r="A1" s="94" t="s">
         <v>27</v>
       </c>
@@ -12319,7 +12373,7 @@
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
     </row>
-    <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" s="4" customFormat="1">
       <c r="A2" s="95" t="s">
         <v>12</v>
       </c>
@@ -12346,7 +12400,7 @@
       <c r="V2" s="5"/>
       <c r="W2" s="5"/>
     </row>
-    <row r="3" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" s="4" customFormat="1">
       <c r="A3" s="95">
         <v>2011</v>
       </c>
@@ -12373,7 +12427,7 @@
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
     </row>
-    <row r="4" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" s="4" customFormat="1">
       <c r="A4" s="44"/>
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
@@ -12398,7 +12452,7 @@
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
     </row>
-    <row r="5" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" s="4" customFormat="1">
       <c r="A5" s="44"/>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
@@ -12423,7 +12477,7 @@
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
     </row>
-    <row r="6" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1">
       <c r="A6" s="98" t="s">
         <v>29</v>
       </c>
@@ -12450,7 +12504,7 @@
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
     </row>
-    <row r="7" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1">
       <c r="A7" s="103" t="s">
         <v>30</v>
       </c>
@@ -12477,7 +12531,7 @@
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
     </row>
-    <row r="8" spans="1:23" s="17" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1">
       <c r="A8" s="102" t="s">
         <v>10</v>
       </c>
@@ -12496,7 +12550,7 @@
       <c r="L8" s="102"/>
       <c r="M8" s="102"/>
     </row>
-    <row r="9" spans="1:23" s="17" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1">
       <c r="A9" s="102"/>
       <c r="B9" s="45" t="s">
         <v>14</v>
@@ -12535,7 +12589,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="17" customFormat="1" ht="13.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" s="17" customFormat="1">
       <c r="A10" s="39" t="s">
         <v>0</v>
       </c>
@@ -12576,7 +12630,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1">
       <c r="A11" s="41" t="s">
         <v>1</v>
       </c>
@@ -12617,7 +12671,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1">
       <c r="A12" s="41" t="s">
         <v>2</v>
       </c>
@@ -12658,7 +12712,7 @@
         <v>13135</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1">
       <c r="A13" s="41" t="s">
         <v>3</v>
       </c>
@@ -12699,7 +12753,7 @@
         <v>7755</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1">
       <c r="A14" s="41" t="s">
         <v>4</v>
       </c>
@@ -12740,7 +12794,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1">
       <c r="A15" s="41" t="s">
         <v>5</v>
       </c>
@@ -12781,7 +12835,7 @@
         <v>23679</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1">
       <c r="A16" s="41" t="s">
         <v>6</v>
       </c>
@@ -12822,7 +12876,7 @@
         <v>5324</v>
       </c>
     </row>
-    <row r="17" spans="1:106" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:106" s="17" customFormat="1" ht="11.25" customHeight="1">
       <c r="A17" s="41" t="s">
         <v>7</v>
       </c>
@@ -12863,7 +12917,7 @@
         <v>23456</v>
       </c>
     </row>
-    <row r="18" spans="1:106" s="17" customFormat="1" ht="18.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:106" s="17" customFormat="1" ht="18.75" customHeight="1">
       <c r="A18" s="42" t="s">
         <v>11</v>
       </c>
@@ -12916,7 +12970,7 @@
         <v>75571</v>
       </c>
     </row>
-    <row r="19" spans="1:106" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:106" s="11" customFormat="1" ht="20.25" customHeight="1">
       <c r="A19" s="43" t="s">
         <v>25</v>
       </c>
@@ -13062,8 +13116,8 @@
       <c r="DA19" s="13"/>
       <c r="DB19" s="13"/>
     </row>
-    <row r="20" spans="1:106" ht="10.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:106" ht="46.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:106" ht="10.5" customHeight="1"/>
+    <row r="21" spans="1:106" ht="46.5" customHeight="1">
       <c r="A21" s="93" t="s">
         <v>9</v>
       </c>
@@ -13080,7 +13134,7 @@
       <c r="L21" s="93"/>
       <c r="M21" s="93"/>
     </row>
-    <row r="22" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:106">
       <c r="A22" s="10"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -13095,7 +13149,7 @@
       <c r="L22" s="12"/>
       <c r="M22" s="15"/>
     </row>
-    <row r="23" spans="1:106" s="5" customFormat="1" ht="10.9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:106" s="5" customFormat="1" ht="11.25">
       <c r="A23" s="14" t="s">
         <v>28</v>
       </c>
@@ -13112,10 +13166,10 @@
       <c r="L23" s="18"/>
       <c r="M23" s="18"/>
     </row>
-    <row r="24" spans="1:106" ht="9.6999999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:106" ht="9.75" customHeight="1">
       <c r="A24" s="10"/>
     </row>
-    <row r="28" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:106" ht="12.75" customHeight="1">
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -13129,9 +13183,9 @@
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
     </row>
-    <row r="29" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:106" ht="12.75" customHeight="1"/>
+    <row r="30" spans="1:106" ht="12.75" customHeight="1"/>
+    <row r="31" spans="1:106" ht="12.75" customHeight="1">
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -13145,17 +13199,17 @@
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
     </row>
-    <row r="32" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:106" ht="12.75" customHeight="1"/>
+    <row r="33" ht="12.75" customHeight="1"/>
+    <row r="34" ht="12.75" customHeight="1"/>
+    <row r="35" ht="12.75" customHeight="1"/>
+    <row r="36" ht="12.75" customHeight="1"/>
+    <row r="37" ht="12.75" customHeight="1"/>
+    <row r="38" ht="12.75" customHeight="1"/>
+    <row r="39" ht="12.75" customHeight="1"/>
+    <row r="40" ht="12.75" customHeight="1"/>
+    <row r="41" ht="12.75" customHeight="1"/>
+    <row r="42" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -13178,23 +13232,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:DB42"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="31.625" customWidth="1"/>
-    <col min="2" max="3" width="9.25" customWidth="1"/>
-    <col min="4" max="12" width="9.25" style="22" customWidth="1"/>
-    <col min="13" max="13" width="9.25" customWidth="1"/>
-    <col min="14" max="23" width="11.375" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" customWidth="1"/>
+    <col min="2" max="3" width="9.28515625" customWidth="1"/>
+    <col min="4" max="12" width="9.28515625" style="22" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" customWidth="1"/>
+    <col min="14" max="23" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" ht="18.350000000000001" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" s="2" customFormat="1" ht="18.75">
       <c r="A1" s="94" t="s">
         <v>27</v>
       </c>
@@ -13221,7 +13275,7 @@
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
     </row>
-    <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" s="4" customFormat="1">
       <c r="A2" s="95" t="s">
         <v>12</v>
       </c>
@@ -13248,7 +13302,7 @@
       <c r="V2" s="5"/>
       <c r="W2" s="5"/>
     </row>
-    <row r="3" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" s="4" customFormat="1">
       <c r="A3" s="95">
         <v>2012</v>
       </c>
@@ -13275,7 +13329,7 @@
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
     </row>
-    <row r="4" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" s="4" customFormat="1">
       <c r="A4" s="44"/>
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
@@ -13300,7 +13354,7 @@
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
     </row>
-    <row r="5" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" s="4" customFormat="1">
       <c r="A5" s="44"/>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
@@ -13325,7 +13379,7 @@
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
     </row>
-    <row r="6" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1">
       <c r="A6" s="98" t="s">
         <v>29</v>
       </c>
@@ -13352,7 +13406,7 @@
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
     </row>
-    <row r="7" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1">
       <c r="A7" s="103" t="s">
         <v>30</v>
       </c>
@@ -13379,7 +13433,7 @@
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
     </row>
-    <row r="8" spans="1:23" s="17" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1">
       <c r="A8" s="102" t="s">
         <v>10</v>
       </c>
@@ -13398,7 +13452,7 @@
       <c r="L8" s="104"/>
       <c r="M8" s="104"/>
     </row>
-    <row r="9" spans="1:23" s="17" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1">
       <c r="A9" s="102"/>
       <c r="B9" s="45" t="s">
         <v>14</v>
@@ -13437,7 +13491,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="17" customFormat="1" ht="13.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" s="17" customFormat="1">
       <c r="A10" s="39" t="s">
         <v>0</v>
       </c>
@@ -13478,7 +13532,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1">
       <c r="A11" s="41" t="s">
         <v>1</v>
       </c>
@@ -13519,7 +13573,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1">
       <c r="A12" s="41" t="s">
         <v>2</v>
       </c>
@@ -13560,7 +13614,7 @@
         <v>13165</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1">
       <c r="A13" s="41" t="s">
         <v>3</v>
       </c>
@@ -13601,7 +13655,7 @@
         <v>8044</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1">
       <c r="A14" s="41" t="s">
         <v>4</v>
       </c>
@@ -13642,7 +13696,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1">
       <c r="A15" s="41" t="s">
         <v>5</v>
       </c>
@@ -13683,7 +13737,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1">
       <c r="A16" s="41" t="s">
         <v>6</v>
       </c>
@@ -13724,7 +13778,7 @@
         <v>5452</v>
       </c>
     </row>
-    <row r="17" spans="1:106" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:106" s="17" customFormat="1" ht="11.25" customHeight="1">
       <c r="A17" s="41" t="s">
         <v>7</v>
       </c>
@@ -13765,7 +13819,7 @@
         <v>24330</v>
       </c>
     </row>
-    <row r="18" spans="1:106" s="17" customFormat="1" ht="18.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:106" s="17" customFormat="1" ht="18.75" customHeight="1">
       <c r="A18" s="42" t="s">
         <v>11</v>
       </c>
@@ -13818,7 +13872,7 @@
         <v>77290</v>
       </c>
     </row>
-    <row r="19" spans="1:106" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:106" s="11" customFormat="1" ht="20.25" customHeight="1">
       <c r="A19" s="43" t="s">
         <v>25</v>
       </c>
@@ -13964,8 +14018,8 @@
       <c r="DA19" s="13"/>
       <c r="DB19" s="13"/>
     </row>
-    <row r="20" spans="1:106" ht="10.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:106" ht="46.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:106" ht="10.5" customHeight="1"/>
+    <row r="21" spans="1:106" ht="46.5" customHeight="1">
       <c r="A21" s="93" t="s">
         <v>9</v>
       </c>
@@ -13982,7 +14036,7 @@
       <c r="L21" s="93"/>
       <c r="M21" s="93"/>
     </row>
-    <row r="22" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:106">
       <c r="A22" s="10"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -13997,7 +14051,7 @@
       <c r="L22" s="23"/>
       <c r="M22" s="15"/>
     </row>
-    <row r="23" spans="1:106" s="5" customFormat="1" ht="10.9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:106" s="5" customFormat="1" ht="11.25">
       <c r="A23" s="14" t="s">
         <v>28</v>
       </c>
@@ -14014,10 +14068,10 @@
       <c r="L23" s="24"/>
       <c r="M23" s="18"/>
     </row>
-    <row r="24" spans="1:106" ht="9.6999999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:106" ht="9.75" customHeight="1">
       <c r="A24" s="10"/>
     </row>
-    <row r="28" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:106" ht="12.75" customHeight="1">
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -14031,9 +14085,9 @@
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
     </row>
-    <row r="29" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:106" ht="12.75" customHeight="1"/>
+    <row r="30" spans="1:106" ht="12.75" customHeight="1"/>
+    <row r="31" spans="1:106" ht="12.75" customHeight="1">
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="25"/>
@@ -14047,17 +14101,17 @@
       <c r="L31" s="25"/>
       <c r="M31" s="9"/>
     </row>
-    <row r="32" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:106" ht="12.75" customHeight="1"/>
+    <row r="33" ht="12.75" customHeight="1"/>
+    <row r="34" ht="12.75" customHeight="1"/>
+    <row r="35" ht="12.75" customHeight="1"/>
+    <row r="36" ht="12.75" customHeight="1"/>
+    <row r="37" ht="12.75" customHeight="1"/>
+    <row r="38" ht="12.75" customHeight="1"/>
+    <row r="39" ht="12.75" customHeight="1"/>
+    <row r="40" ht="12.75" customHeight="1"/>
+    <row r="41" ht="12.75" customHeight="1"/>
+    <row r="42" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -14080,22 +14134,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:DB42"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="31.625" customWidth="1"/>
-    <col min="2" max="3" width="9.25" customWidth="1"/>
-    <col min="4" max="13" width="9.25" style="22" customWidth="1"/>
-    <col min="14" max="23" width="11.375" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" customWidth="1"/>
+    <col min="2" max="3" width="9.28515625" customWidth="1"/>
+    <col min="4" max="13" width="9.28515625" style="22" customWidth="1"/>
+    <col min="14" max="23" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" ht="15.65" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" s="2" customFormat="1" ht="15.75">
       <c r="A1" s="94" t="s">
         <v>26</v>
       </c>
@@ -14122,7 +14176,7 @@
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
     </row>
-    <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" s="4" customFormat="1">
       <c r="A2" s="95" t="s">
         <v>12</v>
       </c>
@@ -14149,7 +14203,7 @@
       <c r="V2" s="5"/>
       <c r="W2" s="5"/>
     </row>
-    <row r="3" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" s="4" customFormat="1">
       <c r="A3" s="95">
         <v>2013</v>
       </c>
@@ -14176,7 +14230,7 @@
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
     </row>
-    <row r="4" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" s="4" customFormat="1">
       <c r="A4" s="44"/>
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
@@ -14201,7 +14255,7 @@
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
     </row>
-    <row r="5" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" s="4" customFormat="1">
       <c r="A5" s="44"/>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
@@ -14226,7 +14280,7 @@
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
     </row>
-    <row r="6" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1">
       <c r="A6" s="98" t="s">
         <v>29</v>
       </c>
@@ -14253,7 +14307,7 @@
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
     </row>
-    <row r="7" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1">
       <c r="A7" s="103" t="s">
         <v>30</v>
       </c>
@@ -14280,7 +14334,7 @@
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
     </row>
-    <row r="8" spans="1:23" s="17" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1">
       <c r="A8" s="102" t="s">
         <v>10</v>
       </c>
@@ -14299,7 +14353,7 @@
       <c r="L8" s="104"/>
       <c r="M8" s="104"/>
     </row>
-    <row r="9" spans="1:23" s="17" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" s="17" customFormat="1" ht="14.25" customHeight="1">
       <c r="A9" s="102"/>
       <c r="B9" s="45" t="s">
         <v>14</v>
@@ -14338,7 +14392,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="17" customFormat="1" ht="13.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" s="17" customFormat="1">
       <c r="A10" s="39" t="s">
         <v>0</v>
       </c>
@@ -14379,7 +14433,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1">
       <c r="A11" s="41" t="s">
         <v>1</v>
       </c>
@@ -14420,7 +14474,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1">
       <c r="A12" s="41" t="s">
         <v>2</v>
       </c>
@@ -14461,7 +14515,7 @@
         <v>13135</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1">
       <c r="A13" s="41" t="s">
         <v>3</v>
       </c>
@@ -14502,7 +14556,7 @@
         <v>8121</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1">
       <c r="A14" s="41" t="s">
         <v>4</v>
       </c>
@@ -14543,7 +14597,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1">
       <c r="A15" s="41" t="s">
         <v>5</v>
       </c>
@@ -14584,7 +14638,7 @@
         <v>24338</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" s="17" customFormat="1" ht="11.25" customHeight="1">
       <c r="A16" s="41" t="s">
         <v>6</v>
       </c>
@@ -14625,7 +14679,7 @@
         <v>5519</v>
       </c>
     </row>
-    <row r="17" spans="1:106" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:106" s="17" customFormat="1" ht="11.25" customHeight="1">
       <c r="A17" s="41" t="s">
         <v>7</v>
       </c>
@@ -14666,7 +14720,7 @@
         <v>24632</v>
       </c>
     </row>
-    <row r="18" spans="1:106" s="17" customFormat="1" ht="18.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:106" s="17" customFormat="1" ht="18.75" customHeight="1">
       <c r="A18" s="42" t="s">
         <v>11</v>
       </c>
@@ -14719,7 +14773,7 @@
         <v>78051</v>
       </c>
     </row>
-    <row r="19" spans="1:106" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:106" s="11" customFormat="1" ht="20.25" customHeight="1">
       <c r="A19" s="43" t="s">
         <v>25</v>
       </c>
@@ -14865,8 +14919,8 @@
       <c r="DA19" s="13"/>
       <c r="DB19" s="13"/>
     </row>
-    <row r="20" spans="1:106" ht="10.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:106" ht="46.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:106" ht="10.5" customHeight="1"/>
+    <row r="21" spans="1:106" ht="46.5" customHeight="1">
       <c r="A21" s="93" t="s">
         <v>9</v>
       </c>
@@ -14883,7 +14937,7 @@
       <c r="L21" s="93"/>
       <c r="M21" s="93"/>
     </row>
-    <row r="22" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:106">
       <c r="A22" s="10"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -14898,7 +14952,7 @@
       <c r="L22" s="23"/>
       <c r="M22" s="23"/>
     </row>
-    <row r="23" spans="1:106" s="5" customFormat="1" ht="10.9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:106" s="5" customFormat="1" ht="11.25">
       <c r="A23" s="14" t="s">
         <v>28</v>
       </c>
@@ -14915,10 +14969,10 @@
       <c r="L23" s="24"/>
       <c r="M23" s="24"/>
     </row>
-    <row r="24" spans="1:106" ht="9.6999999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:106" ht="9.75" customHeight="1">
       <c r="A24" s="10"/>
     </row>
-    <row r="28" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:106" ht="12.75" customHeight="1">
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -14932,9 +14986,9 @@
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
     </row>
-    <row r="29" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:106" ht="12.75" customHeight="1"/>
+    <row r="30" spans="1:106" ht="12.75" customHeight="1"/>
+    <row r="31" spans="1:106" ht="12.75" customHeight="1">
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="25"/>
@@ -14948,17 +15002,17 @@
       <c r="L31" s="25"/>
       <c r="M31" s="25"/>
     </row>
-    <row r="32" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:106" ht="12.75" customHeight="1"/>
+    <row r="33" ht="12.75" customHeight="1"/>
+    <row r="34" ht="12.75" customHeight="1"/>
+    <row r="35" ht="12.75" customHeight="1"/>
+    <row r="36" ht="12.75" customHeight="1"/>
+    <row r="37" ht="12.75" customHeight="1"/>
+    <row r="38" ht="12.75" customHeight="1"/>
+    <row r="39" ht="12.75" customHeight="1"/>
+    <row r="40" ht="12.75" customHeight="1"/>
+    <row r="41" ht="12.75" customHeight="1"/>
+    <row r="42" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -14981,22 +15035,22 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:DA42"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="35.25" customWidth="1"/>
-    <col min="2" max="3" width="9.25" customWidth="1"/>
-    <col min="4" max="13" width="9.25" style="22" customWidth="1"/>
-    <col min="14" max="22" width="11.375" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" customWidth="1"/>
+    <col min="2" max="3" width="9.28515625" customWidth="1"/>
+    <col min="4" max="13" width="9.28515625" style="22" customWidth="1"/>
+    <col min="14" max="22" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1" ht="15.65" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" s="2" customFormat="1" ht="15.75">
       <c r="A1" s="94" t="s">
         <v>26</v>
       </c>
@@ -15022,7 +15076,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
     </row>
-    <row r="2" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" s="4" customFormat="1">
       <c r="A2" s="95" t="s">
         <v>12</v>
       </c>
@@ -15048,7 +15102,7 @@
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
     </row>
-    <row r="3" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" s="4" customFormat="1">
       <c r="A3" s="95">
         <v>2014</v>
       </c>
@@ -15074,7 +15128,7 @@
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
     </row>
-    <row r="4" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" s="4" customFormat="1">
       <c r="A4" s="44"/>
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
@@ -15098,7 +15152,7 @@
       <c r="U4" s="5"/>
       <c r="V4" s="5"/>
     </row>
-    <row r="5" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" s="4" customFormat="1">
       <c r="A5" s="44"/>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
@@ -15122,7 +15176,7 @@
       <c r="U5" s="5"/>
       <c r="V5" s="5"/>
     </row>
-    <row r="6" spans="1:22" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" s="4" customFormat="1" ht="12.75" customHeight="1">
       <c r="A6" s="98" t="s">
         <v>29</v>
       </c>
@@ -15148,7 +15202,7 @@
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
     </row>
-    <row r="7" spans="1:22" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" s="4" customFormat="1" ht="12.75" customHeight="1">
       <c r="A7" s="103" t="s">
         <v>30</v>
       </c>
@@ -15174,7 +15228,7 @@
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
     </row>
-    <row r="8" spans="1:22" s="17" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" s="17" customFormat="1" ht="14.25" customHeight="1">
       <c r="A8" s="102" t="s">
         <v>10</v>
       </c>
@@ -15193,7 +15247,7 @@
       <c r="L8" s="104"/>
       <c r="M8" s="104"/>
     </row>
-    <row r="9" spans="1:22" s="17" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" s="17" customFormat="1" ht="14.25" customHeight="1">
       <c r="A9" s="102"/>
       <c r="B9" s="45" t="s">
         <v>14</v>
@@ -15232,7 +15286,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="17" customFormat="1" ht="13.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" s="17" customFormat="1">
       <c r="A10" s="39" t="s">
         <v>0</v>
       </c>
@@ -15273,7 +15327,7 @@
         <v>2249</v>
       </c>
     </row>
-    <row r="11" spans="1:22" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" s="17" customFormat="1" ht="11.25" customHeight="1">
       <c r="A11" s="41" t="s">
         <v>1</v>
       </c>
@@ -15314,7 +15368,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:22" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" s="17" customFormat="1" ht="11.25" customHeight="1">
       <c r="A12" s="41" t="s">
         <v>2</v>
       </c>
@@ -15355,7 +15409,7 @@
         <v>13305</v>
       </c>
     </row>
-    <row r="13" spans="1:22" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" s="17" customFormat="1" ht="11.25" customHeight="1">
       <c r="A13" s="41" t="s">
         <v>3</v>
       </c>
@@ -15396,7 +15450,7 @@
         <v>8541</v>
       </c>
     </row>
-    <row r="14" spans="1:22" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" s="17" customFormat="1" ht="11.25" customHeight="1">
       <c r="A14" s="41" t="s">
         <v>4</v>
       </c>
@@ -15437,7 +15491,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:22" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" s="17" customFormat="1" ht="11.25" customHeight="1">
       <c r="A15" s="41" t="s">
         <v>5</v>
       </c>
@@ -15478,7 +15532,7 @@
         <v>24640</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" s="17" customFormat="1" ht="11.25" customHeight="1">
       <c r="A16" s="41" t="s">
         <v>6</v>
       </c>
@@ -15519,7 +15573,7 @@
         <v>5798</v>
       </c>
     </row>
-    <row r="17" spans="1:105" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:105" s="17" customFormat="1" ht="11.25" customHeight="1">
       <c r="A17" s="41" t="s">
         <v>7</v>
       </c>
@@ -15560,7 +15614,7 @@
         <v>25234</v>
       </c>
     </row>
-    <row r="18" spans="1:105" s="17" customFormat="1" ht="18.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:105" s="17" customFormat="1" ht="18.75" customHeight="1">
       <c r="A18" s="42" t="s">
         <v>11</v>
       </c>
@@ -15613,7 +15667,7 @@
         <v>79961</v>
       </c>
     </row>
-    <row r="19" spans="1:105" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:105" s="11" customFormat="1" ht="20.25" customHeight="1">
       <c r="A19" s="43" t="s">
         <v>25</v>
       </c>
@@ -15758,8 +15812,8 @@
       <c r="CZ19" s="13"/>
       <c r="DA19" s="13"/>
     </row>
-    <row r="20" spans="1:105" ht="10.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:105" ht="46.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:105" ht="10.5" customHeight="1"/>
+    <row r="21" spans="1:105" ht="46.5" customHeight="1">
       <c r="A21" s="93" t="s">
         <v>9</v>
       </c>
@@ -15776,7 +15830,7 @@
       <c r="L21" s="93"/>
       <c r="M21" s="93"/>
     </row>
-    <row r="22" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:105">
       <c r="A22" s="10"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -15791,7 +15845,7 @@
       <c r="L22" s="23"/>
       <c r="M22" s="23"/>
     </row>
-    <row r="23" spans="1:105" s="5" customFormat="1" ht="10.9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:105" s="5" customFormat="1" ht="11.25">
       <c r="A23" s="14" t="s">
         <v>28</v>
       </c>
@@ -15808,16 +15862,16 @@
       <c r="L23" s="24"/>
       <c r="M23" s="24"/>
     </row>
-    <row r="24" spans="1:105" ht="9.6999999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:105" ht="9.75" customHeight="1">
       <c r="A24" s="10"/>
     </row>
-    <row r="26" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:105">
       <c r="M26" s="57"/>
     </row>
-    <row r="27" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:105">
       <c r="M27" s="57"/>
     </row>
-    <row r="28" spans="1:105" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:105" ht="12.75" customHeight="1">
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -15831,9 +15885,9 @@
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
     </row>
-    <row r="29" spans="1:105" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:105" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:105" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:105" ht="12.75" customHeight="1"/>
+    <row r="30" spans="1:105" ht="12.75" customHeight="1"/>
+    <row r="31" spans="1:105" ht="12.75" customHeight="1">
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="25"/>
@@ -15847,17 +15901,17 @@
       <c r="L31" s="25"/>
       <c r="M31" s="25"/>
     </row>
-    <row r="32" spans="1:105" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:105" ht="12.75" customHeight="1"/>
+    <row r="33" ht="12.75" customHeight="1"/>
+    <row r="34" ht="12.75" customHeight="1"/>
+    <row r="35" ht="12.75" customHeight="1"/>
+    <row r="36" ht="12.75" customHeight="1"/>
+    <row r="37" ht="12.75" customHeight="1"/>
+    <row r="38" ht="12.75" customHeight="1"/>
+    <row r="39" ht="12.75" customHeight="1"/>
+    <row r="40" ht="12.75" customHeight="1"/>
+    <row r="41" ht="12.75" customHeight="1"/>
+    <row r="42" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -15880,22 +15934,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:CZ42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="35.25" customWidth="1"/>
-    <col min="2" max="3" width="9.25" customWidth="1"/>
-    <col min="4" max="13" width="9.25" style="22" customWidth="1"/>
-    <col min="14" max="21" width="11.375" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" customWidth="1"/>
+    <col min="2" max="3" width="9.28515625" customWidth="1"/>
+    <col min="4" max="13" width="9.28515625" style="22" customWidth="1"/>
+    <col min="14" max="21" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="15.65" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="15.75">
       <c r="A1" s="94" t="s">
         <v>26</v>
       </c>
@@ -15920,7 +15974,7 @@
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
     </row>
-    <row r="2" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="4" customFormat="1">
       <c r="A2" s="95" t="s">
         <v>12</v>
       </c>
@@ -15945,7 +15999,7 @@
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
     </row>
-    <row r="3" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" s="4" customFormat="1">
       <c r="A3" s="95">
         <v>2015</v>
       </c>
@@ -15970,7 +16024,7 @@
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
     </row>
-    <row r="4" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" s="4" customFormat="1">
       <c r="A4" s="44"/>
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
@@ -15993,7 +16047,7 @@
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
     </row>
-    <row r="5" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" s="4" customFormat="1">
       <c r="A5" s="44"/>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
@@ -16016,7 +16070,7 @@
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
     </row>
-    <row r="6" spans="1:21" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" s="4" customFormat="1" ht="12.75" customHeight="1">
       <c r="A6" s="98" t="s">
         <v>29</v>
       </c>
@@ -16034,7 +16088,7 @@
       <c r="M6" s="98"/>
       <c r="U6" s="5"/>
     </row>
-    <row r="7" spans="1:21" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" s="4" customFormat="1" ht="12.75" customHeight="1">
       <c r="A7" s="103" t="s">
         <v>30</v>
       </c>
@@ -16052,7 +16106,7 @@
       <c r="M7" s="103"/>
       <c r="U7" s="5"/>
     </row>
-    <row r="8" spans="1:21" s="17" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" s="17" customFormat="1" ht="14.25" customHeight="1">
       <c r="A8" s="102" t="s">
         <v>10</v>
       </c>
@@ -16071,7 +16125,7 @@
       <c r="L8" s="104"/>
       <c r="M8" s="104"/>
     </row>
-    <row r="9" spans="1:21" s="17" customFormat="1" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" s="17" customFormat="1" ht="14.25" customHeight="1">
       <c r="A9" s="102"/>
       <c r="B9" s="56" t="s">
         <v>14</v>
@@ -16117,7 +16171,7 @@
       <c r="S9"/>
       <c r="T9"/>
     </row>
-    <row r="10" spans="1:21" s="17" customFormat="1" ht="13.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" s="17" customFormat="1">
       <c r="A10" s="39" t="s">
         <v>0</v>
       </c>
@@ -16165,7 +16219,7 @@
       <c r="S10"/>
       <c r="T10"/>
     </row>
-    <row r="11" spans="1:21" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" s="17" customFormat="1" ht="11.25" customHeight="1">
       <c r="A11" s="41" t="s">
         <v>1</v>
       </c>
@@ -16213,7 +16267,7 @@
       <c r="S11"/>
       <c r="T11"/>
     </row>
-    <row r="12" spans="1:21" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" s="17" customFormat="1" ht="11.25" customHeight="1">
       <c r="A12" s="41" t="s">
         <v>2</v>
       </c>
@@ -16261,7 +16315,7 @@
       <c r="S12"/>
       <c r="T12"/>
     </row>
-    <row r="13" spans="1:21" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" s="17" customFormat="1" ht="11.25" customHeight="1">
       <c r="A13" s="41" t="s">
         <v>3</v>
       </c>
@@ -16309,7 +16363,7 @@
       <c r="S13"/>
       <c r="T13"/>
     </row>
-    <row r="14" spans="1:21" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" s="17" customFormat="1" ht="11.25" customHeight="1">
       <c r="A14" s="41" t="s">
         <v>4</v>
       </c>
@@ -16357,7 +16411,7 @@
       <c r="S14"/>
       <c r="T14"/>
     </row>
-    <row r="15" spans="1:21" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" s="17" customFormat="1" ht="11.25" customHeight="1">
       <c r="A15" s="41" t="s">
         <v>5</v>
       </c>
@@ -16405,7 +16459,7 @@
       <c r="S15"/>
       <c r="T15"/>
     </row>
-    <row r="16" spans="1:21" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" s="17" customFormat="1" ht="11.25" customHeight="1">
       <c r="A16" s="41" t="s">
         <v>6</v>
       </c>
@@ -16453,7 +16507,7 @@
       <c r="S16"/>
       <c r="T16"/>
     </row>
-    <row r="17" spans="1:104" s="17" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:104" s="17" customFormat="1" ht="11.25" customHeight="1">
       <c r="A17" s="41" t="s">
         <v>7</v>
       </c>
@@ -16501,7 +16555,7 @@
       <c r="S17"/>
       <c r="T17"/>
     </row>
-    <row r="18" spans="1:104" s="17" customFormat="1" ht="18.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:104" s="17" customFormat="1" ht="18.75" customHeight="1">
       <c r="A18" s="42" t="s">
         <v>11</v>
       </c>
@@ -16568,7 +16622,7 @@
       <c r="Z18" s="13"/>
       <c r="AA18" s="13"/>
     </row>
-    <row r="19" spans="1:104" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:104" s="11" customFormat="1" ht="20.25" customHeight="1">
       <c r="A19" s="43" t="s">
         <v>25</v>
       </c>
@@ -16712,8 +16766,8 @@
       <c r="CY19" s="13"/>
       <c r="CZ19" s="13"/>
     </row>
-    <row r="20" spans="1:104" ht="10.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:104" ht="46.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:104" ht="10.5" customHeight="1"/>
+    <row r="21" spans="1:104" ht="46.5" customHeight="1">
       <c r="A21" s="93" t="s">
         <v>9</v>
       </c>
@@ -16730,7 +16784,7 @@
       <c r="L21" s="93"/>
       <c r="M21" s="93"/>
     </row>
-    <row r="22" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:104">
       <c r="A22" s="10"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -16759,7 +16813,7 @@
       <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
     </row>
-    <row r="23" spans="1:104" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:104" s="5" customFormat="1">
       <c r="A23" s="14" t="s">
         <v>28</v>
       </c>
@@ -16790,16 +16844,16 @@
       <c r="Z23"/>
       <c r="AA23"/>
     </row>
-    <row r="24" spans="1:104" ht="9.6999999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:104" ht="9.75" customHeight="1">
       <c r="A24" s="10"/>
     </row>
-    <row r="26" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:104">
       <c r="M26" s="57"/>
     </row>
-    <row r="27" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:104">
       <c r="M27" s="57"/>
     </row>
-    <row r="28" spans="1:104" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:104" ht="12.75" customHeight="1">
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -16813,9 +16867,9 @@
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
     </row>
-    <row r="29" spans="1:104" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:104" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:104" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:104" ht="12.75" customHeight="1"/>
+    <row r="30" spans="1:104" ht="12.75" customHeight="1"/>
+    <row r="31" spans="1:104" ht="12.75" customHeight="1">
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="25"/>
@@ -16829,17 +16883,17 @@
       <c r="L31" s="25"/>
       <c r="M31" s="25"/>
     </row>
-    <row r="32" spans="1:104" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:104" ht="12.75" customHeight="1"/>
+    <row r="33" ht="12.75" customHeight="1"/>
+    <row r="34" ht="12.75" customHeight="1"/>
+    <row r="35" ht="12.75" customHeight="1"/>
+    <row r="36" ht="12.75" customHeight="1"/>
+    <row r="37" ht="12.75" customHeight="1"/>
+    <row r="38" ht="12.75" customHeight="1"/>
+    <row r="39" ht="12.75" customHeight="1"/>
+    <row r="40" ht="12.75" customHeight="1"/>
+    <row r="41" ht="12.75" customHeight="1"/>
+    <row r="42" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>

--- a/Tabulados/Patrones.xlsx
+++ b/Tabulados/Patrones.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Tabulados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3449AC43-55EC-417B-8C31-D242E031131E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A721279D-6BDC-4DD4-9E0D-025EF03BF7B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="848" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -220,10 +220,10 @@
     <t>Por división económica 2008 - 2023</t>
   </si>
   <si>
-    <t>Var Jun 2023 respecto a May 2022</t>
+    <t>Var Jul 2023 respecto a Jun 2022</t>
   </si>
   <si>
-    <t>Var Jun 2023 respecto a Dic 2022</t>
+    <t>Var Jul 2023 respecto a Dic 2022</t>
   </si>
 </sst>
 </file>
@@ -3083,7 +3083,7 @@
   <dimension ref="A1:Y23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+      <selection activeCell="R10" sqref="R10:R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3403,10 +3403,10 @@
         <v>13</v>
       </c>
       <c r="Q9" s="53" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R9" s="53" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="S9" s="67"/>
       <c r="T9" s="67"/>
@@ -3461,18 +3461,18 @@
         <v>3956</v>
       </c>
       <c r="Q10" s="54">
-        <v>3999</v>
+        <v>4004</v>
       </c>
       <c r="R10" s="54">
-        <v>4004</v>
+        <v>4022</v>
       </c>
       <c r="S10" s="54">
         <f>R10-Q10</f>
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="T10" s="54">
         <f>R10-P10</f>
-        <v>48</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:25" s="7" customFormat="1" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3525,18 +3525,18 @@
         <v>31947</v>
       </c>
       <c r="Q11" s="58">
-        <v>32053</v>
+        <v>32123</v>
       </c>
       <c r="R11" s="58">
-        <v>32123</v>
+        <v>32120</v>
       </c>
       <c r="S11" s="54">
         <f>R11-Q11</f>
-        <v>70</v>
+        <v>-3</v>
       </c>
       <c r="T11" s="54">
         <f>R11-P11</f>
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:25" s="7" customFormat="1" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3589,18 +3589,18 @@
         <v>13340</v>
       </c>
       <c r="Q12" s="55">
-        <v>13632</v>
+        <v>13714</v>
       </c>
       <c r="R12" s="55">
-        <v>13714</v>
+        <v>13753</v>
       </c>
       <c r="S12" s="54">
         <f>R12-Q12</f>
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="T12" s="54">
         <f>R12-P12</f>
-        <v>374</v>
+        <v>413</v>
       </c>
     </row>
     <row r="13" spans="1:25" s="7" customFormat="1" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3653,18 +3653,18 @@
         <v>206</v>
       </c>
       <c r="Q13" s="54">
+        <v>206</v>
+      </c>
+      <c r="R13" s="54">
         <v>208</v>
-      </c>
-      <c r="R13" s="54">
-        <v>206</v>
       </c>
       <c r="S13" s="54">
         <f>R13-Q13</f>
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="T13" s="54">
         <f>R13-P13</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:25" s="7" customFormat="1" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3717,18 +3717,18 @@
         <v>15927</v>
       </c>
       <c r="Q14" s="54">
-        <v>16005</v>
+        <v>16057</v>
       </c>
       <c r="R14" s="54">
-        <v>16057</v>
+        <v>16058</v>
       </c>
       <c r="S14" s="54">
         <f>R14-Q14</f>
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="T14" s="54">
         <f>R14-P14</f>
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:25" s="7" customFormat="1" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3781,14 +3781,14 @@
         <v>123</v>
       </c>
       <c r="Q15" s="58">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="R15" s="58">
         <v>121</v>
       </c>
       <c r="S15" s="54">
         <f t="shared" ref="S15" si="0">R15-Q15</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T15" s="54">
         <f t="shared" ref="T15" si="1">R15-P15</f>
@@ -3845,18 +3845,18 @@
         <v>33990</v>
       </c>
       <c r="Q16" s="55">
-        <v>34419</v>
+        <v>34468</v>
       </c>
       <c r="R16" s="55">
-        <v>34468</v>
+        <v>34516</v>
       </c>
       <c r="S16" s="54">
         <f>R16-Q16</f>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T16" s="54">
         <f>R16-P16</f>
-        <v>478</v>
+        <v>526</v>
       </c>
       <c r="V16" s="7">
         <v>1</v>
@@ -3912,18 +3912,18 @@
         <v>6186</v>
       </c>
       <c r="Q17" s="54">
-        <v>6259</v>
+        <v>6294</v>
       </c>
       <c r="R17" s="54">
-        <v>6294</v>
+        <v>6288</v>
       </c>
       <c r="S17" s="54">
         <f>R17-Q17</f>
-        <v>35</v>
+        <v>-6</v>
       </c>
       <c r="T17" s="54">
         <f>R17-P17</f>
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -3991,19 +3991,19 @@
       </c>
       <c r="Q18" s="18">
         <f t="shared" si="3"/>
-        <v>106693</v>
+        <v>106987</v>
       </c>
       <c r="R18" s="18">
         <f t="shared" si="3"/>
-        <v>106987</v>
+        <v>107086</v>
       </c>
       <c r="S18" s="18">
         <f t="shared" si="3"/>
-        <v>294</v>
+        <v>99</v>
       </c>
       <c r="T18" s="18">
         <f t="shared" si="3"/>
-        <v>1312</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="9" customHeight="1" x14ac:dyDescent="0.25">
@@ -8936,7 +8936,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9140,7 +9140,9 @@
       <c r="G10" s="29">
         <v>4004</v>
       </c>
-      <c r="H10" s="29"/>
+      <c r="H10" s="29">
+        <v>4022</v>
+      </c>
       <c r="I10" s="29"/>
       <c r="J10" s="29"/>
       <c r="K10" s="29"/>
@@ -9169,7 +9171,9 @@
       <c r="G11" s="29">
         <v>32123</v>
       </c>
-      <c r="H11" s="29"/>
+      <c r="H11" s="29">
+        <v>32120</v>
+      </c>
       <c r="I11" s="29"/>
       <c r="J11" s="29"/>
       <c r="K11" s="29"/>
@@ -9198,7 +9202,9 @@
       <c r="G12" s="29">
         <v>13714</v>
       </c>
-      <c r="H12" s="29"/>
+      <c r="H12" s="29">
+        <v>13753</v>
+      </c>
       <c r="I12" s="29"/>
       <c r="J12" s="29"/>
       <c r="K12" s="29"/>
@@ -9227,7 +9233,9 @@
       <c r="G13" s="29">
         <v>206</v>
       </c>
-      <c r="H13" s="29"/>
+      <c r="H13" s="29">
+        <v>208</v>
+      </c>
       <c r="I13" s="29"/>
       <c r="J13" s="29"/>
       <c r="K13" s="29"/>
@@ -9256,7 +9264,9 @@
       <c r="G14" s="29">
         <v>16057</v>
       </c>
-      <c r="H14" s="29"/>
+      <c r="H14" s="29">
+        <v>16058</v>
+      </c>
       <c r="I14" s="29"/>
       <c r="J14" s="29"/>
       <c r="K14" s="29"/>
@@ -9285,7 +9295,9 @@
       <c r="G15" s="29">
         <v>121</v>
       </c>
-      <c r="H15" s="29"/>
+      <c r="H15" s="29">
+        <v>121</v>
+      </c>
       <c r="I15" s="29"/>
       <c r="J15" s="29"/>
       <c r="K15" s="29"/>
@@ -9314,7 +9326,9 @@
       <c r="G16" s="29">
         <v>34468</v>
       </c>
-      <c r="H16" s="29"/>
+      <c r="H16" s="29">
+        <v>34516</v>
+      </c>
       <c r="I16" s="29"/>
       <c r="J16" s="29"/>
       <c r="K16" s="29"/>
@@ -9343,7 +9357,9 @@
       <c r="G17" s="29">
         <v>6294</v>
       </c>
-      <c r="H17" s="29"/>
+      <c r="H17" s="29">
+        <v>6288</v>
+      </c>
       <c r="I17" s="29"/>
       <c r="J17" s="29"/>
       <c r="K17" s="29"/>
@@ -9380,7 +9396,7 @@
       </c>
       <c r="H18" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>107086</v>
       </c>
       <c r="I18" s="18">
         <f t="shared" si="0"/>
@@ -9433,11 +9449,11 @@
       </c>
       <c r="H19" s="52">
         <f t="shared" si="1"/>
+        <v>9.2534607008332159E-2</v>
+      </c>
+      <c r="I19" s="52">
+        <f>(I18/H18-1)*100</f>
         <v>-100</v>
-      </c>
-      <c r="I19" s="52" t="e">
-        <f>(I18/H18-1)*100</f>
-        <v>#DIV/0!</v>
       </c>
       <c r="J19" s="52" t="e">
         <f>(J18/I18-1)*100</f>

--- a/Tabulados/Patrones.xlsx
+++ b/Tabulados/Patrones.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Tabulados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A721279D-6BDC-4DD4-9E0D-025EF03BF7B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE01150-B562-4199-9E4B-760359ED8DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="848" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -220,10 +220,10 @@
     <t>Por división económica 2008 - 2023</t>
   </si>
   <si>
-    <t>Var Jul 2023 respecto a Jun 2022</t>
+    <t>Var Nov 2023 respecto a Oct 2022</t>
   </si>
   <si>
-    <t>Var Jul 2023 respecto a Dic 2022</t>
+    <t>Var Nov 2023 respecto a Dic 2022</t>
   </si>
 </sst>
 </file>
@@ -3403,10 +3403,10 @@
         <v>13</v>
       </c>
       <c r="Q9" s="53" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="R9" s="53" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="S9" s="67"/>
       <c r="T9" s="67"/>
@@ -3461,18 +3461,18 @@
         <v>3956</v>
       </c>
       <c r="Q10" s="54">
-        <v>4004</v>
+        <v>4065</v>
       </c>
       <c r="R10" s="54">
-        <v>4022</v>
+        <v>4064</v>
       </c>
       <c r="S10" s="54">
         <f>R10-Q10</f>
-        <v>18</v>
+        <v>-1</v>
       </c>
       <c r="T10" s="54">
         <f>R10-P10</f>
-        <v>66</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:25" s="7" customFormat="1" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3525,18 +3525,18 @@
         <v>31947</v>
       </c>
       <c r="Q11" s="58">
-        <v>32123</v>
+        <v>32254</v>
       </c>
       <c r="R11" s="58">
-        <v>32120</v>
+        <v>32255</v>
       </c>
       <c r="S11" s="54">
         <f>R11-Q11</f>
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="T11" s="54">
         <f>R11-P11</f>
-        <v>173</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:25" s="7" customFormat="1" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3589,18 +3589,18 @@
         <v>13340</v>
       </c>
       <c r="Q12" s="55">
-        <v>13714</v>
+        <v>13945</v>
       </c>
       <c r="R12" s="55">
-        <v>13753</v>
+        <v>13964</v>
       </c>
       <c r="S12" s="54">
         <f>R12-Q12</f>
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="T12" s="54">
         <f>R12-P12</f>
-        <v>413</v>
+        <v>624</v>
       </c>
     </row>
     <row r="13" spans="1:25" s="7" customFormat="1" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3653,18 +3653,18 @@
         <v>206</v>
       </c>
       <c r="Q13" s="54">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="R13" s="54">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="S13" s="54">
         <f>R13-Q13</f>
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="T13" s="54">
         <f>R13-P13</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:25" s="7" customFormat="1" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3717,18 +3717,18 @@
         <v>15927</v>
       </c>
       <c r="Q14" s="54">
-        <v>16057</v>
+        <v>16139</v>
       </c>
       <c r="R14" s="54">
-        <v>16058</v>
+        <v>16126</v>
       </c>
       <c r="S14" s="54">
         <f>R14-Q14</f>
-        <v>1</v>
+        <v>-13</v>
       </c>
       <c r="T14" s="54">
         <f>R14-P14</f>
-        <v>131</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:25" s="7" customFormat="1" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3781,18 +3781,18 @@
         <v>123</v>
       </c>
       <c r="Q15" s="58">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="R15" s="58">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="S15" s="54">
         <f t="shared" ref="S15" si="0">R15-Q15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" s="54">
         <f t="shared" ref="T15" si="1">R15-P15</f>
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:25" s="7" customFormat="1" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3845,18 +3845,18 @@
         <v>33990</v>
       </c>
       <c r="Q16" s="55">
-        <v>34468</v>
+        <v>34712</v>
       </c>
       <c r="R16" s="55">
-        <v>34516</v>
+        <v>34801</v>
       </c>
       <c r="S16" s="54">
         <f>R16-Q16</f>
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="T16" s="54">
         <f>R16-P16</f>
-        <v>526</v>
+        <v>811</v>
       </c>
       <c r="V16" s="7">
         <v>1</v>
@@ -3912,18 +3912,18 @@
         <v>6186</v>
       </c>
       <c r="Q17" s="54">
-        <v>6294</v>
+        <v>6321</v>
       </c>
       <c r="R17" s="54">
-        <v>6288</v>
+        <v>6319</v>
       </c>
       <c r="S17" s="54">
         <f>R17-Q17</f>
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="T17" s="54">
         <f>R17-P17</f>
-        <v>102</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -3991,19 +3991,19 @@
       </c>
       <c r="Q18" s="18">
         <f t="shared" si="3"/>
-        <v>106987</v>
+        <v>107771</v>
       </c>
       <c r="R18" s="18">
         <f t="shared" si="3"/>
-        <v>107086</v>
+        <v>107862</v>
       </c>
       <c r="S18" s="18">
         <f t="shared" si="3"/>
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="T18" s="18">
         <f t="shared" si="3"/>
-        <v>1411</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="9" customHeight="1" x14ac:dyDescent="0.25">
@@ -8936,7 +8936,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9143,10 +9143,18 @@
       <c r="H10" s="29">
         <v>4022</v>
       </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
+      <c r="I10" s="29">
+        <v>4029</v>
+      </c>
+      <c r="J10" s="29">
+        <v>4034</v>
+      </c>
+      <c r="K10" s="29">
+        <v>4065</v>
+      </c>
+      <c r="L10" s="29">
+        <v>4064</v>
+      </c>
       <c r="M10" s="29"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -9174,10 +9182,18 @@
       <c r="H11" s="29">
         <v>32120</v>
       </c>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
+      <c r="I11" s="29">
+        <v>32106</v>
+      </c>
+      <c r="J11" s="29">
+        <v>32148</v>
+      </c>
+      <c r="K11" s="29">
+        <v>32254</v>
+      </c>
+      <c r="L11" s="29">
+        <v>32255</v>
+      </c>
       <c r="M11" s="29"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -9205,10 +9221,18 @@
       <c r="H12" s="29">
         <v>13753</v>
       </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
+      <c r="I12" s="29">
+        <v>13835</v>
+      </c>
+      <c r="J12" s="29">
+        <v>13884</v>
+      </c>
+      <c r="K12" s="29">
+        <v>13945</v>
+      </c>
+      <c r="L12" s="29">
+        <v>13964</v>
+      </c>
       <c r="M12" s="29"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -9236,10 +9260,18 @@
       <c r="H13" s="29">
         <v>208</v>
       </c>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
+      <c r="I13" s="29">
+        <v>208</v>
+      </c>
+      <c r="J13" s="29">
+        <v>212</v>
+      </c>
+      <c r="K13" s="29">
+        <v>213</v>
+      </c>
+      <c r="L13" s="29">
+        <v>210</v>
+      </c>
       <c r="M13" s="29"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -9267,10 +9299,18 @@
       <c r="H14" s="29">
         <v>16058</v>
       </c>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
+      <c r="I14" s="29">
+        <v>16089</v>
+      </c>
+      <c r="J14" s="29">
+        <v>16121</v>
+      </c>
+      <c r="K14" s="29">
+        <v>16139</v>
+      </c>
+      <c r="L14" s="29">
+        <v>16126</v>
+      </c>
       <c r="M14" s="29"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -9298,10 +9338,18 @@
       <c r="H15" s="29">
         <v>121</v>
       </c>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
+      <c r="I15" s="29">
+        <v>122</v>
+      </c>
+      <c r="J15" s="29">
+        <v>122</v>
+      </c>
+      <c r="K15" s="29">
+        <v>122</v>
+      </c>
+      <c r="L15" s="29">
+        <v>123</v>
+      </c>
       <c r="M15" s="29"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -9329,10 +9377,18 @@
       <c r="H16" s="29">
         <v>34516</v>
       </c>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
+      <c r="I16" s="29">
+        <v>34546</v>
+      </c>
+      <c r="J16" s="29">
+        <v>34625</v>
+      </c>
+      <c r="K16" s="29">
+        <v>34712</v>
+      </c>
+      <c r="L16" s="29">
+        <v>34801</v>
+      </c>
       <c r="M16" s="29"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -9360,10 +9416,18 @@
       <c r="H17" s="29">
         <v>6288</v>
       </c>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
+      <c r="I17" s="29">
+        <v>6302</v>
+      </c>
+      <c r="J17" s="29">
+        <v>6286</v>
+      </c>
+      <c r="K17" s="29">
+        <v>6321</v>
+      </c>
+      <c r="L17" s="29">
+        <v>6319</v>
+      </c>
       <c r="M17" s="29"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -9400,19 +9464,19 @@
       </c>
       <c r="I18" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>107237</v>
       </c>
       <c r="J18" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>107432</v>
       </c>
       <c r="K18" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>107771</v>
       </c>
       <c r="L18" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>107862</v>
       </c>
       <c r="M18" s="18">
         <f t="shared" si="0"/>
@@ -9453,23 +9517,23 @@
       </c>
       <c r="I19" s="52">
         <f>(I18/H18-1)*100</f>
+        <v>0.14100816166444652</v>
+      </c>
+      <c r="J19" s="52">
+        <f>(J18/I18-1)*100</f>
+        <v>0.18184022305733905</v>
+      </c>
+      <c r="K19" s="52">
+        <f>(K18/J18-1)*100</f>
+        <v>0.31554843994341386</v>
+      </c>
+      <c r="L19" s="52">
+        <f>(L18/K18-1)*100</f>
+        <v>8.4438299728128996E-2</v>
+      </c>
+      <c r="M19" s="52">
+        <f>(M18/L18-1)*100</f>
         <v>-100</v>
-      </c>
-      <c r="J19" s="52" t="e">
-        <f>(J18/I18-1)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K19" s="52" t="e">
-        <f>(K18/J18-1)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L19" s="52" t="e">
-        <f>(L18/K18-1)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M19" s="52" t="e">
-        <f>(M18/L18-1)*100</f>
-        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">

--- a/Tabulados/Patrones.xlsx
+++ b/Tabulados/Patrones.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Tabulados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE01150-B562-4199-9E4B-760359ED8DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D86BDCB-13E5-4CA1-8EE1-D2A890C3AF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="848" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -220,10 +220,10 @@
     <t>Por división económica 2008 - 2023</t>
   </si>
   <si>
-    <t>Var Nov 2023 respecto a Oct 2022</t>
+    <t>Var Dic 2023 respecto a Nov 2022</t>
   </si>
   <si>
-    <t>Var Nov 2023 respecto a Dic 2022</t>
+    <t>Var Dic 2023 respecto a Dic 2022</t>
   </si>
 </sst>
 </file>
@@ -3083,7 +3083,7 @@
   <dimension ref="A1:Y23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10:R17"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3403,10 +3403,10 @@
         <v>13</v>
       </c>
       <c r="Q9" s="53" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R9" s="53" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="S9" s="67"/>
       <c r="T9" s="67"/>
@@ -3461,10 +3461,10 @@
         <v>3956</v>
       </c>
       <c r="Q10" s="54">
-        <v>4065</v>
+        <v>4064</v>
       </c>
       <c r="R10" s="54">
-        <v>4064</v>
+        <v>4063</v>
       </c>
       <c r="S10" s="54">
         <f>R10-Q10</f>
@@ -3472,7 +3472,7 @@
       </c>
       <c r="T10" s="54">
         <f>R10-P10</f>
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:25" s="7" customFormat="1" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3525,18 +3525,18 @@
         <v>31947</v>
       </c>
       <c r="Q11" s="58">
-        <v>32254</v>
+        <v>32255</v>
       </c>
       <c r="R11" s="58">
-        <v>32255</v>
+        <v>32204</v>
       </c>
       <c r="S11" s="54">
         <f>R11-Q11</f>
-        <v>1</v>
+        <v>-51</v>
       </c>
       <c r="T11" s="54">
         <f>R11-P11</f>
-        <v>308</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:25" s="7" customFormat="1" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3589,18 +3589,18 @@
         <v>13340</v>
       </c>
       <c r="Q12" s="55">
-        <v>13945</v>
+        <v>13964</v>
       </c>
       <c r="R12" s="55">
-        <v>13964</v>
+        <v>13815</v>
       </c>
       <c r="S12" s="54">
         <f>R12-Q12</f>
-        <v>19</v>
+        <v>-149</v>
       </c>
       <c r="T12" s="54">
         <f>R12-P12</f>
-        <v>624</v>
+        <v>475</v>
       </c>
     </row>
     <row r="13" spans="1:25" s="7" customFormat="1" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3653,18 +3653,18 @@
         <v>206</v>
       </c>
       <c r="Q13" s="54">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="R13" s="54">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="S13" s="54">
         <f>R13-Q13</f>
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="T13" s="54">
         <f>R13-P13</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:25" s="7" customFormat="1" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3717,18 +3717,18 @@
         <v>15927</v>
       </c>
       <c r="Q14" s="54">
-        <v>16139</v>
+        <v>16126</v>
       </c>
       <c r="R14" s="54">
-        <v>16126</v>
+        <v>16100</v>
       </c>
       <c r="S14" s="54">
         <f>R14-Q14</f>
-        <v>-13</v>
+        <v>-26</v>
       </c>
       <c r="T14" s="54">
         <f>R14-P14</f>
-        <v>199</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:25" s="7" customFormat="1" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3781,18 +3781,18 @@
         <v>123</v>
       </c>
       <c r="Q15" s="58">
+        <v>123</v>
+      </c>
+      <c r="R15" s="58">
         <v>122</v>
-      </c>
-      <c r="R15" s="58">
-        <v>123</v>
       </c>
       <c r="S15" s="54">
         <f t="shared" ref="S15" si="0">R15-Q15</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T15" s="54">
         <f t="shared" ref="T15" si="1">R15-P15</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:25" s="7" customFormat="1" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3845,18 +3845,18 @@
         <v>33990</v>
       </c>
       <c r="Q16" s="55">
-        <v>34712</v>
+        <v>34801</v>
       </c>
       <c r="R16" s="55">
-        <v>34801</v>
+        <v>34689</v>
       </c>
       <c r="S16" s="54">
         <f>R16-Q16</f>
-        <v>89</v>
+        <v>-112</v>
       </c>
       <c r="T16" s="54">
         <f>R16-P16</f>
-        <v>811</v>
+        <v>699</v>
       </c>
       <c r="V16" s="7">
         <v>1</v>
@@ -3912,18 +3912,18 @@
         <v>6186</v>
       </c>
       <c r="Q17" s="54">
+        <v>6319</v>
+      </c>
+      <c r="R17" s="54">
         <v>6321</v>
-      </c>
-      <c r="R17" s="54">
-        <v>6319</v>
       </c>
       <c r="S17" s="54">
         <f>R17-Q17</f>
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="T17" s="54">
         <f>R17-P17</f>
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -3991,19 +3991,19 @@
       </c>
       <c r="Q18" s="18">
         <f t="shared" si="3"/>
-        <v>107771</v>
+        <v>107862</v>
       </c>
       <c r="R18" s="18">
-        <f t="shared" si="3"/>
-        <v>107862</v>
+        <f>SUM(R10:R17)</f>
+        <v>107522</v>
       </c>
       <c r="S18" s="18">
         <f t="shared" si="3"/>
-        <v>91</v>
+        <v>-340</v>
       </c>
       <c r="T18" s="18">
         <f t="shared" si="3"/>
-        <v>2187</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="9" customHeight="1" x14ac:dyDescent="0.25">
@@ -8936,7 +8936,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9155,7 +9155,9 @@
       <c r="L10" s="29">
         <v>4064</v>
       </c>
-      <c r="M10" s="29"/>
+      <c r="M10" s="29">
+        <v>4063</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
@@ -9194,7 +9196,9 @@
       <c r="L11" s="29">
         <v>32255</v>
       </c>
-      <c r="M11" s="29"/>
+      <c r="M11" s="29">
+        <v>32204</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
@@ -9233,7 +9237,9 @@
       <c r="L12" s="29">
         <v>13964</v>
       </c>
-      <c r="M12" s="29"/>
+      <c r="M12" s="29">
+        <v>13815</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
@@ -9272,7 +9278,9 @@
       <c r="L13" s="29">
         <v>210</v>
       </c>
-      <c r="M13" s="29"/>
+      <c r="M13" s="29">
+        <v>208</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
@@ -9311,7 +9319,9 @@
       <c r="L14" s="29">
         <v>16126</v>
       </c>
-      <c r="M14" s="29"/>
+      <c r="M14" s="29">
+        <v>16100</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
@@ -9350,7 +9360,9 @@
       <c r="L15" s="29">
         <v>123</v>
       </c>
-      <c r="M15" s="29"/>
+      <c r="M15" s="29">
+        <v>122</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
@@ -9389,7 +9401,9 @@
       <c r="L16" s="29">
         <v>34801</v>
       </c>
-      <c r="M16" s="29"/>
+      <c r="M16" s="29">
+        <v>34689</v>
+      </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
@@ -9428,7 +9442,9 @@
       <c r="L17" s="29">
         <v>6319</v>
       </c>
-      <c r="M17" s="29"/>
+      <c r="M17" s="29">
+        <v>6321</v>
+      </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
@@ -9480,7 +9496,7 @@
       </c>
       <c r="M18" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>107522</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -9533,7 +9549,7 @@
       </c>
       <c r="M19" s="52">
         <f>(M18/L18-1)*100</f>
-        <v>-100</v>
+        <v>-0.31521759285012552</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">

--- a/Tabulados/Patrones.xlsx
+++ b/Tabulados/Patrones.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Tabulados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D86BDCB-13E5-4CA1-8EE1-D2A890C3AF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE9296D-A803-4D32-96E9-4D4D22079B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="848" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Resumen Gral 08-21" sheetId="1" r:id="rId1"/>
+    <sheet name="Resumen Gral 08-24" sheetId="1" r:id="rId1"/>
     <sheet name="2008" sheetId="15" r:id="rId2"/>
     <sheet name="2009" sheetId="16" r:id="rId3"/>
     <sheet name="2010" sheetId="18" r:id="rId4"/>
@@ -30,6 +30,7 @@
     <sheet name="2021" sheetId="29" r:id="rId15"/>
     <sheet name="2022" sheetId="30" r:id="rId16"/>
     <sheet name="2023" sheetId="31" r:id="rId17"/>
+    <sheet name="2024" sheetId="32" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName name="rowNest1" localSheetId="9">'2016'!#REF!</definedName>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="35">
   <si>
     <t>Agricultura, Ganadería, Silvicultura y Pesca</t>
   </si>
@@ -214,16 +215,16 @@
     <t xml:space="preserve">Por división económica </t>
   </si>
   <si>
-    <t>2008-2023</t>
+    <t>2008-2024</t>
   </si>
   <si>
-    <t>Por división económica 2008 - 2023</t>
+    <t>Por división económica 2008 - 2024</t>
   </si>
   <si>
-    <t>Var Dic 2023 respecto a Nov 2022</t>
+    <t>Var Feb 2024 respecto a Ene 2024</t>
   </si>
   <si>
-    <t>Var Dic 2023 respecto a Dic 2022</t>
+    <t>Var Feb 2024 respecto a Dic 2023</t>
   </si>
 </sst>
 </file>
@@ -1130,7 +1131,7 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1274,11 +1275,17 @@
     <xf numFmtId="0" fontId="16" fillId="38" borderId="1" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="1" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="44" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -1315,6 +1322,12 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="36" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="1" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="237">
@@ -2793,6 +2806,159 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="2 Imagen" descr="http://189.202.239.32/cognos/ppwb/Icon/blank.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28046651-1FAD-497D-8E6E-5E8E2795B976}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10759440" y="1874520"/>
+          <a:ext cx="76200" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="3 Imagen" descr="http://189.202.239.32/cognos/ppwb/Icon/blank.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A00AB4B-C8AD-443F-93C0-38DAC8FE87B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10759440" y="1874520"/>
+          <a:ext cx="76200" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -3080,110 +3246,112 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y23"/>
+  <dimension ref="A1:Z23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="U31" sqref="U31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.6640625" style="8" customWidth="1"/>
-    <col min="2" max="18" width="6.6640625" style="8" customWidth="1"/>
-    <col min="19" max="19" width="10.33203125" style="8" customWidth="1"/>
-    <col min="20" max="20" width="10.21875" style="8" customWidth="1"/>
-    <col min="21" max="25" width="11.33203125" style="8" customWidth="1"/>
-    <col min="26" max="16384" width="9.88671875" style="8"/>
+    <col min="2" max="19" width="6.6640625" style="8" customWidth="1"/>
+    <col min="20" max="21" width="10.33203125" style="8" customWidth="1"/>
+    <col min="22" max="26" width="11.33203125" style="8" customWidth="1"/>
+    <col min="27" max="16384" width="9.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:26" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="20"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="59"/>
       <c r="V1" s="20"/>
       <c r="W1" s="20"/>
       <c r="X1" s="20"/>
       <c r="Y1" s="20"/>
-    </row>
-    <row r="2" spans="1:25" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="Z1" s="20"/>
+    </row>
+    <row r="2" spans="1:26" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="22"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="33"/>
       <c r="V2" s="22"/>
       <c r="W2" s="22"/>
       <c r="X2" s="22"/>
       <c r="Y2" s="22"/>
-    </row>
-    <row r="3" spans="1:25" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="61" t="s">
+      <c r="Z2" s="22"/>
+    </row>
+    <row r="3" spans="1:26" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
-      <c r="U3" s="22"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="33"/>
       <c r="V3" s="22"/>
       <c r="W3" s="22"/>
       <c r="X3" s="22"/>
       <c r="Y3" s="22"/>
-    </row>
-    <row r="4" spans="1:25" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z3" s="22"/>
+    </row>
+    <row r="4" spans="1:26" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
       <c r="B4" s="24"/>
       <c r="C4" s="24"/>
@@ -3204,13 +3372,14 @@
       <c r="R4" s="24"/>
       <c r="S4" s="24"/>
       <c r="T4" s="24"/>
-      <c r="U4" s="8"/>
+      <c r="U4" s="24"/>
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
       <c r="X4" s="8"/>
       <c r="Y4" s="8"/>
-    </row>
-    <row r="5" spans="1:25" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z4" s="8"/>
+    </row>
+    <row r="5" spans="1:26" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24"/>
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
@@ -3231,72 +3400,75 @@
       <c r="R5" s="24"/>
       <c r="S5" s="24"/>
       <c r="T5" s="24"/>
-      <c r="U5" s="8"/>
+      <c r="U5" s="24"/>
       <c r="V5" s="8"/>
       <c r="W5" s="8"/>
       <c r="X5" s="8"/>
       <c r="Y5" s="8"/>
-    </row>
-    <row r="6" spans="1:25" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="64" t="s">
+      <c r="Z5" s="8"/>
+    </row>
+    <row r="6" spans="1:26" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="64"/>
-      <c r="S6" s="64"/>
-      <c r="T6" s="64"/>
-      <c r="U6" s="8"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="66"/>
+      <c r="U6" s="60"/>
       <c r="V6" s="8"/>
       <c r="W6" s="8"/>
       <c r="X6" s="8"/>
       <c r="Y6" s="8"/>
-    </row>
-    <row r="7" spans="1:25" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="65" t="s">
+      <c r="Z6" s="8"/>
+    </row>
+    <row r="7" spans="1:26" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="65"/>
-      <c r="O7" s="65"/>
-      <c r="P7" s="65"/>
-      <c r="Q7" s="65"/>
-      <c r="R7" s="65"/>
-      <c r="S7" s="65"/>
-      <c r="T7" s="65"/>
-      <c r="U7" s="8"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="67"/>
+      <c r="N7" s="67"/>
+      <c r="O7" s="67"/>
+      <c r="P7" s="67"/>
+      <c r="Q7" s="67"/>
+      <c r="R7" s="67"/>
+      <c r="S7" s="67"/>
+      <c r="T7" s="67"/>
+      <c r="U7" s="73"/>
       <c r="V7" s="8"/>
       <c r="W7" s="8"/>
       <c r="X7" s="8"/>
       <c r="Y7" s="8"/>
-    </row>
-    <row r="8" spans="1:25" s="7" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="62" t="s">
+      <c r="Z7" s="8"/>
+    </row>
+    <row r="8" spans="1:26" s="7" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="64" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="51">
@@ -3344,19 +3516,22 @@
       <c r="P8" s="56">
         <v>2022</v>
       </c>
-      <c r="Q8" s="57">
+      <c r="Q8" s="56">
         <v>2023</v>
       </c>
-      <c r="R8" s="57"/>
-      <c r="S8" s="66" t="s">
+      <c r="R8" s="74">
+        <v>2024</v>
+      </c>
+      <c r="S8" s="74"/>
+      <c r="T8" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="T8" s="66" t="s">
+      <c r="U8" s="68" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:25" s="7" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="63"/>
+    <row r="9" spans="1:26" s="7" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="65"/>
       <c r="B9" s="36" t="s">
         <v>13</v>
       </c>
@@ -3403,15 +3578,18 @@
         <v>13</v>
       </c>
       <c r="Q9" s="53" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="R9" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="S9" s="67"/>
-      <c r="T9" s="67"/>
-    </row>
-    <row r="10" spans="1:25" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="S9" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="T9" s="69"/>
+      <c r="U9" s="69"/>
+    </row>
+    <row r="10" spans="1:26" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
         <v>0</v>
       </c>
@@ -3461,21 +3639,24 @@
         <v>3956</v>
       </c>
       <c r="Q10" s="54">
-        <v>4064</v>
+        <v>4063</v>
       </c>
       <c r="R10" s="54">
-        <v>4063</v>
+        <v>4045</v>
       </c>
       <c r="S10" s="54">
-        <f>R10-Q10</f>
-        <v>-1</v>
+        <v>4033</v>
       </c>
       <c r="T10" s="54">
-        <f>R10-P10</f>
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" s="7" customFormat="1" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
+        <f>S10-R10</f>
+        <v>-12</v>
+      </c>
+      <c r="U10" s="54">
+        <f>S10-Q10</f>
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" s="7" customFormat="1" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
         <v>5</v>
       </c>
@@ -3518,28 +3699,31 @@
       <c r="N11" s="29">
         <v>30178</v>
       </c>
-      <c r="O11" s="58">
+      <c r="O11" s="57">
         <v>31572</v>
       </c>
-      <c r="P11" s="58">
+      <c r="P11" s="57">
         <v>31947</v>
       </c>
-      <c r="Q11" s="58">
-        <v>32255</v>
-      </c>
-      <c r="R11" s="58">
+      <c r="Q11" s="57">
         <v>32204</v>
       </c>
-      <c r="S11" s="54">
-        <f>R11-Q11</f>
-        <v>-51</v>
+      <c r="R11" s="57">
+        <v>32081</v>
+      </c>
+      <c r="S11" s="57">
+        <v>32050</v>
       </c>
       <c r="T11" s="54">
-        <f>R11-P11</f>
-        <v>257</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" s="7" customFormat="1" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="T11:T17" si="0">S11-R11</f>
+        <v>-31</v>
+      </c>
+      <c r="U11" s="54">
+        <f t="shared" ref="U11:U17" si="1">S11-Q11</f>
+        <v>-154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" s="7" customFormat="1" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="39" t="s">
         <v>3</v>
       </c>
@@ -3589,21 +3773,24 @@
         <v>13340</v>
       </c>
       <c r="Q12" s="55">
-        <v>13964</v>
+        <v>13815</v>
       </c>
       <c r="R12" s="55">
-        <v>13815</v>
-      </c>
-      <c r="S12" s="54">
-        <f>R12-Q12</f>
-        <v>-149</v>
+        <v>13749</v>
+      </c>
+      <c r="S12" s="55">
+        <v>13836</v>
       </c>
       <c r="T12" s="54">
-        <f>R12-P12</f>
-        <v>475</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" s="7" customFormat="1" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="U12" s="54">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" s="7" customFormat="1" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="39" t="s">
         <v>4</v>
       </c>
@@ -3653,21 +3840,24 @@
         <v>206</v>
       </c>
       <c r="Q13" s="54">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="R13" s="54">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="S13" s="54">
-        <f>R13-Q13</f>
+        <v>206</v>
+      </c>
+      <c r="T13" s="54">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="U13" s="54">
+        <f>S13-Q13</f>
         <v>-2</v>
       </c>
-      <c r="T13" s="54">
-        <f>R13-P13</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" s="7" customFormat="1" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:26" s="7" customFormat="1" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="39" t="s">
         <v>2</v>
       </c>
@@ -3717,21 +3907,24 @@
         <v>15927</v>
       </c>
       <c r="Q14" s="54">
-        <v>16126</v>
+        <v>16100</v>
       </c>
       <c r="R14" s="54">
-        <v>16100</v>
+        <v>16050</v>
       </c>
       <c r="S14" s="54">
-        <f>R14-Q14</f>
-        <v>-26</v>
+        <v>16068</v>
       </c>
       <c r="T14" s="54">
-        <f>R14-P14</f>
-        <v>173</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" s="7" customFormat="1" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="U14" s="54">
+        <f t="shared" si="1"/>
+        <v>-32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" s="7" customFormat="1" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="42" t="s">
         <v>1</v>
       </c>
@@ -3774,28 +3967,31 @@
       <c r="N15" s="38">
         <v>127</v>
       </c>
-      <c r="O15" s="58">
+      <c r="O15" s="57">
         <v>130</v>
       </c>
-      <c r="P15" s="58">
+      <c r="P15" s="57">
         <v>123</v>
       </c>
-      <c r="Q15" s="58">
+      <c r="Q15" s="57">
+        <v>122</v>
+      </c>
+      <c r="R15" s="57">
+        <v>122</v>
+      </c>
+      <c r="S15" s="57">
         <v>123</v>
       </c>
-      <c r="R15" s="58">
-        <v>122</v>
-      </c>
-      <c r="S15" s="54">
-        <f t="shared" ref="S15" si="0">R15-Q15</f>
-        <v>-1</v>
-      </c>
       <c r="T15" s="54">
-        <f t="shared" ref="T15" si="1">R15-P15</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" s="7" customFormat="1" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U15" s="54">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" s="7" customFormat="1" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="45" t="s">
         <v>7</v>
       </c>
@@ -3845,24 +4041,27 @@
         <v>33990</v>
       </c>
       <c r="Q16" s="55">
-        <v>34801</v>
+        <v>34689</v>
       </c>
       <c r="R16" s="55">
-        <v>34689</v>
-      </c>
-      <c r="S16" s="54">
-        <f>R16-Q16</f>
-        <v>-112</v>
+        <v>34645</v>
+      </c>
+      <c r="S16" s="55">
+        <v>34713</v>
       </c>
       <c r="T16" s="54">
-        <f>R16-P16</f>
-        <v>699</v>
-      </c>
-      <c r="V16" s="7">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="U16" s="54">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="W16" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:20" s="7" customFormat="1" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" s="7" customFormat="1" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="39" t="s">
         <v>6</v>
       </c>
@@ -3912,21 +4111,24 @@
         <v>6186</v>
       </c>
       <c r="Q17" s="54">
-        <v>6319</v>
+        <v>6321</v>
       </c>
       <c r="R17" s="54">
-        <v>6321</v>
+        <v>6318</v>
       </c>
       <c r="S17" s="54">
-        <f>R17-Q17</f>
-        <v>2</v>
+        <v>6313</v>
       </c>
       <c r="T17" s="54">
-        <f>R17-P17</f>
-        <v>135</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="U17" s="54">
+        <f t="shared" si="1"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
         <v>11</v>
       </c>
@@ -3991,22 +4193,26 @@
       </c>
       <c r="Q18" s="18">
         <f t="shared" si="3"/>
-        <v>107862</v>
+        <v>107522</v>
       </c>
       <c r="R18" s="18">
         <f>SUM(R10:R17)</f>
-        <v>107522</v>
+        <v>107219</v>
       </c>
       <c r="S18" s="18">
-        <f t="shared" si="3"/>
-        <v>-340</v>
+        <f>SUM(S10:S17)</f>
+        <v>107342</v>
       </c>
       <c r="T18" s="18">
         <f t="shared" si="3"/>
-        <v>1847</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="U18" s="18">
+        <f>SUM(U10:U17)</f>
+        <v>-180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -4026,32 +4232,34 @@
       <c r="R19" s="25"/>
       <c r="S19" s="25"/>
       <c r="T19" s="25"/>
-    </row>
-    <row r="20" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="59" t="s">
+      <c r="U19" s="25"/>
+    </row>
+    <row r="20" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="59"/>
-      <c r="S20" s="59"/>
-      <c r="T20" s="59"/>
-    </row>
-    <row r="21" spans="1:20" s="26" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="61"/>
+      <c r="P20" s="61"/>
+      <c r="Q20" s="61"/>
+      <c r="R20" s="61"/>
+      <c r="S20" s="61"/>
+      <c r="T20" s="61"/>
+      <c r="U20" s="58"/>
+    </row>
+    <row r="21" spans="1:21" s="26" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -4072,8 +4280,9 @@
       <c r="R21" s="16"/>
       <c r="S21" s="16"/>
       <c r="T21" s="16"/>
-    </row>
-    <row r="22" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U21" s="16"/>
+    </row>
+    <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>28</v>
       </c>
@@ -4084,10 +4293,13 @@
       <c r="R22" s="25"/>
       <c r="S22" s="25"/>
       <c r="T22" s="25"/>
-    </row>
-    <row r="23" spans="1:20" s="27" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="U22" s="25"/>
+    </row>
+    <row r="23" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="R8:S8"/>
     <mergeCell ref="A20:T20"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:T2"/>
@@ -4096,7 +4308,6 @@
     <mergeCell ref="A6:T6"/>
     <mergeCell ref="A7:T7"/>
     <mergeCell ref="T8:T9"/>
-    <mergeCell ref="S8:S9"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -4124,55 +4335,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="61">
+      <c r="A3" s="63">
         <v>2016</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="33"/>
@@ -4205,60 +4416,60 @@
       <c r="M5" s="33"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="68">
+      <c r="B8" s="70">
         <v>2016</v>
       </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="68"/>
+      <c r="A9" s="70"/>
       <c r="B9" s="34" t="s">
         <v>14</v>
       </c>
@@ -4731,21 +4942,21 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
@@ -4810,55 +5021,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="61">
+      <c r="A3" s="63">
         <v>2017</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="33"/>
@@ -4891,60 +5102,60 @@
       <c r="M5" s="33"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="68">
+      <c r="B8" s="70">
         <v>2017</v>
       </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="68"/>
+      <c r="A9" s="70"/>
       <c r="B9" s="34" t="s">
         <v>14</v>
       </c>
@@ -5417,21 +5628,21 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
@@ -5496,55 +5707,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="61">
+      <c r="A3" s="63">
         <v>2018</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="33"/>
@@ -5577,60 +5788,60 @@
       <c r="M5" s="33"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="68">
+      <c r="B8" s="70">
         <v>2018</v>
       </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="68"/>
+      <c r="A9" s="70"/>
       <c r="B9" s="34" t="s">
         <v>14</v>
       </c>
@@ -6103,21 +6314,21 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
@@ -6182,55 +6393,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="61">
+      <c r="A3" s="63">
         <v>2019</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="33"/>
@@ -6263,60 +6474,60 @@
       <c r="M5" s="33"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="68">
+      <c r="B8" s="70">
         <v>2019</v>
       </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="68"/>
+      <c r="A9" s="70"/>
       <c r="B9" s="34" t="s">
         <v>14</v>
       </c>
@@ -6789,21 +7000,21 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
@@ -6871,55 +7082,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="61">
+      <c r="A3" s="63">
         <v>2020</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="33"/>
@@ -6952,60 +7163,60 @@
       <c r="M5" s="33"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="68">
+      <c r="B8" s="70">
         <v>2020</v>
       </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="68"/>
+      <c r="A9" s="70"/>
       <c r="B9" s="34" t="s">
         <v>14</v>
       </c>
@@ -7480,21 +7691,21 @@
       <c r="I20" s="49"/>
     </row>
     <row r="21" spans="1:13" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
@@ -7562,55 +7773,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="61">
+      <c r="A3" s="63">
         <v>2021</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="33"/>
@@ -7643,60 +7854,60 @@
       <c r="M5" s="33"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="68">
+      <c r="B8" s="70">
         <v>2021</v>
       </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="68"/>
+      <c r="A9" s="70"/>
       <c r="B9" s="34" t="s">
         <v>14</v>
       </c>
@@ -8172,21 +8383,21 @@
       <c r="I20" s="49"/>
     </row>
     <row r="21" spans="1:13" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
@@ -8254,55 +8465,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="61">
+      <c r="A3" s="63">
         <v>2022</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="33"/>
@@ -8335,60 +8546,60 @@
       <c r="M5" s="33"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="68">
+      <c r="B8" s="70">
         <v>2022</v>
       </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="68"/>
+      <c r="A9" s="70"/>
       <c r="B9" s="34" t="s">
         <v>14</v>
       </c>
@@ -8864,21 +9075,21 @@
       <c r="I20" s="49"/>
     </row>
     <row r="21" spans="1:13" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
@@ -8946,55 +9157,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="61">
+      <c r="A3" s="63">
         <v>2023</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="33"/>
@@ -9027,60 +9238,60 @@
       <c r="M5" s="33"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="68">
+      <c r="B8" s="70">
         <v>2023</v>
       </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="68"/>
+      <c r="A9" s="70"/>
       <c r="B9" s="34" t="s">
         <v>14</v>
       </c>
@@ -9556,21 +9767,553 @@
       <c r="I20" s="49"/>
     </row>
     <row r="21" spans="1:13" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="16"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C25" s="47"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A21:M21"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="A6:M6"/>
+    <mergeCell ref="A7:M7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:M8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C7BC04-ABDC-4238-894D-4C30FBDB27E1}">
+  <dimension ref="A1:M25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.6640625" customWidth="1"/>
+    <col min="2" max="13" width="9.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="63">
+        <v>2024</v>
+      </c>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="70">
+        <v>2024</v>
+      </c>
+      <c r="C8" s="70"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="70"/>
+      <c r="B9" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="29">
+        <v>4045</v>
+      </c>
+      <c r="C10" s="44">
+        <v>4033</v>
+      </c>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="29">
+        <v>32081</v>
+      </c>
+      <c r="C11" s="29">
+        <v>32050</v>
+      </c>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="29">
+        <v>13749</v>
+      </c>
+      <c r="C12" s="29">
+        <v>13836</v>
+      </c>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="29">
+        <v>209</v>
+      </c>
+      <c r="C13" s="37">
+        <v>206</v>
+      </c>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="29">
+        <v>16050</v>
+      </c>
+      <c r="C14" s="44">
+        <v>16068</v>
+      </c>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="29">
+        <v>122</v>
+      </c>
+      <c r="C15" s="29">
+        <v>123</v>
+      </c>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="29">
+        <v>34645</v>
+      </c>
+      <c r="C16" s="29">
+        <v>34713</v>
+      </c>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="29">
+        <v>6318</v>
+      </c>
+      <c r="C17" s="44">
+        <v>6313</v>
+      </c>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="18">
+        <f t="shared" ref="B18:M18" si="0">SUM(B10:B17)</f>
+        <v>107219</v>
+      </c>
+      <c r="C18" s="18">
+        <f t="shared" si="0"/>
+        <v>107342</v>
+      </c>
+      <c r="D18" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="52">
+        <f>(B18/'2023'!M18-1)*100</f>
+        <v>-0.28180279384684148</v>
+      </c>
+      <c r="C19" s="52">
+        <f>(C18/B18-1)*100</f>
+        <v>0.1147184734048956</v>
+      </c>
+      <c r="D19" s="52">
+        <f t="shared" ref="D19:H19" si="1">(D18/C18-1)*100</f>
+        <v>-100</v>
+      </c>
+      <c r="E19" s="52" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F19" s="52" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G19" s="52" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H19" s="52" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I19" s="52" t="e">
+        <f>(I18/H18-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J19" s="52" t="e">
+        <f>(J18/I18-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K19" s="52" t="e">
+        <f>(K18/J18-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L19" s="52" t="e">
+        <f>(L18/K18-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M19" s="52" t="e">
+        <f>(M18/L18-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I20" s="49"/>
+    </row>
+    <row r="21" spans="1:13" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
@@ -9639,21 +10382,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -9661,21 +10404,21 @@
       <c r="R1" s="3"/>
     </row>
     <row r="2" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
@@ -9683,21 +10426,21 @@
       <c r="R2" s="6"/>
     </row>
     <row r="3" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="61">
+      <c r="A3" s="63">
         <v>2008</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
@@ -9745,21 +10488,21 @@
       <c r="R5" s="6"/>
     </row>
     <row r="6" spans="1:18" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -9767,21 +10510,21 @@
       <c r="R6" s="6"/>
     </row>
     <row r="7" spans="1:18" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -9789,26 +10532,26 @@
       <c r="R7" s="6"/>
     </row>
     <row r="8" spans="1:18" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="68">
+      <c r="B8" s="70">
         <v>2008</v>
       </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
     </row>
     <row r="9" spans="1:18" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="68"/>
+      <c r="A9" s="70"/>
       <c r="B9" s="34" t="s">
         <v>14</v>
       </c>
@@ -10281,21 +11024,21 @@
     </row>
     <row r="20" spans="1:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:13" ht="39.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
@@ -10398,61 +11141,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
     </row>
     <row r="2" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
     </row>
     <row r="3" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="61">
+      <c r="A3" s="63">
         <v>2009</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -10494,66 +11237,66 @@
       <c r="P5" s="5"/>
     </row>
     <row r="6" spans="1:16" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
     </row>
     <row r="7" spans="1:16" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
     </row>
     <row r="8" spans="1:16" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="68">
+      <c r="B8" s="70">
         <v>2009</v>
       </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
     </row>
     <row r="9" spans="1:16" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="68"/>
+      <c r="A9" s="70"/>
       <c r="B9" s="34" t="s">
         <v>14</v>
       </c>
@@ -11027,21 +11770,21 @@
     </row>
     <row r="20" spans="1:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
@@ -11144,21 +11887,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -11167,21 +11910,21 @@
       <c r="S1" s="3"/>
     </row>
     <row r="2" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -11190,21 +11933,21 @@
       <c r="S2" s="5"/>
     </row>
     <row r="3" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="61">
+      <c r="A3" s="63">
         <v>2010</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -11255,21 +11998,21 @@
       <c r="S5" s="5"/>
     </row>
     <row r="6" spans="1:19" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
@@ -11278,21 +12021,21 @@
       <c r="S6" s="5"/>
     </row>
     <row r="7" spans="1:19" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
@@ -11301,26 +12044,26 @@
       <c r="S7" s="5"/>
     </row>
     <row r="8" spans="1:19" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="68">
+      <c r="B8" s="70">
         <v>2010</v>
       </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
     </row>
     <row r="9" spans="1:19" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="68"/>
+      <c r="A9" s="70"/>
       <c r="B9" s="34" t="s">
         <v>14</v>
       </c>
@@ -11794,21 +12537,21 @@
     </row>
     <row r="20" spans="1:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
@@ -11924,21 +12667,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -11947,21 +12690,21 @@
       <c r="S1" s="3"/>
     </row>
     <row r="2" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -11970,21 +12713,21 @@
       <c r="S2" s="5"/>
     </row>
     <row r="3" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="61">
+      <c r="A3" s="63">
         <v>2011</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -12035,21 +12778,21 @@
       <c r="S5" s="5"/>
     </row>
     <row r="6" spans="1:19" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
@@ -12058,21 +12801,21 @@
       <c r="S6" s="5"/>
     </row>
     <row r="7" spans="1:19" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
@@ -12081,26 +12824,26 @@
       <c r="S7" s="5"/>
     </row>
     <row r="8" spans="1:19" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="68">
+      <c r="B8" s="70">
         <v>2011</v>
       </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
     </row>
     <row r="9" spans="1:19" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="68"/>
+      <c r="A9" s="70"/>
       <c r="B9" s="34" t="s">
         <v>14</v>
       </c>
@@ -12574,21 +13317,21 @@
     </row>
     <row r="20" spans="1:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
@@ -12703,21 +13446,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -12726,21 +13469,21 @@
       <c r="S1" s="3"/>
     </row>
     <row r="2" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -12749,21 +13492,21 @@
       <c r="S2" s="5"/>
     </row>
     <row r="3" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="61">
+      <c r="A3" s="63">
         <v>2012</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -12814,21 +13557,21 @@
       <c r="S5" s="5"/>
     </row>
     <row r="6" spans="1:19" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
@@ -12837,21 +13580,21 @@
       <c r="S6" s="5"/>
     </row>
     <row r="7" spans="1:19" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
@@ -12860,26 +13603,26 @@
       <c r="S7" s="5"/>
     </row>
     <row r="8" spans="1:19" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="68">
+      <c r="B8" s="70">
         <v>2012</v>
       </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
     </row>
     <row r="9" spans="1:19" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="68"/>
+      <c r="A9" s="70"/>
       <c r="B9" s="34" t="s">
         <v>14</v>
       </c>
@@ -13353,21 +14096,21 @@
     </row>
     <row r="20" spans="1:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
@@ -13482,21 +14225,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -13505,21 +14248,21 @@
       <c r="S1" s="3"/>
     </row>
     <row r="2" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -13528,21 +14271,21 @@
       <c r="S2" s="5"/>
     </row>
     <row r="3" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="61">
+      <c r="A3" s="63">
         <v>2013</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -13593,21 +14336,21 @@
       <c r="S5" s="5"/>
     </row>
     <row r="6" spans="1:19" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
@@ -13616,21 +14359,21 @@
       <c r="S6" s="5"/>
     </row>
     <row r="7" spans="1:19" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
@@ -13639,26 +14382,26 @@
       <c r="S7" s="5"/>
     </row>
     <row r="8" spans="1:19" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="68">
+      <c r="B8" s="70">
         <v>2013</v>
       </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
     </row>
     <row r="9" spans="1:19" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="68"/>
+      <c r="A9" s="70"/>
       <c r="B9" s="34" t="s">
         <v>14</v>
       </c>
@@ -14132,21 +14875,21 @@
     </row>
     <row r="20" spans="1:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
@@ -14261,63 +15004,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="61">
+      <c r="A3" s="63">
         <v>2014</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -14362,68 +15105,68 @@
       <c r="Q5" s="5"/>
     </row>
     <row r="6" spans="1:17" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
     </row>
     <row r="7" spans="1:17" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
     </row>
     <row r="8" spans="1:17" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="68">
+      <c r="B8" s="70">
         <v>2014</v>
       </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
     </row>
     <row r="9" spans="1:17" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="68"/>
+      <c r="A9" s="70"/>
       <c r="B9" s="34" t="s">
         <v>14</v>
       </c>
@@ -14897,21 +15640,21 @@
     </row>
     <row r="20" spans="1:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
@@ -15026,63 +15769,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="61">
+      <c r="A3" s="63">
         <v>2015</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -15127,62 +15870,62 @@
       <c r="Q5" s="5"/>
     </row>
     <row r="6" spans="1:17" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
       <c r="Q6" s="5"/>
     </row>
     <row r="7" spans="1:17" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
       <c r="Q7" s="5"/>
     </row>
     <row r="8" spans="1:17" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="68">
+      <c r="B8" s="70">
         <v>2015</v>
       </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
     </row>
     <row r="9" spans="1:17" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="68"/>
+      <c r="A9" s="70"/>
       <c r="B9" s="34" t="s">
         <v>14</v>
       </c>
@@ -15703,21 +16446,21 @@
     </row>
     <row r="20" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:23" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
